--- a/CleanAFEs.xlsx
+++ b/CleanAFEs.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thushan\Documents\GitHub\OilWellRegressions\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="13395" windowHeight="7500"/>
+    <workbookView xWindow="360" yWindow="132" windowWidth="13392" windowHeight="7500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -39,7 +44,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -79,9 +87,9 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -91,6 +99,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -139,7 +150,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -172,9 +183,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -207,6 +235,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -383,1809 +428,2313 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F86"/>
+  <dimension ref="A1:F111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="E76" sqref="E76"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
         <v>41898</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <f>8800/1.7</f>
         <v>5176.4705882352946</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>1628500</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>3089310.25</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>2787000</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>185700</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
         <v>41731</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>5000</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>3855439</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>6289624</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>4382219</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>6480662</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
         <v>41899</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>4870</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>3119000</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>3944000</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>494000</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>737000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
         <v>41805</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>5000</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>1720896</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>2018924</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>205468</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>569114</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
         <v>41773</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>5000</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>2245350</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>364525</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>2867700</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>364300</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
         <v>41551</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>10230</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>4083214</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>6205200</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>4775000</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>6411700</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
         <v>41647</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>10230</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>3703102</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>4749200</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>598898</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>206500</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
         <v>41530</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>4844.21</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>1819000</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>2439000</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>182300</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>379400</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
         <v>41659</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <f>7100/1.8</f>
         <v>3944.4444444444443</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>1628500</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>2787000</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>1922720</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>2972700</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
         <v>41562</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <f>7100/1.8</f>
         <v>3944.4444444444443</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>1628500</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>2787000</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>294681.25</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>185760</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
         <v>41732</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>5000</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>2245350</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>2867700</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>364525</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <v>364300</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
         <v>41597</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>10230</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <v>4128804</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>4736000</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <v>671196</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
         <v>206500</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
         <v>41823</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <f>8800/1.7</f>
         <v>5176.4705882352946</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>3764847</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>7141624</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <v>546346</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <v>574000</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
         <v>41872</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <f>7100/1.47</f>
         <v>4829.9319727891161</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>1657500</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <v>2787000</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <v>294643.75</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="1">
         <v>185700</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
         <v>41869</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>4400</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <v>3335000</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <v>4187000</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="1">
         <v>484000</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="1">
         <v>720000</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
         <v>41885</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <f>8800/1.7</f>
         <v>5176.4705882352946</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="1">
         <v>3855439</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="1">
         <v>6312624</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="1">
         <v>526780</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="1">
         <v>574038</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
         <v>41722</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>4452</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="1">
         <v>2690000</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="1">
         <v>3103000</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="1">
         <v>502000</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="1">
         <v>778000</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
         <v>41654</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <v>10230</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="1">
         <v>4027789</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="1">
         <f>5992000+213200</f>
         <v>6205200</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="1">
         <v>672211</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="1">
         <f>14000+192500</f>
         <v>206500</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
         <v>41645</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <v>10230</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="1">
         <v>4083214</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="1">
         <f>5992000+213200</f>
         <v>6205200</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="1">
         <v>691788</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="1">
         <f>14000+192500</f>
         <v>206500</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
         <v>41597</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="1">
         <v>10230</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="1">
         <v>4128804</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="1">
         <f>4536000+213200</f>
         <v>4749200</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="1">
         <v>671196</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="1">
         <f>14000+192500</f>
         <v>206500</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
         <v>41782</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="1">
         <v>5200</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="1">
         <v>3835982</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="1">
         <f>7141623+23000</f>
         <v>7164623</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="1">
         <v>536862</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="1">
         <f>375000+193215</f>
         <v>568215</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
         <v>41226</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="1">
         <v>5000</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="1">
         <v>4407024</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="1">
         <v>4662200</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="1">
         <v>1192976</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="1">
         <v>329525</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
         <v>41226</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="1">
         <v>5000</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="1">
         <v>4478394</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="1">
         <f>4746700+50000</f>
         <v>4796700</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="1">
         <v>1121606</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="1">
         <f>315525+14000</f>
         <v>329525</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
         <v>41631</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="2">
         <f>7100/1.47</f>
         <v>4829.9319727891161</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="1">
         <v>1657500</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="1">
         <v>2787000</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="1">
         <v>294544</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="1">
         <v>185700</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
         <v>41583</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="2">
         <f>7100/1.47</f>
         <v>4829.9319727891161</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="1">
         <v>1628500</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="1">
         <v>2787000</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="1">
         <v>294973</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="1">
         <v>185700</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
         <v>41547</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="1">
         <v>5200</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="1">
         <v>1819000</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="1">
         <v>2459000</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="1">
         <v>184100</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="1">
         <v>380600</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
         <v>41226</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="1">
         <v>4600</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="1">
         <v>1302500</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="1">
         <v>2197000</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="1">
         <v>277000</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="1">
         <v>185200</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
         <v>41242</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="1">
         <v>4600</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="1">
         <v>2730000</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="1">
         <f>2894125+75000</f>
         <v>2969125</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="1">
         <v>449000</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="1">
         <v>1324500</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
         <v>41191</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="1">
         <v>4500</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="1">
         <v>1248750</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="1">
         <v>2710500</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="1">
         <v>160150</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="1">
         <v>454775</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
         <v>41254</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="1">
         <v>4500</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="1">
         <v>3349000</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="1">
         <v>2928500</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="1">
         <v>460000</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="1">
         <v>909000</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
         <v>41296</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="1">
         <v>9900</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="1">
         <v>4404697</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="1">
         <f>5009200+55000</f>
         <v>5064200</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="1">
         <v>1045303</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="1">
         <v>254300</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
         <v>41281</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="1">
         <v>11500</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="1">
         <v>1176050</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="1">
         <v>2634050</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="1">
         <v>157200</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="1">
         <v>441250</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
         <v>41400</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="1">
         <v>11900</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="1">
         <v>1169000</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="1">
         <v>2697000</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="1">
         <v>157200</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="1">
         <v>446725</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
         <v>41296</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="1">
         <v>11900</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="1">
         <v>1179450</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="1">
         <v>3032450</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="1">
         <v>157200</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="1">
         <v>446725</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
         <v>41407</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="1">
         <v>11450</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="1">
         <v>1241100</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="1">
         <v>2747100</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="1">
         <v>137580</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36" s="1">
         <v>394467</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
         <v>41407</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="1">
         <v>11900</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="1">
         <v>1169000</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="1">
         <v>2697000</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="1">
         <v>157200</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="1">
         <v>446725</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
         <v>41305</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="1">
         <v>10230</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="1">
         <v>4304697</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="1">
         <f>5284050+55000</f>
         <v>5339050</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="1">
         <v>995303</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38" s="1">
         <v>252400</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
         <v>41813</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="1">
         <v>10230</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="1">
         <v>4027789</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="1">
         <f>5992000+213200</f>
         <v>6205200</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="1">
         <v>672211</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39" s="1">
         <f>14000+192500</f>
         <v>206500</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="3">
         <v>41708</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="1">
         <v>10230</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="1">
         <v>4027789</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="1">
         <f>5992000+213200</f>
         <v>6205200</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="1">
         <v>672211</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F40" s="1">
         <f>14000+192500</f>
         <v>206500</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="3">
         <v>41642</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="1">
         <v>10230</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="1">
         <v>3881404</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="1">
         <v>6309500</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="1">
         <v>686595</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41" s="1">
         <v>222000</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="3">
         <v>41365</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="1">
         <v>10230</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="1">
         <v>4304697</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="1">
         <f>5264050+55000</f>
         <v>5319050</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="1">
         <v>995303</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42" s="1">
         <v>252400</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="3">
         <v>41869</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="1">
         <v>10230</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="1">
         <v>3726832</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43" s="1">
         <f>4536000+213200</f>
         <v>4749200</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="1">
         <v>673168</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43" s="1">
         <f>14000+192500</f>
         <v>206500</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="3">
         <v>41550</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="1">
         <v>5000</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="1">
         <v>2426500</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44" s="1">
         <v>5403904</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44" s="1">
         <v>931500</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F44" s="1">
         <v>652326</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="3">
         <v>41516</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="1">
         <v>4700</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="1">
         <v>1819000</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="1">
         <v>2459000</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="1">
         <v>184100</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45" s="1">
         <v>380600</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="3">
         <v>42104</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="1">
         <v>10230</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46" s="1">
         <v>2429356</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46" s="1">
         <v>4690000</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46" s="1">
         <v>610644</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F46" s="1">
         <v>226000</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="3">
         <v>42107</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47" s="2">
         <f>10037/1.8</f>
         <v>5576.1111111111113</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47" s="1">
         <v>4124366</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47" s="1">
         <v>6440724</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E47" s="1">
         <v>926354</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F47" s="1">
         <f>347600+93661</f>
         <v>441261</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="3">
         <v>42101</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48" s="2">
         <f>7914/1.43</f>
         <v>5534.2657342657349</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48" s="1">
         <v>2790877</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D48" s="1">
         <v>6130261</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E48" s="1">
         <v>509675</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F48" s="1">
         <f>89426+347600</f>
         <v>437026</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="3">
         <v>42095</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49" s="1">
         <v>4623</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49" s="1">
         <v>4141000</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D49" s="1">
         <v>3008500</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E49" s="1">
         <v>544000</v>
       </c>
-      <c r="F49" s="2">
+      <c r="F49" s="1">
         <v>823000</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="3">
         <v>42087</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B50" s="2">
         <v>5200</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50" s="1">
         <v>5097648</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50" s="1">
         <v>6289624</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E50" s="1">
         <v>542309</v>
       </c>
-      <c r="F50" s="2">
+      <c r="F50" s="1">
         <f>194392+375000</f>
         <v>569392</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="3">
         <v>42082</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="1">
         <v>7243</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51" s="1">
         <v>4842000</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D51" s="1">
         <v>5530500</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E51" s="1">
         <v>545000</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F51" s="1">
         <v>898000</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="3">
         <v>42082</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="1">
         <v>10083</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C52" s="1">
         <v>5262000</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52" s="1">
         <v>6178500</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E52" s="1">
         <v>521000</v>
       </c>
-      <c r="F52" s="2">
+      <c r="F52" s="1">
         <v>937000</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="3">
         <v>42091</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53" s="1">
         <v>10083</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C53" s="1">
         <v>5262000</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D53" s="1">
         <v>6178500</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E53" s="1">
         <v>521000</v>
       </c>
-      <c r="F53" s="2">
+      <c r="F53" s="1">
         <v>937000</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="3">
         <v>42033</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54" s="1">
         <v>9730</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C54" s="1">
         <v>3323000</v>
       </c>
-      <c r="D54" s="2">
+      <c r="D54" s="1">
         <v>5768000</v>
       </c>
-      <c r="E54" s="2">
+      <c r="E54" s="1">
         <v>458000</v>
       </c>
-      <c r="F54" s="2">
+      <c r="F54" s="1">
         <v>951420</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="3">
         <v>42108</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55" s="1">
         <v>10230</v>
       </c>
-      <c r="C55" s="2">
+      <c r="C55" s="1">
         <v>2423143</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D55" s="1">
         <f>4690000+131000</f>
         <v>4821000</v>
       </c>
-      <c r="E55" s="2">
+      <c r="E55" s="1">
         <v>605600</v>
       </c>
-      <c r="F55" s="2">
+      <c r="F55" s="1">
         <f>226000+71500</f>
         <v>297500</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="3">
         <v>42108</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56" s="1">
         <v>5900</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C56" s="1">
         <v>3133396</v>
       </c>
-      <c r="D56" s="2">
+      <c r="D56" s="1">
         <v>3696280</v>
       </c>
-      <c r="E56" s="2">
+      <c r="E56" s="1">
         <v>373368</v>
       </c>
-      <c r="F56" s="2">
+      <c r="F56" s="1">
         <f>91142+406700</f>
         <v>497842</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="3">
         <v>42041</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57" s="1">
         <v>10230</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C57" s="1">
         <v>3893304</v>
       </c>
-      <c r="D57" s="2">
+      <c r="D57" s="1">
         <v>6017500</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E57" s="1">
         <v>656696</v>
       </c>
-      <c r="F57" s="2">
+      <c r="F57" s="1">
         <v>202000</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="3">
         <v>42027</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58" s="1">
         <v>10000</v>
       </c>
-      <c r="C58" s="2">
+      <c r="C58" s="1">
         <v>2586009</v>
       </c>
-      <c r="D58" s="2">
+      <c r="D58" s="1">
         <f>4924000+213200</f>
         <v>5137200</v>
       </c>
-      <c r="E58" s="2">
+      <c r="E58" s="1">
         <v>586512</v>
       </c>
-      <c r="F58" s="2">
+      <c r="F58" s="1">
         <f>192500</f>
         <v>192500</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="3">
         <v>41961</v>
       </c>
-      <c r="B59" s="3">
+      <c r="B59" s="2">
         <f>8617/2</f>
         <v>4308.5</v>
       </c>
-      <c r="C59" s="2">
+      <c r="C59" s="1">
         <v>3412073</v>
       </c>
-      <c r="D59" s="2">
+      <c r="D59" s="1">
         <v>6440724</v>
       </c>
-      <c r="E59" s="2">
+      <c r="E59" s="1">
         <v>469918</v>
       </c>
-      <c r="F59" s="2">
+      <c r="F59" s="1">
         <f>87484+347600</f>
         <v>435084</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="3">
         <v>42016</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B60" s="1">
         <v>5000</v>
       </c>
-      <c r="C60" s="2">
+      <c r="C60" s="1">
         <v>2245350</v>
       </c>
-      <c r="D60" s="2">
+      <c r="D60" s="1">
         <v>2467700</v>
       </c>
-      <c r="E60" s="2">
+      <c r="E60" s="1">
         <v>364525</v>
       </c>
-      <c r="F60" s="2">
+      <c r="F60" s="1">
         <v>364300</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="3">
         <v>41828</v>
       </c>
-      <c r="B61" s="3">
+      <c r="B61" s="2">
         <f>8800/2</f>
         <v>4400</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C61" s="1">
         <v>3547809</v>
       </c>
-      <c r="D61" s="2">
+      <c r="D61" s="1">
         <v>7141624</v>
       </c>
-      <c r="E61" s="2">
+      <c r="E61" s="1">
         <v>540278</v>
       </c>
-      <c r="F61" s="2">
+      <c r="F61" s="1">
         <f>193953+375000</f>
         <v>568953</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="3">
         <v>42010</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B62" s="1">
         <f>9100/1.9</f>
         <v>4789.4736842105267</v>
       </c>
-      <c r="C62" s="2">
+      <c r="C62" s="1">
         <v>2733815</v>
       </c>
-      <c r="D62" s="2">
+      <c r="D62" s="1">
         <v>3696280</v>
       </c>
-      <c r="E62" s="2">
+      <c r="E62" s="1">
         <v>379668</v>
       </c>
-      <c r="F62" s="2">
+      <c r="F62" s="1">
         <f>92326+406700</f>
         <v>499026</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="3">
         <v>42010</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B63" s="1">
         <v>10000</v>
       </c>
-      <c r="C63" s="2">
+      <c r="C63" s="1">
         <v>3538200</v>
       </c>
-      <c r="D63" s="2">
+      <c r="D63" s="1">
         <f>6055500+191000</f>
         <v>6246500</v>
       </c>
-      <c r="E63" s="2">
+      <c r="E63" s="1">
         <v>661800</v>
       </c>
-      <c r="F63" s="2">
+      <c r="F63" s="1">
         <v>444000</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="3">
         <v>42009</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B64" s="1">
         <v>10000</v>
       </c>
-      <c r="C64" s="2">
+      <c r="C64" s="1">
         <v>3893304</v>
       </c>
-      <c r="D64" s="2">
+      <c r="D64" s="1">
         <f>6055500+304500</f>
         <v>6360000</v>
       </c>
-      <c r="E64" s="2">
+      <c r="E64" s="1">
         <v>656696</v>
       </c>
-      <c r="F64" s="2">
+      <c r="F64" s="1">
         <v>202000</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="3">
         <v>41968</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B65" s="1">
         <v>9828</v>
       </c>
-      <c r="C65" s="2">
+      <c r="C65" s="1">
         <v>5128000</v>
       </c>
-      <c r="D65" s="2">
+      <c r="D65" s="1">
         <v>6178500</v>
       </c>
-      <c r="E65" s="2">
+      <c r="E65" s="1">
         <v>535000</v>
       </c>
-      <c r="F65" s="2">
+      <c r="F65" s="1">
         <v>904000</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="3">
         <v>41995</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B66" s="1">
         <v>10000</v>
       </c>
-      <c r="C66" s="2">
+      <c r="C66" s="1">
         <v>4032300</v>
       </c>
-      <c r="D66" s="2">
+      <c r="D66" s="1">
         <f>6336000+304500</f>
         <v>6640500</v>
       </c>
-      <c r="E66" s="2">
+      <c r="E66" s="1">
         <v>667700</v>
       </c>
-      <c r="F66" s="2">
+      <c r="F66" s="1">
         <v>202000</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="3">
         <v>42003</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B67" s="1">
         <v>9828</v>
       </c>
-      <c r="C67" s="2">
+      <c r="C67" s="1">
         <v>5128000</v>
       </c>
-      <c r="D67" s="2">
+      <c r="D67" s="1">
         <v>6178500</v>
       </c>
-      <c r="E67" s="2">
+      <c r="E67" s="1">
         <v>535000</v>
       </c>
-      <c r="F67" s="2">
+      <c r="F67" s="1">
         <v>904000</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="3">
         <v>42046</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B68" s="1">
         <v>10000</v>
       </c>
-      <c r="C68" s="2">
+      <c r="C68" s="1">
         <v>3726832</v>
       </c>
-      <c r="D68" s="2">
+      <c r="D68" s="1">
         <f>7035740+124000+72275</f>
         <v>7232015</v>
       </c>
-      <c r="E68" s="2">
+      <c r="E68" s="1">
         <v>673168</v>
       </c>
-      <c r="F68" s="2">
+      <c r="F68" s="1">
         <v>313000</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="3">
         <v>42052</v>
       </c>
-      <c r="B69" s="2">
+      <c r="B69" s="1">
         <f>9100/1.9</f>
         <v>4789.4736842105267</v>
       </c>
-      <c r="C69" s="2">
+      <c r="C69" s="1">
         <v>2034466</v>
       </c>
-      <c r="D69" s="2">
+      <c r="D69" s="1">
         <f>2225000+213200</f>
         <v>2438200</v>
       </c>
-      <c r="E69" s="2">
+      <c r="E69" s="1">
         <v>465534</v>
       </c>
-      <c r="F69" s="2">
+      <c r="F69" s="1">
         <f>15000+192500</f>
         <v>207500</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="3">
         <v>41974</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B70" s="1">
         <f>9100/2</f>
         <v>4550</v>
       </c>
-      <c r="C70" s="2">
+      <c r="C70" s="1">
         <v>3726832</v>
       </c>
-      <c r="D70" s="2">
+      <c r="D70" s="1">
         <f>6055000+213200</f>
         <v>6268200</v>
       </c>
-      <c r="E70" s="2">
+      <c r="E70" s="1">
         <v>673168</v>
       </c>
-      <c r="F70" s="2">
+      <c r="F70" s="1">
         <v>192500</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="3">
         <v>41982</v>
       </c>
-      <c r="B71" s="3">
+      <c r="B71" s="2">
         <f>7100/1.9</f>
         <v>3736.8421052631579</v>
       </c>
-      <c r="C71" s="2">
+      <c r="C71" s="1">
         <v>1643500</v>
       </c>
-      <c r="D71" s="2">
+      <c r="D71" s="1">
         <v>3147000</v>
       </c>
-      <c r="E71" s="2">
+      <c r="E71" s="1">
         <v>308931.25</v>
       </c>
-      <c r="F71" s="2">
+      <c r="F71" s="1">
         <v>185700</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="3">
         <v>41918</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B72" s="1">
         <v>8000</v>
       </c>
-      <c r="C72" s="2">
+      <c r="C72" s="1">
         <v>3726832</v>
       </c>
-      <c r="D72" s="2">
+      <c r="D72" s="1">
         <f>6055000+213200</f>
         <v>6268200</v>
       </c>
-      <c r="E72" s="2">
+      <c r="E72" s="1">
         <v>673168</v>
       </c>
-      <c r="F72" s="2">
+      <c r="F72" s="1">
         <v>192500</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="3">
         <v>41859</v>
       </c>
-      <c r="B73" s="2">
+      <c r="B73" s="1">
         <v>5300</v>
       </c>
-      <c r="C73" s="2">
+      <c r="C73" s="1">
         <v>4100385</v>
       </c>
-      <c r="D73" s="2">
+      <c r="D73" s="1">
         <v>5907394</v>
       </c>
-      <c r="E73" s="2">
+      <c r="E73" s="1">
         <v>458553</v>
       </c>
-      <c r="F73" s="2">
+      <c r="F73" s="1">
         <f>92310+356700</f>
         <v>449010</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="3">
         <v>41964</v>
       </c>
-      <c r="B74" s="2">
+      <c r="B74" s="1">
         <v>5300</v>
       </c>
-      <c r="C74" s="2">
+      <c r="C74" s="1">
         <v>3133396</v>
       </c>
-      <c r="D74" s="2">
+      <c r="D74" s="1">
         <f>3696280+25000</f>
         <v>3721280</v>
       </c>
-      <c r="E74" s="2">
+      <c r="E74" s="1">
         <v>373368</v>
       </c>
-      <c r="F74" s="2">
+      <c r="F74" s="1">
         <f>91142+406700</f>
         <v>497842</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="3">
         <v>41962</v>
       </c>
-      <c r="B75" s="3">
+      <c r="B75" s="2">
         <f>5000/1.9</f>
         <v>2631.5789473684213</v>
       </c>
-      <c r="C75" s="2">
+      <c r="C75" s="1">
         <v>2210090</v>
       </c>
-      <c r="D75" s="2">
+      <c r="D75" s="1">
         <v>3400090</v>
       </c>
-      <c r="E75" s="2">
+      <c r="E75" s="1">
         <v>504900</v>
       </c>
-      <c r="F75" s="2">
+      <c r="F75" s="1">
         <v>1026500</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="3">
         <v>41960</v>
       </c>
-      <c r="B76" s="2">
+      <c r="B76" s="1">
         <v>4452</v>
       </c>
-      <c r="C76" s="2">
+      <c r="C76" s="1">
         <v>2690000</v>
       </c>
-      <c r="D76" s="2">
+      <c r="D76" s="1">
         <v>3103000</v>
       </c>
-      <c r="E76" s="2">
+      <c r="E76" s="1">
         <v>502000</v>
       </c>
-      <c r="F76" s="2">
+      <c r="F76" s="1">
         <v>778000</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="3">
         <v>41844</v>
       </c>
-      <c r="B77" s="2">
+      <c r="B77" s="1">
         <v>5000</v>
       </c>
-      <c r="C77" s="2">
+      <c r="C77" s="1">
         <v>1720896</v>
       </c>
-      <c r="D77" s="2">
+      <c r="D77" s="1">
         <v>2018924</v>
       </c>
-      <c r="E77" s="2">
+      <c r="E77" s="1">
         <v>205468</v>
       </c>
-      <c r="F77" s="2">
+      <c r="F77" s="1">
         <v>569114</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="3">
         <v>41953</v>
       </c>
-      <c r="B78" s="2">
+      <c r="B78" s="1">
         <v>10230</v>
       </c>
-      <c r="C78" s="2">
+      <c r="C78" s="1">
         <v>3743304</v>
       </c>
-      <c r="D78" s="2">
+      <c r="D78" s="1">
         <f>5766000+304500</f>
         <v>6070500</v>
       </c>
-      <c r="E78" s="2">
+      <c r="E78" s="1">
         <v>656696</v>
       </c>
-      <c r="F78" s="2">
+      <c r="F78" s="1">
         <v>202000</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="1">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="3">
         <v>41933</v>
       </c>
-      <c r="B79" s="2">
+      <c r="B79" s="1">
         <v>10000</v>
       </c>
-      <c r="C79" s="2">
+      <c r="C79" s="1">
         <v>3748002</v>
       </c>
-      <c r="D79" s="2">
+      <c r="D79" s="1">
         <f>5500000+132000</f>
         <v>5632000</v>
       </c>
-      <c r="E79" s="2">
+      <c r="E79" s="1">
         <v>651998</v>
       </c>
-      <c r="F79" s="2">
+      <c r="F79" s="1">
         <v>453000</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="1">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="3">
         <v>41926</v>
       </c>
-      <c r="B80" s="3">
+      <c r="B80" s="2">
         <f>5000/1.9</f>
         <v>2631.5789473684213</v>
       </c>
-      <c r="C80" s="2">
+      <c r="C80" s="1">
         <v>2211190</v>
       </c>
-      <c r="D80" s="2">
+      <c r="D80" s="1">
         <v>3401190</v>
       </c>
-      <c r="E80" s="2">
+      <c r="E80" s="1">
         <v>514800</v>
       </c>
-      <c r="F80" s="2">
+      <c r="F80" s="1">
         <v>1036400</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="3">
         <v>41936</v>
       </c>
-      <c r="B81" s="3">
+      <c r="B81" s="2">
         <f>8800/2</f>
         <v>4400</v>
       </c>
-      <c r="C81" s="2">
+      <c r="C81" s="1">
         <v>3302353</v>
       </c>
-      <c r="D81" s="2">
+      <c r="D81" s="1">
         <f>7141624+23000</f>
         <v>7164624</v>
       </c>
-      <c r="E81" s="2">
+      <c r="E81" s="1">
         <v>537769</v>
       </c>
-      <c r="F81" s="2">
+      <c r="F81" s="1">
         <f>193412+375000</f>
         <v>568412</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="1">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="3">
         <v>41935</v>
       </c>
-      <c r="B82" s="3">
+      <c r="B82" s="2">
         <f>8600/2.1</f>
         <v>4095.238095238095</v>
       </c>
-      <c r="C82" s="2">
+      <c r="C82" s="1">
         <v>3162819</v>
       </c>
-      <c r="D82" s="2">
+      <c r="D82" s="1">
         <f>7141624+23000</f>
         <v>7164624</v>
       </c>
-      <c r="E82" s="2">
+      <c r="E82" s="1">
         <v>533708</v>
       </c>
-      <c r="F82" s="2">
+      <c r="F82" s="1">
         <f>192534+375000</f>
         <v>567534</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="1">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="3">
         <v>41939</v>
       </c>
-      <c r="B83" s="2">
+      <c r="B83" s="1">
         <v>4500</v>
       </c>
-      <c r="C83" s="2">
+      <c r="C83" s="1">
         <v>4052000</v>
       </c>
-      <c r="D83" s="2">
+      <c r="D83" s="1">
         <v>3824000</v>
       </c>
-      <c r="E83" s="2">
+      <c r="E83" s="1">
         <v>486000</v>
       </c>
-      <c r="F83" s="2">
+      <c r="F83" s="1">
         <v>725000</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="1">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="3">
         <v>41926</v>
       </c>
-      <c r="B84" s="2">
+      <c r="B84" s="1">
         <v>5600</v>
       </c>
-      <c r="C84" s="2">
+      <c r="C84" s="1">
         <v>3726832</v>
       </c>
-      <c r="D84" s="2">
+      <c r="D84" s="1">
         <v>4536000</v>
       </c>
-      <c r="E84" s="2">
+      <c r="E84" s="1">
         <v>673168</v>
       </c>
-      <c r="F84" s="2">
+      <c r="F84" s="1">
         <f>14000+192500</f>
         <v>206500</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="1">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="3">
         <v>41939</v>
       </c>
-      <c r="B85" s="2">
+      <c r="B85" s="1">
         <v>9813</v>
       </c>
-      <c r="C85" s="2">
+      <c r="C85" s="1">
         <v>5324000</v>
       </c>
-      <c r="D85" s="2">
+      <c r="D85" s="1">
         <v>6188500</v>
       </c>
-      <c r="E85" s="2">
+      <c r="E85" s="1">
         <v>521000</v>
       </c>
-      <c r="F85" s="2">
+      <c r="F85" s="1">
         <v>930000</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="1">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="3">
         <v>41934</v>
       </c>
-      <c r="B86" s="2">
+      <c r="B86" s="1">
         <v>5000</v>
       </c>
-      <c r="C86" s="2">
+      <c r="C86" s="1">
         <v>1266167</v>
       </c>
-      <c r="D86" s="2">
+      <c r="D86" s="1">
         <v>2018924</v>
       </c>
-      <c r="E86" s="2">
+      <c r="E86" s="1">
         <v>204506</v>
       </c>
-      <c r="F86" s="2">
+      <c r="F86" s="1">
         <v>574282</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="3">
+        <v>42261</v>
+      </c>
+      <c r="B87" s="1">
+        <v>4700</v>
+      </c>
+      <c r="C87" s="1">
+        <v>2799000</v>
+      </c>
+      <c r="D87" s="1">
+        <v>4847200</v>
+      </c>
+      <c r="E87" s="1">
+        <v>601000</v>
+      </c>
+      <c r="F87" s="1">
+        <v>222500</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="3">
+        <v>42222</v>
+      </c>
+      <c r="B88" s="1">
+        <v>5200</v>
+      </c>
+      <c r="C88" s="1">
+        <v>3280310</v>
+      </c>
+      <c r="D88" s="1">
+        <v>4641353</v>
+      </c>
+      <c r="E88" s="1">
+        <v>799853</v>
+      </c>
+      <c r="F88" s="1">
+        <v>409011</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="3">
+        <v>42240</v>
+      </c>
+      <c r="B89" s="1">
+        <v>9700</v>
+      </c>
+      <c r="C89" s="1">
+        <v>3144000</v>
+      </c>
+      <c r="D89" s="1">
+        <v>5690000</v>
+      </c>
+      <c r="E89" s="1">
+        <v>442000</v>
+      </c>
+      <c r="F89" s="1">
+        <v>966500</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="3">
+        <v>42217</v>
+      </c>
+      <c r="B90" s="1">
+        <v>9833</v>
+      </c>
+      <c r="C90" s="1">
+        <v>3635000</v>
+      </c>
+      <c r="D90" s="1">
+        <v>5207800</v>
+      </c>
+      <c r="E90" s="1">
+        <v>404000</v>
+      </c>
+      <c r="F90" s="1">
+        <v>833000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="3">
+        <v>42227</v>
+      </c>
+      <c r="B91" s="1">
+        <v>8000</v>
+      </c>
+      <c r="C91" s="1">
+        <v>2423143</v>
+      </c>
+      <c r="D91" s="1">
+        <f>4690000+131000+48500</f>
+        <v>4869500</v>
+      </c>
+      <c r="E91" s="1">
+        <v>605600</v>
+      </c>
+      <c r="F91" s="1">
+        <v>297500</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="3">
+        <v>42247</v>
+      </c>
+      <c r="B92" s="1">
+        <v>8400</v>
+      </c>
+      <c r="C92" s="1">
+        <v>2870000</v>
+      </c>
+      <c r="D92" s="1">
+        <v>4847000</v>
+      </c>
+      <c r="E92" s="1">
+        <v>650000</v>
+      </c>
+      <c r="F92" s="1">
+        <v>223000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="3">
+        <v>42248</v>
+      </c>
+      <c r="B93" s="1">
+        <v>8500</v>
+      </c>
+      <c r="C93" s="1">
+        <v>2429356</v>
+      </c>
+      <c r="D93" s="1">
+        <v>4870000</v>
+      </c>
+      <c r="E93" s="1">
+        <v>610644</v>
+      </c>
+      <c r="F93" s="1">
+        <v>297500</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="3">
+        <v>42262</v>
+      </c>
+      <c r="B94" s="1">
+        <v>8200</v>
+      </c>
+      <c r="C94" s="1">
+        <v>2849000</v>
+      </c>
+      <c r="D94" s="1">
+        <v>4806000</v>
+      </c>
+      <c r="E94" s="1">
+        <v>601000</v>
+      </c>
+      <c r="F94" s="1">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" s="3">
+        <v>42250</v>
+      </c>
+      <c r="B95" s="1">
+        <v>5000</v>
+      </c>
+      <c r="C95" s="1">
+        <v>1894315</v>
+      </c>
+      <c r="D95" s="1">
+        <v>2944610</v>
+      </c>
+      <c r="E95" s="1">
+        <v>199966</v>
+      </c>
+      <c r="F95" s="1">
+        <v>679196</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="3">
+        <v>42233</v>
+      </c>
+      <c r="B96" s="1">
+        <v>5000</v>
+      </c>
+      <c r="C96" s="1">
+        <v>1951450</v>
+      </c>
+      <c r="D96" s="1">
+        <v>2061800</v>
+      </c>
+      <c r="E96" s="1">
+        <v>290525</v>
+      </c>
+      <c r="F96" s="1">
+        <v>414900</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" s="3">
+        <v>42234</v>
+      </c>
+      <c r="B97" s="1">
+        <v>5300</v>
+      </c>
+      <c r="C97" s="1">
+        <v>2426000</v>
+      </c>
+      <c r="D97" s="1">
+        <v>3908200</v>
+      </c>
+      <c r="E97" s="1">
+        <v>614000</v>
+      </c>
+      <c r="F97" s="1">
+        <v>222500</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" s="3">
+        <v>42233</v>
+      </c>
+      <c r="B98" s="1">
+        <v>5000</v>
+      </c>
+      <c r="C98" s="1">
+        <v>2218735</v>
+      </c>
+      <c r="D98" s="1">
+        <v>3230800</v>
+      </c>
+      <c r="E98" s="1">
+        <v>400177</v>
+      </c>
+      <c r="F98" s="1">
+        <v>97464</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" s="3">
+        <v>42230</v>
+      </c>
+      <c r="B99" s="1">
+        <v>6000</v>
+      </c>
+      <c r="C99" s="1">
+        <v>2649000</v>
+      </c>
+      <c r="D99" s="1">
+        <v>4805000</v>
+      </c>
+      <c r="E99" s="1">
+        <v>601000</v>
+      </c>
+      <c r="F99" s="1">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" s="3">
+        <v>42235</v>
+      </c>
+      <c r="B100" s="1">
+        <v>9833</v>
+      </c>
+      <c r="C100" s="1">
+        <v>3635000</v>
+      </c>
+      <c r="D100" s="1">
+        <v>5207800</v>
+      </c>
+      <c r="E100" s="1">
+        <v>404000</v>
+      </c>
+      <c r="F100" s="1">
+        <v>833000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" s="3">
+        <v>42230</v>
+      </c>
+      <c r="B101" s="1">
+        <v>4543</v>
+      </c>
+      <c r="C101" s="1">
+        <v>2699000</v>
+      </c>
+      <c r="D101" s="1">
+        <v>3498800</v>
+      </c>
+      <c r="E101" s="1">
+        <v>406000</v>
+      </c>
+      <c r="F101" s="1">
+        <v>633000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" s="3">
+        <v>42230</v>
+      </c>
+      <c r="B102" s="1">
+        <v>6000</v>
+      </c>
+      <c r="C102" s="1">
+        <v>2849000</v>
+      </c>
+      <c r="D102" s="1">
+        <v>4811000</v>
+      </c>
+      <c r="E102" s="1">
+        <v>601000</v>
+      </c>
+      <c r="F102" s="1">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" s="3">
+        <v>42233</v>
+      </c>
+      <c r="B103" s="1">
+        <v>4800</v>
+      </c>
+      <c r="C103" s="1">
+        <v>1951450</v>
+      </c>
+      <c r="D103" s="1">
+        <v>2061800</v>
+      </c>
+      <c r="E103" s="1">
+        <v>290525</v>
+      </c>
+      <c r="F103" s="1">
+        <v>414900</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" s="3">
+        <v>42205</v>
+      </c>
+      <c r="B104" s="1">
+        <v>4553</v>
+      </c>
+      <c r="C104" s="1">
+        <v>3097000</v>
+      </c>
+      <c r="D104" s="1">
+        <v>2934400</v>
+      </c>
+      <c r="E104" s="1">
+        <v>434000</v>
+      </c>
+      <c r="F104" s="1">
+        <v>754000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" s="3">
+        <v>42195</v>
+      </c>
+      <c r="B105" s="1">
+        <v>10000</v>
+      </c>
+      <c r="C105" s="1">
+        <v>2504683</v>
+      </c>
+      <c r="D105" s="1">
+        <f>5134683+158865+75000</f>
+        <v>5368548</v>
+      </c>
+      <c r="E105" s="1">
+        <v>614054</v>
+      </c>
+      <c r="F105" s="1">
+        <v>323000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" s="3">
+        <v>42184</v>
+      </c>
+      <c r="B106" s="1">
+        <v>10000</v>
+      </c>
+      <c r="C106" s="1">
+        <v>2778610</v>
+      </c>
+      <c r="D106" s="1">
+        <v>4319000</v>
+      </c>
+      <c r="E106" s="1">
+        <v>1021390</v>
+      </c>
+      <c r="F106" s="1">
+        <v>297500</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" s="3">
+        <v>42191</v>
+      </c>
+      <c r="B107" s="1">
+        <v>5000</v>
+      </c>
+      <c r="C107" s="1">
+        <v>2245350</v>
+      </c>
+      <c r="D107" s="1">
+        <v>364525</v>
+      </c>
+      <c r="E107" s="1">
+        <v>2467700</v>
+      </c>
+      <c r="F107" s="1">
+        <v>364300</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" s="3">
+        <v>42223</v>
+      </c>
+      <c r="B108" s="1">
+        <v>4400</v>
+      </c>
+      <c r="C108" s="1">
+        <v>2413796</v>
+      </c>
+      <c r="D108" s="1">
+        <f>2317000+177000</f>
+        <v>2494000</v>
+      </c>
+      <c r="E108" s="1">
+        <v>802967</v>
+      </c>
+      <c r="F108" s="1">
+        <f>15000+196000+74000</f>
+        <v>285000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" s="3">
+        <v>42213</v>
+      </c>
+      <c r="B109" s="1">
+        <v>6000</v>
+      </c>
+      <c r="C109" s="1">
+        <v>2320643</v>
+      </c>
+      <c r="D109" s="1">
+        <v>3250830</v>
+      </c>
+      <c r="E109" s="1">
+        <v>435039</v>
+      </c>
+      <c r="F109" s="1">
+        <v>386900</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" s="3">
+        <v>42212</v>
+      </c>
+      <c r="B110" s="1">
+        <v>7500</v>
+      </c>
+      <c r="C110" s="1">
+        <v>2168450</v>
+      </c>
+      <c r="D110" s="1">
+        <v>2542800</v>
+      </c>
+      <c r="E110" s="1">
+        <v>290525</v>
+      </c>
+      <c r="F110" s="1">
+        <v>414900</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" s="3">
+        <v>42174</v>
+      </c>
+      <c r="B111" s="1">
+        <v>9823</v>
+      </c>
+      <c r="C111" s="1">
+        <v>3635000</v>
+      </c>
+      <c r="D111" s="1">
+        <v>5150800</v>
+      </c>
+      <c r="E111" s="1">
+        <v>405000</v>
+      </c>
+      <c r="F111" s="1">
+        <v>797000</v>
       </c>
     </row>
   </sheetData>
@@ -2200,7 +2749,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2212,7 +2761,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CleanAFEs.xlsx
+++ b/CleanAFEs.xlsx
@@ -428,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F111"/>
+  <dimension ref="A1:F123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="C96" sqref="C96"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="D111" sqref="D111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2735,6 +2735,250 @@
       </c>
       <c r="F111" s="1">
         <v>797000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" s="3">
+        <v>42184</v>
+      </c>
+      <c r="B112" s="1">
+        <v>9883</v>
+      </c>
+      <c r="C112" s="1">
+        <v>5439000</v>
+      </c>
+      <c r="D112" s="1">
+        <v>5404500</v>
+      </c>
+      <c r="E112" s="1">
+        <v>495000</v>
+      </c>
+      <c r="F112" s="1">
+        <v>1015800</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" s="3">
+        <v>42181</v>
+      </c>
+      <c r="B113" s="1">
+        <v>5300</v>
+      </c>
+      <c r="C113" s="1">
+        <v>2191287</v>
+      </c>
+      <c r="D113" s="1">
+        <v>3250800</v>
+      </c>
+      <c r="E113" s="1">
+        <v>406004</v>
+      </c>
+      <c r="F113" s="1">
+        <f>289900+97464</f>
+        <v>387364</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" s="3">
+        <v>42230</v>
+      </c>
+      <c r="B114" s="1">
+        <v>10323</v>
+      </c>
+      <c r="C114" s="1">
+        <v>3592000</v>
+      </c>
+      <c r="D114" s="1">
+        <v>6783600</v>
+      </c>
+      <c r="E114" s="1">
+        <v>406000</v>
+      </c>
+      <c r="F114" s="1">
+        <v>780000</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" s="3">
+        <v>42184</v>
+      </c>
+      <c r="B115" s="1">
+        <v>9883</v>
+      </c>
+      <c r="C115" s="1">
+        <v>5439000</v>
+      </c>
+      <c r="D115" s="1">
+        <v>5404500</v>
+      </c>
+      <c r="E115" s="1">
+        <v>495000</v>
+      </c>
+      <c r="F115" s="1">
+        <v>1015800</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" s="3">
+        <v>42222</v>
+      </c>
+      <c r="B116" s="1">
+        <v>10000</v>
+      </c>
+      <c r="C116" s="1">
+        <v>2504683</v>
+      </c>
+      <c r="D116" s="1">
+        <f>5134000+158865+75000</f>
+        <v>5367865</v>
+      </c>
+      <c r="E116" s="1">
+        <v>614054</v>
+      </c>
+      <c r="F116" s="1">
+        <f>30000+218000+75000</f>
+        <v>323000</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" s="3">
+        <v>42041</v>
+      </c>
+      <c r="B117" s="1">
+        <v>10000</v>
+      </c>
+      <c r="C117" s="1">
+        <v>3893304</v>
+      </c>
+      <c r="D117" s="1">
+        <f>6055500+304500</f>
+        <v>6360000</v>
+      </c>
+      <c r="E117" s="1">
+        <v>656696</v>
+      </c>
+      <c r="F117" s="1">
+        <v>202000</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" s="3">
+        <v>42095</v>
+      </c>
+      <c r="B118" s="1">
+        <v>5000</v>
+      </c>
+      <c r="C118" s="1">
+        <v>2485064</v>
+      </c>
+      <c r="D118" s="1">
+        <v>2681096</v>
+      </c>
+      <c r="E118" s="1">
+        <v>669459</v>
+      </c>
+      <c r="F118" s="1">
+        <v>388800</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" s="3">
+        <v>42157</v>
+      </c>
+      <c r="B119" s="1">
+        <v>8700</v>
+      </c>
+      <c r="C119" s="1">
+        <v>2810848</v>
+      </c>
+      <c r="D119" s="1">
+        <v>3343638</v>
+      </c>
+      <c r="E119" s="1">
+        <v>463905</v>
+      </c>
+      <c r="F119" s="1">
+        <v>458600</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120" s="3">
+        <v>42171</v>
+      </c>
+      <c r="B120" s="1">
+        <v>7200</v>
+      </c>
+      <c r="C120" s="1">
+        <v>2586009</v>
+      </c>
+      <c r="D120" s="1">
+        <v>5137200</v>
+      </c>
+      <c r="E120" s="1">
+        <v>586512</v>
+      </c>
+      <c r="F120" s="1">
+        <v>192500</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" s="3">
+        <v>42171</v>
+      </c>
+      <c r="B121" s="1">
+        <v>5200</v>
+      </c>
+      <c r="C121" s="1">
+        <v>2218735</v>
+      </c>
+      <c r="D121" s="1">
+        <v>3230800</v>
+      </c>
+      <c r="E121" s="1">
+        <v>400177</v>
+      </c>
+      <c r="F121" s="1">
+        <v>387900</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" s="3">
+        <v>42143</v>
+      </c>
+      <c r="B122" s="1">
+        <v>5000</v>
+      </c>
+      <c r="C122" s="1">
+        <v>3412073</v>
+      </c>
+      <c r="D122" s="1">
+        <v>6465724</v>
+      </c>
+      <c r="E122" s="1">
+        <v>469918</v>
+      </c>
+      <c r="F122" s="1">
+        <v>434600</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" s="3">
+        <v>42150</v>
+      </c>
+      <c r="B123" s="1">
+        <v>4800</v>
+      </c>
+      <c r="C123" s="1">
+        <v>3481290</v>
+      </c>
+      <c r="D123" s="1">
+        <v>3973914</v>
+      </c>
+      <c r="E123" s="1">
+        <v>686949</v>
+      </c>
+      <c r="F123" s="1">
+        <v>159500</v>
       </c>
     </row>
   </sheetData>

--- a/CleanAFEs.xlsx
+++ b/CleanAFEs.xlsx
@@ -428,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F123"/>
+  <dimension ref="A1:F132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="D111" sqref="D111"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="C127" sqref="C127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2979,6 +2979,187 @@
       </c>
       <c r="F123" s="1">
         <v>159500</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" s="3">
+        <v>42156</v>
+      </c>
+      <c r="B124" s="1">
+        <v>5000</v>
+      </c>
+      <c r="C124" s="1">
+        <v>2462999</v>
+      </c>
+      <c r="D124" s="1">
+        <f>5134000+131000+46000</f>
+        <v>5311000</v>
+      </c>
+      <c r="E124" s="1">
+        <v>627000</v>
+      </c>
+      <c r="F124" s="1">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125" s="3">
+        <v>42171</v>
+      </c>
+      <c r="B125" s="1">
+        <v>9823</v>
+      </c>
+      <c r="C125" s="1">
+        <v>3737000</v>
+      </c>
+      <c r="D125" s="1">
+        <v>5664000</v>
+      </c>
+      <c r="E125" s="1">
+        <v>413000</v>
+      </c>
+      <c r="F125" s="1">
+        <v>797000</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126" s="3">
+        <v>42125</v>
+      </c>
+      <c r="B126" s="1">
+        <v>8500</v>
+      </c>
+      <c r="C126" s="1">
+        <v>4168574</v>
+      </c>
+      <c r="D126" s="1">
+        <v>6440724</v>
+      </c>
+      <c r="E126" s="1">
+        <v>958214</v>
+      </c>
+      <c r="F126" s="1">
+        <v>443600</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127" s="3">
+        <v>42100</v>
+      </c>
+      <c r="B127" s="1">
+        <v>5000</v>
+      </c>
+      <c r="C127" s="1">
+        <v>2128450</v>
+      </c>
+      <c r="D127" s="1">
+        <v>2183800</v>
+      </c>
+      <c r="E127" s="1">
+        <v>290525</v>
+      </c>
+      <c r="F127" s="1">
+        <v>414900</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128" s="3">
+        <v>42117</v>
+      </c>
+      <c r="B128" s="1">
+        <v>4300</v>
+      </c>
+      <c r="C128" s="1">
+        <v>2749080</v>
+      </c>
+      <c r="D128" s="1">
+        <v>4238500</v>
+      </c>
+      <c r="E128" s="1">
+        <v>945814</v>
+      </c>
+      <c r="F128" s="1">
+        <v>232000</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A129" s="3">
+        <v>42150</v>
+      </c>
+      <c r="B129" s="1">
+        <v>10000</v>
+      </c>
+      <c r="C129" s="1">
+        <v>4032300</v>
+      </c>
+      <c r="D129" s="1">
+        <v>6640500</v>
+      </c>
+      <c r="E129" s="1">
+        <v>667700</v>
+      </c>
+      <c r="F129" s="1">
+        <v>202000</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A130" s="3">
+        <v>42129</v>
+      </c>
+      <c r="B130" s="1">
+        <v>5300</v>
+      </c>
+      <c r="C130" s="1">
+        <v>2320543</v>
+      </c>
+      <c r="D130" s="1">
+        <v>3250800</v>
+      </c>
+      <c r="E130" s="1">
+        <v>435059</v>
+      </c>
+      <c r="F130" s="1">
+        <v>386800</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A131" s="3">
+        <v>42139</v>
+      </c>
+      <c r="B131" s="1">
+        <v>10323</v>
+      </c>
+      <c r="C131" s="1">
+        <v>3592000</v>
+      </c>
+      <c r="D131" s="1">
+        <v>4772400</v>
+      </c>
+      <c r="E131" s="1">
+        <v>406000</v>
+      </c>
+      <c r="F131" s="1">
+        <v>755000</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A132" s="3">
+        <v>42072</v>
+      </c>
+      <c r="B132" s="1">
+        <v>10323</v>
+      </c>
+      <c r="C132" s="1">
+        <v>3956000</v>
+      </c>
+      <c r="D132" s="1">
+        <v>4772400</v>
+      </c>
+      <c r="E132" s="1">
+        <v>406000</v>
+      </c>
+      <c r="F132" s="1">
+        <v>868000</v>
       </c>
     </row>
   </sheetData>

--- a/CleanAFEs.xlsx
+++ b/CleanAFEs.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thushan\Documents\GitHub\OilWellRegressions\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="132" windowWidth="13392" windowHeight="7500"/>
+    <workbookView xWindow="360" yWindow="135" windowWidth="13395" windowHeight="7500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -44,9 +39,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -89,7 +84,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -150,7 +145,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -183,26 +178,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -235,23 +213,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -428,23 +389,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F132"/>
+  <dimension ref="A1:F201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="C127" sqref="C127"/>
+    <sheetView tabSelected="1" topLeftCell="A188" workbookViewId="0">
+      <selection activeCell="B201" sqref="B201"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -464,7 +425,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>41898</v>
       </c>
@@ -485,7 +446,7 @@
         <v>185700</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>41731</v>
       </c>
@@ -505,7 +466,7 @@
         <v>6480662</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>41899</v>
       </c>
@@ -525,7 +486,7 @@
         <v>737000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>41805</v>
       </c>
@@ -545,7 +506,7 @@
         <v>569114</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>41773</v>
       </c>
@@ -565,7 +526,7 @@
         <v>364300</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>41551</v>
       </c>
@@ -585,7 +546,7 @@
         <v>6411700</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>41647</v>
       </c>
@@ -605,7 +566,7 @@
         <v>206500</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>41530</v>
       </c>
@@ -625,7 +586,7 @@
         <v>379400</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>41659</v>
       </c>
@@ -646,7 +607,7 @@
         <v>2972700</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>41562</v>
       </c>
@@ -667,7 +628,7 @@
         <v>185760</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>41732</v>
       </c>
@@ -687,7 +648,7 @@
         <v>364300</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>41597</v>
       </c>
@@ -707,7 +668,7 @@
         <v>206500</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>41823</v>
       </c>
@@ -728,7 +689,7 @@
         <v>574000</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>41872</v>
       </c>
@@ -749,7 +710,7 @@
         <v>185700</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>41869</v>
       </c>
@@ -769,7 +730,7 @@
         <v>720000</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>41885</v>
       </c>
@@ -790,7 +751,7 @@
         <v>574038</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>41722</v>
       </c>
@@ -810,7 +771,7 @@
         <v>778000</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>41654</v>
       </c>
@@ -832,7 +793,7 @@
         <v>206500</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>41645</v>
       </c>
@@ -854,7 +815,7 @@
         <v>206500</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>41597</v>
       </c>
@@ -876,7 +837,7 @@
         <v>206500</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>41782</v>
       </c>
@@ -898,7 +859,7 @@
         <v>568215</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>41226</v>
       </c>
@@ -918,7 +879,7 @@
         <v>329525</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>41226</v>
       </c>
@@ -940,7 +901,7 @@
         <v>329525</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>41631</v>
       </c>
@@ -961,7 +922,7 @@
         <v>185700</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>41583</v>
       </c>
@@ -982,7 +943,7 @@
         <v>185700</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>41547</v>
       </c>
@@ -1002,7 +963,7 @@
         <v>380600</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>41226</v>
       </c>
@@ -1022,7 +983,7 @@
         <v>185200</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>41242</v>
       </c>
@@ -1043,7 +1004,7 @@
         <v>1324500</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>41191</v>
       </c>
@@ -1063,7 +1024,7 @@
         <v>454775</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>41254</v>
       </c>
@@ -1083,7 +1044,7 @@
         <v>909000</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>41296</v>
       </c>
@@ -1104,7 +1065,7 @@
         <v>254300</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>41281</v>
       </c>
@@ -1124,7 +1085,7 @@
         <v>441250</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>41400</v>
       </c>
@@ -1144,7 +1105,7 @@
         <v>446725</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>41296</v>
       </c>
@@ -1164,7 +1125,7 @@
         <v>446725</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>41407</v>
       </c>
@@ -1184,7 +1145,7 @@
         <v>394467</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>41407</v>
       </c>
@@ -1204,7 +1165,7 @@
         <v>446725</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>41305</v>
       </c>
@@ -1225,7 +1186,7 @@
         <v>252400</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>41813</v>
       </c>
@@ -1247,7 +1208,7 @@
         <v>206500</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>41708</v>
       </c>
@@ -1269,7 +1230,7 @@
         <v>206500</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>41642</v>
       </c>
@@ -1289,7 +1250,7 @@
         <v>222000</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>41365</v>
       </c>
@@ -1310,7 +1271,7 @@
         <v>252400</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>41869</v>
       </c>
@@ -1332,7 +1293,7 @@
         <v>206500</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>41550</v>
       </c>
@@ -1352,7 +1313,7 @@
         <v>652326</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>41516</v>
       </c>
@@ -1372,7 +1333,7 @@
         <v>380600</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>42104</v>
       </c>
@@ -1392,7 +1353,7 @@
         <v>226000</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>42107</v>
       </c>
@@ -1414,7 +1375,7 @@
         <v>441261</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>42101</v>
       </c>
@@ -1436,7 +1397,7 @@
         <v>437026</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>42095</v>
       </c>
@@ -1456,7 +1417,7 @@
         <v>823000</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>42087</v>
       </c>
@@ -1477,7 +1438,7 @@
         <v>569392</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>42082</v>
       </c>
@@ -1497,7 +1458,7 @@
         <v>898000</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>42082</v>
       </c>
@@ -1517,7 +1478,7 @@
         <v>937000</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>42091</v>
       </c>
@@ -1537,7 +1498,7 @@
         <v>937000</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>42033</v>
       </c>
@@ -1557,7 +1518,7 @@
         <v>951420</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>42108</v>
       </c>
@@ -1579,7 +1540,7 @@
         <v>297500</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>42108</v>
       </c>
@@ -1600,7 +1561,7 @@
         <v>497842</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>42041</v>
       </c>
@@ -1620,7 +1581,7 @@
         <v>202000</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>42027</v>
       </c>
@@ -1642,7 +1603,7 @@
         <v>192500</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>41961</v>
       </c>
@@ -1664,7 +1625,7 @@
         <v>435084</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>42016</v>
       </c>
@@ -1684,7 +1645,7 @@
         <v>364300</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>41828</v>
       </c>
@@ -1706,7 +1667,7 @@
         <v>568953</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>42010</v>
       </c>
@@ -1728,7 +1689,7 @@
         <v>499026</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>42010</v>
       </c>
@@ -1749,7 +1710,7 @@
         <v>444000</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>42009</v>
       </c>
@@ -1770,7 +1731,7 @@
         <v>202000</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>41968</v>
       </c>
@@ -1790,7 +1751,7 @@
         <v>904000</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>41995</v>
       </c>
@@ -1811,7 +1772,7 @@
         <v>202000</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>42003</v>
       </c>
@@ -1831,7 +1792,7 @@
         <v>904000</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>42046</v>
       </c>
@@ -1852,7 +1813,7 @@
         <v>313000</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>42052</v>
       </c>
@@ -1875,7 +1836,7 @@
         <v>207500</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>41974</v>
       </c>
@@ -1897,7 +1858,7 @@
         <v>192500</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>41982</v>
       </c>
@@ -1918,7 +1879,7 @@
         <v>185700</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>41918</v>
       </c>
@@ -1939,7 +1900,7 @@
         <v>192500</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>41859</v>
       </c>
@@ -1960,7 +1921,7 @@
         <v>449010</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>41964</v>
       </c>
@@ -1982,7 +1943,7 @@
         <v>497842</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>41962</v>
       </c>
@@ -2003,7 +1964,7 @@
         <v>1026500</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>41960</v>
       </c>
@@ -2023,7 +1984,7 @@
         <v>778000</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
         <v>41844</v>
       </c>
@@ -2043,7 +2004,7 @@
         <v>569114</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>41953</v>
       </c>
@@ -2064,7 +2025,7 @@
         <v>202000</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <v>41933</v>
       </c>
@@ -2085,7 +2046,7 @@
         <v>453000</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>41926</v>
       </c>
@@ -2106,7 +2067,7 @@
         <v>1036400</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <v>41936</v>
       </c>
@@ -2129,7 +2090,7 @@
         <v>568412</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>41935</v>
       </c>
@@ -2152,7 +2113,7 @@
         <v>567534</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>41939</v>
       </c>
@@ -2172,7 +2133,7 @@
         <v>725000</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <v>41926</v>
       </c>
@@ -2193,7 +2154,7 @@
         <v>206500</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
         <v>41939</v>
       </c>
@@ -2213,7 +2174,7 @@
         <v>930000</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
         <v>41934</v>
       </c>
@@ -2233,7 +2194,7 @@
         <v>574282</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
         <v>42261</v>
       </c>
@@ -2253,7 +2214,7 @@
         <v>222500</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>42222</v>
       </c>
@@ -2273,7 +2234,7 @@
         <v>409011</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
         <v>42240</v>
       </c>
@@ -2293,7 +2254,7 @@
         <v>966500</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
         <v>42217</v>
       </c>
@@ -2313,7 +2274,7 @@
         <v>833000</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
         <v>42227</v>
       </c>
@@ -2334,7 +2295,7 @@
         <v>297500</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <v>42247</v>
       </c>
@@ -2354,7 +2315,7 @@
         <v>223000</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
         <v>42248</v>
       </c>
@@ -2374,7 +2335,7 @@
         <v>297500</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
         <v>42262</v>
       </c>
@@ -2394,7 +2355,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
         <v>42250</v>
       </c>
@@ -2414,7 +2375,7 @@
         <v>679196</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
         <v>42233</v>
       </c>
@@ -2434,7 +2395,7 @@
         <v>414900</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
         <v>42234</v>
       </c>
@@ -2454,7 +2415,7 @@
         <v>222500</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>42233</v>
       </c>
@@ -2474,7 +2435,7 @@
         <v>97464</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
         <v>42230</v>
       </c>
@@ -2494,7 +2455,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
         <v>42235</v>
       </c>
@@ -2514,7 +2475,7 @@
         <v>833000</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A101" s="3">
         <v>42230</v>
       </c>
@@ -2534,7 +2495,7 @@
         <v>633000</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A102" s="3">
         <v>42230</v>
       </c>
@@ -2554,7 +2515,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
         <v>42233</v>
       </c>
@@ -2574,7 +2535,7 @@
         <v>414900</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A104" s="3">
         <v>42205</v>
       </c>
@@ -2594,7 +2555,7 @@
         <v>754000</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A105" s="3">
         <v>42195</v>
       </c>
@@ -2615,7 +2576,7 @@
         <v>323000</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A106" s="3">
         <v>42184</v>
       </c>
@@ -2635,7 +2596,7 @@
         <v>297500</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A107" s="3">
         <v>42191</v>
       </c>
@@ -2655,7 +2616,7 @@
         <v>364300</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A108" s="3">
         <v>42223</v>
       </c>
@@ -2677,7 +2638,7 @@
         <v>285000</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
         <v>42213</v>
       </c>
@@ -2697,7 +2658,7 @@
         <v>386900</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A110" s="3">
         <v>42212</v>
       </c>
@@ -2717,7 +2678,7 @@
         <v>414900</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A111" s="3">
         <v>42174</v>
       </c>
@@ -2737,7 +2698,7 @@
         <v>797000</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A112" s="3">
         <v>42184</v>
       </c>
@@ -2757,7 +2718,7 @@
         <v>1015800</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A113" s="3">
         <v>42181</v>
       </c>
@@ -2778,7 +2739,7 @@
         <v>387364</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A114" s="3">
         <v>42230</v>
       </c>
@@ -2798,7 +2759,7 @@
         <v>780000</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A115" s="3">
         <v>42184</v>
       </c>
@@ -2818,7 +2779,7 @@
         <v>1015800</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A116" s="3">
         <v>42222</v>
       </c>
@@ -2840,7 +2801,7 @@
         <v>323000</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A117" s="3">
         <v>42041</v>
       </c>
@@ -2861,7 +2822,7 @@
         <v>202000</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A118" s="3">
         <v>42095</v>
       </c>
@@ -2881,7 +2842,7 @@
         <v>388800</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A119" s="3">
         <v>42157</v>
       </c>
@@ -2901,7 +2862,7 @@
         <v>458600</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A120" s="3">
         <v>42171</v>
       </c>
@@ -2921,7 +2882,7 @@
         <v>192500</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A121" s="3">
         <v>42171</v>
       </c>
@@ -2941,7 +2902,7 @@
         <v>387900</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A122" s="3">
         <v>42143</v>
       </c>
@@ -2961,7 +2922,7 @@
         <v>434600</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A123" s="3">
         <v>42150</v>
       </c>
@@ -2981,7 +2942,7 @@
         <v>159500</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A124" s="3">
         <v>42156</v>
       </c>
@@ -3002,7 +2963,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A125" s="3">
         <v>42171</v>
       </c>
@@ -3022,7 +2983,7 @@
         <v>797000</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A126" s="3">
         <v>42125</v>
       </c>
@@ -3042,7 +3003,7 @@
         <v>443600</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>42100</v>
       </c>
@@ -3062,7 +3023,7 @@
         <v>414900</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>42117</v>
       </c>
@@ -3082,7 +3043,7 @@
         <v>232000</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>42150</v>
       </c>
@@ -3102,7 +3063,7 @@
         <v>202000</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>42129</v>
       </c>
@@ -3122,7 +3083,7 @@
         <v>386800</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>42139</v>
       </c>
@@ -3142,7 +3103,7 @@
         <v>755000</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>42072</v>
       </c>
@@ -3160,6 +3121,1400 @@
       </c>
       <c r="F132" s="1">
         <v>868000</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="3">
+        <v>42269</v>
+      </c>
+      <c r="B133" s="2">
+        <v>5900</v>
+      </c>
+      <c r="C133" s="1">
+        <v>2549000</v>
+      </c>
+      <c r="D133" s="1">
+        <f>4634000+131000+46000</f>
+        <v>4811000</v>
+      </c>
+      <c r="E133" s="1">
+        <v>601000</v>
+      </c>
+      <c r="F133" s="1">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="3">
+        <v>42408</v>
+      </c>
+      <c r="B134" s="2">
+        <v>7000</v>
+      </c>
+      <c r="C134" s="1">
+        <v>1886833.4</v>
+      </c>
+      <c r="D134" s="1">
+        <f>4634000+131000+46000</f>
+        <v>4811000</v>
+      </c>
+      <c r="E134" s="1">
+        <v>540201.46</v>
+      </c>
+      <c r="F134" s="1">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="3">
+        <v>42401</v>
+      </c>
+      <c r="B135" s="2">
+        <v>5800</v>
+      </c>
+      <c r="C135" s="1">
+        <f>193000+1339091</f>
+        <v>1532091</v>
+      </c>
+      <c r="D135" s="1">
+        <v>590000</v>
+      </c>
+      <c r="E135" s="1">
+        <v>443415</v>
+      </c>
+      <c r="F135" s="1">
+        <v>779000</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="3">
+        <v>42369</v>
+      </c>
+      <c r="B136" s="1">
+        <v>9730</v>
+      </c>
+      <c r="C136" s="1">
+        <v>3399000</v>
+      </c>
+      <c r="D136" s="1">
+        <v>5307900</v>
+      </c>
+      <c r="E136" s="1">
+        <v>384000</v>
+      </c>
+      <c r="F136" s="1">
+        <v>1035800</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="3">
+        <v>42404</v>
+      </c>
+      <c r="B137" s="1">
+        <v>4800</v>
+      </c>
+      <c r="C137" s="1">
+        <v>1309258</v>
+      </c>
+      <c r="D137" s="1">
+        <v>1990276</v>
+      </c>
+      <c r="E137" s="1">
+        <v>185474</v>
+      </c>
+      <c r="F137" s="1">
+        <v>284484</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="3">
+        <v>42382</v>
+      </c>
+      <c r="B138" s="2">
+        <v>7200</v>
+      </c>
+      <c r="C138" s="1">
+        <v>2276000</v>
+      </c>
+      <c r="D138" s="1">
+        <f>3695000+131000+46000</f>
+        <v>3872000</v>
+      </c>
+      <c r="E138" s="1">
+        <v>614000</v>
+      </c>
+      <c r="F138" s="1">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" s="3">
+        <v>42380</v>
+      </c>
+      <c r="B139" s="1">
+        <v>5100</v>
+      </c>
+      <c r="C139" s="1">
+        <v>1532091</v>
+      </c>
+      <c r="D139" s="1">
+        <v>592300</v>
+      </c>
+      <c r="E139" s="1">
+        <v>443415</v>
+      </c>
+      <c r="F139" s="1">
+        <v>779000</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="3">
+        <v>42382</v>
+      </c>
+      <c r="B140" s="2">
+        <v>7100</v>
+      </c>
+      <c r="C140" s="1">
+        <v>2276000</v>
+      </c>
+      <c r="D140" s="1">
+        <f>3685000+177000</f>
+        <v>3862000</v>
+      </c>
+      <c r="E140" s="1">
+        <v>614000</v>
+      </c>
+      <c r="F140" s="1">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="3">
+        <v>42353</v>
+      </c>
+      <c r="B141" s="1">
+        <v>9730</v>
+      </c>
+      <c r="C141" s="1">
+        <v>3862000</v>
+      </c>
+      <c r="D141" s="1">
+        <v>5587500</v>
+      </c>
+      <c r="E141" s="1">
+        <v>456000</v>
+      </c>
+      <c r="F141" s="1">
+        <v>973200</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="3">
+        <v>42345</v>
+      </c>
+      <c r="B142" s="1">
+        <v>6400</v>
+      </c>
+      <c r="C142" s="1">
+        <f>2594104+220800</f>
+        <v>2814904</v>
+      </c>
+      <c r="D142" s="1">
+        <f>3817800+28000</f>
+        <v>3845800</v>
+      </c>
+      <c r="E142" s="1">
+        <v>674888</v>
+      </c>
+      <c r="F142" s="1">
+        <f>633000+163550</f>
+        <v>796550</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="3">
+        <v>42347</v>
+      </c>
+      <c r="B143" s="2">
+        <v>7000</v>
+      </c>
+      <c r="C143" s="1">
+        <v>2431490.4900000002</v>
+      </c>
+      <c r="D143" s="1">
+        <f>4283878.33+127560.25+23525.19</f>
+        <v>4434963.7700000005</v>
+      </c>
+      <c r="E143" s="1">
+        <v>588111.29</v>
+      </c>
+      <c r="F143" s="1">
+        <f>12451+153747.22+65931.77</f>
+        <v>232129.99</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="3">
+        <v>42353</v>
+      </c>
+      <c r="B144" s="2">
+        <v>4400</v>
+      </c>
+      <c r="C144" s="1">
+        <v>2716566.51</v>
+      </c>
+      <c r="D144" s="1">
+        <f>5705507.84+168008.62+31122.85</f>
+        <v>5904639.3099999996</v>
+      </c>
+      <c r="E144" s="1">
+        <v>630613.21</v>
+      </c>
+      <c r="F144" s="1">
+        <f>11859.75+151436.49+56643.09</f>
+        <v>219939.33</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="3">
+        <v>42360</v>
+      </c>
+      <c r="B145" s="2">
+        <v>7000</v>
+      </c>
+      <c r="C145" s="1">
+        <v>2549000</v>
+      </c>
+      <c r="D145" s="1">
+        <f>4634000+131000+46000</f>
+        <v>4811000</v>
+      </c>
+      <c r="E145" s="1">
+        <v>601000</v>
+      </c>
+      <c r="F145" s="1">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="3">
+        <v>42009</v>
+      </c>
+      <c r="B146" s="1">
+        <v>5000</v>
+      </c>
+      <c r="C146" s="1">
+        <v>1951450</v>
+      </c>
+      <c r="D146" s="1">
+        <v>290525</v>
+      </c>
+      <c r="E146" s="1">
+        <v>2823800</v>
+      </c>
+      <c r="F146" s="1">
+        <v>414900</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" s="3">
+        <v>42301</v>
+      </c>
+      <c r="B147" s="1">
+        <v>9600</v>
+      </c>
+      <c r="C147" s="1">
+        <v>3963000</v>
+      </c>
+      <c r="D147" s="1">
+        <v>4758000</v>
+      </c>
+      <c r="E147" s="1">
+        <v>443000</v>
+      </c>
+      <c r="F147" s="1">
+        <v>962700</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="3">
+        <v>42339</v>
+      </c>
+      <c r="B148" s="2">
+        <v>4400</v>
+      </c>
+      <c r="C148" s="1">
+        <v>1894315</v>
+      </c>
+      <c r="D148" s="1">
+        <v>29446110</v>
+      </c>
+      <c r="E148" s="1">
+        <v>199966</v>
+      </c>
+      <c r="F148" s="1">
+        <v>679157</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" s="3">
+        <v>42338</v>
+      </c>
+      <c r="B149" s="1">
+        <v>5000</v>
+      </c>
+      <c r="C149" s="1">
+        <v>1951450</v>
+      </c>
+      <c r="D149" s="1">
+        <v>290525</v>
+      </c>
+      <c r="E149" s="1">
+        <v>2061800</v>
+      </c>
+      <c r="F149" s="1">
+        <v>414900</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" s="3">
+        <v>42346</v>
+      </c>
+      <c r="B150" s="1">
+        <v>9833</v>
+      </c>
+      <c r="C150" s="1">
+        <v>3718000</v>
+      </c>
+      <c r="D150" s="1">
+        <v>5957000</v>
+      </c>
+      <c r="E150" s="1">
+        <v>424000</v>
+      </c>
+      <c r="F150" s="1">
+        <v>820000</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="3">
+        <v>42328</v>
+      </c>
+      <c r="B151" s="2">
+        <v>7000</v>
+      </c>
+      <c r="C151" s="1">
+        <v>2549000</v>
+      </c>
+      <c r="D151" s="1">
+        <f>4634000+131000+46000</f>
+        <v>4811000</v>
+      </c>
+      <c r="E151" s="1">
+        <v>601000</v>
+      </c>
+      <c r="F151" s="1">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="3">
+        <v>42301</v>
+      </c>
+      <c r="B152" s="1">
+        <v>9600</v>
+      </c>
+      <c r="C152" s="1">
+        <v>3963000</v>
+      </c>
+      <c r="D152" s="1">
+        <v>4758000</v>
+      </c>
+      <c r="E152" s="1">
+        <v>443000</v>
+      </c>
+      <c r="F152" s="1">
+        <v>962700</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" s="3">
+        <v>42310</v>
+      </c>
+      <c r="B153" s="1">
+        <v>10000</v>
+      </c>
+      <c r="C153" s="1">
+        <v>3893304</v>
+      </c>
+      <c r="D153" s="1">
+        <f>6055500+304500</f>
+        <v>6360000</v>
+      </c>
+      <c r="E153" s="1">
+        <v>656696</v>
+      </c>
+      <c r="F153" s="1">
+        <v>202000</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" s="3">
+        <v>42304</v>
+      </c>
+      <c r="B154" s="1">
+        <v>5200</v>
+      </c>
+      <c r="C154" s="1">
+        <v>2778610</v>
+      </c>
+      <c r="D154" s="1">
+        <f>4144000+131000+38000</f>
+        <v>4313000</v>
+      </c>
+      <c r="E154" s="1">
+        <v>1021390</v>
+      </c>
+      <c r="F154" s="1">
+        <v>297500</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" s="3">
+        <v>42311</v>
+      </c>
+      <c r="B155" s="1">
+        <v>9823</v>
+      </c>
+      <c r="C155" s="1">
+        <v>3635000</v>
+      </c>
+      <c r="D155" s="1">
+        <v>5150800</v>
+      </c>
+      <c r="E155" s="1">
+        <v>408000</v>
+      </c>
+      <c r="F155" s="1">
+        <v>795000</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" s="3">
+        <v>42269</v>
+      </c>
+      <c r="B156" s="2">
+        <v>7800</v>
+      </c>
+      <c r="C156" s="1">
+        <v>2329589</v>
+      </c>
+      <c r="D156" s="1">
+        <v>2784374</v>
+      </c>
+      <c r="E156" s="1">
+        <v>410580</v>
+      </c>
+      <c r="F156" s="1">
+        <v>394900</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" s="3">
+        <v>42290</v>
+      </c>
+      <c r="B157" s="2">
+        <v>7800</v>
+      </c>
+      <c r="C157" s="1">
+        <v>2334149</v>
+      </c>
+      <c r="D157" s="1">
+        <v>2886874</v>
+      </c>
+      <c r="E157" s="1">
+        <v>416238</v>
+      </c>
+      <c r="F157" s="1">
+        <v>385900</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" s="3">
+        <v>42290</v>
+      </c>
+      <c r="B158" s="2">
+        <v>7800</v>
+      </c>
+      <c r="C158" s="1">
+        <v>2330682</v>
+      </c>
+      <c r="D158" s="1">
+        <v>2886874</v>
+      </c>
+      <c r="E158" s="1">
+        <v>411937</v>
+      </c>
+      <c r="F158" s="1">
+        <v>385900</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" s="3">
+        <v>42297</v>
+      </c>
+      <c r="B159" s="1">
+        <v>9823</v>
+      </c>
+      <c r="C159" s="1">
+        <v>3635000</v>
+      </c>
+      <c r="D159" s="1">
+        <v>5151000</v>
+      </c>
+      <c r="E159" s="1">
+        <v>408000</v>
+      </c>
+      <c r="F159" s="1">
+        <v>795000</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" s="3">
+        <v>42297</v>
+      </c>
+      <c r="B160" s="1">
+        <v>15113</v>
+      </c>
+      <c r="C160" s="1">
+        <v>4827000</v>
+      </c>
+      <c r="D160" s="1">
+        <v>4941188</v>
+      </c>
+      <c r="E160" s="1">
+        <v>405000</v>
+      </c>
+      <c r="F160" s="1">
+        <v>962000</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" s="3">
+        <v>42297</v>
+      </c>
+      <c r="B161" s="1">
+        <v>6300</v>
+      </c>
+      <c r="C161" s="1">
+        <v>2799000</v>
+      </c>
+      <c r="D161" s="1">
+        <f>4634000+213200</f>
+        <v>4847200</v>
+      </c>
+      <c r="E161" s="1">
+        <v>601000</v>
+      </c>
+      <c r="F161" s="1">
+        <v>222500</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" s="3">
+        <v>42290</v>
+      </c>
+      <c r="B162" s="1">
+        <v>4603</v>
+      </c>
+      <c r="C162" s="1">
+        <v>2859000</v>
+      </c>
+      <c r="D162" s="1">
+        <v>3380750</v>
+      </c>
+      <c r="E162" s="1">
+        <v>419000</v>
+      </c>
+      <c r="F162" s="1">
+        <v>662000</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" s="3">
+        <v>42317</v>
+      </c>
+      <c r="B163" s="1">
+        <v>4380</v>
+      </c>
+      <c r="C163" s="1">
+        <v>2784000</v>
+      </c>
+      <c r="D163" s="1">
+        <v>2728200</v>
+      </c>
+      <c r="E163" s="1">
+        <v>474000</v>
+      </c>
+      <c r="F163" s="1">
+        <v>860600</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" s="3">
+        <v>42283</v>
+      </c>
+      <c r="B164" s="1">
+        <v>5000</v>
+      </c>
+      <c r="C164" s="1">
+        <v>2128450</v>
+      </c>
+      <c r="D164" s="1">
+        <v>290525</v>
+      </c>
+      <c r="E164" s="1">
+        <v>2183800</v>
+      </c>
+      <c r="F164" s="1">
+        <v>414900</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" s="3">
+        <v>42289</v>
+      </c>
+      <c r="B165" s="1">
+        <v>5000</v>
+      </c>
+      <c r="C165" s="1">
+        <v>1951450</v>
+      </c>
+      <c r="D165" s="1">
+        <v>290525</v>
+      </c>
+      <c r="E165" s="1">
+        <v>2061800</v>
+      </c>
+      <c r="F165" s="1">
+        <v>414900</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" s="3">
+        <v>42290</v>
+      </c>
+      <c r="B166" s="1">
+        <v>6400</v>
+      </c>
+      <c r="C166" s="1">
+        <f>220800+2594104</f>
+        <v>2814904</v>
+      </c>
+      <c r="D166" s="1">
+        <f>3817800+28000</f>
+        <v>3845800</v>
+      </c>
+      <c r="E166" s="1">
+        <v>666488</v>
+      </c>
+      <c r="F166" s="1">
+        <f>163550+633000</f>
+        <v>796550</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" s="3">
+        <v>42276</v>
+      </c>
+      <c r="B167" s="1">
+        <v>7300</v>
+      </c>
+      <c r="C167" s="1">
+        <v>3758433</v>
+      </c>
+      <c r="D167" s="1">
+        <v>7164623</v>
+      </c>
+      <c r="E167" s="1">
+        <v>536193</v>
+      </c>
+      <c r="F167" s="1">
+        <f>375000+193071</f>
+        <v>568071</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" s="3">
+        <v>42277</v>
+      </c>
+      <c r="B168" s="2">
+        <v>6800</v>
+      </c>
+      <c r="C168" s="1">
+        <v>2844400</v>
+      </c>
+      <c r="D168" s="1">
+        <f>5134000+131000+46000</f>
+        <v>5311000</v>
+      </c>
+      <c r="E168" s="1">
+        <v>776600</v>
+      </c>
+      <c r="F168" s="1">
+        <f>30000+196000+74000</f>
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" s="3">
+        <v>42283</v>
+      </c>
+      <c r="B169" s="1">
+        <v>7900</v>
+      </c>
+      <c r="C169" s="1">
+        <v>2969719</v>
+      </c>
+      <c r="D169" s="1">
+        <v>4562698</v>
+      </c>
+      <c r="E169" s="1">
+        <v>517737</v>
+      </c>
+      <c r="F169" s="1">
+        <v>401000</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" s="3">
+        <v>42276</v>
+      </c>
+      <c r="B170" s="1">
+        <v>9833</v>
+      </c>
+      <c r="C170" s="1">
+        <v>3715000</v>
+      </c>
+      <c r="D170" s="1">
+        <v>6225250</v>
+      </c>
+      <c r="E170" s="1">
+        <v>420000</v>
+      </c>
+      <c r="F170" s="1">
+        <v>735000</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" s="3">
+        <v>42276</v>
+      </c>
+      <c r="B171" s="1">
+        <v>7243</v>
+      </c>
+      <c r="C171" s="1">
+        <v>3375000</v>
+      </c>
+      <c r="D171" s="1">
+        <v>4941188</v>
+      </c>
+      <c r="E171" s="1">
+        <v>405000</v>
+      </c>
+      <c r="F171" s="1">
+        <v>752000</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" s="3">
+        <v>42291</v>
+      </c>
+      <c r="B172" s="2">
+        <v>6200</v>
+      </c>
+      <c r="C172" s="1">
+        <v>2844400</v>
+      </c>
+      <c r="D172" s="1">
+        <f>5134000+131000+46000</f>
+        <v>5311000</v>
+      </c>
+      <c r="E172" s="1">
+        <v>776600</v>
+      </c>
+      <c r="F172" s="1">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" s="3">
+        <v>42262</v>
+      </c>
+      <c r="B173" s="2">
+        <v>6200</v>
+      </c>
+      <c r="C173" s="1">
+        <v>2549000</v>
+      </c>
+      <c r="D173" s="1">
+        <f>4634000+131000+46000</f>
+        <v>4811000</v>
+      </c>
+      <c r="E173" s="1">
+        <v>601000</v>
+      </c>
+      <c r="F173" s="1">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" s="3">
+        <v>42269</v>
+      </c>
+      <c r="B174" s="2">
+        <v>7900</v>
+      </c>
+      <c r="C174" s="1">
+        <v>2799000</v>
+      </c>
+      <c r="D174" s="1">
+        <v>4834000</v>
+      </c>
+      <c r="E174" s="1">
+        <v>601000</v>
+      </c>
+      <c r="F174" s="1">
+        <v>222500</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" s="3">
+        <v>42240</v>
+      </c>
+      <c r="B175" s="2">
+        <v>9700</v>
+      </c>
+      <c r="C175" s="1">
+        <v>3144000</v>
+      </c>
+      <c r="D175" s="1">
+        <v>5690000</v>
+      </c>
+      <c r="E175" s="1">
+        <v>442000</v>
+      </c>
+      <c r="F175" s="1">
+        <v>966500</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" s="3">
+        <v>42271</v>
+      </c>
+      <c r="B176" s="2">
+        <v>5700</v>
+      </c>
+      <c r="C176" s="1">
+        <v>2843875</v>
+      </c>
+      <c r="D176" s="1">
+        <f>4934000+131000+46000</f>
+        <v>5111000</v>
+      </c>
+      <c r="E176" s="1">
+        <v>726125</v>
+      </c>
+      <c r="F176" s="1">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" s="3">
+        <v>42262</v>
+      </c>
+      <c r="B177" s="2">
+        <v>8000</v>
+      </c>
+      <c r="C177" s="1">
+        <v>3280310</v>
+      </c>
+      <c r="D177" s="1">
+        <v>4541353</v>
+      </c>
+      <c r="E177" s="1">
+        <v>799853</v>
+      </c>
+      <c r="F177" s="1">
+        <f>110011+299000</f>
+        <v>409011</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" s="3">
+        <v>42276</v>
+      </c>
+      <c r="B178" s="2">
+        <v>7600</v>
+      </c>
+      <c r="C178" s="1">
+        <v>2276219</v>
+      </c>
+      <c r="D178" s="1">
+        <v>2905580</v>
+      </c>
+      <c r="E178" s="1">
+        <v>398574</v>
+      </c>
+      <c r="F178" s="1">
+        <v>382900</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" s="3">
+        <v>42671</v>
+      </c>
+      <c r="B179" s="2">
+        <v>8700</v>
+      </c>
+      <c r="C179" s="1">
+        <v>3217500</v>
+      </c>
+      <c r="D179" s="1">
+        <v>4801622</v>
+      </c>
+      <c r="E179" s="1">
+        <v>854500</v>
+      </c>
+      <c r="F179" s="1">
+        <v>767134.88</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" s="3">
+        <v>42668</v>
+      </c>
+      <c r="B180" s="2">
+        <v>8700</v>
+      </c>
+      <c r="C180" s="1">
+        <v>2426500</v>
+      </c>
+      <c r="D180" s="1">
+        <v>4801622.26</v>
+      </c>
+      <c r="E180" s="1">
+        <v>931500</v>
+      </c>
+      <c r="F180" s="1">
+        <v>767134.88</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" s="3">
+        <v>42668</v>
+      </c>
+      <c r="B181" s="1">
+        <v>5600</v>
+      </c>
+      <c r="C181" s="1">
+        <v>1373835</v>
+      </c>
+      <c r="D181" s="1">
+        <v>2317450</v>
+      </c>
+      <c r="E181" s="1">
+        <v>145035</v>
+      </c>
+      <c r="F181" s="1">
+        <v>265878</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" s="3">
+        <v>42668</v>
+      </c>
+      <c r="B182" s="2">
+        <v>10230</v>
+      </c>
+      <c r="C182" s="1">
+        <v>4208861</v>
+      </c>
+      <c r="D182" s="1">
+        <v>5860690</v>
+      </c>
+      <c r="E182" s="1">
+        <v>628226</v>
+      </c>
+      <c r="F182" s="1">
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" s="3">
+        <v>42668</v>
+      </c>
+      <c r="B183" s="1">
+        <v>6970</v>
+      </c>
+      <c r="C183" s="1">
+        <v>1760000</v>
+      </c>
+      <c r="D183" s="1">
+        <v>3826677</v>
+      </c>
+      <c r="E183" s="1">
+        <v>45000</v>
+      </c>
+      <c r="F183" s="1">
+        <v>846217</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" s="3">
+        <v>42678</v>
+      </c>
+      <c r="B184" s="1">
+        <v>6900</v>
+      </c>
+      <c r="C184" s="1">
+        <v>1256245</v>
+      </c>
+      <c r="D184" s="1">
+        <v>1513055</v>
+      </c>
+      <c r="E184" s="1">
+        <v>222000</v>
+      </c>
+      <c r="F184" s="1">
+        <v>470650</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185" s="3">
+        <v>42681</v>
+      </c>
+      <c r="B185" s="2">
+        <v>9700</v>
+      </c>
+      <c r="C185" s="1">
+        <v>3217500</v>
+      </c>
+      <c r="D185" s="1">
+        <v>4801622.26</v>
+      </c>
+      <c r="E185" s="1">
+        <v>854500</v>
+      </c>
+      <c r="F185" s="1">
+        <v>767134.88</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" s="3">
+        <v>42667</v>
+      </c>
+      <c r="B186" s="1">
+        <v>4800</v>
+      </c>
+      <c r="C186" s="1">
+        <v>1017918</v>
+      </c>
+      <c r="D186" s="1">
+        <v>1574235</v>
+      </c>
+      <c r="E186" s="1">
+        <v>186851</v>
+      </c>
+      <c r="F186" s="1">
+        <v>296900</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" s="3">
+        <v>42661</v>
+      </c>
+      <c r="B187" s="2">
+        <v>8700</v>
+      </c>
+      <c r="C187" s="1">
+        <v>3217500</v>
+      </c>
+      <c r="D187" s="1">
+        <v>4801622.26</v>
+      </c>
+      <c r="E187" s="1">
+        <v>854500</v>
+      </c>
+      <c r="F187" s="1">
+        <v>767134.88</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" s="3">
+        <v>42654</v>
+      </c>
+      <c r="B188" s="2">
+        <v>5600</v>
+      </c>
+      <c r="C188" s="1">
+        <v>1376422</v>
+      </c>
+      <c r="D188" s="1">
+        <v>2321450</v>
+      </c>
+      <c r="E188" s="1">
+        <v>141953</v>
+      </c>
+      <c r="F188" s="1">
+        <v>262378</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" s="3">
+        <v>42654</v>
+      </c>
+      <c r="B189" s="2">
+        <v>5600</v>
+      </c>
+      <c r="C189" s="1">
+        <v>1373835</v>
+      </c>
+      <c r="D189" s="1">
+        <v>2317450</v>
+      </c>
+      <c r="E189" s="1">
+        <v>145035</v>
+      </c>
+      <c r="F189" s="1">
+        <v>265878</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" s="3">
+        <v>42653</v>
+      </c>
+      <c r="B190" s="2">
+        <v>8700</v>
+      </c>
+      <c r="C190" s="1">
+        <v>2600000</v>
+      </c>
+      <c r="D190" s="1">
+        <v>3048761</v>
+      </c>
+      <c r="E190" s="1">
+        <v>900000</v>
+      </c>
+      <c r="F190" s="1">
+        <v>706754.88</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191" s="3">
+        <v>42647</v>
+      </c>
+      <c r="B191" s="1">
+        <v>6400</v>
+      </c>
+      <c r="C191" s="1">
+        <v>1425000</v>
+      </c>
+      <c r="D191" s="1">
+        <v>1613000</v>
+      </c>
+      <c r="E191" s="1">
+        <v>194700</v>
+      </c>
+      <c r="F191" s="1">
+        <v>194500</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192" s="3">
+        <v>42646</v>
+      </c>
+      <c r="B192" s="1">
+        <v>6400</v>
+      </c>
+      <c r="C192" s="1">
+        <v>1570078</v>
+      </c>
+      <c r="D192" s="1">
+        <v>3121200</v>
+      </c>
+      <c r="E192" s="1">
+        <v>317482</v>
+      </c>
+      <c r="F192" s="1">
+        <v>103914</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" s="3">
+        <v>42626</v>
+      </c>
+      <c r="B193" s="2">
+        <v>9600</v>
+      </c>
+      <c r="C193" s="1">
+        <v>2475500</v>
+      </c>
+      <c r="D193" s="1">
+        <v>4191415</v>
+      </c>
+      <c r="E193" s="1">
+        <v>862500</v>
+      </c>
+      <c r="F193" s="1">
+        <v>846974</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" s="3">
+        <v>42626</v>
+      </c>
+      <c r="B194" s="2">
+        <v>8700</v>
+      </c>
+      <c r="C194" s="1">
+        <v>2426500</v>
+      </c>
+      <c r="D194" s="1">
+        <v>4801622.26</v>
+      </c>
+      <c r="E194" s="1">
+        <v>931500</v>
+      </c>
+      <c r="F194" s="1">
+        <v>767134.88</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195" s="3">
+        <v>42661</v>
+      </c>
+      <c r="B195" s="1">
+        <v>7200</v>
+      </c>
+      <c r="C195" s="1">
+        <v>1017811</v>
+      </c>
+      <c r="D195" s="1">
+        <v>1574235</v>
+      </c>
+      <c r="E195" s="1">
+        <v>186851</v>
+      </c>
+      <c r="F195" s="1">
+        <v>296900</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196" s="3">
+        <v>42594</v>
+      </c>
+      <c r="B196" s="1">
+        <v>9730</v>
+      </c>
+      <c r="C196" s="1">
+        <v>3862000</v>
+      </c>
+      <c r="D196" s="1">
+        <v>5587500</v>
+      </c>
+      <c r="E196" s="1">
+        <v>456000</v>
+      </c>
+      <c r="F196" s="1">
+        <v>973200</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197" s="3">
+        <v>42620</v>
+      </c>
+      <c r="B197" s="2">
+        <v>5700</v>
+      </c>
+      <c r="C197" s="1">
+        <v>1176245</v>
+      </c>
+      <c r="D197" s="1">
+        <v>1513055</v>
+      </c>
+      <c r="E197" s="1">
+        <v>222000</v>
+      </c>
+      <c r="F197" s="1">
+        <v>470650</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198" s="3">
+        <v>42620</v>
+      </c>
+      <c r="B198" s="2">
+        <v>7600</v>
+      </c>
+      <c r="C198" s="1">
+        <v>1483330</v>
+      </c>
+      <c r="D198" s="1">
+        <v>1519200</v>
+      </c>
+      <c r="E198" s="1">
+        <v>207600</v>
+      </c>
+      <c r="F198" s="1">
+        <v>498174</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199" s="3">
+        <v>42619</v>
+      </c>
+      <c r="B199" s="1">
+        <v>10000</v>
+      </c>
+      <c r="C199" s="1">
+        <v>3217500</v>
+      </c>
+      <c r="D199" s="1">
+        <v>4801622</v>
+      </c>
+      <c r="E199" s="1">
+        <v>854500</v>
+      </c>
+      <c r="F199" s="1">
+        <v>767134</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200" s="3">
+        <v>42618</v>
+      </c>
+      <c r="B200" s="1">
+        <v>5800</v>
+      </c>
+      <c r="C200" s="1">
+        <v>2175419</v>
+      </c>
+      <c r="D200" s="1">
+        <f>3521426+322034+17957</f>
+        <v>3861417</v>
+      </c>
+      <c r="E200" s="1">
+        <v>498128</v>
+      </c>
+      <c r="F200" s="1">
+        <f>37000+37000+137690</f>
+        <v>211690</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201" s="3">
+        <v>42612</v>
       </c>
     </row>
   </sheetData>
@@ -3174,7 +4529,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3186,7 +4541,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CleanAFEs.xlsx
+++ b/CleanAFEs.xlsx
@@ -80,11 +80,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -389,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F201"/>
+  <dimension ref="A1:F221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A188" workbookViewId="0">
-      <selection activeCell="B201" sqref="B201"/>
+    <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
+      <selection activeCell="B219" sqref="B219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4515,6 +4516,435 @@
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="3">
         <v>42612</v>
+      </c>
+      <c r="B201" s="2">
+        <v>7600</v>
+      </c>
+      <c r="C201" s="1">
+        <v>2879095</v>
+      </c>
+      <c r="D201" s="1">
+        <v>3710409</v>
+      </c>
+      <c r="E201" s="1">
+        <v>587769</v>
+      </c>
+      <c r="F201" s="1">
+        <v>117140</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202" s="3">
+        <v>42625</v>
+      </c>
+      <c r="B202" s="1">
+        <v>10560</v>
+      </c>
+      <c r="C202" s="1">
+        <v>3857171</v>
+      </c>
+      <c r="D202" s="1">
+        <v>4504189</v>
+      </c>
+      <c r="E202" s="1">
+        <v>609200</v>
+      </c>
+      <c r="F202" s="1">
+        <v>341200</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203" s="3">
+        <v>42540</v>
+      </c>
+      <c r="B203" s="1">
+        <v>10200</v>
+      </c>
+      <c r="C203" s="1">
+        <v>4074000</v>
+      </c>
+      <c r="D203" s="1">
+        <v>5415300</v>
+      </c>
+      <c r="E203" s="1">
+        <v>351000</v>
+      </c>
+      <c r="F203" s="1">
+        <v>828500</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204" s="3">
+        <v>42604</v>
+      </c>
+      <c r="B204" s="2">
+        <v>10200</v>
+      </c>
+      <c r="C204" s="1">
+        <v>3881171</v>
+      </c>
+      <c r="D204" s="1">
+        <v>4521724</v>
+      </c>
+      <c r="E204" s="1">
+        <v>628200</v>
+      </c>
+      <c r="F204" s="1">
+        <v>354020</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205" s="3">
+        <v>42604</v>
+      </c>
+      <c r="B205" s="2">
+        <v>7200</v>
+      </c>
+      <c r="C205" s="1">
+        <v>1275200</v>
+      </c>
+      <c r="D205" s="1">
+        <v>1872700</v>
+      </c>
+      <c r="E205" s="1">
+        <v>246100</v>
+      </c>
+      <c r="F205" s="1">
+        <v>236700</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206" s="3">
+        <v>42598</v>
+      </c>
+      <c r="B206" s="1">
+        <v>10800</v>
+      </c>
+      <c r="C206" s="1">
+        <v>2845280</v>
+      </c>
+      <c r="D206" s="1">
+        <v>5236719</v>
+      </c>
+      <c r="E206" s="1">
+        <v>560386</v>
+      </c>
+      <c r="F206" s="1">
+        <v>107690</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207" s="3">
+        <v>42598</v>
+      </c>
+      <c r="B207" s="1">
+        <v>8900</v>
+      </c>
+      <c r="C207" s="1">
+        <v>3881171</v>
+      </c>
+      <c r="D207" s="1">
+        <v>4521724</v>
+      </c>
+      <c r="E207" s="1">
+        <v>628200</v>
+      </c>
+      <c r="F207" s="1">
+        <v>982220</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208" s="3">
+        <v>42598</v>
+      </c>
+      <c r="B208" s="1">
+        <v>8900</v>
+      </c>
+      <c r="C208" s="1">
+        <v>4149000</v>
+      </c>
+      <c r="D208" s="1">
+        <v>4866960</v>
+      </c>
+      <c r="E208" s="1">
+        <v>365000</v>
+      </c>
+      <c r="F208" s="1">
+        <v>792000</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209" s="3">
+        <v>42606</v>
+      </c>
+      <c r="B209" s="2">
+        <v>8900</v>
+      </c>
+      <c r="C209" s="1">
+        <f>1030937.47+151750</f>
+        <v>1182687.47</v>
+      </c>
+      <c r="D209" s="1">
+        <v>752300</v>
+      </c>
+      <c r="E209" s="1">
+        <v>289400</v>
+      </c>
+      <c r="F209" s="1">
+        <f>652940+68000</f>
+        <v>720940</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210" s="3">
+        <v>42604</v>
+      </c>
+      <c r="B210" s="2">
+        <v>7000</v>
+      </c>
+      <c r="C210" s="1">
+        <f>142200+1121560</f>
+        <v>1263760</v>
+      </c>
+      <c r="D210" s="1">
+        <f>468250+62490</f>
+        <v>530740</v>
+      </c>
+      <c r="E210" s="1">
+        <v>287800</v>
+      </c>
+      <c r="F210" s="1">
+        <f>53000+696940</f>
+        <v>749940</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A211" s="3">
+        <v>42587</v>
+      </c>
+      <c r="B211" s="1">
+        <v>10000</v>
+      </c>
+      <c r="C211" s="1">
+        <v>3217500</v>
+      </c>
+      <c r="D211" s="1">
+        <v>4713612</v>
+      </c>
+      <c r="E211" s="1">
+        <v>854500</v>
+      </c>
+      <c r="F211" s="1">
+        <v>336695</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212" s="3">
+        <v>42611</v>
+      </c>
+      <c r="B212" s="2">
+        <v>10400</v>
+      </c>
+      <c r="C212" s="1">
+        <v>3761405</v>
+      </c>
+      <c r="D212" s="1">
+        <v>3540378</v>
+      </c>
+      <c r="E212" s="1">
+        <v>523963</v>
+      </c>
+      <c r="F212" s="1">
+        <v>107690</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213" s="3">
+        <v>42559</v>
+      </c>
+      <c r="B213" s="1">
+        <v>9600</v>
+      </c>
+      <c r="C213" s="1">
+        <v>2426500</v>
+      </c>
+      <c r="D213" s="1">
+        <v>4803272</v>
+      </c>
+      <c r="E213" s="1">
+        <v>931500</v>
+      </c>
+      <c r="F213" s="1">
+        <v>775421.75</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214" s="3">
+        <v>42590</v>
+      </c>
+      <c r="B214" s="2">
+        <v>8900</v>
+      </c>
+      <c r="C214" s="1">
+        <v>1683500</v>
+      </c>
+      <c r="D214" s="1">
+        <f>2260000+268000+25000</f>
+        <v>2553000</v>
+      </c>
+      <c r="E214" s="1">
+        <v>416500</v>
+      </c>
+      <c r="F214" s="1">
+        <f>12000+142000+46500</f>
+        <v>200500</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A215" s="3">
+        <v>42577</v>
+      </c>
+      <c r="B215" s="2">
+        <v>8200</v>
+      </c>
+      <c r="C215" s="1">
+        <v>1217366</v>
+      </c>
+      <c r="D215" s="1">
+        <f>1412500+268000+25000</f>
+        <v>1705500</v>
+      </c>
+      <c r="E215" s="1">
+        <v>292634</v>
+      </c>
+      <c r="F215" s="1">
+        <f>142000+7500+46500</f>
+        <v>196000</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A216" s="3">
+        <v>42590</v>
+      </c>
+      <c r="B216" s="2">
+        <v>10400</v>
+      </c>
+      <c r="C216" s="1">
+        <v>1665250</v>
+      </c>
+      <c r="D216" s="1">
+        <f>2825000+256000+33500</f>
+        <v>3114500</v>
+      </c>
+      <c r="E216" s="1">
+        <v>452500</v>
+      </c>
+      <c r="F216" s="1">
+        <f>15000+196000+415000</f>
+        <v>626000</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A217" s="3">
+        <v>42597</v>
+      </c>
+      <c r="B217" s="1">
+        <v>9730</v>
+      </c>
+      <c r="C217" s="1">
+        <v>3862000</v>
+      </c>
+      <c r="D217" s="1">
+        <v>5587500</v>
+      </c>
+      <c r="E217" s="1">
+        <v>456000</v>
+      </c>
+      <c r="F217" s="1">
+        <v>973200</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A218" s="3">
+        <v>42597</v>
+      </c>
+      <c r="B218" s="2">
+        <v>9800</v>
+      </c>
+      <c r="C218" s="1">
+        <v>3752928</v>
+      </c>
+      <c r="D218" s="1">
+        <v>2434049</v>
+      </c>
+      <c r="E218" s="1">
+        <v>704200</v>
+      </c>
+      <c r="F218" s="1">
+        <v>314730</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A219" s="3">
+        <v>42592</v>
+      </c>
+      <c r="B219" s="2">
+        <v>7300</v>
+      </c>
+      <c r="C219" s="1">
+        <f>153200+1030938</f>
+        <v>1184138</v>
+      </c>
+      <c r="D219" s="1">
+        <f>393850+62490</f>
+        <v>456340</v>
+      </c>
+      <c r="E219" s="1">
+        <v>287400</v>
+      </c>
+      <c r="F219" s="1">
+        <f>71500+652940</f>
+        <v>724440</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A220" s="3">
+        <v>42591</v>
+      </c>
+      <c r="B220" s="2">
+        <v>6800</v>
+      </c>
+      <c r="C220" s="1">
+        <v>1956000</v>
+      </c>
+      <c r="D220" s="1">
+        <v>4784123</v>
+      </c>
+      <c r="E220" s="1">
+        <v>460000</v>
+      </c>
+      <c r="F220" s="1">
+        <v>784635</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A221" s="3">
+        <v>42597</v>
+      </c>
+      <c r="B221" s="4">
+        <v>9730</v>
+      </c>
+      <c r="C221" s="1">
+        <v>3862000</v>
+      </c>
+      <c r="D221" s="1">
+        <v>5587500</v>
+      </c>
+      <c r="E221" s="1">
+        <v>456000</v>
+      </c>
+      <c r="F221" s="1">
+        <v>973200</v>
       </c>
     </row>
   </sheetData>

--- a/CleanAFEs.xlsx
+++ b/CleanAFEs.xlsx
@@ -390,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F221"/>
+  <dimension ref="A1:F246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
-      <selection activeCell="B219" sqref="B219"/>
+    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
+      <selection activeCell="E244" sqref="E244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4945,6 +4945,508 @@
       </c>
       <c r="F221" s="1">
         <v>973200</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A222" s="3">
+        <v>42705</v>
+      </c>
+      <c r="B222" s="2">
+        <v>8200</v>
+      </c>
+      <c r="C222" s="1">
+        <v>1425000</v>
+      </c>
+      <c r="D222" s="1">
+        <v>1613000</v>
+      </c>
+      <c r="E222" s="1">
+        <v>194700</v>
+      </c>
+      <c r="F222" s="1">
+        <v>194500</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A223" s="3">
+        <v>42745</v>
+      </c>
+      <c r="B223" s="2">
+        <v>9200</v>
+      </c>
+      <c r="C223" s="1">
+        <v>3217500</v>
+      </c>
+      <c r="D223" s="1">
+        <v>5403904</v>
+      </c>
+      <c r="E223" s="1">
+        <v>854600</v>
+      </c>
+      <c r="F223" s="1">
+        <v>652325.79</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A224" s="3">
+        <v>42766</v>
+      </c>
+      <c r="B224" s="2">
+        <v>10300</v>
+      </c>
+      <c r="C224" s="1">
+        <v>2193867</v>
+      </c>
+      <c r="D224" s="1">
+        <v>3196408</v>
+      </c>
+      <c r="E224" s="1">
+        <v>573975</v>
+      </c>
+      <c r="F224" s="1">
+        <v>114990</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A225" s="3">
+        <v>42745</v>
+      </c>
+      <c r="B225" s="2">
+        <v>8200</v>
+      </c>
+      <c r="C225" s="1">
+        <v>2602500</v>
+      </c>
+      <c r="D225" s="1">
+        <v>3122000</v>
+      </c>
+      <c r="E225" s="1">
+        <v>897500</v>
+      </c>
+      <c r="F225" s="1">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A226" s="3">
+        <v>42717</v>
+      </c>
+      <c r="B226" s="1">
+        <v>4550</v>
+      </c>
+      <c r="C226" s="1">
+        <v>2560000</v>
+      </c>
+      <c r="D226" s="1">
+        <v>2730000</v>
+      </c>
+      <c r="E226" s="1">
+        <v>620000</v>
+      </c>
+      <c r="F226" s="1">
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A227" s="3">
+        <v>42766</v>
+      </c>
+      <c r="B227" s="1">
+        <v>9800</v>
+      </c>
+      <c r="C227" s="1">
+        <v>1739850</v>
+      </c>
+      <c r="D227" s="1">
+        <v>3738525</v>
+      </c>
+      <c r="E227" s="1">
+        <v>133000</v>
+      </c>
+      <c r="F227" s="1">
+        <v>762500</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A228" s="3">
+        <v>42732</v>
+      </c>
+      <c r="B228" s="1">
+        <v>4340</v>
+      </c>
+      <c r="C228" s="1">
+        <v>3557000</v>
+      </c>
+      <c r="D228" s="1">
+        <v>3066089</v>
+      </c>
+      <c r="E228" s="1">
+        <v>500000</v>
+      </c>
+      <c r="F228" s="1">
+        <v>723399</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A229" s="3">
+        <v>42738</v>
+      </c>
+      <c r="B229" s="2">
+        <v>8900</v>
+      </c>
+      <c r="C229" s="1">
+        <v>2475500</v>
+      </c>
+      <c r="D229" s="1">
+        <v>4191415.26</v>
+      </c>
+      <c r="E229" s="1">
+        <v>862500</v>
+      </c>
+      <c r="F229" s="1">
+        <v>846974.88</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A230" s="3">
+        <v>42744</v>
+      </c>
+      <c r="B230" s="1">
+        <v>10151</v>
+      </c>
+      <c r="C230" s="1">
+        <v>5840000</v>
+      </c>
+      <c r="D230" s="1">
+        <v>5859500</v>
+      </c>
+      <c r="E230" s="1">
+        <v>481000</v>
+      </c>
+      <c r="F230" s="1">
+        <v>947200</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A231" s="3">
+        <v>42738</v>
+      </c>
+      <c r="B231" s="2">
+        <v>10200</v>
+      </c>
+      <c r="C231" s="1">
+        <v>2426500</v>
+      </c>
+      <c r="D231" s="1">
+        <v>5403904</v>
+      </c>
+      <c r="E231" s="1">
+        <v>931500</v>
+      </c>
+      <c r="F231" s="1">
+        <v>652325.79</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A232" s="3">
+        <v>42738</v>
+      </c>
+      <c r="B232" s="2">
+        <v>8900</v>
+      </c>
+      <c r="C232" s="1">
+        <v>1830000</v>
+      </c>
+      <c r="D232" s="1">
+        <v>3048761.26</v>
+      </c>
+      <c r="E232" s="1">
+        <v>800000</v>
+      </c>
+      <c r="F232" s="1">
+        <v>706754.88</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A233" s="3">
+        <v>42734</v>
+      </c>
+      <c r="B233" s="2">
+        <v>14000</v>
+      </c>
+      <c r="C233" s="1">
+        <v>3313075</v>
+      </c>
+      <c r="D233" s="1">
+        <v>4585789</v>
+      </c>
+      <c r="E233" s="1">
+        <v>929200</v>
+      </c>
+      <c r="F233" s="1">
+        <v>332274</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A234" s="3">
+        <v>42745</v>
+      </c>
+      <c r="B234" s="2">
+        <v>10500</v>
+      </c>
+      <c r="C234" s="1">
+        <v>3217500</v>
+      </c>
+      <c r="D234" s="1">
+        <v>5403904</v>
+      </c>
+      <c r="E234" s="1">
+        <v>854500</v>
+      </c>
+      <c r="F234" s="1">
+        <v>652325.79</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A235" s="3">
+        <v>42723</v>
+      </c>
+      <c r="B235" s="2">
+        <v>9800</v>
+      </c>
+      <c r="C235" s="1">
+        <v>2600000</v>
+      </c>
+      <c r="D235" s="1">
+        <v>3048761</v>
+      </c>
+      <c r="E235" s="1">
+        <v>900000</v>
+      </c>
+      <c r="F235" s="1">
+        <v>706754</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A236" s="3">
+        <v>42724</v>
+      </c>
+      <c r="B236" s="2">
+        <v>6800</v>
+      </c>
+      <c r="C236" s="1">
+        <v>1343500</v>
+      </c>
+      <c r="D236" s="1">
+        <f>2540000+212000+25000</f>
+        <v>2777000</v>
+      </c>
+      <c r="E236" s="1">
+        <v>334500</v>
+      </c>
+      <c r="F236" s="1">
+        <f>15000+347000+46500</f>
+        <v>408500</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A237" s="3">
+        <v>42695</v>
+      </c>
+      <c r="B237" s="1">
+        <v>9670</v>
+      </c>
+      <c r="C237" s="1">
+        <v>3560000</v>
+      </c>
+      <c r="D237" s="1">
+        <v>5247679</v>
+      </c>
+      <c r="E237" s="1">
+        <v>357000</v>
+      </c>
+      <c r="F237" s="1">
+        <v>827598</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A238" s="3">
+        <v>42723</v>
+      </c>
+      <c r="B238" s="1">
+        <v>4550</v>
+      </c>
+      <c r="C238" s="1">
+        <v>2559000</v>
+      </c>
+      <c r="D238" s="1">
+        <v>2720000</v>
+      </c>
+      <c r="E238" s="1">
+        <v>582000</v>
+      </c>
+      <c r="F238" s="1">
+        <v>390000</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A239" s="3">
+        <v>42357</v>
+      </c>
+      <c r="B239" s="2">
+        <v>7400</v>
+      </c>
+      <c r="C239" s="1">
+        <v>1017811</v>
+      </c>
+      <c r="D239" s="1">
+        <v>1574235</v>
+      </c>
+      <c r="E239" s="1">
+        <v>166851</v>
+      </c>
+      <c r="F239" s="1">
+        <v>296900</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A240" s="3">
+        <v>42357</v>
+      </c>
+      <c r="B240" s="2">
+        <v>9800</v>
+      </c>
+      <c r="C240" s="1">
+        <v>3217500</v>
+      </c>
+      <c r="D240" s="1">
+        <v>4801622.26</v>
+      </c>
+      <c r="E240" s="1">
+        <v>854500</v>
+      </c>
+      <c r="F240" s="1">
+        <v>767134.88</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A241" s="3">
+        <v>42716</v>
+      </c>
+      <c r="B241" s="2">
+        <v>7400</v>
+      </c>
+      <c r="C241" s="1">
+        <v>3487000</v>
+      </c>
+      <c r="D241" s="1">
+        <v>2180500</v>
+      </c>
+      <c r="E241" s="1">
+        <v>451690</v>
+      </c>
+      <c r="F241" s="1">
+        <v>334100</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A242" s="3">
+        <v>42709</v>
+      </c>
+      <c r="B242" s="2">
+        <v>6800</v>
+      </c>
+      <c r="C242" s="1">
+        <v>950300</v>
+      </c>
+      <c r="D242" s="1">
+        <v>1115600</v>
+      </c>
+      <c r="E242" s="1">
+        <v>294800</v>
+      </c>
+      <c r="F242" s="1">
+        <v>261500</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A243" s="3">
+        <v>42710</v>
+      </c>
+      <c r="B243" s="2">
+        <v>8700</v>
+      </c>
+      <c r="C243" s="1">
+        <v>1017811</v>
+      </c>
+      <c r="D243" s="1">
+        <v>1574235</v>
+      </c>
+      <c r="E243" s="1">
+        <v>186851</v>
+      </c>
+      <c r="F243" s="1">
+        <v>483751</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A244" s="3">
+        <v>42703</v>
+      </c>
+      <c r="B244" s="2">
+        <v>8700</v>
+      </c>
+      <c r="C244" s="1">
+        <v>2426500</v>
+      </c>
+      <c r="D244" s="1">
+        <v>4801622.26</v>
+      </c>
+      <c r="E244" s="1">
+        <v>931500</v>
+      </c>
+      <c r="F244" s="1">
+        <v>767134.88</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A245" s="3">
+        <v>42702</v>
+      </c>
+      <c r="B245" s="2">
+        <v>11000</v>
+      </c>
+      <c r="C245" s="1">
+        <v>2768850</v>
+      </c>
+      <c r="D245" s="1">
+        <v>3451875</v>
+      </c>
+      <c r="E245" s="1">
+        <v>416250</v>
+      </c>
+      <c r="F245" s="1">
+        <v>723200</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A246" s="3">
+        <v>42660</v>
+      </c>
+      <c r="B246" s="1">
+        <v>9710</v>
+      </c>
+      <c r="C246" s="1">
+        <v>2690000</v>
+      </c>
+      <c r="D246" s="1">
+        <v>5044000</v>
+      </c>
+      <c r="E246" s="1">
+        <v>357000</v>
+      </c>
+      <c r="F246" s="1">
+        <v>857000</v>
       </c>
     </row>
   </sheetData>

--- a/CleanAFEs.xlsx
+++ b/CleanAFEs.xlsx
@@ -390,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F246"/>
+  <dimension ref="A1:F306"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
-      <selection activeCell="E244" sqref="E244"/>
+    <sheetView tabSelected="1" topLeftCell="A272" workbookViewId="0">
+      <selection activeCell="B306" sqref="B306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5447,6 +5447,1201 @@
       </c>
       <c r="F246" s="1">
         <v>857000</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A247" s="3">
+        <v>42683</v>
+      </c>
+      <c r="B247" s="2">
+        <v>7400</v>
+      </c>
+      <c r="C247" s="1">
+        <v>2036083</v>
+      </c>
+      <c r="D247" s="1">
+        <f>5080000+313000+25000</f>
+        <v>5418000</v>
+      </c>
+      <c r="E247" s="1">
+        <v>444000</v>
+      </c>
+      <c r="F247" s="1">
+        <v>424000</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A248" s="3">
+        <v>42689</v>
+      </c>
+      <c r="B248" s="2">
+        <v>8700</v>
+      </c>
+      <c r="C248" s="1">
+        <v>2544510</v>
+      </c>
+      <c r="D248" s="1">
+        <v>3201408</v>
+      </c>
+      <c r="E248" s="1">
+        <v>616796</v>
+      </c>
+      <c r="F248" s="1">
+        <v>123000</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A249" s="3">
+        <v>42688</v>
+      </c>
+      <c r="B249" s="2">
+        <v>7400</v>
+      </c>
+      <c r="C249" s="1">
+        <v>1592243</v>
+      </c>
+      <c r="D249" s="1">
+        <f>5080000+25000+312000</f>
+        <v>5417000</v>
+      </c>
+      <c r="E249" s="1">
+        <v>607900</v>
+      </c>
+      <c r="F249" s="1">
+        <v>424000</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A250" s="3">
+        <v>42682</v>
+      </c>
+      <c r="B250" s="2">
+        <v>7400</v>
+      </c>
+      <c r="C250" s="1">
+        <v>2630650</v>
+      </c>
+      <c r="D250" s="1">
+        <v>5811760</v>
+      </c>
+      <c r="E250" s="1">
+        <v>640115</v>
+      </c>
+      <c r="F250" s="1">
+        <v>106500</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A251" s="3">
+        <v>42682</v>
+      </c>
+      <c r="B251" s="1">
+        <v>4750</v>
+      </c>
+      <c r="C251" s="1">
+        <v>2580000</v>
+      </c>
+      <c r="D251" s="1">
+        <v>2725000</v>
+      </c>
+      <c r="E251" s="1">
+        <v>615000</v>
+      </c>
+      <c r="F251" s="1">
+        <v>405000</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A252" s="3">
+        <v>42682</v>
+      </c>
+      <c r="B252" s="2">
+        <v>7200</v>
+      </c>
+      <c r="C252" s="1">
+        <v>2600000</v>
+      </c>
+      <c r="D252" s="1">
+        <v>3048761</v>
+      </c>
+      <c r="E252" s="1">
+        <v>900000</v>
+      </c>
+      <c r="F252" s="1">
+        <v>706754</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A253" s="3">
+        <v>42695</v>
+      </c>
+      <c r="B253" s="1">
+        <v>9800</v>
+      </c>
+      <c r="C253" s="1">
+        <v>3218000</v>
+      </c>
+      <c r="D253" s="1">
+        <v>4950000</v>
+      </c>
+      <c r="E253" s="1">
+        <v>712000</v>
+      </c>
+      <c r="F253" s="1">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A254" s="3">
+        <v>42696</v>
+      </c>
+      <c r="B254" s="2">
+        <v>7200</v>
+      </c>
+      <c r="C254" s="1">
+        <v>2423847</v>
+      </c>
+      <c r="D254" s="1">
+        <v>2939450</v>
+      </c>
+      <c r="E254" s="1">
+        <v>316140</v>
+      </c>
+      <c r="F254" s="1">
+        <v>93000</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A255" s="3">
+        <v>42681</v>
+      </c>
+      <c r="B255" s="2">
+        <v>8700</v>
+      </c>
+      <c r="C255" s="1">
+        <v>3753378</v>
+      </c>
+      <c r="D255" s="1">
+        <v>4895332</v>
+      </c>
+      <c r="E255" s="1">
+        <v>656287</v>
+      </c>
+      <c r="F255" s="1">
+        <v>117140</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A256" s="3">
+        <v>42671</v>
+      </c>
+      <c r="B256" s="2">
+        <v>7400</v>
+      </c>
+      <c r="C256" s="1">
+        <v>3217500</v>
+      </c>
+      <c r="D256" s="1">
+        <v>4801622</v>
+      </c>
+      <c r="E256" s="1">
+        <v>4072000</v>
+      </c>
+      <c r="F256" s="1">
+        <v>5568757</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A257" s="3">
+        <v>42681</v>
+      </c>
+      <c r="B257" s="2">
+        <v>7800</v>
+      </c>
+      <c r="C257" s="1">
+        <v>2036083</v>
+      </c>
+      <c r="D257" s="1">
+        <f>5080000+25000+312000</f>
+        <v>5417000</v>
+      </c>
+      <c r="E257" s="1">
+        <v>444000</v>
+      </c>
+      <c r="F257" s="1">
+        <f>347000+30000+46500</f>
+        <v>423500</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A258" s="3">
+        <v>42678</v>
+      </c>
+      <c r="B258" s="2">
+        <v>8200</v>
+      </c>
+      <c r="C258" s="1">
+        <v>1256245</v>
+      </c>
+      <c r="D258" s="1">
+        <v>1513055</v>
+      </c>
+      <c r="E258" s="1">
+        <v>222000</v>
+      </c>
+      <c r="F258" s="1">
+        <v>470650</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A259" s="3">
+        <v>42682</v>
+      </c>
+      <c r="B259" s="1">
+        <v>12000</v>
+      </c>
+      <c r="C259" s="1">
+        <v>3036907</v>
+      </c>
+      <c r="D259" s="1">
+        <v>2434049</v>
+      </c>
+      <c r="E259" s="1">
+        <v>544200</v>
+      </c>
+      <c r="F259" s="1">
+        <v>342396</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A260" s="3">
+        <v>42682</v>
+      </c>
+      <c r="B260" s="2">
+        <v>7800</v>
+      </c>
+      <c r="C260" s="1">
+        <v>1688500</v>
+      </c>
+      <c r="D260" s="1">
+        <v>3048761</v>
+      </c>
+      <c r="E260" s="1">
+        <v>364500</v>
+      </c>
+      <c r="F260" s="1">
+        <v>706754</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A261" s="3">
+        <v>42675</v>
+      </c>
+      <c r="B261" s="2">
+        <v>6970</v>
+      </c>
+      <c r="C261" s="1">
+        <v>1760000</v>
+      </c>
+      <c r="D261" s="1">
+        <v>3826677</v>
+      </c>
+      <c r="E261" s="1">
+        <v>45000</v>
+      </c>
+      <c r="F261" s="1">
+        <v>830006</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A262" s="3">
+        <v>42681</v>
+      </c>
+      <c r="B262" s="2">
+        <v>9200</v>
+      </c>
+      <c r="C262" s="1">
+        <v>2154087</v>
+      </c>
+      <c r="D262" s="1">
+        <v>3295000</v>
+      </c>
+      <c r="E262" s="1">
+        <v>290390</v>
+      </c>
+      <c r="F262" s="1">
+        <v>123000</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A263" s="3">
+        <v>42681</v>
+      </c>
+      <c r="B263" s="2">
+        <v>7400</v>
+      </c>
+      <c r="C263" s="1">
+        <v>3217500</v>
+      </c>
+      <c r="D263" s="1">
+        <v>4801022</v>
+      </c>
+      <c r="E263" s="1">
+        <v>854500</v>
+      </c>
+      <c r="F263" s="1">
+        <v>767134</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A264" s="3">
+        <v>42899</v>
+      </c>
+      <c r="B264" s="2">
+        <v>10600</v>
+      </c>
+      <c r="C264" s="1">
+        <v>2193867</v>
+      </c>
+      <c r="D264" s="1">
+        <v>3196408</v>
+      </c>
+      <c r="E264" s="1">
+        <v>573795</v>
+      </c>
+      <c r="F264" s="1">
+        <v>114990</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A265" s="3">
+        <v>42877</v>
+      </c>
+      <c r="B265" s="2">
+        <v>10230</v>
+      </c>
+      <c r="C265" s="1">
+        <v>1986349</v>
+      </c>
+      <c r="D265" s="1">
+        <f>2950000+312000+75000</f>
+        <v>3337000</v>
+      </c>
+      <c r="E265" s="1">
+        <v>444000</v>
+      </c>
+      <c r="F265" s="1">
+        <v>467000</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A266" s="3">
+        <v>42878</v>
+      </c>
+      <c r="B266" s="2">
+        <v>13600</v>
+      </c>
+      <c r="C266" s="1">
+        <v>4256000</v>
+      </c>
+      <c r="D266" s="1">
+        <v>4814960</v>
+      </c>
+      <c r="E266" s="1">
+        <v>800000</v>
+      </c>
+      <c r="F266" s="1">
+        <v>302000</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A267" s="3">
+        <v>42864</v>
+      </c>
+      <c r="B267" s="2">
+        <v>8600</v>
+      </c>
+      <c r="C267" s="1">
+        <v>1017467</v>
+      </c>
+      <c r="D267" s="1">
+        <f>1237340+116000</f>
+        <v>1353340</v>
+      </c>
+      <c r="E267" s="1">
+        <v>204400</v>
+      </c>
+      <c r="F267" s="1">
+        <f>570665+65000</f>
+        <v>635665</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A268" s="3">
+        <v>42859</v>
+      </c>
+      <c r="B268" s="2">
+        <v>8600</v>
+      </c>
+      <c r="C268" s="1">
+        <v>1017811</v>
+      </c>
+      <c r="D268" s="1">
+        <v>1574235</v>
+      </c>
+      <c r="E268" s="1">
+        <v>186851</v>
+      </c>
+      <c r="F268" s="1">
+        <v>296900</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A269" s="3">
+        <v>42856</v>
+      </c>
+      <c r="B269" s="2">
+        <v>8200</v>
+      </c>
+      <c r="C269" s="1">
+        <v>1100926</v>
+      </c>
+      <c r="D269" s="1">
+        <v>1718027</v>
+      </c>
+      <c r="E269" s="1">
+        <v>159600</v>
+      </c>
+      <c r="F269" s="1">
+        <v>296782</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A270" s="3">
+        <v>42850</v>
+      </c>
+      <c r="B270" s="1">
+        <v>8000</v>
+      </c>
+      <c r="C270" s="1">
+        <v>1111845</v>
+      </c>
+      <c r="D270" s="1">
+        <v>2329593</v>
+      </c>
+      <c r="E270" s="1">
+        <v>145035</v>
+      </c>
+      <c r="F270" s="1">
+        <v>276378</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A271" s="3">
+        <v>42850</v>
+      </c>
+      <c r="B271" s="2">
+        <v>10300</v>
+      </c>
+      <c r="C271" s="1">
+        <v>2543000</v>
+      </c>
+      <c r="D271" s="1">
+        <v>4896000</v>
+      </c>
+      <c r="E271" s="1">
+        <v>321000</v>
+      </c>
+      <c r="F271" s="1">
+        <v>583500</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A272" s="3">
+        <v>42922</v>
+      </c>
+      <c r="B272" s="2">
+        <v>9600</v>
+      </c>
+      <c r="C272" s="1">
+        <v>2448140</v>
+      </c>
+      <c r="D272" s="1">
+        <v>6250730</v>
+      </c>
+      <c r="E272" s="1">
+        <v>599305</v>
+      </c>
+      <c r="F272" s="1">
+        <v>95850</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A273" s="3">
+        <v>42828</v>
+      </c>
+      <c r="B273" s="2">
+        <v>8600</v>
+      </c>
+      <c r="C273" s="1">
+        <v>1017811</v>
+      </c>
+      <c r="D273" s="1">
+        <v>1574235</v>
+      </c>
+      <c r="E273" s="1">
+        <v>186851</v>
+      </c>
+      <c r="F273" s="1">
+        <v>296900</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A274" s="3">
+        <v>42786</v>
+      </c>
+      <c r="B274" s="2">
+        <v>7900</v>
+      </c>
+      <c r="C274" s="1">
+        <v>111845</v>
+      </c>
+      <c r="D274" s="1">
+        <v>2329593</v>
+      </c>
+      <c r="E274" s="1">
+        <v>145035</v>
+      </c>
+      <c r="F274" s="1">
+        <v>276378</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A275" s="3">
+        <v>42818</v>
+      </c>
+      <c r="B275" s="2">
+        <v>8600</v>
+      </c>
+      <c r="C275" s="1">
+        <v>2449062</v>
+      </c>
+      <c r="D275" s="1">
+        <f>4934000+148000+25000</f>
+        <v>5107000</v>
+      </c>
+      <c r="E275" s="1">
+        <v>861500</v>
+      </c>
+      <c r="F275" s="1">
+        <v>238500</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A276" s="3">
+        <v>42815</v>
+      </c>
+      <c r="B276" s="2">
+        <v>9800</v>
+      </c>
+      <c r="C276" s="1">
+        <v>3217500</v>
+      </c>
+      <c r="D276" s="1">
+        <v>4801622</v>
+      </c>
+      <c r="E276" s="1">
+        <v>854500</v>
+      </c>
+      <c r="F276" s="1">
+        <v>767134.88</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A277" s="3">
+        <v>42801</v>
+      </c>
+      <c r="B277" s="2">
+        <v>9200</v>
+      </c>
+      <c r="C277" s="1">
+        <v>2600000</v>
+      </c>
+      <c r="D277" s="1">
+        <v>3048761</v>
+      </c>
+      <c r="E277" s="1">
+        <v>900000</v>
+      </c>
+      <c r="F277" s="1">
+        <v>706754</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A278" s="3">
+        <v>42801</v>
+      </c>
+      <c r="B278" s="1">
+        <v>6970</v>
+      </c>
+      <c r="C278" s="1">
+        <v>1760000</v>
+      </c>
+      <c r="D278" s="1">
+        <v>3826677</v>
+      </c>
+      <c r="E278" s="1">
+        <v>45000</v>
+      </c>
+      <c r="F278" s="1">
+        <v>846217</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A279" s="3">
+        <v>42801</v>
+      </c>
+      <c r="B279" s="1">
+        <v>8300</v>
+      </c>
+      <c r="C279" s="1">
+        <v>1549736</v>
+      </c>
+      <c r="D279" s="1">
+        <v>1387450</v>
+      </c>
+      <c r="E279" s="1">
+        <v>141953</v>
+      </c>
+      <c r="F279" s="1">
+        <v>391840</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A280" s="3">
+        <v>42801</v>
+      </c>
+      <c r="B280" s="2">
+        <v>9800</v>
+      </c>
+      <c r="C280" s="1">
+        <v>2102980</v>
+      </c>
+      <c r="D280" s="1">
+        <v>3036572</v>
+      </c>
+      <c r="E280" s="1">
+        <v>573795</v>
+      </c>
+      <c r="F280" s="1">
+        <v>3036572</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A281" s="3">
+        <v>42839</v>
+      </c>
+      <c r="B281" s="2">
+        <v>9800</v>
+      </c>
+      <c r="C281" s="1">
+        <v>2434483</v>
+      </c>
+      <c r="D281" s="1">
+        <v>6278075</v>
+      </c>
+      <c r="E281" s="1">
+        <v>657951</v>
+      </c>
+      <c r="F281" s="1">
+        <v>106550</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A282" s="3">
+        <v>42843</v>
+      </c>
+      <c r="B282" s="2">
+        <v>9800</v>
+      </c>
+      <c r="C282" s="1">
+        <v>1778431</v>
+      </c>
+      <c r="D282" s="1">
+        <v>3048761</v>
+      </c>
+      <c r="E282" s="1">
+        <v>636569</v>
+      </c>
+      <c r="F282" s="1">
+        <v>706754</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A283" s="3">
+        <v>42794</v>
+      </c>
+      <c r="B283" s="1">
+        <v>8400</v>
+      </c>
+      <c r="C283" s="1">
+        <v>2475500</v>
+      </c>
+      <c r="D283" s="1">
+        <v>4479000</v>
+      </c>
+      <c r="E283" s="1">
+        <v>862500</v>
+      </c>
+      <c r="F283" s="1">
+        <v>81000</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A284" s="3">
+        <v>42800</v>
+      </c>
+      <c r="B284" s="1">
+        <v>8600</v>
+      </c>
+      <c r="C284" s="1">
+        <v>1256245</v>
+      </c>
+      <c r="D284" s="1">
+        <v>1513055</v>
+      </c>
+      <c r="E284" s="1">
+        <v>222000</v>
+      </c>
+      <c r="F284" s="1">
+        <v>470550</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A285" s="3">
+        <v>42794</v>
+      </c>
+      <c r="B285" s="1">
+        <v>8600</v>
+      </c>
+      <c r="C285" s="1">
+        <v>1017811</v>
+      </c>
+      <c r="D285" s="1">
+        <v>1574235</v>
+      </c>
+      <c r="E285" s="1">
+        <v>186851</v>
+      </c>
+      <c r="F285" s="1">
+        <v>296990</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A286" s="3">
+        <v>42789</v>
+      </c>
+      <c r="B286" s="1">
+        <v>10560</v>
+      </c>
+      <c r="C286" s="1">
+        <v>1511900</v>
+      </c>
+      <c r="D286" s="1">
+        <v>3350994</v>
+      </c>
+      <c r="E286" s="1">
+        <v>276500</v>
+      </c>
+      <c r="F286" s="1">
+        <v>227750</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A287" s="3">
+        <v>42783</v>
+      </c>
+      <c r="B287" s="2">
+        <v>7000</v>
+      </c>
+      <c r="C287" s="1">
+        <v>1462945</v>
+      </c>
+      <c r="D287" s="1">
+        <v>2044205</v>
+      </c>
+      <c r="E287" s="1">
+        <v>209400</v>
+      </c>
+      <c r="F287" s="1">
+        <v>505800</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A288" s="3">
+        <v>42758</v>
+      </c>
+      <c r="B288" s="2">
+        <v>8300</v>
+      </c>
+      <c r="C288" s="1">
+        <v>3217500</v>
+      </c>
+      <c r="D288" s="1">
+        <v>4801622</v>
+      </c>
+      <c r="E288" s="1">
+        <v>854500</v>
+      </c>
+      <c r="F288" s="1">
+        <v>767134</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A289" s="3">
+        <v>42787</v>
+      </c>
+      <c r="B289" s="1">
+        <v>5000</v>
+      </c>
+      <c r="C289" s="1">
+        <v>2317900</v>
+      </c>
+      <c r="D289" s="1">
+        <v>2814500</v>
+      </c>
+      <c r="E289" s="1">
+        <v>448300</v>
+      </c>
+      <c r="F289" s="1">
+        <v>477800</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A290" s="3">
+        <v>42787</v>
+      </c>
+      <c r="B290" s="2">
+        <v>8300</v>
+      </c>
+      <c r="C290" s="1">
+        <v>2036083</v>
+      </c>
+      <c r="D290" s="1">
+        <f>5080000+313000+25000</f>
+        <v>5418000</v>
+      </c>
+      <c r="E290" s="1">
+        <v>444000</v>
+      </c>
+      <c r="F290" s="1">
+        <f>30000+347000+46500</f>
+        <v>423500</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A291" s="3">
+        <v>42801</v>
+      </c>
+      <c r="B291" s="1">
+        <v>8400</v>
+      </c>
+      <c r="C291" s="1">
+        <v>2097000</v>
+      </c>
+      <c r="D291" s="1">
+        <v>2442000</v>
+      </c>
+      <c r="E291" s="1">
+        <v>264000</v>
+      </c>
+      <c r="F291" s="1">
+        <v>562500</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A292" s="3">
+        <v>42787</v>
+      </c>
+      <c r="B292" s="1">
+        <v>9440</v>
+      </c>
+      <c r="C292" s="1">
+        <v>3342000</v>
+      </c>
+      <c r="D292" s="1">
+        <v>5938217</v>
+      </c>
+      <c r="E292" s="1">
+        <v>322000</v>
+      </c>
+      <c r="F292" s="1">
+        <v>736133</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A293" s="3">
+        <v>42766</v>
+      </c>
+      <c r="B293" s="2">
+        <v>8700</v>
+      </c>
+      <c r="C293" s="1">
+        <v>1739850</v>
+      </c>
+      <c r="D293" s="1">
+        <v>3738525</v>
+      </c>
+      <c r="E293" s="1">
+        <v>133000</v>
+      </c>
+      <c r="F293" s="1">
+        <v>762500</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A294" s="3">
+        <v>42766</v>
+      </c>
+      <c r="B294" s="2">
+        <v>9800</v>
+      </c>
+      <c r="C294" s="1">
+        <v>2193867</v>
+      </c>
+      <c r="D294" s="1">
+        <v>3196408</v>
+      </c>
+      <c r="E294" s="1">
+        <v>573795</v>
+      </c>
+      <c r="F294" s="1">
+        <v>114990</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A295" s="3">
+        <v>42746</v>
+      </c>
+      <c r="B295" s="2">
+        <v>9440</v>
+      </c>
+      <c r="C295" s="1">
+        <v>3217500</v>
+      </c>
+      <c r="D295" s="1">
+        <v>4801622</v>
+      </c>
+      <c r="E295" s="1">
+        <v>854500</v>
+      </c>
+      <c r="F295" s="1">
+        <v>767134</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A296" s="3">
+        <v>42779</v>
+      </c>
+      <c r="B296" s="2">
+        <v>8800</v>
+      </c>
+      <c r="C296" s="1">
+        <v>1017811</v>
+      </c>
+      <c r="D296" s="1">
+        <v>1574235</v>
+      </c>
+      <c r="E296" s="1">
+        <v>186851</v>
+      </c>
+      <c r="F296" s="1">
+        <v>296900</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A297" s="3">
+        <v>42742</v>
+      </c>
+      <c r="B297" s="2">
+        <v>8300</v>
+      </c>
+      <c r="C297" s="1">
+        <v>1830000</v>
+      </c>
+      <c r="D297" s="1">
+        <v>3048761</v>
+      </c>
+      <c r="E297" s="1">
+        <v>800000</v>
+      </c>
+      <c r="F297" s="1">
+        <v>706754</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A298" s="3">
+        <v>42717</v>
+      </c>
+      <c r="B298" s="2">
+        <v>7900</v>
+      </c>
+      <c r="C298" s="1">
+        <v>2518000</v>
+      </c>
+      <c r="D298" s="1">
+        <v>2710000</v>
+      </c>
+      <c r="E298" s="1">
+        <v>592000</v>
+      </c>
+      <c r="F298" s="1">
+        <v>390000</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A299" s="3">
+        <v>42717</v>
+      </c>
+      <c r="B299" s="1">
+        <v>4550</v>
+      </c>
+      <c r="C299" s="1">
+        <v>2560000</v>
+      </c>
+      <c r="D299" s="1">
+        <v>2730000</v>
+      </c>
+      <c r="E299" s="1">
+        <v>620000</v>
+      </c>
+      <c r="F299" s="1">
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A300" s="3">
+        <v>42780</v>
+      </c>
+      <c r="B300" s="2">
+        <v>8200</v>
+      </c>
+      <c r="C300" s="1">
+        <v>1668500</v>
+      </c>
+      <c r="D300" s="1">
+        <v>3048761</v>
+      </c>
+      <c r="E300" s="1">
+        <v>364500</v>
+      </c>
+      <c r="F300" s="1">
+        <v>706754</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A301" s="3">
+        <v>41848</v>
+      </c>
+      <c r="B301" s="1">
+        <v>4870</v>
+      </c>
+      <c r="C301" s="1">
+        <v>3119000</v>
+      </c>
+      <c r="D301" s="1">
+        <v>3944000</v>
+      </c>
+      <c r="E301" s="1">
+        <v>494000</v>
+      </c>
+      <c r="F301" s="1">
+        <v>737000</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A302" s="3">
+        <v>42262</v>
+      </c>
+      <c r="B302" s="1">
+        <v>7200</v>
+      </c>
+      <c r="C302" s="1">
+        <v>2721560</v>
+      </c>
+      <c r="D302" s="1">
+        <v>2967221</v>
+      </c>
+      <c r="E302" s="1">
+        <v>704180</v>
+      </c>
+      <c r="F302" s="1">
+        <v>386900</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A303" s="3">
+        <v>42324</v>
+      </c>
+      <c r="B303" s="1">
+        <v>6900</v>
+      </c>
+      <c r="C303" s="1">
+        <v>2415000</v>
+      </c>
+      <c r="D303" s="1">
+        <v>3408000</v>
+      </c>
+      <c r="E303" s="1">
+        <v>369000</v>
+      </c>
+      <c r="F303" s="1">
+        <v>323000</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A304" s="3">
+        <v>42360</v>
+      </c>
+      <c r="B304" s="1">
+        <v>7800</v>
+      </c>
+      <c r="C304" s="1">
+        <v>1309258</v>
+      </c>
+      <c r="D304" s="1">
+        <v>1990576</v>
+      </c>
+      <c r="E304" s="1">
+        <v>185474</v>
+      </c>
+      <c r="F304" s="1">
+        <v>284484</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A305" s="3">
+        <v>42506</v>
+      </c>
+      <c r="B305" s="1">
+        <v>9971</v>
+      </c>
+      <c r="C305" s="1">
+        <v>6022000</v>
+      </c>
+      <c r="D305" s="1">
+        <v>6061000</v>
+      </c>
+      <c r="E305" s="1">
+        <v>455000</v>
+      </c>
+      <c r="F305" s="1">
+        <v>901000</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A306" s="3">
+        <v>42148</v>
       </c>
     </row>
   </sheetData>

--- a/CleanAFEs.xlsx
+++ b/CleanAFEs.xlsx
@@ -390,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F306"/>
+  <dimension ref="A1:F317"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A272" workbookViewId="0">
-      <selection activeCell="B306" sqref="B306"/>
+    <sheetView tabSelected="1" topLeftCell="A281" workbookViewId="0">
+      <selection activeCell="A318" sqref="A318"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6642,6 +6642,241 @@
     <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306" s="3">
         <v>42148</v>
+      </c>
+      <c r="B306" s="1">
+        <v>9883</v>
+      </c>
+      <c r="C306" s="1">
+        <v>5439000</v>
+      </c>
+      <c r="D306" s="1">
+        <v>5404500</v>
+      </c>
+      <c r="E306" s="1">
+        <v>495000</v>
+      </c>
+      <c r="F306" s="1">
+        <v>1015800</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A307" s="3">
+        <v>42100</v>
+      </c>
+      <c r="B307" s="1">
+        <v>4623</v>
+      </c>
+      <c r="C307" s="1">
+        <v>4141000</v>
+      </c>
+      <c r="D307" s="1">
+        <v>3008500</v>
+      </c>
+      <c r="E307" s="1">
+        <v>544000</v>
+      </c>
+      <c r="F307" s="1">
+        <v>823000</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A308" s="3">
+        <v>42184</v>
+      </c>
+      <c r="B308" s="1">
+        <v>9883</v>
+      </c>
+      <c r="C308" s="1">
+        <v>5439000</v>
+      </c>
+      <c r="D308" s="1">
+        <v>5404500</v>
+      </c>
+      <c r="E308" s="1">
+        <v>495000</v>
+      </c>
+      <c r="F308" s="1">
+        <v>1015800</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A309" s="3">
+        <v>41940</v>
+      </c>
+      <c r="B309" s="1">
+        <v>9813</v>
+      </c>
+      <c r="C309" s="1">
+        <v>5324000</v>
+      </c>
+      <c r="D309" s="1">
+        <v>6188500</v>
+      </c>
+      <c r="E309" s="1">
+        <v>521000</v>
+      </c>
+      <c r="F309" s="1">
+        <v>930000</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A310" s="3">
+        <v>41933</v>
+      </c>
+      <c r="B310" s="1">
+        <v>4452</v>
+      </c>
+      <c r="C310" s="1">
+        <v>2690000</v>
+      </c>
+      <c r="D310" s="1">
+        <v>3103000</v>
+      </c>
+      <c r="E310" s="1">
+        <v>502000</v>
+      </c>
+      <c r="F310" s="1">
+        <v>778000</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A311" s="3">
+        <v>41968</v>
+      </c>
+      <c r="B311" s="1">
+        <v>9828</v>
+      </c>
+      <c r="C311" s="1">
+        <v>5128000</v>
+      </c>
+      <c r="D311" s="1">
+        <v>6178500</v>
+      </c>
+      <c r="E311" s="1">
+        <v>535000</v>
+      </c>
+      <c r="F311" s="1">
+        <v>904000</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A312" s="3">
+        <v>42033</v>
+      </c>
+      <c r="B312" s="1">
+        <v>9730</v>
+      </c>
+      <c r="C312" s="1">
+        <v>3323000</v>
+      </c>
+      <c r="D312" s="1">
+        <v>5768000</v>
+      </c>
+      <c r="E312" s="1">
+        <v>458000</v>
+      </c>
+      <c r="F312" s="1">
+        <v>951400</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A313" s="3">
+        <v>42082</v>
+      </c>
+      <c r="B313" s="1">
+        <v>7243</v>
+      </c>
+      <c r="C313" s="1">
+        <v>4842000</v>
+      </c>
+      <c r="D313" s="1">
+        <v>5530500</v>
+      </c>
+      <c r="E313" s="1">
+        <v>545000</v>
+      </c>
+      <c r="F313" s="1">
+        <v>898000</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A314" s="3">
+        <v>42072</v>
+      </c>
+      <c r="B314" s="1">
+        <v>10083</v>
+      </c>
+      <c r="C314" s="1">
+        <v>5262000</v>
+      </c>
+      <c r="D314" s="1">
+        <v>6178500</v>
+      </c>
+      <c r="E314" s="1">
+        <v>521000</v>
+      </c>
+      <c r="F314" s="1">
+        <v>937000</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A315" s="3">
+        <v>41691</v>
+      </c>
+      <c r="B315" s="1">
+        <v>4452</v>
+      </c>
+      <c r="C315" s="1">
+        <v>2690000</v>
+      </c>
+      <c r="D315" s="1">
+        <v>3103000</v>
+      </c>
+      <c r="E315" s="1">
+        <v>502000</v>
+      </c>
+      <c r="F315" s="1">
+        <v>778000</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A316" s="3">
+        <v>42072</v>
+      </c>
+      <c r="B316" s="1">
+        <v>7243</v>
+      </c>
+      <c r="C316" s="1">
+        <v>4842000</v>
+      </c>
+      <c r="D316" s="1">
+        <v>5530500</v>
+      </c>
+      <c r="E316" s="1">
+        <v>545000</v>
+      </c>
+      <c r="F316" s="1">
+        <v>898000</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A317" s="3">
+        <v>41939</v>
+      </c>
+      <c r="B317" s="1">
+        <v>9813</v>
+      </c>
+      <c r="C317" s="1">
+        <v>5324000</v>
+      </c>
+      <c r="D317" s="1">
+        <v>6188500</v>
+      </c>
+      <c r="E317" s="1">
+        <v>521000</v>
+      </c>
+      <c r="F317" s="1">
+        <v>930000</v>
       </c>
     </row>
   </sheetData>

--- a/CleanAFEs.xlsx
+++ b/CleanAFEs.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="13395" windowHeight="7500"/>
+    <workbookView xWindow="360" yWindow="135" windowWidth="13395" windowHeight="7500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="RawData" sheetId="1" r:id="rId1"/>
+    <sheet name="SortedData" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -16,24 +16,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Intangible Dry Well</t>
-  </si>
-  <si>
-    <t>Tangible Dry Well</t>
-  </si>
-  <si>
-    <t>Intangible Completion</t>
-  </si>
-  <si>
-    <t>Tangible Completion</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t>Length(')</t>
+    <t>Length(Feet)</t>
+  </si>
+  <si>
+    <t>Intangible Dry Well ($)</t>
+  </si>
+  <si>
+    <t>Intangible Completion ($)</t>
+  </si>
+  <si>
+    <t>Tangible Dry Well ($)</t>
+  </si>
+  <si>
+    <t>Tangible Completion ($)</t>
   </si>
 </sst>
 </file>
@@ -392,38 +392,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F317"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A281" workbookViewId="0">
-      <selection activeCell="A318" sqref="A318"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
@@ -6887,12 +6887,6499 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F317"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A298" workbookViewId="0">
+      <selection activeCell="B314" sqref="B314"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>41191</v>
+      </c>
+      <c r="B2" s="1">
+        <v>4500</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1248750</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2710500</v>
+      </c>
+      <c r="E2" s="1">
+        <v>160150</v>
+      </c>
+      <c r="F2" s="1">
+        <v>454775</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>41226</v>
+      </c>
+      <c r="B3" s="1">
+        <v>5000</v>
+      </c>
+      <c r="C3" s="1">
+        <v>4407024</v>
+      </c>
+      <c r="D3" s="1">
+        <v>4662200</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1192976</v>
+      </c>
+      <c r="F3" s="1">
+        <v>329525</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>41226</v>
+      </c>
+      <c r="B4" s="1">
+        <v>5000</v>
+      </c>
+      <c r="C4" s="1">
+        <v>4478394</v>
+      </c>
+      <c r="D4" s="1">
+        <f>4746700+50000</f>
+        <v>4796700</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1121606</v>
+      </c>
+      <c r="F4" s="1">
+        <f>315525+14000</f>
+        <v>329525</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>41226</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4600</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1302500</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2197000</v>
+      </c>
+      <c r="E5" s="1">
+        <v>277000</v>
+      </c>
+      <c r="F5" s="1">
+        <v>185200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>41242</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4600</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2730000</v>
+      </c>
+      <c r="D6" s="1">
+        <f>2894125+75000</f>
+        <v>2969125</v>
+      </c>
+      <c r="E6" s="1">
+        <v>449000</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1324500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>41254</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4500</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3349000</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2928500</v>
+      </c>
+      <c r="E7" s="1">
+        <v>460000</v>
+      </c>
+      <c r="F7" s="1">
+        <v>909000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>41281</v>
+      </c>
+      <c r="B8" s="1">
+        <v>11500</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1176050</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2634050</v>
+      </c>
+      <c r="E8" s="1">
+        <v>157200</v>
+      </c>
+      <c r="F8" s="1">
+        <v>441250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>41296</v>
+      </c>
+      <c r="B9" s="1">
+        <v>9900</v>
+      </c>
+      <c r="C9" s="1">
+        <v>4404697</v>
+      </c>
+      <c r="D9" s="1">
+        <f>5009200+55000</f>
+        <v>5064200</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1045303</v>
+      </c>
+      <c r="F9" s="1">
+        <v>254300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>41296</v>
+      </c>
+      <c r="B10" s="1">
+        <v>11900</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1179450</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3032450</v>
+      </c>
+      <c r="E10" s="1">
+        <v>157200</v>
+      </c>
+      <c r="F10" s="1">
+        <v>446725</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>41305</v>
+      </c>
+      <c r="B11" s="1">
+        <v>10230</v>
+      </c>
+      <c r="C11" s="1">
+        <v>4304697</v>
+      </c>
+      <c r="D11" s="1">
+        <f>5284050+55000</f>
+        <v>5339050</v>
+      </c>
+      <c r="E11" s="1">
+        <v>995303</v>
+      </c>
+      <c r="F11" s="1">
+        <v>252400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>41365</v>
+      </c>
+      <c r="B12" s="1">
+        <v>10230</v>
+      </c>
+      <c r="C12" s="1">
+        <v>4304697</v>
+      </c>
+      <c r="D12" s="1">
+        <f>5264050+55000</f>
+        <v>5319050</v>
+      </c>
+      <c r="E12" s="1">
+        <v>995303</v>
+      </c>
+      <c r="F12" s="1">
+        <v>252400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>41400</v>
+      </c>
+      <c r="B13" s="1">
+        <v>11900</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1169000</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2697000</v>
+      </c>
+      <c r="E13" s="1">
+        <v>157200</v>
+      </c>
+      <c r="F13" s="1">
+        <v>446725</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>41407</v>
+      </c>
+      <c r="B14" s="1">
+        <v>11450</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1241100</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2747100</v>
+      </c>
+      <c r="E14" s="1">
+        <v>137580</v>
+      </c>
+      <c r="F14" s="1">
+        <v>394467</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>41407</v>
+      </c>
+      <c r="B15" s="1">
+        <v>11900</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1169000</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2697000</v>
+      </c>
+      <c r="E15" s="1">
+        <v>157200</v>
+      </c>
+      <c r="F15" s="1">
+        <v>446725</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>41516</v>
+      </c>
+      <c r="B16" s="1">
+        <v>4700</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1819000</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2459000</v>
+      </c>
+      <c r="E16" s="1">
+        <v>184100</v>
+      </c>
+      <c r="F16" s="1">
+        <v>380600</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>41530</v>
+      </c>
+      <c r="B17" s="2">
+        <v>4844.21</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1819000</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2439000</v>
+      </c>
+      <c r="E17" s="1">
+        <v>182300</v>
+      </c>
+      <c r="F17" s="1">
+        <v>379400</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>41547</v>
+      </c>
+      <c r="B18" s="1">
+        <v>5200</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1819000</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2459000</v>
+      </c>
+      <c r="E18" s="1">
+        <v>184100</v>
+      </c>
+      <c r="F18" s="1">
+        <v>380600</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>41550</v>
+      </c>
+      <c r="B19" s="1">
+        <v>5000</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2426500</v>
+      </c>
+      <c r="D19" s="1">
+        <v>5403904</v>
+      </c>
+      <c r="E19" s="1">
+        <v>931500</v>
+      </c>
+      <c r="F19" s="1">
+        <v>652326</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>41551</v>
+      </c>
+      <c r="B20" s="1">
+        <v>10230</v>
+      </c>
+      <c r="C20" s="1">
+        <v>4083214</v>
+      </c>
+      <c r="D20" s="1">
+        <v>6205200</v>
+      </c>
+      <c r="E20" s="1">
+        <v>4775000</v>
+      </c>
+      <c r="F20" s="1">
+        <v>6411700</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>41562</v>
+      </c>
+      <c r="B21" s="2">
+        <f>7100/1.8</f>
+        <v>3944.4444444444443</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1628500</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2787000</v>
+      </c>
+      <c r="E21" s="1">
+        <v>294681.25</v>
+      </c>
+      <c r="F21" s="1">
+        <v>185760</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>41583</v>
+      </c>
+      <c r="B22" s="2">
+        <f>7100/1.47</f>
+        <v>4829.9319727891161</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1628500</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2787000</v>
+      </c>
+      <c r="E22" s="1">
+        <v>294973</v>
+      </c>
+      <c r="F22" s="1">
+        <v>185700</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>41597</v>
+      </c>
+      <c r="B23" s="1">
+        <v>10230</v>
+      </c>
+      <c r="C23" s="1">
+        <v>4128804</v>
+      </c>
+      <c r="D23" s="1">
+        <v>4736000</v>
+      </c>
+      <c r="E23" s="1">
+        <v>671196</v>
+      </c>
+      <c r="F23" s="1">
+        <v>206500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>41597</v>
+      </c>
+      <c r="B24" s="1">
+        <v>10230</v>
+      </c>
+      <c r="C24" s="1">
+        <v>4128804</v>
+      </c>
+      <c r="D24" s="1">
+        <f>4536000+213200</f>
+        <v>4749200</v>
+      </c>
+      <c r="E24" s="1">
+        <v>671196</v>
+      </c>
+      <c r="F24" s="1">
+        <f>14000+192500</f>
+        <v>206500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>41631</v>
+      </c>
+      <c r="B25" s="2">
+        <f>7100/1.47</f>
+        <v>4829.9319727891161</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1657500</v>
+      </c>
+      <c r="D25" s="1">
+        <v>2787000</v>
+      </c>
+      <c r="E25" s="1">
+        <v>294544</v>
+      </c>
+      <c r="F25" s="1">
+        <v>185700</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>41642</v>
+      </c>
+      <c r="B26" s="1">
+        <v>10230</v>
+      </c>
+      <c r="C26" s="1">
+        <v>3881404</v>
+      </c>
+      <c r="D26" s="1">
+        <v>6309500</v>
+      </c>
+      <c r="E26" s="1">
+        <v>686595</v>
+      </c>
+      <c r="F26" s="1">
+        <v>222000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>41645</v>
+      </c>
+      <c r="B27" s="1">
+        <v>10230</v>
+      </c>
+      <c r="C27" s="1">
+        <v>4083214</v>
+      </c>
+      <c r="D27" s="1">
+        <f>5992000+213200</f>
+        <v>6205200</v>
+      </c>
+      <c r="E27" s="1">
+        <v>691788</v>
+      </c>
+      <c r="F27" s="1">
+        <f>14000+192500</f>
+        <v>206500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>41647</v>
+      </c>
+      <c r="B28" s="1">
+        <v>10230</v>
+      </c>
+      <c r="C28" s="1">
+        <v>3703102</v>
+      </c>
+      <c r="D28" s="1">
+        <v>4749200</v>
+      </c>
+      <c r="E28" s="1">
+        <v>598898</v>
+      </c>
+      <c r="F28" s="1">
+        <v>206500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>41654</v>
+      </c>
+      <c r="B29" s="1">
+        <v>10230</v>
+      </c>
+      <c r="C29" s="1">
+        <v>4027789</v>
+      </c>
+      <c r="D29" s="1">
+        <f>5992000+213200</f>
+        <v>6205200</v>
+      </c>
+      <c r="E29" s="1">
+        <v>672211</v>
+      </c>
+      <c r="F29" s="1">
+        <f>14000+192500</f>
+        <v>206500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>41659</v>
+      </c>
+      <c r="B30" s="2">
+        <f>7100/1.8</f>
+        <v>3944.4444444444443</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1628500</v>
+      </c>
+      <c r="D30" s="1">
+        <v>2787000</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1922720</v>
+      </c>
+      <c r="F30" s="1">
+        <v>2972700</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>41691</v>
+      </c>
+      <c r="B31" s="1">
+        <v>4452</v>
+      </c>
+      <c r="C31" s="1">
+        <v>2690000</v>
+      </c>
+      <c r="D31" s="1">
+        <v>3103000</v>
+      </c>
+      <c r="E31" s="1">
+        <v>502000</v>
+      </c>
+      <c r="F31" s="1">
+        <v>778000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>41708</v>
+      </c>
+      <c r="B32" s="1">
+        <v>10230</v>
+      </c>
+      <c r="C32" s="1">
+        <v>4027789</v>
+      </c>
+      <c r="D32" s="1">
+        <f>5992000+213200</f>
+        <v>6205200</v>
+      </c>
+      <c r="E32" s="1">
+        <v>672211</v>
+      </c>
+      <c r="F32" s="1">
+        <f>14000+192500</f>
+        <v>206500</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>41722</v>
+      </c>
+      <c r="B33" s="1">
+        <v>4452</v>
+      </c>
+      <c r="C33" s="1">
+        <v>2690000</v>
+      </c>
+      <c r="D33" s="1">
+        <v>3103000</v>
+      </c>
+      <c r="E33" s="1">
+        <v>502000</v>
+      </c>
+      <c r="F33" s="1">
+        <v>778000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>41731</v>
+      </c>
+      <c r="B34" s="1">
+        <v>5000</v>
+      </c>
+      <c r="C34" s="1">
+        <v>3855439</v>
+      </c>
+      <c r="D34" s="1">
+        <v>6289624</v>
+      </c>
+      <c r="E34" s="1">
+        <v>4382219</v>
+      </c>
+      <c r="F34" s="1">
+        <v>6480662</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>41732</v>
+      </c>
+      <c r="B35" s="1">
+        <v>5000</v>
+      </c>
+      <c r="C35" s="1">
+        <v>2245350</v>
+      </c>
+      <c r="D35" s="1">
+        <v>2867700</v>
+      </c>
+      <c r="E35" s="1">
+        <v>364525</v>
+      </c>
+      <c r="F35" s="1">
+        <v>364300</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>41773</v>
+      </c>
+      <c r="B36" s="1">
+        <v>5000</v>
+      </c>
+      <c r="C36" s="1">
+        <v>2245350</v>
+      </c>
+      <c r="D36" s="1">
+        <v>364525</v>
+      </c>
+      <c r="E36" s="1">
+        <v>2867700</v>
+      </c>
+      <c r="F36" s="1">
+        <v>364300</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>41782</v>
+      </c>
+      <c r="B37" s="1">
+        <v>5200</v>
+      </c>
+      <c r="C37" s="1">
+        <v>3835982</v>
+      </c>
+      <c r="D37" s="1">
+        <f>7141623+23000</f>
+        <v>7164623</v>
+      </c>
+      <c r="E37" s="1">
+        <v>536862</v>
+      </c>
+      <c r="F37" s="1">
+        <f>375000+193215</f>
+        <v>568215</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>41805</v>
+      </c>
+      <c r="B38" s="1">
+        <v>5000</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1720896</v>
+      </c>
+      <c r="D38" s="1">
+        <v>2018924</v>
+      </c>
+      <c r="E38" s="1">
+        <v>205468</v>
+      </c>
+      <c r="F38" s="1">
+        <v>569114</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>41813</v>
+      </c>
+      <c r="B39" s="1">
+        <v>10230</v>
+      </c>
+      <c r="C39" s="1">
+        <v>4027789</v>
+      </c>
+      <c r="D39" s="1">
+        <f>5992000+213200</f>
+        <v>6205200</v>
+      </c>
+      <c r="E39" s="1">
+        <v>672211</v>
+      </c>
+      <c r="F39" s="1">
+        <f>14000+192500</f>
+        <v>206500</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>41823</v>
+      </c>
+      <c r="B40" s="2">
+        <f>8800/1.7</f>
+        <v>5176.4705882352946</v>
+      </c>
+      <c r="C40" s="1">
+        <v>3764847</v>
+      </c>
+      <c r="D40" s="1">
+        <v>7141624</v>
+      </c>
+      <c r="E40" s="1">
+        <v>546346</v>
+      </c>
+      <c r="F40" s="1">
+        <v>574000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>41828</v>
+      </c>
+      <c r="B41" s="2">
+        <f>8800/2</f>
+        <v>4400</v>
+      </c>
+      <c r="C41" s="1">
+        <v>3547809</v>
+      </c>
+      <c r="D41" s="1">
+        <v>7141624</v>
+      </c>
+      <c r="E41" s="1">
+        <v>540278</v>
+      </c>
+      <c r="F41" s="1">
+        <f>193953+375000</f>
+        <v>568953</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>41844</v>
+      </c>
+      <c r="B42" s="1">
+        <v>5000</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1720896</v>
+      </c>
+      <c r="D42" s="1">
+        <v>2018924</v>
+      </c>
+      <c r="E42" s="1">
+        <v>205468</v>
+      </c>
+      <c r="F42" s="1">
+        <v>569114</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>41848</v>
+      </c>
+      <c r="B43" s="1">
+        <v>4870</v>
+      </c>
+      <c r="C43" s="1">
+        <v>3119000</v>
+      </c>
+      <c r="D43" s="1">
+        <v>3944000</v>
+      </c>
+      <c r="E43" s="1">
+        <v>494000</v>
+      </c>
+      <c r="F43" s="1">
+        <v>737000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>41859</v>
+      </c>
+      <c r="B44" s="1">
+        <v>5300</v>
+      </c>
+      <c r="C44" s="1">
+        <v>4100385</v>
+      </c>
+      <c r="D44" s="1">
+        <v>5907394</v>
+      </c>
+      <c r="E44" s="1">
+        <v>458553</v>
+      </c>
+      <c r="F44" s="1">
+        <f>92310+356700</f>
+        <v>449010</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>41869</v>
+      </c>
+      <c r="B45" s="1">
+        <v>4400</v>
+      </c>
+      <c r="C45" s="1">
+        <v>3335000</v>
+      </c>
+      <c r="D45" s="1">
+        <v>4187000</v>
+      </c>
+      <c r="E45" s="1">
+        <v>484000</v>
+      </c>
+      <c r="F45" s="1">
+        <v>720000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>41869</v>
+      </c>
+      <c r="B46" s="1">
+        <v>10230</v>
+      </c>
+      <c r="C46" s="1">
+        <v>3726832</v>
+      </c>
+      <c r="D46" s="1">
+        <f>4536000+213200</f>
+        <v>4749200</v>
+      </c>
+      <c r="E46" s="1">
+        <v>673168</v>
+      </c>
+      <c r="F46" s="1">
+        <f>14000+192500</f>
+        <v>206500</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>41872</v>
+      </c>
+      <c r="B47" s="2">
+        <f>7100/1.47</f>
+        <v>4829.9319727891161</v>
+      </c>
+      <c r="C47" s="1">
+        <v>1657500</v>
+      </c>
+      <c r="D47" s="1">
+        <v>2787000</v>
+      </c>
+      <c r="E47" s="1">
+        <v>294643.75</v>
+      </c>
+      <c r="F47" s="1">
+        <v>185700</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>41885</v>
+      </c>
+      <c r="B48" s="2">
+        <f>8800/1.7</f>
+        <v>5176.4705882352946</v>
+      </c>
+      <c r="C48" s="1">
+        <v>3855439</v>
+      </c>
+      <c r="D48" s="1">
+        <v>6312624</v>
+      </c>
+      <c r="E48" s="1">
+        <v>526780</v>
+      </c>
+      <c r="F48" s="1">
+        <v>574038</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>41898</v>
+      </c>
+      <c r="B49" s="2">
+        <f>8800/1.7</f>
+        <v>5176.4705882352946</v>
+      </c>
+      <c r="C49" s="1">
+        <v>1628500</v>
+      </c>
+      <c r="D49" s="1">
+        <v>3089310.25</v>
+      </c>
+      <c r="E49" s="1">
+        <v>2787000</v>
+      </c>
+      <c r="F49" s="1">
+        <v>185700</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>41899</v>
+      </c>
+      <c r="B50" s="1">
+        <v>4870</v>
+      </c>
+      <c r="C50" s="1">
+        <v>3119000</v>
+      </c>
+      <c r="D50" s="1">
+        <v>3944000</v>
+      </c>
+      <c r="E50" s="1">
+        <v>494000</v>
+      </c>
+      <c r="F50" s="1">
+        <v>737000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>41918</v>
+      </c>
+      <c r="B51" s="1">
+        <v>8000</v>
+      </c>
+      <c r="C51" s="1">
+        <v>3726832</v>
+      </c>
+      <c r="D51" s="1">
+        <f>6055000+213200</f>
+        <v>6268200</v>
+      </c>
+      <c r="E51" s="1">
+        <v>673168</v>
+      </c>
+      <c r="F51" s="1">
+        <v>192500</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>41926</v>
+      </c>
+      <c r="B52" s="2">
+        <f>5000/1.9</f>
+        <v>2631.5789473684213</v>
+      </c>
+      <c r="C52" s="1">
+        <v>2211190</v>
+      </c>
+      <c r="D52" s="1">
+        <v>3401190</v>
+      </c>
+      <c r="E52" s="1">
+        <v>514800</v>
+      </c>
+      <c r="F52" s="1">
+        <v>1036400</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>41926</v>
+      </c>
+      <c r="B53" s="1">
+        <v>5600</v>
+      </c>
+      <c r="C53" s="1">
+        <v>3726832</v>
+      </c>
+      <c r="D53" s="1">
+        <v>4536000</v>
+      </c>
+      <c r="E53" s="1">
+        <v>673168</v>
+      </c>
+      <c r="F53" s="1">
+        <f>14000+192500</f>
+        <v>206500</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>41933</v>
+      </c>
+      <c r="B54" s="1">
+        <v>10000</v>
+      </c>
+      <c r="C54" s="1">
+        <v>3748002</v>
+      </c>
+      <c r="D54" s="1">
+        <f>5500000+132000</f>
+        <v>5632000</v>
+      </c>
+      <c r="E54" s="1">
+        <v>651998</v>
+      </c>
+      <c r="F54" s="1">
+        <v>453000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>41933</v>
+      </c>
+      <c r="B55" s="1">
+        <v>4452</v>
+      </c>
+      <c r="C55" s="1">
+        <v>2690000</v>
+      </c>
+      <c r="D55" s="1">
+        <v>3103000</v>
+      </c>
+      <c r="E55" s="1">
+        <v>502000</v>
+      </c>
+      <c r="F55" s="1">
+        <v>778000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>41934</v>
+      </c>
+      <c r="B56" s="1">
+        <v>5000</v>
+      </c>
+      <c r="C56" s="1">
+        <v>1266167</v>
+      </c>
+      <c r="D56" s="1">
+        <v>2018924</v>
+      </c>
+      <c r="E56" s="1">
+        <v>204506</v>
+      </c>
+      <c r="F56" s="1">
+        <v>574282</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>41935</v>
+      </c>
+      <c r="B57" s="2">
+        <f>8600/2.1</f>
+        <v>4095.238095238095</v>
+      </c>
+      <c r="C57" s="1">
+        <v>3162819</v>
+      </c>
+      <c r="D57" s="1">
+        <f>7141624+23000</f>
+        <v>7164624</v>
+      </c>
+      <c r="E57" s="1">
+        <v>533708</v>
+      </c>
+      <c r="F57" s="1">
+        <f>192534+375000</f>
+        <v>567534</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>41936</v>
+      </c>
+      <c r="B58" s="2">
+        <f>8800/2</f>
+        <v>4400</v>
+      </c>
+      <c r="C58" s="1">
+        <v>3302353</v>
+      </c>
+      <c r="D58" s="1">
+        <f>7141624+23000</f>
+        <v>7164624</v>
+      </c>
+      <c r="E58" s="1">
+        <v>537769</v>
+      </c>
+      <c r="F58" s="1">
+        <f>193412+375000</f>
+        <v>568412</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>41939</v>
+      </c>
+      <c r="B59" s="1">
+        <v>4500</v>
+      </c>
+      <c r="C59" s="1">
+        <v>4052000</v>
+      </c>
+      <c r="D59" s="1">
+        <v>3824000</v>
+      </c>
+      <c r="E59" s="1">
+        <v>486000</v>
+      </c>
+      <c r="F59" s="1">
+        <v>725000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>41939</v>
+      </c>
+      <c r="B60" s="1">
+        <v>9813</v>
+      </c>
+      <c r="C60" s="1">
+        <v>5324000</v>
+      </c>
+      <c r="D60" s="1">
+        <v>6188500</v>
+      </c>
+      <c r="E60" s="1">
+        <v>521000</v>
+      </c>
+      <c r="F60" s="1">
+        <v>930000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>41939</v>
+      </c>
+      <c r="B61" s="1">
+        <v>9813</v>
+      </c>
+      <c r="C61" s="1">
+        <v>5324000</v>
+      </c>
+      <c r="D61" s="1">
+        <v>6188500</v>
+      </c>
+      <c r="E61" s="1">
+        <v>521000</v>
+      </c>
+      <c r="F61" s="1">
+        <v>930000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>41940</v>
+      </c>
+      <c r="B62" s="1">
+        <v>9813</v>
+      </c>
+      <c r="C62" s="1">
+        <v>5324000</v>
+      </c>
+      <c r="D62" s="1">
+        <v>6188500</v>
+      </c>
+      <c r="E62" s="1">
+        <v>521000</v>
+      </c>
+      <c r="F62" s="1">
+        <v>930000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>41953</v>
+      </c>
+      <c r="B63" s="1">
+        <v>10230</v>
+      </c>
+      <c r="C63" s="1">
+        <v>3743304</v>
+      </c>
+      <c r="D63" s="1">
+        <f>5766000+304500</f>
+        <v>6070500</v>
+      </c>
+      <c r="E63" s="1">
+        <v>656696</v>
+      </c>
+      <c r="F63" s="1">
+        <v>202000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>41960</v>
+      </c>
+      <c r="B64" s="1">
+        <v>4452</v>
+      </c>
+      <c r="C64" s="1">
+        <v>2690000</v>
+      </c>
+      <c r="D64" s="1">
+        <v>3103000</v>
+      </c>
+      <c r="E64" s="1">
+        <v>502000</v>
+      </c>
+      <c r="F64" s="1">
+        <v>778000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>41961</v>
+      </c>
+      <c r="B65" s="2">
+        <f>8617/2</f>
+        <v>4308.5</v>
+      </c>
+      <c r="C65" s="1">
+        <v>3412073</v>
+      </c>
+      <c r="D65" s="1">
+        <v>6440724</v>
+      </c>
+      <c r="E65" s="1">
+        <v>469918</v>
+      </c>
+      <c r="F65" s="1">
+        <f>87484+347600</f>
+        <v>435084</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>41962</v>
+      </c>
+      <c r="B66" s="2">
+        <f>5000/1.9</f>
+        <v>2631.5789473684213</v>
+      </c>
+      <c r="C66" s="1">
+        <v>2210090</v>
+      </c>
+      <c r="D66" s="1">
+        <v>3400090</v>
+      </c>
+      <c r="E66" s="1">
+        <v>504900</v>
+      </c>
+      <c r="F66" s="1">
+        <v>1026500</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>41964</v>
+      </c>
+      <c r="B67" s="1">
+        <v>5300</v>
+      </c>
+      <c r="C67" s="1">
+        <v>3133396</v>
+      </c>
+      <c r="D67" s="1">
+        <f>3696280+25000</f>
+        <v>3721280</v>
+      </c>
+      <c r="E67" s="1">
+        <v>373368</v>
+      </c>
+      <c r="F67" s="1">
+        <f>91142+406700</f>
+        <v>497842</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>41968</v>
+      </c>
+      <c r="B68" s="1">
+        <v>9828</v>
+      </c>
+      <c r="C68" s="1">
+        <v>5128000</v>
+      </c>
+      <c r="D68" s="1">
+        <v>6178500</v>
+      </c>
+      <c r="E68" s="1">
+        <v>535000</v>
+      </c>
+      <c r="F68" s="1">
+        <v>904000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>41968</v>
+      </c>
+      <c r="B69" s="1">
+        <v>9828</v>
+      </c>
+      <c r="C69" s="1">
+        <v>5128000</v>
+      </c>
+      <c r="D69" s="1">
+        <v>6178500</v>
+      </c>
+      <c r="E69" s="1">
+        <v>535000</v>
+      </c>
+      <c r="F69" s="1">
+        <v>904000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>41974</v>
+      </c>
+      <c r="B70" s="1">
+        <f>9100/2</f>
+        <v>4550</v>
+      </c>
+      <c r="C70" s="1">
+        <v>3726832</v>
+      </c>
+      <c r="D70" s="1">
+        <f>6055000+213200</f>
+        <v>6268200</v>
+      </c>
+      <c r="E70" s="1">
+        <v>673168</v>
+      </c>
+      <c r="F70" s="1">
+        <v>192500</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>41982</v>
+      </c>
+      <c r="B71" s="2">
+        <f>7100/1.9</f>
+        <v>3736.8421052631579</v>
+      </c>
+      <c r="C71" s="1">
+        <v>1643500</v>
+      </c>
+      <c r="D71" s="1">
+        <v>3147000</v>
+      </c>
+      <c r="E71" s="1">
+        <v>308931.25</v>
+      </c>
+      <c r="F71" s="1">
+        <v>185700</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>41995</v>
+      </c>
+      <c r="B72" s="1">
+        <v>10000</v>
+      </c>
+      <c r="C72" s="1">
+        <v>4032300</v>
+      </c>
+      <c r="D72" s="1">
+        <f>6336000+304500</f>
+        <v>6640500</v>
+      </c>
+      <c r="E72" s="1">
+        <v>667700</v>
+      </c>
+      <c r="F72" s="1">
+        <v>202000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>42003</v>
+      </c>
+      <c r="B73" s="1">
+        <v>9828</v>
+      </c>
+      <c r="C73" s="1">
+        <v>5128000</v>
+      </c>
+      <c r="D73" s="1">
+        <v>6178500</v>
+      </c>
+      <c r="E73" s="1">
+        <v>535000</v>
+      </c>
+      <c r="F73" s="1">
+        <v>904000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <v>42009</v>
+      </c>
+      <c r="B74" s="1">
+        <v>10000</v>
+      </c>
+      <c r="C74" s="1">
+        <v>3893304</v>
+      </c>
+      <c r="D74" s="1">
+        <f>6055500+304500</f>
+        <v>6360000</v>
+      </c>
+      <c r="E74" s="1">
+        <v>656696</v>
+      </c>
+      <c r="F74" s="1">
+        <v>202000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>42009</v>
+      </c>
+      <c r="B75" s="1">
+        <v>5000</v>
+      </c>
+      <c r="C75" s="1">
+        <v>1951450</v>
+      </c>
+      <c r="D75" s="1">
+        <v>290525</v>
+      </c>
+      <c r="E75" s="1">
+        <v>2823800</v>
+      </c>
+      <c r="F75" s="1">
+        <v>414900</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>42010</v>
+      </c>
+      <c r="B76" s="1">
+        <f>9100/1.9</f>
+        <v>4789.4736842105267</v>
+      </c>
+      <c r="C76" s="1">
+        <v>2733815</v>
+      </c>
+      <c r="D76" s="1">
+        <v>3696280</v>
+      </c>
+      <c r="E76" s="1">
+        <v>379668</v>
+      </c>
+      <c r="F76" s="1">
+        <f>92326+406700</f>
+        <v>499026</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <v>42010</v>
+      </c>
+      <c r="B77" s="1">
+        <v>10000</v>
+      </c>
+      <c r="C77" s="1">
+        <v>3538200</v>
+      </c>
+      <c r="D77" s="1">
+        <f>6055500+191000</f>
+        <v>6246500</v>
+      </c>
+      <c r="E77" s="1">
+        <v>661800</v>
+      </c>
+      <c r="F77" s="1">
+        <v>444000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>42016</v>
+      </c>
+      <c r="B78" s="1">
+        <v>5000</v>
+      </c>
+      <c r="C78" s="1">
+        <v>2245350</v>
+      </c>
+      <c r="D78" s="1">
+        <v>2467700</v>
+      </c>
+      <c r="E78" s="1">
+        <v>364525</v>
+      </c>
+      <c r="F78" s="1">
+        <v>364300</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>42027</v>
+      </c>
+      <c r="B79" s="1">
+        <v>10000</v>
+      </c>
+      <c r="C79" s="1">
+        <v>2586009</v>
+      </c>
+      <c r="D79" s="1">
+        <f>4924000+213200</f>
+        <v>5137200</v>
+      </c>
+      <c r="E79" s="1">
+        <v>586512</v>
+      </c>
+      <c r="F79" s="1">
+        <f>192500</f>
+        <v>192500</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <v>42033</v>
+      </c>
+      <c r="B80" s="1">
+        <v>9730</v>
+      </c>
+      <c r="C80" s="1">
+        <v>3323000</v>
+      </c>
+      <c r="D80" s="1">
+        <v>5768000</v>
+      </c>
+      <c r="E80" s="1">
+        <v>458000</v>
+      </c>
+      <c r="F80" s="1">
+        <v>951420</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <v>42033</v>
+      </c>
+      <c r="B81" s="1">
+        <v>9730</v>
+      </c>
+      <c r="C81" s="1">
+        <v>3323000</v>
+      </c>
+      <c r="D81" s="1">
+        <v>5768000</v>
+      </c>
+      <c r="E81" s="1">
+        <v>458000</v>
+      </c>
+      <c r="F81" s="1">
+        <v>951400</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <v>42041</v>
+      </c>
+      <c r="B82" s="1">
+        <v>10230</v>
+      </c>
+      <c r="C82" s="1">
+        <v>3893304</v>
+      </c>
+      <c r="D82" s="1">
+        <v>6017500</v>
+      </c>
+      <c r="E82" s="1">
+        <v>656696</v>
+      </c>
+      <c r="F82" s="1">
+        <v>202000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <v>42041</v>
+      </c>
+      <c r="B83" s="1">
+        <v>10000</v>
+      </c>
+      <c r="C83" s="1">
+        <v>3893304</v>
+      </c>
+      <c r="D83" s="1">
+        <f>6055500+304500</f>
+        <v>6360000</v>
+      </c>
+      <c r="E83" s="1">
+        <v>656696</v>
+      </c>
+      <c r="F83" s="1">
+        <v>202000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
+        <v>42046</v>
+      </c>
+      <c r="B84" s="1">
+        <v>10000</v>
+      </c>
+      <c r="C84" s="1">
+        <v>3726832</v>
+      </c>
+      <c r="D84" s="1">
+        <f>7035740+124000+72275</f>
+        <v>7232015</v>
+      </c>
+      <c r="E84" s="1">
+        <v>673168</v>
+      </c>
+      <c r="F84" s="1">
+        <v>313000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <v>42052</v>
+      </c>
+      <c r="B85" s="1">
+        <f>9100/1.9</f>
+        <v>4789.4736842105267</v>
+      </c>
+      <c r="C85" s="1">
+        <v>2034466</v>
+      </c>
+      <c r="D85" s="1">
+        <f>2225000+213200</f>
+        <v>2438200</v>
+      </c>
+      <c r="E85" s="1">
+        <v>465534</v>
+      </c>
+      <c r="F85" s="1">
+        <f>15000+192500</f>
+        <v>207500</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <v>42072</v>
+      </c>
+      <c r="B86" s="1">
+        <v>10323</v>
+      </c>
+      <c r="C86" s="1">
+        <v>3956000</v>
+      </c>
+      <c r="D86" s="1">
+        <v>4772400</v>
+      </c>
+      <c r="E86" s="1">
+        <v>406000</v>
+      </c>
+      <c r="F86" s="1">
+        <v>868000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <v>42072</v>
+      </c>
+      <c r="B87" s="1">
+        <v>10083</v>
+      </c>
+      <c r="C87" s="1">
+        <v>5262000</v>
+      </c>
+      <c r="D87" s="1">
+        <v>6178500</v>
+      </c>
+      <c r="E87" s="1">
+        <v>521000</v>
+      </c>
+      <c r="F87" s="1">
+        <v>937000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <v>42072</v>
+      </c>
+      <c r="B88" s="1">
+        <v>7243</v>
+      </c>
+      <c r="C88" s="1">
+        <v>4842000</v>
+      </c>
+      <c r="D88" s="1">
+        <v>5530500</v>
+      </c>
+      <c r="E88" s="1">
+        <v>545000</v>
+      </c>
+      <c r="F88" s="1">
+        <v>898000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <v>42082</v>
+      </c>
+      <c r="B89" s="1">
+        <v>7243</v>
+      </c>
+      <c r="C89" s="1">
+        <v>4842000</v>
+      </c>
+      <c r="D89" s="1">
+        <v>5530500</v>
+      </c>
+      <c r="E89" s="1">
+        <v>545000</v>
+      </c>
+      <c r="F89" s="1">
+        <v>898000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
+        <v>42082</v>
+      </c>
+      <c r="B90" s="1">
+        <v>10083</v>
+      </c>
+      <c r="C90" s="1">
+        <v>5262000</v>
+      </c>
+      <c r="D90" s="1">
+        <v>6178500</v>
+      </c>
+      <c r="E90" s="1">
+        <v>521000</v>
+      </c>
+      <c r="F90" s="1">
+        <v>937000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <v>42082</v>
+      </c>
+      <c r="B91" s="1">
+        <v>7243</v>
+      </c>
+      <c r="C91" s="1">
+        <v>4842000</v>
+      </c>
+      <c r="D91" s="1">
+        <v>5530500</v>
+      </c>
+      <c r="E91" s="1">
+        <v>545000</v>
+      </c>
+      <c r="F91" s="1">
+        <v>898000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
+        <v>42087</v>
+      </c>
+      <c r="B92" s="2">
+        <v>5200</v>
+      </c>
+      <c r="C92" s="1">
+        <v>5097648</v>
+      </c>
+      <c r="D92" s="1">
+        <v>6289624</v>
+      </c>
+      <c r="E92" s="1">
+        <v>542309</v>
+      </c>
+      <c r="F92" s="1">
+        <f>194392+375000</f>
+        <v>569392</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
+        <v>42091</v>
+      </c>
+      <c r="B93" s="1">
+        <v>10083</v>
+      </c>
+      <c r="C93" s="1">
+        <v>5262000</v>
+      </c>
+      <c r="D93" s="1">
+        <v>6178500</v>
+      </c>
+      <c r="E93" s="1">
+        <v>521000</v>
+      </c>
+      <c r="F93" s="1">
+        <v>937000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
+        <v>42095</v>
+      </c>
+      <c r="B94" s="1">
+        <v>4623</v>
+      </c>
+      <c r="C94" s="1">
+        <v>4141000</v>
+      </c>
+      <c r="D94" s="1">
+        <v>3008500</v>
+      </c>
+      <c r="E94" s="1">
+        <v>544000</v>
+      </c>
+      <c r="F94" s="1">
+        <v>823000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
+        <v>42095</v>
+      </c>
+      <c r="B95" s="1">
+        <v>5000</v>
+      </c>
+      <c r="C95" s="1">
+        <v>2485064</v>
+      </c>
+      <c r="D95" s="1">
+        <v>2681096</v>
+      </c>
+      <c r="E95" s="1">
+        <v>669459</v>
+      </c>
+      <c r="F95" s="1">
+        <v>388800</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
+        <v>42100</v>
+      </c>
+      <c r="B96" s="1">
+        <v>5000</v>
+      </c>
+      <c r="C96" s="1">
+        <v>2128450</v>
+      </c>
+      <c r="D96" s="1">
+        <v>2183800</v>
+      </c>
+      <c r="E96" s="1">
+        <v>290525</v>
+      </c>
+      <c r="F96" s="1">
+        <v>414900</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <v>42100</v>
+      </c>
+      <c r="B97" s="1">
+        <v>4623</v>
+      </c>
+      <c r="C97" s="1">
+        <v>4141000</v>
+      </c>
+      <c r="D97" s="1">
+        <v>3008500</v>
+      </c>
+      <c r="E97" s="1">
+        <v>544000</v>
+      </c>
+      <c r="F97" s="1">
+        <v>823000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
+        <v>42101</v>
+      </c>
+      <c r="B98" s="2">
+        <f>7914/1.43</f>
+        <v>5534.2657342657349</v>
+      </c>
+      <c r="C98" s="1">
+        <v>2790877</v>
+      </c>
+      <c r="D98" s="1">
+        <v>6130261</v>
+      </c>
+      <c r="E98" s="1">
+        <v>509675</v>
+      </c>
+      <c r="F98" s="1">
+        <f>89426+347600</f>
+        <v>437026</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
+        <v>42104</v>
+      </c>
+      <c r="B99" s="1">
+        <v>10230</v>
+      </c>
+      <c r="C99" s="1">
+        <v>2429356</v>
+      </c>
+      <c r="D99" s="1">
+        <v>4690000</v>
+      </c>
+      <c r="E99" s="1">
+        <v>610644</v>
+      </c>
+      <c r="F99" s="1">
+        <v>226000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
+        <v>42107</v>
+      </c>
+      <c r="B100" s="2">
+        <f>10037/1.8</f>
+        <v>5576.1111111111113</v>
+      </c>
+      <c r="C100" s="1">
+        <v>4124366</v>
+      </c>
+      <c r="D100" s="1">
+        <v>6440724</v>
+      </c>
+      <c r="E100" s="1">
+        <v>926354</v>
+      </c>
+      <c r="F100" s="1">
+        <f>347600+93661</f>
+        <v>441261</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
+        <v>42108</v>
+      </c>
+      <c r="B101" s="1">
+        <v>10230</v>
+      </c>
+      <c r="C101" s="1">
+        <v>2423143</v>
+      </c>
+      <c r="D101" s="1">
+        <f>4690000+131000</f>
+        <v>4821000</v>
+      </c>
+      <c r="E101" s="1">
+        <v>605600</v>
+      </c>
+      <c r="F101" s="1">
+        <f>226000+71500</f>
+        <v>297500</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
+        <v>42108</v>
+      </c>
+      <c r="B102" s="1">
+        <v>5900</v>
+      </c>
+      <c r="C102" s="1">
+        <v>3133396</v>
+      </c>
+      <c r="D102" s="1">
+        <v>3696280</v>
+      </c>
+      <c r="E102" s="1">
+        <v>373368</v>
+      </c>
+      <c r="F102" s="1">
+        <f>91142+406700</f>
+        <v>497842</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
+        <v>42117</v>
+      </c>
+      <c r="B103" s="1">
+        <v>4300</v>
+      </c>
+      <c r="C103" s="1">
+        <v>2749080</v>
+      </c>
+      <c r="D103" s="1">
+        <v>4238500</v>
+      </c>
+      <c r="E103" s="1">
+        <v>945814</v>
+      </c>
+      <c r="F103" s="1">
+        <v>232000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
+        <v>42125</v>
+      </c>
+      <c r="B104" s="1">
+        <v>8500</v>
+      </c>
+      <c r="C104" s="1">
+        <v>4168574</v>
+      </c>
+      <c r="D104" s="1">
+        <v>6440724</v>
+      </c>
+      <c r="E104" s="1">
+        <v>958214</v>
+      </c>
+      <c r="F104" s="1">
+        <v>443600</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
+        <v>42129</v>
+      </c>
+      <c r="B105" s="1">
+        <v>5300</v>
+      </c>
+      <c r="C105" s="1">
+        <v>2320543</v>
+      </c>
+      <c r="D105" s="1">
+        <v>3250800</v>
+      </c>
+      <c r="E105" s="1">
+        <v>435059</v>
+      </c>
+      <c r="F105" s="1">
+        <v>386800</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
+        <v>42139</v>
+      </c>
+      <c r="B106" s="1">
+        <v>10323</v>
+      </c>
+      <c r="C106" s="1">
+        <v>3592000</v>
+      </c>
+      <c r="D106" s="1">
+        <v>4772400</v>
+      </c>
+      <c r="E106" s="1">
+        <v>406000</v>
+      </c>
+      <c r="F106" s="1">
+        <v>755000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
+        <v>42143</v>
+      </c>
+      <c r="B107" s="1">
+        <v>5000</v>
+      </c>
+      <c r="C107" s="1">
+        <v>3412073</v>
+      </c>
+      <c r="D107" s="1">
+        <v>6465724</v>
+      </c>
+      <c r="E107" s="1">
+        <v>469918</v>
+      </c>
+      <c r="F107" s="1">
+        <v>434600</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
+        <v>42148</v>
+      </c>
+      <c r="B108" s="1">
+        <v>9883</v>
+      </c>
+      <c r="C108" s="1">
+        <v>5439000</v>
+      </c>
+      <c r="D108" s="1">
+        <v>5404500</v>
+      </c>
+      <c r="E108" s="1">
+        <v>495000</v>
+      </c>
+      <c r="F108" s="1">
+        <v>1015800</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
+        <v>42150</v>
+      </c>
+      <c r="B109" s="1">
+        <v>4800</v>
+      </c>
+      <c r="C109" s="1">
+        <v>3481290</v>
+      </c>
+      <c r="D109" s="1">
+        <v>3973914</v>
+      </c>
+      <c r="E109" s="1">
+        <v>686949</v>
+      </c>
+      <c r="F109" s="1">
+        <v>159500</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
+        <v>42150</v>
+      </c>
+      <c r="B110" s="1">
+        <v>10000</v>
+      </c>
+      <c r="C110" s="1">
+        <v>4032300</v>
+      </c>
+      <c r="D110" s="1">
+        <v>6640500</v>
+      </c>
+      <c r="E110" s="1">
+        <v>667700</v>
+      </c>
+      <c r="F110" s="1">
+        <v>202000</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="3">
+        <v>42156</v>
+      </c>
+      <c r="B111" s="1">
+        <v>5000</v>
+      </c>
+      <c r="C111" s="1">
+        <v>2462999</v>
+      </c>
+      <c r="D111" s="1">
+        <f>5134000+131000+46000</f>
+        <v>5311000</v>
+      </c>
+      <c r="E111" s="1">
+        <v>627000</v>
+      </c>
+      <c r="F111" s="1">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="3">
+        <v>42157</v>
+      </c>
+      <c r="B112" s="1">
+        <v>8700</v>
+      </c>
+      <c r="C112" s="1">
+        <v>2810848</v>
+      </c>
+      <c r="D112" s="1">
+        <v>3343638</v>
+      </c>
+      <c r="E112" s="1">
+        <v>463905</v>
+      </c>
+      <c r="F112" s="1">
+        <v>458600</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="3">
+        <v>42171</v>
+      </c>
+      <c r="B113" s="1">
+        <v>7200</v>
+      </c>
+      <c r="C113" s="1">
+        <v>2586009</v>
+      </c>
+      <c r="D113" s="1">
+        <v>5137200</v>
+      </c>
+      <c r="E113" s="1">
+        <v>586512</v>
+      </c>
+      <c r="F113" s="1">
+        <v>192500</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="3">
+        <v>42171</v>
+      </c>
+      <c r="B114" s="1">
+        <v>5200</v>
+      </c>
+      <c r="C114" s="1">
+        <v>2218735</v>
+      </c>
+      <c r="D114" s="1">
+        <v>3230800</v>
+      </c>
+      <c r="E114" s="1">
+        <v>400177</v>
+      </c>
+      <c r="F114" s="1">
+        <v>387900</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="3">
+        <v>42171</v>
+      </c>
+      <c r="B115" s="1">
+        <v>9823</v>
+      </c>
+      <c r="C115" s="1">
+        <v>3737000</v>
+      </c>
+      <c r="D115" s="1">
+        <v>5664000</v>
+      </c>
+      <c r="E115" s="1">
+        <v>413000</v>
+      </c>
+      <c r="F115" s="1">
+        <v>797000</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="3">
+        <v>42174</v>
+      </c>
+      <c r="B116" s="1">
+        <v>9823</v>
+      </c>
+      <c r="C116" s="1">
+        <v>3635000</v>
+      </c>
+      <c r="D116" s="1">
+        <v>5150800</v>
+      </c>
+      <c r="E116" s="1">
+        <v>405000</v>
+      </c>
+      <c r="F116" s="1">
+        <v>797000</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="3">
+        <v>42181</v>
+      </c>
+      <c r="B117" s="1">
+        <v>5300</v>
+      </c>
+      <c r="C117" s="1">
+        <v>2191287</v>
+      </c>
+      <c r="D117" s="1">
+        <v>3250800</v>
+      </c>
+      <c r="E117" s="1">
+        <v>406004</v>
+      </c>
+      <c r="F117" s="1">
+        <f>289900+97464</f>
+        <v>387364</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="3">
+        <v>42184</v>
+      </c>
+      <c r="B118" s="1">
+        <v>10000</v>
+      </c>
+      <c r="C118" s="1">
+        <v>2778610</v>
+      </c>
+      <c r="D118" s="1">
+        <v>4319000</v>
+      </c>
+      <c r="E118" s="1">
+        <v>1021390</v>
+      </c>
+      <c r="F118" s="1">
+        <v>297500</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="3">
+        <v>42184</v>
+      </c>
+      <c r="B119" s="1">
+        <v>9883</v>
+      </c>
+      <c r="C119" s="1">
+        <v>5439000</v>
+      </c>
+      <c r="D119" s="1">
+        <v>5404500</v>
+      </c>
+      <c r="E119" s="1">
+        <v>495000</v>
+      </c>
+      <c r="F119" s="1">
+        <v>1015800</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="3">
+        <v>42184</v>
+      </c>
+      <c r="B120" s="1">
+        <v>9883</v>
+      </c>
+      <c r="C120" s="1">
+        <v>5439000</v>
+      </c>
+      <c r="D120" s="1">
+        <v>5404500</v>
+      </c>
+      <c r="E120" s="1">
+        <v>495000</v>
+      </c>
+      <c r="F120" s="1">
+        <v>1015800</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="3">
+        <v>42184</v>
+      </c>
+      <c r="B121" s="1">
+        <v>9883</v>
+      </c>
+      <c r="C121" s="1">
+        <v>5439000</v>
+      </c>
+      <c r="D121" s="1">
+        <v>5404500</v>
+      </c>
+      <c r="E121" s="1">
+        <v>495000</v>
+      </c>
+      <c r="F121" s="1">
+        <v>1015800</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="3">
+        <v>42191</v>
+      </c>
+      <c r="B122" s="1">
+        <v>5000</v>
+      </c>
+      <c r="C122" s="1">
+        <v>2245350</v>
+      </c>
+      <c r="D122" s="1">
+        <v>364525</v>
+      </c>
+      <c r="E122" s="1">
+        <v>2467700</v>
+      </c>
+      <c r="F122" s="1">
+        <v>364300</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="3">
+        <v>42195</v>
+      </c>
+      <c r="B123" s="1">
+        <v>10000</v>
+      </c>
+      <c r="C123" s="1">
+        <v>2504683</v>
+      </c>
+      <c r="D123" s="1">
+        <f>5134683+158865+75000</f>
+        <v>5368548</v>
+      </c>
+      <c r="E123" s="1">
+        <v>614054</v>
+      </c>
+      <c r="F123" s="1">
+        <v>323000</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="3">
+        <v>42205</v>
+      </c>
+      <c r="B124" s="1">
+        <v>4553</v>
+      </c>
+      <c r="C124" s="1">
+        <v>3097000</v>
+      </c>
+      <c r="D124" s="1">
+        <v>2934400</v>
+      </c>
+      <c r="E124" s="1">
+        <v>434000</v>
+      </c>
+      <c r="F124" s="1">
+        <v>754000</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="3">
+        <v>42212</v>
+      </c>
+      <c r="B125" s="1">
+        <v>7500</v>
+      </c>
+      <c r="C125" s="1">
+        <v>2168450</v>
+      </c>
+      <c r="D125" s="1">
+        <v>2542800</v>
+      </c>
+      <c r="E125" s="1">
+        <v>290525</v>
+      </c>
+      <c r="F125" s="1">
+        <v>414900</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="3">
+        <v>42213</v>
+      </c>
+      <c r="B126" s="1">
+        <v>6000</v>
+      </c>
+      <c r="C126" s="1">
+        <v>2320643</v>
+      </c>
+      <c r="D126" s="1">
+        <v>3250830</v>
+      </c>
+      <c r="E126" s="1">
+        <v>435039</v>
+      </c>
+      <c r="F126" s="1">
+        <v>386900</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="3">
+        <v>42217</v>
+      </c>
+      <c r="B127" s="1">
+        <v>9833</v>
+      </c>
+      <c r="C127" s="1">
+        <v>3635000</v>
+      </c>
+      <c r="D127" s="1">
+        <v>5207800</v>
+      </c>
+      <c r="E127" s="1">
+        <v>404000</v>
+      </c>
+      <c r="F127" s="1">
+        <v>833000</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="3">
+        <v>42222</v>
+      </c>
+      <c r="B128" s="1">
+        <v>5200</v>
+      </c>
+      <c r="C128" s="1">
+        <v>3280310</v>
+      </c>
+      <c r="D128" s="1">
+        <v>4641353</v>
+      </c>
+      <c r="E128" s="1">
+        <v>799853</v>
+      </c>
+      <c r="F128" s="1">
+        <v>409011</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="3">
+        <v>42222</v>
+      </c>
+      <c r="B129" s="1">
+        <v>10000</v>
+      </c>
+      <c r="C129" s="1">
+        <v>2504683</v>
+      </c>
+      <c r="D129" s="1">
+        <f>5134000+158865+75000</f>
+        <v>5367865</v>
+      </c>
+      <c r="E129" s="1">
+        <v>614054</v>
+      </c>
+      <c r="F129" s="1">
+        <f>30000+218000+75000</f>
+        <v>323000</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="3">
+        <v>42223</v>
+      </c>
+      <c r="B130" s="1">
+        <v>4400</v>
+      </c>
+      <c r="C130" s="1">
+        <v>2413796</v>
+      </c>
+      <c r="D130" s="1">
+        <f>2317000+177000</f>
+        <v>2494000</v>
+      </c>
+      <c r="E130" s="1">
+        <v>802967</v>
+      </c>
+      <c r="F130" s="1">
+        <f>15000+196000+74000</f>
+        <v>285000</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="3">
+        <v>42227</v>
+      </c>
+      <c r="B131" s="1">
+        <v>8000</v>
+      </c>
+      <c r="C131" s="1">
+        <v>2423143</v>
+      </c>
+      <c r="D131" s="1">
+        <f>4690000+131000+48500</f>
+        <v>4869500</v>
+      </c>
+      <c r="E131" s="1">
+        <v>605600</v>
+      </c>
+      <c r="F131" s="1">
+        <v>297500</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="3">
+        <v>42230</v>
+      </c>
+      <c r="B132" s="1">
+        <v>6000</v>
+      </c>
+      <c r="C132" s="1">
+        <v>2649000</v>
+      </c>
+      <c r="D132" s="1">
+        <v>4805000</v>
+      </c>
+      <c r="E132" s="1">
+        <v>601000</v>
+      </c>
+      <c r="F132" s="1">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="3">
+        <v>42230</v>
+      </c>
+      <c r="B133" s="1">
+        <v>4543</v>
+      </c>
+      <c r="C133" s="1">
+        <v>2699000</v>
+      </c>
+      <c r="D133" s="1">
+        <v>3498800</v>
+      </c>
+      <c r="E133" s="1">
+        <v>406000</v>
+      </c>
+      <c r="F133" s="1">
+        <v>633000</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="3">
+        <v>42230</v>
+      </c>
+      <c r="B134" s="1">
+        <v>6000</v>
+      </c>
+      <c r="C134" s="1">
+        <v>2849000</v>
+      </c>
+      <c r="D134" s="1">
+        <v>4811000</v>
+      </c>
+      <c r="E134" s="1">
+        <v>601000</v>
+      </c>
+      <c r="F134" s="1">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="3">
+        <v>42230</v>
+      </c>
+      <c r="B135" s="1">
+        <v>10323</v>
+      </c>
+      <c r="C135" s="1">
+        <v>3592000</v>
+      </c>
+      <c r="D135" s="1">
+        <v>6783600</v>
+      </c>
+      <c r="E135" s="1">
+        <v>406000</v>
+      </c>
+      <c r="F135" s="1">
+        <v>780000</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="3">
+        <v>42233</v>
+      </c>
+      <c r="B136" s="1">
+        <v>5000</v>
+      </c>
+      <c r="C136" s="1">
+        <v>1951450</v>
+      </c>
+      <c r="D136" s="1">
+        <v>2061800</v>
+      </c>
+      <c r="E136" s="1">
+        <v>290525</v>
+      </c>
+      <c r="F136" s="1">
+        <v>414900</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="3">
+        <v>42233</v>
+      </c>
+      <c r="B137" s="1">
+        <v>5000</v>
+      </c>
+      <c r="C137" s="1">
+        <v>2218735</v>
+      </c>
+      <c r="D137" s="1">
+        <v>3230800</v>
+      </c>
+      <c r="E137" s="1">
+        <v>400177</v>
+      </c>
+      <c r="F137" s="1">
+        <v>97464</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="3">
+        <v>42233</v>
+      </c>
+      <c r="B138" s="1">
+        <v>4800</v>
+      </c>
+      <c r="C138" s="1">
+        <v>1951450</v>
+      </c>
+      <c r="D138" s="1">
+        <v>2061800</v>
+      </c>
+      <c r="E138" s="1">
+        <v>290525</v>
+      </c>
+      <c r="F138" s="1">
+        <v>414900</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" s="3">
+        <v>42234</v>
+      </c>
+      <c r="B139" s="1">
+        <v>5300</v>
+      </c>
+      <c r="C139" s="1">
+        <v>2426000</v>
+      </c>
+      <c r="D139" s="1">
+        <v>3908200</v>
+      </c>
+      <c r="E139" s="1">
+        <v>614000</v>
+      </c>
+      <c r="F139" s="1">
+        <v>222500</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="3">
+        <v>42235</v>
+      </c>
+      <c r="B140" s="1">
+        <v>9833</v>
+      </c>
+      <c r="C140" s="1">
+        <v>3635000</v>
+      </c>
+      <c r="D140" s="1">
+        <v>5207800</v>
+      </c>
+      <c r="E140" s="1">
+        <v>404000</v>
+      </c>
+      <c r="F140" s="1">
+        <v>833000</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="3">
+        <v>42240</v>
+      </c>
+      <c r="B141" s="1">
+        <v>9700</v>
+      </c>
+      <c r="C141" s="1">
+        <v>3144000</v>
+      </c>
+      <c r="D141" s="1">
+        <v>5690000</v>
+      </c>
+      <c r="E141" s="1">
+        <v>442000</v>
+      </c>
+      <c r="F141" s="1">
+        <v>966500</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="3">
+        <v>42240</v>
+      </c>
+      <c r="B142" s="2">
+        <v>9700</v>
+      </c>
+      <c r="C142" s="1">
+        <v>3144000</v>
+      </c>
+      <c r="D142" s="1">
+        <v>5690000</v>
+      </c>
+      <c r="E142" s="1">
+        <v>442000</v>
+      </c>
+      <c r="F142" s="1">
+        <v>966500</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="3">
+        <v>42247</v>
+      </c>
+      <c r="B143" s="1">
+        <v>8400</v>
+      </c>
+      <c r="C143" s="1">
+        <v>2870000</v>
+      </c>
+      <c r="D143" s="1">
+        <v>4847000</v>
+      </c>
+      <c r="E143" s="1">
+        <v>650000</v>
+      </c>
+      <c r="F143" s="1">
+        <v>223000</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="3">
+        <v>42248</v>
+      </c>
+      <c r="B144" s="1">
+        <v>8500</v>
+      </c>
+      <c r="C144" s="1">
+        <v>2429356</v>
+      </c>
+      <c r="D144" s="1">
+        <v>4870000</v>
+      </c>
+      <c r="E144" s="1">
+        <v>610644</v>
+      </c>
+      <c r="F144" s="1">
+        <v>297500</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="3">
+        <v>42250</v>
+      </c>
+      <c r="B145" s="1">
+        <v>5000</v>
+      </c>
+      <c r="C145" s="1">
+        <v>1894315</v>
+      </c>
+      <c r="D145" s="1">
+        <v>2944610</v>
+      </c>
+      <c r="E145" s="1">
+        <v>199966</v>
+      </c>
+      <c r="F145" s="1">
+        <v>679196</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="3">
+        <v>42261</v>
+      </c>
+      <c r="B146" s="1">
+        <v>4700</v>
+      </c>
+      <c r="C146" s="1">
+        <v>2799000</v>
+      </c>
+      <c r="D146" s="1">
+        <v>4847200</v>
+      </c>
+      <c r="E146" s="1">
+        <v>601000</v>
+      </c>
+      <c r="F146" s="1">
+        <v>222500</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" s="3">
+        <v>42262</v>
+      </c>
+      <c r="B147" s="1">
+        <v>8200</v>
+      </c>
+      <c r="C147" s="1">
+        <v>2849000</v>
+      </c>
+      <c r="D147" s="1">
+        <v>4806000</v>
+      </c>
+      <c r="E147" s="1">
+        <v>601000</v>
+      </c>
+      <c r="F147" s="1">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="3">
+        <v>42262</v>
+      </c>
+      <c r="B148" s="2">
+        <v>6200</v>
+      </c>
+      <c r="C148" s="1">
+        <v>2549000</v>
+      </c>
+      <c r="D148" s="1">
+        <f>4634000+131000+46000</f>
+        <v>4811000</v>
+      </c>
+      <c r="E148" s="1">
+        <v>601000</v>
+      </c>
+      <c r="F148" s="1">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" s="3">
+        <v>42262</v>
+      </c>
+      <c r="B149" s="2">
+        <v>8000</v>
+      </c>
+      <c r="C149" s="1">
+        <v>3280310</v>
+      </c>
+      <c r="D149" s="1">
+        <v>4541353</v>
+      </c>
+      <c r="E149" s="1">
+        <v>799853</v>
+      </c>
+      <c r="F149" s="1">
+        <f>110011+299000</f>
+        <v>409011</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" s="3">
+        <v>42262</v>
+      </c>
+      <c r="B150" s="1">
+        <v>7200</v>
+      </c>
+      <c r="C150" s="1">
+        <v>2721560</v>
+      </c>
+      <c r="D150" s="1">
+        <v>2967221</v>
+      </c>
+      <c r="E150" s="1">
+        <v>704180</v>
+      </c>
+      <c r="F150" s="1">
+        <v>386900</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="3">
+        <v>42269</v>
+      </c>
+      <c r="B151" s="2">
+        <v>5900</v>
+      </c>
+      <c r="C151" s="1">
+        <v>2549000</v>
+      </c>
+      <c r="D151" s="1">
+        <f>4634000+131000+46000</f>
+        <v>4811000</v>
+      </c>
+      <c r="E151" s="1">
+        <v>601000</v>
+      </c>
+      <c r="F151" s="1">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="3">
+        <v>42269</v>
+      </c>
+      <c r="B152" s="2">
+        <v>7800</v>
+      </c>
+      <c r="C152" s="1">
+        <v>2329589</v>
+      </c>
+      <c r="D152" s="1">
+        <v>2784374</v>
+      </c>
+      <c r="E152" s="1">
+        <v>410580</v>
+      </c>
+      <c r="F152" s="1">
+        <v>394900</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" s="3">
+        <v>42269</v>
+      </c>
+      <c r="B153" s="2">
+        <v>7900</v>
+      </c>
+      <c r="C153" s="1">
+        <v>2799000</v>
+      </c>
+      <c r="D153" s="1">
+        <v>4834000</v>
+      </c>
+      <c r="E153" s="1">
+        <v>601000</v>
+      </c>
+      <c r="F153" s="1">
+        <v>222500</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" s="3">
+        <v>42271</v>
+      </c>
+      <c r="B154" s="2">
+        <v>5700</v>
+      </c>
+      <c r="C154" s="1">
+        <v>2843875</v>
+      </c>
+      <c r="D154" s="1">
+        <f>4934000+131000+46000</f>
+        <v>5111000</v>
+      </c>
+      <c r="E154" s="1">
+        <v>726125</v>
+      </c>
+      <c r="F154" s="1">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" s="3">
+        <v>42276</v>
+      </c>
+      <c r="B155" s="1">
+        <v>7300</v>
+      </c>
+      <c r="C155" s="1">
+        <v>3758433</v>
+      </c>
+      <c r="D155" s="1">
+        <v>7164623</v>
+      </c>
+      <c r="E155" s="1">
+        <v>536193</v>
+      </c>
+      <c r="F155" s="1">
+        <f>375000+193071</f>
+        <v>568071</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" s="3">
+        <v>42276</v>
+      </c>
+      <c r="B156" s="1">
+        <v>9833</v>
+      </c>
+      <c r="C156" s="1">
+        <v>3715000</v>
+      </c>
+      <c r="D156" s="1">
+        <v>6225250</v>
+      </c>
+      <c r="E156" s="1">
+        <v>420000</v>
+      </c>
+      <c r="F156" s="1">
+        <v>735000</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" s="3">
+        <v>42276</v>
+      </c>
+      <c r="B157" s="1">
+        <v>7243</v>
+      </c>
+      <c r="C157" s="1">
+        <v>3375000</v>
+      </c>
+      <c r="D157" s="1">
+        <v>4941188</v>
+      </c>
+      <c r="E157" s="1">
+        <v>405000</v>
+      </c>
+      <c r="F157" s="1">
+        <v>752000</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" s="3">
+        <v>42276</v>
+      </c>
+      <c r="B158" s="2">
+        <v>7600</v>
+      </c>
+      <c r="C158" s="1">
+        <v>2276219</v>
+      </c>
+      <c r="D158" s="1">
+        <v>2905580</v>
+      </c>
+      <c r="E158" s="1">
+        <v>398574</v>
+      </c>
+      <c r="F158" s="1">
+        <v>382900</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" s="3">
+        <v>42277</v>
+      </c>
+      <c r="B159" s="2">
+        <v>6800</v>
+      </c>
+      <c r="C159" s="1">
+        <v>2844400</v>
+      </c>
+      <c r="D159" s="1">
+        <f>5134000+131000+46000</f>
+        <v>5311000</v>
+      </c>
+      <c r="E159" s="1">
+        <v>776600</v>
+      </c>
+      <c r="F159" s="1">
+        <f>30000+196000+74000</f>
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" s="3">
+        <v>42283</v>
+      </c>
+      <c r="B160" s="1">
+        <v>5000</v>
+      </c>
+      <c r="C160" s="1">
+        <v>2128450</v>
+      </c>
+      <c r="D160" s="1">
+        <v>290525</v>
+      </c>
+      <c r="E160" s="1">
+        <v>2183800</v>
+      </c>
+      <c r="F160" s="1">
+        <v>414900</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" s="3">
+        <v>42283</v>
+      </c>
+      <c r="B161" s="1">
+        <v>7900</v>
+      </c>
+      <c r="C161" s="1">
+        <v>2969719</v>
+      </c>
+      <c r="D161" s="1">
+        <v>4562698</v>
+      </c>
+      <c r="E161" s="1">
+        <v>517737</v>
+      </c>
+      <c r="F161" s="1">
+        <v>401000</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" s="3">
+        <v>42289</v>
+      </c>
+      <c r="B162" s="1">
+        <v>5000</v>
+      </c>
+      <c r="C162" s="1">
+        <v>1951450</v>
+      </c>
+      <c r="D162" s="1">
+        <v>290525</v>
+      </c>
+      <c r="E162" s="1">
+        <v>2061800</v>
+      </c>
+      <c r="F162" s="1">
+        <v>414900</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" s="3">
+        <v>42290</v>
+      </c>
+      <c r="B163" s="2">
+        <v>7800</v>
+      </c>
+      <c r="C163" s="1">
+        <v>2334149</v>
+      </c>
+      <c r="D163" s="1">
+        <v>2886874</v>
+      </c>
+      <c r="E163" s="1">
+        <v>416238</v>
+      </c>
+      <c r="F163" s="1">
+        <v>385900</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" s="3">
+        <v>42290</v>
+      </c>
+      <c r="B164" s="2">
+        <v>7800</v>
+      </c>
+      <c r="C164" s="1">
+        <v>2330682</v>
+      </c>
+      <c r="D164" s="1">
+        <v>2886874</v>
+      </c>
+      <c r="E164" s="1">
+        <v>411937</v>
+      </c>
+      <c r="F164" s="1">
+        <v>385900</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" s="3">
+        <v>42290</v>
+      </c>
+      <c r="B165" s="1">
+        <v>4603</v>
+      </c>
+      <c r="C165" s="1">
+        <v>2859000</v>
+      </c>
+      <c r="D165" s="1">
+        <v>3380750</v>
+      </c>
+      <c r="E165" s="1">
+        <v>419000</v>
+      </c>
+      <c r="F165" s="1">
+        <v>662000</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" s="3">
+        <v>42290</v>
+      </c>
+      <c r="B166" s="1">
+        <v>6400</v>
+      </c>
+      <c r="C166" s="1">
+        <f>220800+2594104</f>
+        <v>2814904</v>
+      </c>
+      <c r="D166" s="1">
+        <f>3817800+28000</f>
+        <v>3845800</v>
+      </c>
+      <c r="E166" s="1">
+        <v>666488</v>
+      </c>
+      <c r="F166" s="1">
+        <f>163550+633000</f>
+        <v>796550</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" s="3">
+        <v>42291</v>
+      </c>
+      <c r="B167" s="2">
+        <v>6200</v>
+      </c>
+      <c r="C167" s="1">
+        <v>2844400</v>
+      </c>
+      <c r="D167" s="1">
+        <f>5134000+131000+46000</f>
+        <v>5311000</v>
+      </c>
+      <c r="E167" s="1">
+        <v>776600</v>
+      </c>
+      <c r="F167" s="1">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" s="3">
+        <v>42297</v>
+      </c>
+      <c r="B168" s="1">
+        <v>9823</v>
+      </c>
+      <c r="C168" s="1">
+        <v>3635000</v>
+      </c>
+      <c r="D168" s="1">
+        <v>5151000</v>
+      </c>
+      <c r="E168" s="1">
+        <v>408000</v>
+      </c>
+      <c r="F168" s="1">
+        <v>795000</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" s="3">
+        <v>42297</v>
+      </c>
+      <c r="B169" s="1">
+        <v>15113</v>
+      </c>
+      <c r="C169" s="1">
+        <v>4827000</v>
+      </c>
+      <c r="D169" s="1">
+        <v>4941188</v>
+      </c>
+      <c r="E169" s="1">
+        <v>405000</v>
+      </c>
+      <c r="F169" s="1">
+        <v>962000</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" s="3">
+        <v>42297</v>
+      </c>
+      <c r="B170" s="1">
+        <v>6300</v>
+      </c>
+      <c r="C170" s="1">
+        <v>2799000</v>
+      </c>
+      <c r="D170" s="1">
+        <f>4634000+213200</f>
+        <v>4847200</v>
+      </c>
+      <c r="E170" s="1">
+        <v>601000</v>
+      </c>
+      <c r="F170" s="1">
+        <v>222500</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" s="3">
+        <v>42301</v>
+      </c>
+      <c r="B171" s="1">
+        <v>9600</v>
+      </c>
+      <c r="C171" s="1">
+        <v>3963000</v>
+      </c>
+      <c r="D171" s="1">
+        <v>4758000</v>
+      </c>
+      <c r="E171" s="1">
+        <v>443000</v>
+      </c>
+      <c r="F171" s="1">
+        <v>962700</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" s="3">
+        <v>42301</v>
+      </c>
+      <c r="B172" s="1">
+        <v>9600</v>
+      </c>
+      <c r="C172" s="1">
+        <v>3963000</v>
+      </c>
+      <c r="D172" s="1">
+        <v>4758000</v>
+      </c>
+      <c r="E172" s="1">
+        <v>443000</v>
+      </c>
+      <c r="F172" s="1">
+        <v>962700</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" s="3">
+        <v>42304</v>
+      </c>
+      <c r="B173" s="1">
+        <v>5200</v>
+      </c>
+      <c r="C173" s="1">
+        <v>2778610</v>
+      </c>
+      <c r="D173" s="1">
+        <f>4144000+131000+38000</f>
+        <v>4313000</v>
+      </c>
+      <c r="E173" s="1">
+        <v>1021390</v>
+      </c>
+      <c r="F173" s="1">
+        <v>297500</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" s="3">
+        <v>42310</v>
+      </c>
+      <c r="B174" s="1">
+        <v>10000</v>
+      </c>
+      <c r="C174" s="1">
+        <v>3893304</v>
+      </c>
+      <c r="D174" s="1">
+        <f>6055500+304500</f>
+        <v>6360000</v>
+      </c>
+      <c r="E174" s="1">
+        <v>656696</v>
+      </c>
+      <c r="F174" s="1">
+        <v>202000</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" s="3">
+        <v>42311</v>
+      </c>
+      <c r="B175" s="1">
+        <v>9823</v>
+      </c>
+      <c r="C175" s="1">
+        <v>3635000</v>
+      </c>
+      <c r="D175" s="1">
+        <v>5150800</v>
+      </c>
+      <c r="E175" s="1">
+        <v>408000</v>
+      </c>
+      <c r="F175" s="1">
+        <v>795000</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" s="3">
+        <v>42317</v>
+      </c>
+      <c r="B176" s="1">
+        <v>4380</v>
+      </c>
+      <c r="C176" s="1">
+        <v>2784000</v>
+      </c>
+      <c r="D176" s="1">
+        <v>2728200</v>
+      </c>
+      <c r="E176" s="1">
+        <v>474000</v>
+      </c>
+      <c r="F176" s="1">
+        <v>860600</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" s="3">
+        <v>42324</v>
+      </c>
+      <c r="B177" s="1">
+        <v>6900</v>
+      </c>
+      <c r="C177" s="1">
+        <v>2415000</v>
+      </c>
+      <c r="D177" s="1">
+        <v>3408000</v>
+      </c>
+      <c r="E177" s="1">
+        <v>369000</v>
+      </c>
+      <c r="F177" s="1">
+        <v>323000</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" s="3">
+        <v>42328</v>
+      </c>
+      <c r="B178" s="2">
+        <v>7000</v>
+      </c>
+      <c r="C178" s="1">
+        <v>2549000</v>
+      </c>
+      <c r="D178" s="1">
+        <f>4634000+131000+46000</f>
+        <v>4811000</v>
+      </c>
+      <c r="E178" s="1">
+        <v>601000</v>
+      </c>
+      <c r="F178" s="1">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" s="3">
+        <v>42338</v>
+      </c>
+      <c r="B179" s="1">
+        <v>5000</v>
+      </c>
+      <c r="C179" s="1">
+        <v>1951450</v>
+      </c>
+      <c r="D179" s="1">
+        <v>290525</v>
+      </c>
+      <c r="E179" s="1">
+        <v>2061800</v>
+      </c>
+      <c r="F179" s="1">
+        <v>414900</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" s="3">
+        <v>42339</v>
+      </c>
+      <c r="B180" s="2">
+        <v>4400</v>
+      </c>
+      <c r="C180" s="1">
+        <v>1894315</v>
+      </c>
+      <c r="D180" s="1">
+        <v>29446110</v>
+      </c>
+      <c r="E180" s="1">
+        <v>199966</v>
+      </c>
+      <c r="F180" s="1">
+        <v>679157</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" s="3">
+        <v>42345</v>
+      </c>
+      <c r="B181" s="1">
+        <v>6400</v>
+      </c>
+      <c r="C181" s="1">
+        <f>2594104+220800</f>
+        <v>2814904</v>
+      </c>
+      <c r="D181" s="1">
+        <f>3817800+28000</f>
+        <v>3845800</v>
+      </c>
+      <c r="E181" s="1">
+        <v>674888</v>
+      </c>
+      <c r="F181" s="1">
+        <f>633000+163550</f>
+        <v>796550</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" s="3">
+        <v>42346</v>
+      </c>
+      <c r="B182" s="1">
+        <v>9833</v>
+      </c>
+      <c r="C182" s="1">
+        <v>3718000</v>
+      </c>
+      <c r="D182" s="1">
+        <v>5957000</v>
+      </c>
+      <c r="E182" s="1">
+        <v>424000</v>
+      </c>
+      <c r="F182" s="1">
+        <v>820000</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" s="3">
+        <v>42347</v>
+      </c>
+      <c r="B183" s="2">
+        <v>7000</v>
+      </c>
+      <c r="C183" s="1">
+        <v>2431490.4900000002</v>
+      </c>
+      <c r="D183" s="1">
+        <f>4283878.33+127560.25+23525.19</f>
+        <v>4434963.7700000005</v>
+      </c>
+      <c r="E183" s="1">
+        <v>588111.29</v>
+      </c>
+      <c r="F183" s="1">
+        <f>12451+153747.22+65931.77</f>
+        <v>232129.99</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" s="3">
+        <v>42353</v>
+      </c>
+      <c r="B184" s="1">
+        <v>9730</v>
+      </c>
+      <c r="C184" s="1">
+        <v>3862000</v>
+      </c>
+      <c r="D184" s="1">
+        <v>5587500</v>
+      </c>
+      <c r="E184" s="1">
+        <v>456000</v>
+      </c>
+      <c r="F184" s="1">
+        <v>973200</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185" s="3">
+        <v>42353</v>
+      </c>
+      <c r="B185" s="2">
+        <v>4400</v>
+      </c>
+      <c r="C185" s="1">
+        <v>2716566.51</v>
+      </c>
+      <c r="D185" s="1">
+        <f>5705507.84+168008.62+31122.85</f>
+        <v>5904639.3099999996</v>
+      </c>
+      <c r="E185" s="1">
+        <v>630613.21</v>
+      </c>
+      <c r="F185" s="1">
+        <f>11859.75+151436.49+56643.09</f>
+        <v>219939.33</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" s="3">
+        <v>42357</v>
+      </c>
+      <c r="B186" s="2">
+        <v>7400</v>
+      </c>
+      <c r="C186" s="1">
+        <v>1017811</v>
+      </c>
+      <c r="D186" s="1">
+        <v>1574235</v>
+      </c>
+      <c r="E186" s="1">
+        <v>166851</v>
+      </c>
+      <c r="F186" s="1">
+        <v>296900</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" s="3">
+        <v>42357</v>
+      </c>
+      <c r="B187" s="2">
+        <v>9800</v>
+      </c>
+      <c r="C187" s="1">
+        <v>3217500</v>
+      </c>
+      <c r="D187" s="1">
+        <v>4801622.26</v>
+      </c>
+      <c r="E187" s="1">
+        <v>854500</v>
+      </c>
+      <c r="F187" s="1">
+        <v>767134.88</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" s="3">
+        <v>42360</v>
+      </c>
+      <c r="B188" s="2">
+        <v>7000</v>
+      </c>
+      <c r="C188" s="1">
+        <v>2549000</v>
+      </c>
+      <c r="D188" s="1">
+        <f>4634000+131000+46000</f>
+        <v>4811000</v>
+      </c>
+      <c r="E188" s="1">
+        <v>601000</v>
+      </c>
+      <c r="F188" s="1">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" s="3">
+        <v>42360</v>
+      </c>
+      <c r="B189" s="1">
+        <v>7800</v>
+      </c>
+      <c r="C189" s="1">
+        <v>1309258</v>
+      </c>
+      <c r="D189" s="1">
+        <v>1990576</v>
+      </c>
+      <c r="E189" s="1">
+        <v>185474</v>
+      </c>
+      <c r="F189" s="1">
+        <v>284484</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" s="3">
+        <v>42369</v>
+      </c>
+      <c r="B190" s="1">
+        <v>9730</v>
+      </c>
+      <c r="C190" s="1">
+        <v>3399000</v>
+      </c>
+      <c r="D190" s="1">
+        <v>5307900</v>
+      </c>
+      <c r="E190" s="1">
+        <v>384000</v>
+      </c>
+      <c r="F190" s="1">
+        <v>1035800</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191" s="3">
+        <v>42380</v>
+      </c>
+      <c r="B191" s="1">
+        <v>5100</v>
+      </c>
+      <c r="C191" s="1">
+        <v>1532091</v>
+      </c>
+      <c r="D191" s="1">
+        <v>592300</v>
+      </c>
+      <c r="E191" s="1">
+        <v>443415</v>
+      </c>
+      <c r="F191" s="1">
+        <v>779000</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192" s="3">
+        <v>42382</v>
+      </c>
+      <c r="B192" s="2">
+        <v>7200</v>
+      </c>
+      <c r="C192" s="1">
+        <v>2276000</v>
+      </c>
+      <c r="D192" s="1">
+        <f>3695000+131000+46000</f>
+        <v>3872000</v>
+      </c>
+      <c r="E192" s="1">
+        <v>614000</v>
+      </c>
+      <c r="F192" s="1">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" s="3">
+        <v>42382</v>
+      </c>
+      <c r="B193" s="2">
+        <v>7100</v>
+      </c>
+      <c r="C193" s="1">
+        <v>2276000</v>
+      </c>
+      <c r="D193" s="1">
+        <f>3685000+177000</f>
+        <v>3862000</v>
+      </c>
+      <c r="E193" s="1">
+        <v>614000</v>
+      </c>
+      <c r="F193" s="1">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" s="3">
+        <v>42401</v>
+      </c>
+      <c r="B194" s="2">
+        <v>5800</v>
+      </c>
+      <c r="C194" s="1">
+        <f>193000+1339091</f>
+        <v>1532091</v>
+      </c>
+      <c r="D194" s="1">
+        <v>590000</v>
+      </c>
+      <c r="E194" s="1">
+        <v>443415</v>
+      </c>
+      <c r="F194" s="1">
+        <v>779000</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195" s="3">
+        <v>42404</v>
+      </c>
+      <c r="B195" s="1">
+        <v>4800</v>
+      </c>
+      <c r="C195" s="1">
+        <v>1309258</v>
+      </c>
+      <c r="D195" s="1">
+        <v>1990276</v>
+      </c>
+      <c r="E195" s="1">
+        <v>185474</v>
+      </c>
+      <c r="F195" s="1">
+        <v>284484</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196" s="3">
+        <v>42408</v>
+      </c>
+      <c r="B196" s="2">
+        <v>7000</v>
+      </c>
+      <c r="C196" s="1">
+        <v>1886833.4</v>
+      </c>
+      <c r="D196" s="1">
+        <f>4634000+131000+46000</f>
+        <v>4811000</v>
+      </c>
+      <c r="E196" s="1">
+        <v>540201.46</v>
+      </c>
+      <c r="F196" s="1">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197" s="3">
+        <v>42506</v>
+      </c>
+      <c r="B197" s="1">
+        <v>9971</v>
+      </c>
+      <c r="C197" s="1">
+        <v>6022000</v>
+      </c>
+      <c r="D197" s="1">
+        <v>6061000</v>
+      </c>
+      <c r="E197" s="1">
+        <v>455000</v>
+      </c>
+      <c r="F197" s="1">
+        <v>901000</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198" s="3">
+        <v>42540</v>
+      </c>
+      <c r="B198" s="1">
+        <v>10200</v>
+      </c>
+      <c r="C198" s="1">
+        <v>4074000</v>
+      </c>
+      <c r="D198" s="1">
+        <v>5415300</v>
+      </c>
+      <c r="E198" s="1">
+        <v>351000</v>
+      </c>
+      <c r="F198" s="1">
+        <v>828500</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199" s="3">
+        <v>42559</v>
+      </c>
+      <c r="B199" s="1">
+        <v>9600</v>
+      </c>
+      <c r="C199" s="1">
+        <v>2426500</v>
+      </c>
+      <c r="D199" s="1">
+        <v>4803272</v>
+      </c>
+      <c r="E199" s="1">
+        <v>931500</v>
+      </c>
+      <c r="F199" s="1">
+        <v>775421.75</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200" s="3">
+        <v>42577</v>
+      </c>
+      <c r="B200" s="2">
+        <v>8200</v>
+      </c>
+      <c r="C200" s="1">
+        <v>1217366</v>
+      </c>
+      <c r="D200" s="1">
+        <f>1412500+268000+25000</f>
+        <v>1705500</v>
+      </c>
+      <c r="E200" s="1">
+        <v>292634</v>
+      </c>
+      <c r="F200" s="1">
+        <f>142000+7500+46500</f>
+        <v>196000</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201" s="3">
+        <v>42587</v>
+      </c>
+      <c r="B201" s="1">
+        <v>10000</v>
+      </c>
+      <c r="C201" s="1">
+        <v>3217500</v>
+      </c>
+      <c r="D201" s="1">
+        <v>4713612</v>
+      </c>
+      <c r="E201" s="1">
+        <v>854500</v>
+      </c>
+      <c r="F201" s="1">
+        <v>336695</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202" s="3">
+        <v>42590</v>
+      </c>
+      <c r="B202" s="2">
+        <v>8900</v>
+      </c>
+      <c r="C202" s="1">
+        <v>1683500</v>
+      </c>
+      <c r="D202" s="1">
+        <f>2260000+268000+25000</f>
+        <v>2553000</v>
+      </c>
+      <c r="E202" s="1">
+        <v>416500</v>
+      </c>
+      <c r="F202" s="1">
+        <f>12000+142000+46500</f>
+        <v>200500</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203" s="3">
+        <v>42590</v>
+      </c>
+      <c r="B203" s="2">
+        <v>10400</v>
+      </c>
+      <c r="C203" s="1">
+        <v>1665250</v>
+      </c>
+      <c r="D203" s="1">
+        <f>2825000+256000+33500</f>
+        <v>3114500</v>
+      </c>
+      <c r="E203" s="1">
+        <v>452500</v>
+      </c>
+      <c r="F203" s="1">
+        <f>15000+196000+415000</f>
+        <v>626000</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204" s="3">
+        <v>42591</v>
+      </c>
+      <c r="B204" s="2">
+        <v>6800</v>
+      </c>
+      <c r="C204" s="1">
+        <v>1956000</v>
+      </c>
+      <c r="D204" s="1">
+        <v>4784123</v>
+      </c>
+      <c r="E204" s="1">
+        <v>460000</v>
+      </c>
+      <c r="F204" s="1">
+        <v>784635</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205" s="3">
+        <v>42592</v>
+      </c>
+      <c r="B205" s="2">
+        <v>7300</v>
+      </c>
+      <c r="C205" s="1">
+        <f>153200+1030938</f>
+        <v>1184138</v>
+      </c>
+      <c r="D205" s="1">
+        <f>393850+62490</f>
+        <v>456340</v>
+      </c>
+      <c r="E205" s="1">
+        <v>287400</v>
+      </c>
+      <c r="F205" s="1">
+        <f>71500+652940</f>
+        <v>724440</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206" s="3">
+        <v>42594</v>
+      </c>
+      <c r="B206" s="1">
+        <v>9730</v>
+      </c>
+      <c r="C206" s="1">
+        <v>3862000</v>
+      </c>
+      <c r="D206" s="1">
+        <v>5587500</v>
+      </c>
+      <c r="E206" s="1">
+        <v>456000</v>
+      </c>
+      <c r="F206" s="1">
+        <v>973200</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207" s="3">
+        <v>42597</v>
+      </c>
+      <c r="B207" s="1">
+        <v>9730</v>
+      </c>
+      <c r="C207" s="1">
+        <v>3862000</v>
+      </c>
+      <c r="D207" s="1">
+        <v>5587500</v>
+      </c>
+      <c r="E207" s="1">
+        <v>456000</v>
+      </c>
+      <c r="F207" s="1">
+        <v>973200</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208" s="3">
+        <v>42597</v>
+      </c>
+      <c r="B208" s="2">
+        <v>9800</v>
+      </c>
+      <c r="C208" s="1">
+        <v>3752928</v>
+      </c>
+      <c r="D208" s="1">
+        <v>2434049</v>
+      </c>
+      <c r="E208" s="1">
+        <v>704200</v>
+      </c>
+      <c r="F208" s="1">
+        <v>314730</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209" s="3">
+        <v>42597</v>
+      </c>
+      <c r="B209" s="4">
+        <v>9730</v>
+      </c>
+      <c r="C209" s="1">
+        <v>3862000</v>
+      </c>
+      <c r="D209" s="1">
+        <v>5587500</v>
+      </c>
+      <c r="E209" s="1">
+        <v>456000</v>
+      </c>
+      <c r="F209" s="1">
+        <v>973200</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210" s="3">
+        <v>42598</v>
+      </c>
+      <c r="B210" s="1">
+        <v>10800</v>
+      </c>
+      <c r="C210" s="1">
+        <v>2845280</v>
+      </c>
+      <c r="D210" s="1">
+        <v>5236719</v>
+      </c>
+      <c r="E210" s="1">
+        <v>560386</v>
+      </c>
+      <c r="F210" s="1">
+        <v>107690</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A211" s="3">
+        <v>42598</v>
+      </c>
+      <c r="B211" s="1">
+        <v>8900</v>
+      </c>
+      <c r="C211" s="1">
+        <v>3881171</v>
+      </c>
+      <c r="D211" s="1">
+        <v>4521724</v>
+      </c>
+      <c r="E211" s="1">
+        <v>628200</v>
+      </c>
+      <c r="F211" s="1">
+        <v>982220</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212" s="3">
+        <v>42598</v>
+      </c>
+      <c r="B212" s="1">
+        <v>8900</v>
+      </c>
+      <c r="C212" s="1">
+        <v>4149000</v>
+      </c>
+      <c r="D212" s="1">
+        <v>4866960</v>
+      </c>
+      <c r="E212" s="1">
+        <v>365000</v>
+      </c>
+      <c r="F212" s="1">
+        <v>792000</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213" s="3">
+        <v>42604</v>
+      </c>
+      <c r="B213" s="2">
+        <v>10200</v>
+      </c>
+      <c r="C213" s="1">
+        <v>3881171</v>
+      </c>
+      <c r="D213" s="1">
+        <v>4521724</v>
+      </c>
+      <c r="E213" s="1">
+        <v>628200</v>
+      </c>
+      <c r="F213" s="1">
+        <v>354020</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214" s="3">
+        <v>42604</v>
+      </c>
+      <c r="B214" s="2">
+        <v>7200</v>
+      </c>
+      <c r="C214" s="1">
+        <v>1275200</v>
+      </c>
+      <c r="D214" s="1">
+        <v>1872700</v>
+      </c>
+      <c r="E214" s="1">
+        <v>246100</v>
+      </c>
+      <c r="F214" s="1">
+        <v>236700</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A215" s="3">
+        <v>42604</v>
+      </c>
+      <c r="B215" s="2">
+        <v>7000</v>
+      </c>
+      <c r="C215" s="1">
+        <f>142200+1121560</f>
+        <v>1263760</v>
+      </c>
+      <c r="D215" s="1">
+        <f>468250+62490</f>
+        <v>530740</v>
+      </c>
+      <c r="E215" s="1">
+        <v>287800</v>
+      </c>
+      <c r="F215" s="1">
+        <f>53000+696940</f>
+        <v>749940</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A216" s="3">
+        <v>42606</v>
+      </c>
+      <c r="B216" s="2">
+        <v>8900</v>
+      </c>
+      <c r="C216" s="1">
+        <f>1030937.47+151750</f>
+        <v>1182687.47</v>
+      </c>
+      <c r="D216" s="1">
+        <v>752300</v>
+      </c>
+      <c r="E216" s="1">
+        <v>289400</v>
+      </c>
+      <c r="F216" s="1">
+        <f>652940+68000</f>
+        <v>720940</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A217" s="3">
+        <v>42611</v>
+      </c>
+      <c r="B217" s="2">
+        <v>10400</v>
+      </c>
+      <c r="C217" s="1">
+        <v>3761405</v>
+      </c>
+      <c r="D217" s="1">
+        <v>3540378</v>
+      </c>
+      <c r="E217" s="1">
+        <v>523963</v>
+      </c>
+      <c r="F217" s="1">
+        <v>107690</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A218" s="3">
+        <v>42612</v>
+      </c>
+      <c r="B218" s="2">
+        <v>7600</v>
+      </c>
+      <c r="C218" s="1">
+        <v>2879095</v>
+      </c>
+      <c r="D218" s="1">
+        <v>3710409</v>
+      </c>
+      <c r="E218" s="1">
+        <v>587769</v>
+      </c>
+      <c r="F218" s="1">
+        <v>117140</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A219" s="3">
+        <v>42618</v>
+      </c>
+      <c r="B219" s="1">
+        <v>5800</v>
+      </c>
+      <c r="C219" s="1">
+        <v>2175419</v>
+      </c>
+      <c r="D219" s="1">
+        <f>3521426+322034+17957</f>
+        <v>3861417</v>
+      </c>
+      <c r="E219" s="1">
+        <v>498128</v>
+      </c>
+      <c r="F219" s="1">
+        <f>37000+37000+137690</f>
+        <v>211690</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A220" s="3">
+        <v>42619</v>
+      </c>
+      <c r="B220" s="1">
+        <v>10000</v>
+      </c>
+      <c r="C220" s="1">
+        <v>3217500</v>
+      </c>
+      <c r="D220" s="1">
+        <v>4801622</v>
+      </c>
+      <c r="E220" s="1">
+        <v>854500</v>
+      </c>
+      <c r="F220" s="1">
+        <v>767134</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A221" s="3">
+        <v>42620</v>
+      </c>
+      <c r="B221" s="2">
+        <v>5700</v>
+      </c>
+      <c r="C221" s="1">
+        <v>1176245</v>
+      </c>
+      <c r="D221" s="1">
+        <v>1513055</v>
+      </c>
+      <c r="E221" s="1">
+        <v>222000</v>
+      </c>
+      <c r="F221" s="1">
+        <v>470650</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A222" s="3">
+        <v>42620</v>
+      </c>
+      <c r="B222" s="2">
+        <v>7600</v>
+      </c>
+      <c r="C222" s="1">
+        <v>1483330</v>
+      </c>
+      <c r="D222" s="1">
+        <v>1519200</v>
+      </c>
+      <c r="E222" s="1">
+        <v>207600</v>
+      </c>
+      <c r="F222" s="1">
+        <v>498174</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A223" s="3">
+        <v>42625</v>
+      </c>
+      <c r="B223" s="1">
+        <v>10560</v>
+      </c>
+      <c r="C223" s="1">
+        <v>3857171</v>
+      </c>
+      <c r="D223" s="1">
+        <v>4504189</v>
+      </c>
+      <c r="E223" s="1">
+        <v>609200</v>
+      </c>
+      <c r="F223" s="1">
+        <v>341200</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A224" s="3">
+        <v>42626</v>
+      </c>
+      <c r="B224" s="2">
+        <v>9600</v>
+      </c>
+      <c r="C224" s="1">
+        <v>2475500</v>
+      </c>
+      <c r="D224" s="1">
+        <v>4191415</v>
+      </c>
+      <c r="E224" s="1">
+        <v>862500</v>
+      </c>
+      <c r="F224" s="1">
+        <v>846974</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A225" s="3">
+        <v>42626</v>
+      </c>
+      <c r="B225" s="2">
+        <v>8700</v>
+      </c>
+      <c r="C225" s="1">
+        <v>2426500</v>
+      </c>
+      <c r="D225" s="1">
+        <v>4801622.26</v>
+      </c>
+      <c r="E225" s="1">
+        <v>931500</v>
+      </c>
+      <c r="F225" s="1">
+        <v>767134.88</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A226" s="3">
+        <v>42646</v>
+      </c>
+      <c r="B226" s="1">
+        <v>6400</v>
+      </c>
+      <c r="C226" s="1">
+        <v>1570078</v>
+      </c>
+      <c r="D226" s="1">
+        <v>3121200</v>
+      </c>
+      <c r="E226" s="1">
+        <v>317482</v>
+      </c>
+      <c r="F226" s="1">
+        <v>103914</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A227" s="3">
+        <v>42647</v>
+      </c>
+      <c r="B227" s="1">
+        <v>6400</v>
+      </c>
+      <c r="C227" s="1">
+        <v>1425000</v>
+      </c>
+      <c r="D227" s="1">
+        <v>1613000</v>
+      </c>
+      <c r="E227" s="1">
+        <v>194700</v>
+      </c>
+      <c r="F227" s="1">
+        <v>194500</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A228" s="3">
+        <v>42653</v>
+      </c>
+      <c r="B228" s="2">
+        <v>8700</v>
+      </c>
+      <c r="C228" s="1">
+        <v>2600000</v>
+      </c>
+      <c r="D228" s="1">
+        <v>3048761</v>
+      </c>
+      <c r="E228" s="1">
+        <v>900000</v>
+      </c>
+      <c r="F228" s="1">
+        <v>706754.88</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A229" s="3">
+        <v>42654</v>
+      </c>
+      <c r="B229" s="2">
+        <v>5600</v>
+      </c>
+      <c r="C229" s="1">
+        <v>1376422</v>
+      </c>
+      <c r="D229" s="1">
+        <v>2321450</v>
+      </c>
+      <c r="E229" s="1">
+        <v>141953</v>
+      </c>
+      <c r="F229" s="1">
+        <v>262378</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A230" s="3">
+        <v>42654</v>
+      </c>
+      <c r="B230" s="2">
+        <v>5600</v>
+      </c>
+      <c r="C230" s="1">
+        <v>1373835</v>
+      </c>
+      <c r="D230" s="1">
+        <v>2317450</v>
+      </c>
+      <c r="E230" s="1">
+        <v>145035</v>
+      </c>
+      <c r="F230" s="1">
+        <v>265878</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A231" s="3">
+        <v>42660</v>
+      </c>
+      <c r="B231" s="1">
+        <v>9710</v>
+      </c>
+      <c r="C231" s="1">
+        <v>2690000</v>
+      </c>
+      <c r="D231" s="1">
+        <v>5044000</v>
+      </c>
+      <c r="E231" s="1">
+        <v>357000</v>
+      </c>
+      <c r="F231" s="1">
+        <v>857000</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A232" s="3">
+        <v>42661</v>
+      </c>
+      <c r="B232" s="2">
+        <v>8700</v>
+      </c>
+      <c r="C232" s="1">
+        <v>3217500</v>
+      </c>
+      <c r="D232" s="1">
+        <v>4801622.26</v>
+      </c>
+      <c r="E232" s="1">
+        <v>854500</v>
+      </c>
+      <c r="F232" s="1">
+        <v>767134.88</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A233" s="3">
+        <v>42661</v>
+      </c>
+      <c r="B233" s="1">
+        <v>7200</v>
+      </c>
+      <c r="C233" s="1">
+        <v>1017811</v>
+      </c>
+      <c r="D233" s="1">
+        <v>1574235</v>
+      </c>
+      <c r="E233" s="1">
+        <v>186851</v>
+      </c>
+      <c r="F233" s="1">
+        <v>296900</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A234" s="3">
+        <v>42667</v>
+      </c>
+      <c r="B234" s="1">
+        <v>4800</v>
+      </c>
+      <c r="C234" s="1">
+        <v>1017918</v>
+      </c>
+      <c r="D234" s="1">
+        <v>1574235</v>
+      </c>
+      <c r="E234" s="1">
+        <v>186851</v>
+      </c>
+      <c r="F234" s="1">
+        <v>296900</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A235" s="3">
+        <v>42668</v>
+      </c>
+      <c r="B235" s="2">
+        <v>8700</v>
+      </c>
+      <c r="C235" s="1">
+        <v>2426500</v>
+      </c>
+      <c r="D235" s="1">
+        <v>4801622.26</v>
+      </c>
+      <c r="E235" s="1">
+        <v>931500</v>
+      </c>
+      <c r="F235" s="1">
+        <v>767134.88</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A236" s="3">
+        <v>42668</v>
+      </c>
+      <c r="B236" s="1">
+        <v>5600</v>
+      </c>
+      <c r="C236" s="1">
+        <v>1373835</v>
+      </c>
+      <c r="D236" s="1">
+        <v>2317450</v>
+      </c>
+      <c r="E236" s="1">
+        <v>145035</v>
+      </c>
+      <c r="F236" s="1">
+        <v>265878</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A237" s="3">
+        <v>42668</v>
+      </c>
+      <c r="B237" s="2">
+        <v>10230</v>
+      </c>
+      <c r="C237" s="1">
+        <v>4208861</v>
+      </c>
+      <c r="D237" s="1">
+        <v>5860690</v>
+      </c>
+      <c r="E237" s="1">
+        <v>628226</v>
+      </c>
+      <c r="F237" s="1">
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A238" s="3">
+        <v>42668</v>
+      </c>
+      <c r="B238" s="1">
+        <v>6970</v>
+      </c>
+      <c r="C238" s="1">
+        <v>1760000</v>
+      </c>
+      <c r="D238" s="1">
+        <v>3826677</v>
+      </c>
+      <c r="E238" s="1">
+        <v>45000</v>
+      </c>
+      <c r="F238" s="1">
+        <v>846217</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A239" s="3">
+        <v>42671</v>
+      </c>
+      <c r="B239" s="2">
+        <v>8700</v>
+      </c>
+      <c r="C239" s="1">
+        <v>3217500</v>
+      </c>
+      <c r="D239" s="1">
+        <v>4801622</v>
+      </c>
+      <c r="E239" s="1">
+        <v>854500</v>
+      </c>
+      <c r="F239" s="1">
+        <v>767134.88</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A240" s="3">
+        <v>42671</v>
+      </c>
+      <c r="B240" s="2">
+        <v>7400</v>
+      </c>
+      <c r="C240" s="1">
+        <v>3217500</v>
+      </c>
+      <c r="D240" s="1">
+        <v>4801622</v>
+      </c>
+      <c r="E240" s="1">
+        <v>4072000</v>
+      </c>
+      <c r="F240" s="1">
+        <v>5568757</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A241" s="3">
+        <v>42675</v>
+      </c>
+      <c r="B241" s="2">
+        <v>6970</v>
+      </c>
+      <c r="C241" s="1">
+        <v>1760000</v>
+      </c>
+      <c r="D241" s="1">
+        <v>3826677</v>
+      </c>
+      <c r="E241" s="1">
+        <v>45000</v>
+      </c>
+      <c r="F241" s="1">
+        <v>830006</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A242" s="3">
+        <v>42678</v>
+      </c>
+      <c r="B242" s="1">
+        <v>6900</v>
+      </c>
+      <c r="C242" s="1">
+        <v>1256245</v>
+      </c>
+      <c r="D242" s="1">
+        <v>1513055</v>
+      </c>
+      <c r="E242" s="1">
+        <v>222000</v>
+      </c>
+      <c r="F242" s="1">
+        <v>470650</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A243" s="3">
+        <v>42678</v>
+      </c>
+      <c r="B243" s="2">
+        <v>8200</v>
+      </c>
+      <c r="C243" s="1">
+        <v>1256245</v>
+      </c>
+      <c r="D243" s="1">
+        <v>1513055</v>
+      </c>
+      <c r="E243" s="1">
+        <v>222000</v>
+      </c>
+      <c r="F243" s="1">
+        <v>470650</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A244" s="3">
+        <v>42681</v>
+      </c>
+      <c r="B244" s="2">
+        <v>9700</v>
+      </c>
+      <c r="C244" s="1">
+        <v>3217500</v>
+      </c>
+      <c r="D244" s="1">
+        <v>4801622.26</v>
+      </c>
+      <c r="E244" s="1">
+        <v>854500</v>
+      </c>
+      <c r="F244" s="1">
+        <v>767134.88</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A245" s="3">
+        <v>42681</v>
+      </c>
+      <c r="B245" s="2">
+        <v>8700</v>
+      </c>
+      <c r="C245" s="1">
+        <v>3753378</v>
+      </c>
+      <c r="D245" s="1">
+        <v>4895332</v>
+      </c>
+      <c r="E245" s="1">
+        <v>656287</v>
+      </c>
+      <c r="F245" s="1">
+        <v>117140</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A246" s="3">
+        <v>42681</v>
+      </c>
+      <c r="B246" s="2">
+        <v>7800</v>
+      </c>
+      <c r="C246" s="1">
+        <v>2036083</v>
+      </c>
+      <c r="D246" s="1">
+        <f>5080000+25000+312000</f>
+        <v>5417000</v>
+      </c>
+      <c r="E246" s="1">
+        <v>444000</v>
+      </c>
+      <c r="F246" s="1">
+        <f>347000+30000+46500</f>
+        <v>423500</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A247" s="3">
+        <v>42681</v>
+      </c>
+      <c r="B247" s="2">
+        <v>9200</v>
+      </c>
+      <c r="C247" s="1">
+        <v>2154087</v>
+      </c>
+      <c r="D247" s="1">
+        <v>3295000</v>
+      </c>
+      <c r="E247" s="1">
+        <v>290390</v>
+      </c>
+      <c r="F247" s="1">
+        <v>123000</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A248" s="3">
+        <v>42681</v>
+      </c>
+      <c r="B248" s="2">
+        <v>7400</v>
+      </c>
+      <c r="C248" s="1">
+        <v>3217500</v>
+      </c>
+      <c r="D248" s="1">
+        <v>4801022</v>
+      </c>
+      <c r="E248" s="1">
+        <v>854500</v>
+      </c>
+      <c r="F248" s="1">
+        <v>767134</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A249" s="3">
+        <v>42682</v>
+      </c>
+      <c r="B249" s="2">
+        <v>7400</v>
+      </c>
+      <c r="C249" s="1">
+        <v>2630650</v>
+      </c>
+      <c r="D249" s="1">
+        <v>5811760</v>
+      </c>
+      <c r="E249" s="1">
+        <v>640115</v>
+      </c>
+      <c r="F249" s="1">
+        <v>106500</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A250" s="3">
+        <v>42682</v>
+      </c>
+      <c r="B250" s="1">
+        <v>4750</v>
+      </c>
+      <c r="C250" s="1">
+        <v>2580000</v>
+      </c>
+      <c r="D250" s="1">
+        <v>2725000</v>
+      </c>
+      <c r="E250" s="1">
+        <v>615000</v>
+      </c>
+      <c r="F250" s="1">
+        <v>405000</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A251" s="3">
+        <v>42682</v>
+      </c>
+      <c r="B251" s="2">
+        <v>7200</v>
+      </c>
+      <c r="C251" s="1">
+        <v>2600000</v>
+      </c>
+      <c r="D251" s="1">
+        <v>3048761</v>
+      </c>
+      <c r="E251" s="1">
+        <v>900000</v>
+      </c>
+      <c r="F251" s="1">
+        <v>706754</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A252" s="3">
+        <v>42682</v>
+      </c>
+      <c r="B252" s="1">
+        <v>12000</v>
+      </c>
+      <c r="C252" s="1">
+        <v>3036907</v>
+      </c>
+      <c r="D252" s="1">
+        <v>2434049</v>
+      </c>
+      <c r="E252" s="1">
+        <v>544200</v>
+      </c>
+      <c r="F252" s="1">
+        <v>342396</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A253" s="3">
+        <v>42682</v>
+      </c>
+      <c r="B253" s="2">
+        <v>7800</v>
+      </c>
+      <c r="C253" s="1">
+        <v>1688500</v>
+      </c>
+      <c r="D253" s="1">
+        <v>3048761</v>
+      </c>
+      <c r="E253" s="1">
+        <v>364500</v>
+      </c>
+      <c r="F253" s="1">
+        <v>706754</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A254" s="3">
+        <v>42683</v>
+      </c>
+      <c r="B254" s="2">
+        <v>7400</v>
+      </c>
+      <c r="C254" s="1">
+        <v>2036083</v>
+      </c>
+      <c r="D254" s="1">
+        <f>5080000+313000+25000</f>
+        <v>5418000</v>
+      </c>
+      <c r="E254" s="1">
+        <v>444000</v>
+      </c>
+      <c r="F254" s="1">
+        <v>424000</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A255" s="3">
+        <v>42688</v>
+      </c>
+      <c r="B255" s="2">
+        <v>7400</v>
+      </c>
+      <c r="C255" s="1">
+        <v>1592243</v>
+      </c>
+      <c r="D255" s="1">
+        <f>5080000+25000+312000</f>
+        <v>5417000</v>
+      </c>
+      <c r="E255" s="1">
+        <v>607900</v>
+      </c>
+      <c r="F255" s="1">
+        <v>424000</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A256" s="3">
+        <v>42689</v>
+      </c>
+      <c r="B256" s="2">
+        <v>8700</v>
+      </c>
+      <c r="C256" s="1">
+        <v>2544510</v>
+      </c>
+      <c r="D256" s="1">
+        <v>3201408</v>
+      </c>
+      <c r="E256" s="1">
+        <v>616796</v>
+      </c>
+      <c r="F256" s="1">
+        <v>123000</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A257" s="3">
+        <v>42695</v>
+      </c>
+      <c r="B257" s="1">
+        <v>9670</v>
+      </c>
+      <c r="C257" s="1">
+        <v>3560000</v>
+      </c>
+      <c r="D257" s="1">
+        <v>5247679</v>
+      </c>
+      <c r="E257" s="1">
+        <v>357000</v>
+      </c>
+      <c r="F257" s="1">
+        <v>827598</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A258" s="3">
+        <v>42695</v>
+      </c>
+      <c r="B258" s="1">
+        <v>9800</v>
+      </c>
+      <c r="C258" s="1">
+        <v>3218000</v>
+      </c>
+      <c r="D258" s="1">
+        <v>4950000</v>
+      </c>
+      <c r="E258" s="1">
+        <v>712000</v>
+      </c>
+      <c r="F258" s="1">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A259" s="3">
+        <v>42696</v>
+      </c>
+      <c r="B259" s="2">
+        <v>7200</v>
+      </c>
+      <c r="C259" s="1">
+        <v>2423847</v>
+      </c>
+      <c r="D259" s="1">
+        <v>2939450</v>
+      </c>
+      <c r="E259" s="1">
+        <v>316140</v>
+      </c>
+      <c r="F259" s="1">
+        <v>93000</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A260" s="3">
+        <v>42702</v>
+      </c>
+      <c r="B260" s="2">
+        <v>11000</v>
+      </c>
+      <c r="C260" s="1">
+        <v>2768850</v>
+      </c>
+      <c r="D260" s="1">
+        <v>3451875</v>
+      </c>
+      <c r="E260" s="1">
+        <v>416250</v>
+      </c>
+      <c r="F260" s="1">
+        <v>723200</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A261" s="3">
+        <v>42703</v>
+      </c>
+      <c r="B261" s="2">
+        <v>8700</v>
+      </c>
+      <c r="C261" s="1">
+        <v>2426500</v>
+      </c>
+      <c r="D261" s="1">
+        <v>4801622.26</v>
+      </c>
+      <c r="E261" s="1">
+        <v>931500</v>
+      </c>
+      <c r="F261" s="1">
+        <v>767134.88</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A262" s="3">
+        <v>42705</v>
+      </c>
+      <c r="B262" s="2">
+        <v>8200</v>
+      </c>
+      <c r="C262" s="1">
+        <v>1425000</v>
+      </c>
+      <c r="D262" s="1">
+        <v>1613000</v>
+      </c>
+      <c r="E262" s="1">
+        <v>194700</v>
+      </c>
+      <c r="F262" s="1">
+        <v>194500</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A263" s="3">
+        <v>42709</v>
+      </c>
+      <c r="B263" s="2">
+        <v>6800</v>
+      </c>
+      <c r="C263" s="1">
+        <v>950300</v>
+      </c>
+      <c r="D263" s="1">
+        <v>1115600</v>
+      </c>
+      <c r="E263" s="1">
+        <v>294800</v>
+      </c>
+      <c r="F263" s="1">
+        <v>261500</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A264" s="3">
+        <v>42710</v>
+      </c>
+      <c r="B264" s="2">
+        <v>8700</v>
+      </c>
+      <c r="C264" s="1">
+        <v>1017811</v>
+      </c>
+      <c r="D264" s="1">
+        <v>1574235</v>
+      </c>
+      <c r="E264" s="1">
+        <v>186851</v>
+      </c>
+      <c r="F264" s="1">
+        <v>483751</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A265" s="3">
+        <v>42716</v>
+      </c>
+      <c r="B265" s="2">
+        <v>7400</v>
+      </c>
+      <c r="C265" s="1">
+        <v>3487000</v>
+      </c>
+      <c r="D265" s="1">
+        <v>2180500</v>
+      </c>
+      <c r="E265" s="1">
+        <v>451690</v>
+      </c>
+      <c r="F265" s="1">
+        <v>334100</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A266" s="3">
+        <v>42717</v>
+      </c>
+      <c r="B266" s="1">
+        <v>4550</v>
+      </c>
+      <c r="C266" s="1">
+        <v>2560000</v>
+      </c>
+      <c r="D266" s="1">
+        <v>2730000</v>
+      </c>
+      <c r="E266" s="1">
+        <v>620000</v>
+      </c>
+      <c r="F266" s="1">
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A267" s="3">
+        <v>42717</v>
+      </c>
+      <c r="B267" s="2">
+        <v>7900</v>
+      </c>
+      <c r="C267" s="1">
+        <v>2518000</v>
+      </c>
+      <c r="D267" s="1">
+        <v>2710000</v>
+      </c>
+      <c r="E267" s="1">
+        <v>592000</v>
+      </c>
+      <c r="F267" s="1">
+        <v>390000</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A268" s="3">
+        <v>42717</v>
+      </c>
+      <c r="B268" s="1">
+        <v>4550</v>
+      </c>
+      <c r="C268" s="1">
+        <v>2560000</v>
+      </c>
+      <c r="D268" s="1">
+        <v>2730000</v>
+      </c>
+      <c r="E268" s="1">
+        <v>620000</v>
+      </c>
+      <c r="F268" s="1">
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A269" s="3">
+        <v>42723</v>
+      </c>
+      <c r="B269" s="2">
+        <v>9800</v>
+      </c>
+      <c r="C269" s="1">
+        <v>2600000</v>
+      </c>
+      <c r="D269" s="1">
+        <v>3048761</v>
+      </c>
+      <c r="E269" s="1">
+        <v>900000</v>
+      </c>
+      <c r="F269" s="1">
+        <v>706754</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A270" s="3">
+        <v>42723</v>
+      </c>
+      <c r="B270" s="1">
+        <v>4550</v>
+      </c>
+      <c r="C270" s="1">
+        <v>2559000</v>
+      </c>
+      <c r="D270" s="1">
+        <v>2720000</v>
+      </c>
+      <c r="E270" s="1">
+        <v>582000</v>
+      </c>
+      <c r="F270" s="1">
+        <v>390000</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A271" s="3">
+        <v>42724</v>
+      </c>
+      <c r="B271" s="2">
+        <v>6800</v>
+      </c>
+      <c r="C271" s="1">
+        <v>1343500</v>
+      </c>
+      <c r="D271" s="1">
+        <f>2540000+212000+25000</f>
+        <v>2777000</v>
+      </c>
+      <c r="E271" s="1">
+        <v>334500</v>
+      </c>
+      <c r="F271" s="1">
+        <f>15000+347000+46500</f>
+        <v>408500</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A272" s="3">
+        <v>42732</v>
+      </c>
+      <c r="B272" s="1">
+        <v>4340</v>
+      </c>
+      <c r="C272" s="1">
+        <v>3557000</v>
+      </c>
+      <c r="D272" s="1">
+        <v>3066089</v>
+      </c>
+      <c r="E272" s="1">
+        <v>500000</v>
+      </c>
+      <c r="F272" s="1">
+        <v>723399</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A273" s="3">
+        <v>42734</v>
+      </c>
+      <c r="B273" s="2">
+        <v>14000</v>
+      </c>
+      <c r="C273" s="1">
+        <v>3313075</v>
+      </c>
+      <c r="D273" s="1">
+        <v>4585789</v>
+      </c>
+      <c r="E273" s="1">
+        <v>929200</v>
+      </c>
+      <c r="F273" s="1">
+        <v>332274</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A274" s="3">
+        <v>42738</v>
+      </c>
+      <c r="B274" s="2">
+        <v>8900</v>
+      </c>
+      <c r="C274" s="1">
+        <v>2475500</v>
+      </c>
+      <c r="D274" s="1">
+        <v>4191415.26</v>
+      </c>
+      <c r="E274" s="1">
+        <v>862500</v>
+      </c>
+      <c r="F274" s="1">
+        <v>846974.88</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A275" s="3">
+        <v>42738</v>
+      </c>
+      <c r="B275" s="2">
+        <v>10200</v>
+      </c>
+      <c r="C275" s="1">
+        <v>2426500</v>
+      </c>
+      <c r="D275" s="1">
+        <v>5403904</v>
+      </c>
+      <c r="E275" s="1">
+        <v>931500</v>
+      </c>
+      <c r="F275" s="1">
+        <v>652325.79</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A276" s="3">
+        <v>42738</v>
+      </c>
+      <c r="B276" s="2">
+        <v>8900</v>
+      </c>
+      <c r="C276" s="1">
+        <v>1830000</v>
+      </c>
+      <c r="D276" s="1">
+        <v>3048761.26</v>
+      </c>
+      <c r="E276" s="1">
+        <v>800000</v>
+      </c>
+      <c r="F276" s="1">
+        <v>706754.88</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A277" s="3">
+        <v>42742</v>
+      </c>
+      <c r="B277" s="2">
+        <v>8300</v>
+      </c>
+      <c r="C277" s="1">
+        <v>1830000</v>
+      </c>
+      <c r="D277" s="1">
+        <v>3048761</v>
+      </c>
+      <c r="E277" s="1">
+        <v>800000</v>
+      </c>
+      <c r="F277" s="1">
+        <v>706754</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A278" s="3">
+        <v>42744</v>
+      </c>
+      <c r="B278" s="1">
+        <v>10151</v>
+      </c>
+      <c r="C278" s="1">
+        <v>5840000</v>
+      </c>
+      <c r="D278" s="1">
+        <v>5859500</v>
+      </c>
+      <c r="E278" s="1">
+        <v>481000</v>
+      </c>
+      <c r="F278" s="1">
+        <v>947200</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A279" s="3">
+        <v>42745</v>
+      </c>
+      <c r="B279" s="2">
+        <v>9200</v>
+      </c>
+      <c r="C279" s="1">
+        <v>3217500</v>
+      </c>
+      <c r="D279" s="1">
+        <v>5403904</v>
+      </c>
+      <c r="E279" s="1">
+        <v>854600</v>
+      </c>
+      <c r="F279" s="1">
+        <v>652325.79</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A280" s="3">
+        <v>42745</v>
+      </c>
+      <c r="B280" s="2">
+        <v>8200</v>
+      </c>
+      <c r="C280" s="1">
+        <v>2602500</v>
+      </c>
+      <c r="D280" s="1">
+        <v>3122000</v>
+      </c>
+      <c r="E280" s="1">
+        <v>897500</v>
+      </c>
+      <c r="F280" s="1">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A281" s="3">
+        <v>42745</v>
+      </c>
+      <c r="B281" s="2">
+        <v>10500</v>
+      </c>
+      <c r="C281" s="1">
+        <v>3217500</v>
+      </c>
+      <c r="D281" s="1">
+        <v>5403904</v>
+      </c>
+      <c r="E281" s="1">
+        <v>854500</v>
+      </c>
+      <c r="F281" s="1">
+        <v>652325.79</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A282" s="3">
+        <v>42746</v>
+      </c>
+      <c r="B282" s="2">
+        <v>9440</v>
+      </c>
+      <c r="C282" s="1">
+        <v>3217500</v>
+      </c>
+      <c r="D282" s="1">
+        <v>4801622</v>
+      </c>
+      <c r="E282" s="1">
+        <v>854500</v>
+      </c>
+      <c r="F282" s="1">
+        <v>767134</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A283" s="3">
+        <v>42758</v>
+      </c>
+      <c r="B283" s="2">
+        <v>8300</v>
+      </c>
+      <c r="C283" s="1">
+        <v>3217500</v>
+      </c>
+      <c r="D283" s="1">
+        <v>4801622</v>
+      </c>
+      <c r="E283" s="1">
+        <v>854500</v>
+      </c>
+      <c r="F283" s="1">
+        <v>767134</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A284" s="3">
+        <v>42766</v>
+      </c>
+      <c r="B284" s="2">
+        <v>10300</v>
+      </c>
+      <c r="C284" s="1">
+        <v>2193867</v>
+      </c>
+      <c r="D284" s="1">
+        <v>3196408</v>
+      </c>
+      <c r="E284" s="1">
+        <v>573975</v>
+      </c>
+      <c r="F284" s="1">
+        <v>114990</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A285" s="3">
+        <v>42766</v>
+      </c>
+      <c r="B285" s="1">
+        <v>9800</v>
+      </c>
+      <c r="C285" s="1">
+        <v>1739850</v>
+      </c>
+      <c r="D285" s="1">
+        <v>3738525</v>
+      </c>
+      <c r="E285" s="1">
+        <v>133000</v>
+      </c>
+      <c r="F285" s="1">
+        <v>762500</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A286" s="3">
+        <v>42766</v>
+      </c>
+      <c r="B286" s="2">
+        <v>8700</v>
+      </c>
+      <c r="C286" s="1">
+        <v>1739850</v>
+      </c>
+      <c r="D286" s="1">
+        <v>3738525</v>
+      </c>
+      <c r="E286" s="1">
+        <v>133000</v>
+      </c>
+      <c r="F286" s="1">
+        <v>762500</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A287" s="3">
+        <v>42766</v>
+      </c>
+      <c r="B287" s="2">
+        <v>9800</v>
+      </c>
+      <c r="C287" s="1">
+        <v>2193867</v>
+      </c>
+      <c r="D287" s="1">
+        <v>3196408</v>
+      </c>
+      <c r="E287" s="1">
+        <v>573795</v>
+      </c>
+      <c r="F287" s="1">
+        <v>114990</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A288" s="3">
+        <v>42779</v>
+      </c>
+      <c r="B288" s="2">
+        <v>8800</v>
+      </c>
+      <c r="C288" s="1">
+        <v>1017811</v>
+      </c>
+      <c r="D288" s="1">
+        <v>1574235</v>
+      </c>
+      <c r="E288" s="1">
+        <v>186851</v>
+      </c>
+      <c r="F288" s="1">
+        <v>296900</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A289" s="3">
+        <v>42780</v>
+      </c>
+      <c r="B289" s="2">
+        <v>8200</v>
+      </c>
+      <c r="C289" s="1">
+        <v>1668500</v>
+      </c>
+      <c r="D289" s="1">
+        <v>3048761</v>
+      </c>
+      <c r="E289" s="1">
+        <v>364500</v>
+      </c>
+      <c r="F289" s="1">
+        <v>706754</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A290" s="3">
+        <v>42783</v>
+      </c>
+      <c r="B290" s="2">
+        <v>7000</v>
+      </c>
+      <c r="C290" s="1">
+        <v>1462945</v>
+      </c>
+      <c r="D290" s="1">
+        <v>2044205</v>
+      </c>
+      <c r="E290" s="1">
+        <v>209400</v>
+      </c>
+      <c r="F290" s="1">
+        <v>505800</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A291" s="3">
+        <v>42786</v>
+      </c>
+      <c r="B291" s="2">
+        <v>7900</v>
+      </c>
+      <c r="C291" s="1">
+        <v>111845</v>
+      </c>
+      <c r="D291" s="1">
+        <v>2329593</v>
+      </c>
+      <c r="E291" s="1">
+        <v>145035</v>
+      </c>
+      <c r="F291" s="1">
+        <v>276378</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A292" s="3">
+        <v>42787</v>
+      </c>
+      <c r="B292" s="1">
+        <v>5000</v>
+      </c>
+      <c r="C292" s="1">
+        <v>2317900</v>
+      </c>
+      <c r="D292" s="1">
+        <v>2814500</v>
+      </c>
+      <c r="E292" s="1">
+        <v>448300</v>
+      </c>
+      <c r="F292" s="1">
+        <v>477800</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A293" s="3">
+        <v>42787</v>
+      </c>
+      <c r="B293" s="2">
+        <v>8300</v>
+      </c>
+      <c r="C293" s="1">
+        <v>2036083</v>
+      </c>
+      <c r="D293" s="1">
+        <f>5080000+313000+25000</f>
+        <v>5418000</v>
+      </c>
+      <c r="E293" s="1">
+        <v>444000</v>
+      </c>
+      <c r="F293" s="1">
+        <f>30000+347000+46500</f>
+        <v>423500</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A294" s="3">
+        <v>42787</v>
+      </c>
+      <c r="B294" s="1">
+        <v>9440</v>
+      </c>
+      <c r="C294" s="1">
+        <v>3342000</v>
+      </c>
+      <c r="D294" s="1">
+        <v>5938217</v>
+      </c>
+      <c r="E294" s="1">
+        <v>322000</v>
+      </c>
+      <c r="F294" s="1">
+        <v>736133</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A295" s="3">
+        <v>42789</v>
+      </c>
+      <c r="B295" s="1">
+        <v>10560</v>
+      </c>
+      <c r="C295" s="1">
+        <v>1511900</v>
+      </c>
+      <c r="D295" s="1">
+        <v>3350994</v>
+      </c>
+      <c r="E295" s="1">
+        <v>276500</v>
+      </c>
+      <c r="F295" s="1">
+        <v>227750</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A296" s="3">
+        <v>42794</v>
+      </c>
+      <c r="B296" s="1">
+        <v>8400</v>
+      </c>
+      <c r="C296" s="1">
+        <v>2475500</v>
+      </c>
+      <c r="D296" s="1">
+        <v>4479000</v>
+      </c>
+      <c r="E296" s="1">
+        <v>862500</v>
+      </c>
+      <c r="F296" s="1">
+        <v>81000</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A297" s="3">
+        <v>42794</v>
+      </c>
+      <c r="B297" s="1">
+        <v>8600</v>
+      </c>
+      <c r="C297" s="1">
+        <v>1017811</v>
+      </c>
+      <c r="D297" s="1">
+        <v>1574235</v>
+      </c>
+      <c r="E297" s="1">
+        <v>186851</v>
+      </c>
+      <c r="F297" s="1">
+        <v>296990</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A298" s="3">
+        <v>42800</v>
+      </c>
+      <c r="B298" s="1">
+        <v>8600</v>
+      </c>
+      <c r="C298" s="1">
+        <v>1256245</v>
+      </c>
+      <c r="D298" s="1">
+        <v>1513055</v>
+      </c>
+      <c r="E298" s="1">
+        <v>222000</v>
+      </c>
+      <c r="F298" s="1">
+        <v>470550</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A299" s="3">
+        <v>42801</v>
+      </c>
+      <c r="B299" s="2">
+        <v>9200</v>
+      </c>
+      <c r="C299" s="1">
+        <v>2600000</v>
+      </c>
+      <c r="D299" s="1">
+        <v>3048761</v>
+      </c>
+      <c r="E299" s="1">
+        <v>900000</v>
+      </c>
+      <c r="F299" s="1">
+        <v>706754</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A300" s="3">
+        <v>42801</v>
+      </c>
+      <c r="B300" s="1">
+        <v>6970</v>
+      </c>
+      <c r="C300" s="1">
+        <v>1760000</v>
+      </c>
+      <c r="D300" s="1">
+        <v>3826677</v>
+      </c>
+      <c r="E300" s="1">
+        <v>45000</v>
+      </c>
+      <c r="F300" s="1">
+        <v>846217</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A301" s="3">
+        <v>42801</v>
+      </c>
+      <c r="B301" s="1">
+        <v>8300</v>
+      </c>
+      <c r="C301" s="1">
+        <v>1549736</v>
+      </c>
+      <c r="D301" s="1">
+        <v>1387450</v>
+      </c>
+      <c r="E301" s="1">
+        <v>141953</v>
+      </c>
+      <c r="F301" s="1">
+        <v>391840</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A302" s="3">
+        <v>42801</v>
+      </c>
+      <c r="B302" s="2">
+        <v>9800</v>
+      </c>
+      <c r="C302" s="1">
+        <v>2102980</v>
+      </c>
+      <c r="D302" s="1">
+        <v>3036572</v>
+      </c>
+      <c r="E302" s="1">
+        <v>573795</v>
+      </c>
+      <c r="F302" s="1">
+        <v>3036572</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A303" s="3">
+        <v>42801</v>
+      </c>
+      <c r="B303" s="1">
+        <v>8400</v>
+      </c>
+      <c r="C303" s="1">
+        <v>2097000</v>
+      </c>
+      <c r="D303" s="1">
+        <v>2442000</v>
+      </c>
+      <c r="E303" s="1">
+        <v>264000</v>
+      </c>
+      <c r="F303" s="1">
+        <v>562500</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A304" s="3">
+        <v>42815</v>
+      </c>
+      <c r="B304" s="2">
+        <v>9800</v>
+      </c>
+      <c r="C304" s="1">
+        <v>3217500</v>
+      </c>
+      <c r="D304" s="1">
+        <v>4801622</v>
+      </c>
+      <c r="E304" s="1">
+        <v>854500</v>
+      </c>
+      <c r="F304" s="1">
+        <v>767134.88</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A305" s="3">
+        <v>42818</v>
+      </c>
+      <c r="B305" s="2">
+        <v>8600</v>
+      </c>
+      <c r="C305" s="1">
+        <v>2449062</v>
+      </c>
+      <c r="D305" s="1">
+        <f>4934000+148000+25000</f>
+        <v>5107000</v>
+      </c>
+      <c r="E305" s="1">
+        <v>861500</v>
+      </c>
+      <c r="F305" s="1">
+        <v>238500</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A306" s="3">
+        <v>42828</v>
+      </c>
+      <c r="B306" s="2">
+        <v>8600</v>
+      </c>
+      <c r="C306" s="1">
+        <v>1017811</v>
+      </c>
+      <c r="D306" s="1">
+        <v>1574235</v>
+      </c>
+      <c r="E306" s="1">
+        <v>186851</v>
+      </c>
+      <c r="F306" s="1">
+        <v>296900</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A307" s="3">
+        <v>42839</v>
+      </c>
+      <c r="B307" s="2">
+        <v>9800</v>
+      </c>
+      <c r="C307" s="1">
+        <v>2434483</v>
+      </c>
+      <c r="D307" s="1">
+        <v>6278075</v>
+      </c>
+      <c r="E307" s="1">
+        <v>657951</v>
+      </c>
+      <c r="F307" s="1">
+        <v>106550</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A308" s="3">
+        <v>42843</v>
+      </c>
+      <c r="B308" s="2">
+        <v>9800</v>
+      </c>
+      <c r="C308" s="1">
+        <v>1778431</v>
+      </c>
+      <c r="D308" s="1">
+        <v>3048761</v>
+      </c>
+      <c r="E308" s="1">
+        <v>636569</v>
+      </c>
+      <c r="F308" s="1">
+        <v>706754</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A309" s="3">
+        <v>42850</v>
+      </c>
+      <c r="B309" s="1">
+        <v>8000</v>
+      </c>
+      <c r="C309" s="1">
+        <v>1111845</v>
+      </c>
+      <c r="D309" s="1">
+        <v>2329593</v>
+      </c>
+      <c r="E309" s="1">
+        <v>145035</v>
+      </c>
+      <c r="F309" s="1">
+        <v>276378</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A310" s="3">
+        <v>42850</v>
+      </c>
+      <c r="B310" s="2">
+        <v>10300</v>
+      </c>
+      <c r="C310" s="1">
+        <v>2543000</v>
+      </c>
+      <c r="D310" s="1">
+        <v>4896000</v>
+      </c>
+      <c r="E310" s="1">
+        <v>321000</v>
+      </c>
+      <c r="F310" s="1">
+        <v>583500</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A311" s="3">
+        <v>42856</v>
+      </c>
+      <c r="B311" s="2">
+        <v>8200</v>
+      </c>
+      <c r="C311" s="1">
+        <v>1100926</v>
+      </c>
+      <c r="D311" s="1">
+        <v>1718027</v>
+      </c>
+      <c r="E311" s="1">
+        <v>159600</v>
+      </c>
+      <c r="F311" s="1">
+        <v>296782</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A312" s="3">
+        <v>42859</v>
+      </c>
+      <c r="B312" s="2">
+        <v>8600</v>
+      </c>
+      <c r="C312" s="1">
+        <v>1017811</v>
+      </c>
+      <c r="D312" s="1">
+        <v>1574235</v>
+      </c>
+      <c r="E312" s="1">
+        <v>186851</v>
+      </c>
+      <c r="F312" s="1">
+        <v>296900</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A313" s="3">
+        <v>42864</v>
+      </c>
+      <c r="B313" s="2">
+        <v>8600</v>
+      </c>
+      <c r="C313" s="1">
+        <v>1017467</v>
+      </c>
+      <c r="D313" s="1">
+        <f>1237340+116000</f>
+        <v>1353340</v>
+      </c>
+      <c r="E313" s="1">
+        <v>204400</v>
+      </c>
+      <c r="F313" s="1">
+        <f>570665+65000</f>
+        <v>635665</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A314" s="3">
+        <v>42877</v>
+      </c>
+      <c r="B314" s="2">
+        <v>10230</v>
+      </c>
+      <c r="C314" s="1">
+        <v>1986349</v>
+      </c>
+      <c r="D314" s="1">
+        <f>2950000+312000+75000</f>
+        <v>3337000</v>
+      </c>
+      <c r="E314" s="1">
+        <v>444000</v>
+      </c>
+      <c r="F314" s="1">
+        <v>467000</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A315" s="3">
+        <v>42878</v>
+      </c>
+      <c r="B315" s="2">
+        <v>13600</v>
+      </c>
+      <c r="C315" s="1">
+        <v>4256000</v>
+      </c>
+      <c r="D315" s="1">
+        <v>4814960</v>
+      </c>
+      <c r="E315" s="1">
+        <v>800000</v>
+      </c>
+      <c r="F315" s="1">
+        <v>302000</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A316" s="3">
+        <v>42899</v>
+      </c>
+      <c r="B316" s="2">
+        <v>10600</v>
+      </c>
+      <c r="C316" s="1">
+        <v>2193867</v>
+      </c>
+      <c r="D316" s="1">
+        <v>3196408</v>
+      </c>
+      <c r="E316" s="1">
+        <v>573795</v>
+      </c>
+      <c r="F316" s="1">
+        <v>114990</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A317" s="3">
+        <v>42922</v>
+      </c>
+      <c r="B317" s="2">
+        <v>9600</v>
+      </c>
+      <c r="C317" s="1">
+        <v>2448140</v>
+      </c>
+      <c r="D317" s="1">
+        <v>6250730</v>
+      </c>
+      <c r="E317" s="1">
+        <v>599305</v>
+      </c>
+      <c r="F317" s="1">
+        <v>95850</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:F317">
+    <sortCondition ref="A2:A317"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/CleanAFEs.xlsx
+++ b/CleanAFEs.xlsx
@@ -103,12 +103,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6947,12 +6948,12 @@
   <dimension ref="A1:G316"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.44140625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.109375" bestFit="1" customWidth="1"/>
@@ -6961,7 +6962,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -6981,7 +6982,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+      <c r="A2" s="5">
         <v>41191</v>
       </c>
       <c r="B2" s="1">
@@ -7001,7 +7002,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+      <c r="A3" s="5">
         <v>41226</v>
       </c>
       <c r="B3" s="1">
@@ -7021,7 +7022,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+      <c r="A4" s="5">
         <v>41226</v>
       </c>
       <c r="B4" s="1">
@@ -7043,7 +7044,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+      <c r="A5" s="5">
         <v>41226</v>
       </c>
       <c r="B5" s="1">
@@ -7063,7 +7064,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+      <c r="A6" s="5">
         <v>41242</v>
       </c>
       <c r="B6" s="1">
@@ -7084,7 +7085,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+      <c r="A7" s="5">
         <v>41254</v>
       </c>
       <c r="B7" s="1">
@@ -7104,7 +7105,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+      <c r="A8" s="5">
         <v>41281</v>
       </c>
       <c r="B8" s="1">
@@ -7124,7 +7125,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+      <c r="A9" s="5">
         <v>41296</v>
       </c>
       <c r="B9" s="1">
@@ -7145,7 +7146,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+      <c r="A10" s="5">
         <v>41296</v>
       </c>
       <c r="B10" s="1">
@@ -7165,7 +7166,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+      <c r="A11" s="5">
         <v>41305</v>
       </c>
       <c r="B11" s="1">
@@ -7186,7 +7187,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+      <c r="A12" s="5">
         <v>41365</v>
       </c>
       <c r="B12" s="1">
@@ -7207,7 +7208,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
+      <c r="A13" s="5">
         <v>41400</v>
       </c>
       <c r="B13" s="1">
@@ -7227,7 +7228,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
+      <c r="A14" s="5">
         <v>41407</v>
       </c>
       <c r="B14" s="1">
@@ -7247,7 +7248,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
+      <c r="A15" s="5">
         <v>41407</v>
       </c>
       <c r="B15" s="1">
@@ -7267,7 +7268,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
+      <c r="A16" s="5">
         <v>41516</v>
       </c>
       <c r="B16" s="1">
@@ -7287,7 +7288,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
+      <c r="A17" s="5">
         <v>41530</v>
       </c>
       <c r="B17" s="2">
@@ -7307,7 +7308,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
+      <c r="A18" s="5">
         <v>41547</v>
       </c>
       <c r="B18" s="1">
@@ -7327,7 +7328,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
+      <c r="A19" s="5">
         <v>41550</v>
       </c>
       <c r="B19" s="1">
@@ -7347,7 +7348,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
+      <c r="A20" s="5">
         <v>41551</v>
       </c>
       <c r="B20" s="1">
@@ -7369,7 +7370,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
+      <c r="A21" s="5">
         <v>41562</v>
       </c>
       <c r="B21" s="2">
@@ -7390,7 +7391,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
+      <c r="A22" s="5">
         <v>41583</v>
       </c>
       <c r="B22" s="2">
@@ -7411,7 +7412,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
+      <c r="A23" s="5">
         <v>41597</v>
       </c>
       <c r="B23" s="1">
@@ -7431,7 +7432,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
+      <c r="A24" s="5">
         <v>41597</v>
       </c>
       <c r="B24" s="1">
@@ -7453,7 +7454,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
+      <c r="A25" s="5">
         <v>41631</v>
       </c>
       <c r="B25" s="2">
@@ -7474,7 +7475,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
+      <c r="A26" s="5">
         <v>41642</v>
       </c>
       <c r="B26" s="1">
@@ -7494,7 +7495,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
+      <c r="A27" s="5">
         <v>41645</v>
       </c>
       <c r="B27" s="1">
@@ -7516,7 +7517,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
+      <c r="A28" s="5">
         <v>41647</v>
       </c>
       <c r="B28" s="1">
@@ -7536,7 +7537,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="3">
+      <c r="A29" s="5">
         <v>41654</v>
       </c>
       <c r="B29" s="1">
@@ -7558,7 +7559,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="3">
+      <c r="A30" s="5">
         <v>41659</v>
       </c>
       <c r="B30" s="2">
@@ -7581,7 +7582,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="3">
+      <c r="A31" s="5">
         <v>41691</v>
       </c>
       <c r="B31" s="1">
@@ -7601,7 +7602,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="3">
+      <c r="A32" s="5">
         <v>41708</v>
       </c>
       <c r="B32" s="1">
@@ -7623,7 +7624,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="3">
+      <c r="A33" s="5">
         <v>41722</v>
       </c>
       <c r="B33" s="1">
@@ -7643,7 +7644,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="3">
+      <c r="A34" s="5">
         <v>41731</v>
       </c>
       <c r="B34" s="1">
@@ -7665,7 +7666,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="3">
+      <c r="A35" s="5">
         <v>41732</v>
       </c>
       <c r="B35" s="1">
@@ -7685,7 +7686,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="3">
+      <c r="A36" s="5">
         <v>41773</v>
       </c>
       <c r="B36" s="1">
@@ -7706,7 +7707,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="3">
+      <c r="A37" s="5">
         <v>41782</v>
       </c>
       <c r="B37" s="1">
@@ -7728,7 +7729,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="3">
+      <c r="A38" s="5">
         <v>41805</v>
       </c>
       <c r="B38" s="1">
@@ -7748,7 +7749,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="3">
+      <c r="A39" s="5">
         <v>41813</v>
       </c>
       <c r="B39" s="1">
@@ -7770,7 +7771,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="3">
+      <c r="A40" s="5">
         <v>41823</v>
       </c>
       <c r="B40" s="2">
@@ -7791,7 +7792,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="3">
+      <c r="A41" s="5">
         <v>41828</v>
       </c>
       <c r="B41" s="2">
@@ -7813,7 +7814,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="3">
+      <c r="A42" s="5">
         <v>41844</v>
       </c>
       <c r="B42" s="1">
@@ -7833,7 +7834,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="3">
+      <c r="A43" s="5">
         <v>41848</v>
       </c>
       <c r="B43" s="1">
@@ -7853,7 +7854,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="3">
+      <c r="A44" s="5">
         <v>41859</v>
       </c>
       <c r="B44" s="1">
@@ -7874,7 +7875,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="3">
+      <c r="A45" s="5">
         <v>41869</v>
       </c>
       <c r="B45" s="1">
@@ -7894,7 +7895,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="3">
+      <c r="A46" s="5">
         <v>41869</v>
       </c>
       <c r="B46" s="1">
@@ -7916,7 +7917,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="3">
+      <c r="A47" s="5">
         <v>41872</v>
       </c>
       <c r="B47" s="2">
@@ -7937,7 +7938,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="3">
+      <c r="A48" s="5">
         <v>41885</v>
       </c>
       <c r="B48" s="2">
@@ -7958,7 +7959,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="3">
+      <c r="A49" s="5">
         <v>41899</v>
       </c>
       <c r="B49" s="1">
@@ -7978,7 +7979,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="3">
+      <c r="A50" s="5">
         <v>41918</v>
       </c>
       <c r="B50" s="1">
@@ -7999,7 +8000,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="3">
+      <c r="A51" s="5">
         <v>41926</v>
       </c>
       <c r="B51" s="2">
@@ -8020,7 +8021,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="3">
+      <c r="A52" s="5">
         <v>41926</v>
       </c>
       <c r="B52" s="1">
@@ -8041,7 +8042,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="3">
+      <c r="A53" s="5">
         <v>41933</v>
       </c>
       <c r="B53" s="1">
@@ -8062,7 +8063,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="3">
+      <c r="A54" s="5">
         <v>41933</v>
       </c>
       <c r="B54" s="1">
@@ -8082,7 +8083,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="3">
+      <c r="A55" s="5">
         <v>41934</v>
       </c>
       <c r="B55" s="1">
@@ -8102,7 +8103,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="3">
+      <c r="A56" s="5">
         <v>41935</v>
       </c>
       <c r="B56" s="2">
@@ -8125,7 +8126,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="3">
+      <c r="A57" s="5">
         <v>41936</v>
       </c>
       <c r="B57" s="2">
@@ -8148,7 +8149,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="3">
+      <c r="A58" s="5">
         <v>41939</v>
       </c>
       <c r="B58" s="1">
@@ -8168,7 +8169,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="3">
+      <c r="A59" s="5">
         <v>41939</v>
       </c>
       <c r="B59" s="1">
@@ -8188,7 +8189,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="3">
+      <c r="A60" s="5">
         <v>41939</v>
       </c>
       <c r="B60" s="1">
@@ -8208,7 +8209,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="3">
+      <c r="A61" s="5">
         <v>41940</v>
       </c>
       <c r="B61" s="1">
@@ -8228,7 +8229,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="3">
+      <c r="A62" s="5">
         <v>41953</v>
       </c>
       <c r="B62" s="1">
@@ -8249,7 +8250,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="3">
+      <c r="A63" s="5">
         <v>41960</v>
       </c>
       <c r="B63" s="1">
@@ -8269,7 +8270,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="3">
+      <c r="A64" s="5">
         <v>41961</v>
       </c>
       <c r="B64" s="2">
@@ -8291,7 +8292,7 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="3">
+      <c r="A65" s="5">
         <v>41962</v>
       </c>
       <c r="B65" s="2">
@@ -8312,7 +8313,7 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="3">
+      <c r="A66" s="5">
         <v>41964</v>
       </c>
       <c r="B66" s="1">
@@ -8334,7 +8335,7 @@
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="3">
+      <c r="A67" s="5">
         <v>41968</v>
       </c>
       <c r="B67" s="1">
@@ -8354,7 +8355,7 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="3">
+      <c r="A68" s="5">
         <v>41968</v>
       </c>
       <c r="B68" s="1">
@@ -8374,7 +8375,7 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="3">
+      <c r="A69" s="5">
         <v>41974</v>
       </c>
       <c r="B69" s="1">
@@ -8396,7 +8397,7 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="3">
+      <c r="A70" s="5">
         <v>41982</v>
       </c>
       <c r="B70" s="2">
@@ -8417,7 +8418,7 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" s="3">
+      <c r="A71" s="5">
         <v>41995</v>
       </c>
       <c r="B71" s="1">
@@ -8438,7 +8439,7 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="3">
+      <c r="A72" s="5">
         <v>42003</v>
       </c>
       <c r="B72" s="1">
@@ -8458,7 +8459,7 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="3">
+      <c r="A73" s="5">
         <v>42009</v>
       </c>
       <c r="B73" s="1">
@@ -8479,7 +8480,7 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="3">
+      <c r="A74" s="5">
         <v>42009</v>
       </c>
       <c r="B74" s="1">
@@ -8500,7 +8501,7 @@
       <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="3">
+      <c r="A75" s="5">
         <v>42010</v>
       </c>
       <c r="B75" s="1">
@@ -8522,7 +8523,7 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="3">
+      <c r="A76" s="5">
         <v>42010</v>
       </c>
       <c r="B76" s="1">
@@ -8543,7 +8544,7 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="3">
+      <c r="A77" s="5">
         <v>42016</v>
       </c>
       <c r="B77" s="1">
@@ -8563,7 +8564,7 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="3">
+      <c r="A78" s="5">
         <v>42027</v>
       </c>
       <c r="B78" s="1">
@@ -8585,7 +8586,7 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" s="3">
+      <c r="A79" s="5">
         <v>42033</v>
       </c>
       <c r="B79" s="1">
@@ -8605,7 +8606,7 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" s="3">
+      <c r="A80" s="5">
         <v>42033</v>
       </c>
       <c r="B80" s="1">
@@ -8625,7 +8626,7 @@
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81" s="3">
+      <c r="A81" s="5">
         <v>42041</v>
       </c>
       <c r="B81" s="1">
@@ -8645,7 +8646,7 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="3">
+      <c r="A82" s="5">
         <v>42041</v>
       </c>
       <c r="B82" s="1">
@@ -8666,7 +8667,7 @@
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" s="3">
+      <c r="A83" s="5">
         <v>42046</v>
       </c>
       <c r="B83" s="1">
@@ -8687,7 +8688,7 @@
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" s="3">
+      <c r="A84" s="5">
         <v>42052</v>
       </c>
       <c r="B84" s="1">
@@ -8710,7 +8711,7 @@
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A85" s="3">
+      <c r="A85" s="5">
         <v>42072</v>
       </c>
       <c r="B85" s="1">
@@ -8730,7 +8731,7 @@
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" s="3">
+      <c r="A86" s="5">
         <v>42072</v>
       </c>
       <c r="B86" s="1">
@@ -8750,7 +8751,7 @@
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" s="3">
+      <c r="A87" s="5">
         <v>42072</v>
       </c>
       <c r="B87" s="1">
@@ -8770,7 +8771,7 @@
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" s="3">
+      <c r="A88" s="5">
         <v>42082</v>
       </c>
       <c r="B88" s="1">
@@ -8790,7 +8791,7 @@
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89" s="3">
+      <c r="A89" s="5">
         <v>42082</v>
       </c>
       <c r="B89" s="1">
@@ -8810,7 +8811,7 @@
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="3">
+      <c r="A90" s="5">
         <v>42082</v>
       </c>
       <c r="B90" s="1">
@@ -8830,7 +8831,7 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="3">
+      <c r="A91" s="5">
         <v>42087</v>
       </c>
       <c r="B91" s="2">
@@ -8851,7 +8852,7 @@
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="3">
+      <c r="A92" s="5">
         <v>42091</v>
       </c>
       <c r="B92" s="1">
@@ -8871,7 +8872,7 @@
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="3">
+      <c r="A93" s="5">
         <v>42095</v>
       </c>
       <c r="B93" s="1">
@@ -8891,7 +8892,7 @@
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="3">
+      <c r="A94" s="5">
         <v>42095</v>
       </c>
       <c r="B94" s="1">
@@ -8911,7 +8912,7 @@
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95" s="3">
+      <c r="A95" s="5">
         <v>42100</v>
       </c>
       <c r="B95" s="1">
@@ -8931,7 +8932,7 @@
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A96" s="3">
+      <c r="A96" s="5">
         <v>42100</v>
       </c>
       <c r="B96" s="1">
@@ -8951,7 +8952,7 @@
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A97" s="3">
+      <c r="A97" s="5">
         <v>42101</v>
       </c>
       <c r="B97" s="2">
@@ -8973,7 +8974,7 @@
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A98" s="3">
+      <c r="A98" s="5">
         <v>42104</v>
       </c>
       <c r="B98" s="1">
@@ -8993,7 +8994,7 @@
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A99" s="3">
+      <c r="A99" s="5">
         <v>42107</v>
       </c>
       <c r="B99" s="2">
@@ -9015,7 +9016,7 @@
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A100" s="3">
+      <c r="A100" s="5">
         <v>42108</v>
       </c>
       <c r="B100" s="1">
@@ -9037,7 +9038,7 @@
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A101" s="3">
+      <c r="A101" s="5">
         <v>42108</v>
       </c>
       <c r="B101" s="1">
@@ -9058,7 +9059,7 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="3">
+      <c r="A102" s="5">
         <v>42117</v>
       </c>
       <c r="B102" s="1">
@@ -9078,7 +9079,7 @@
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A103" s="3">
+      <c r="A103" s="5">
         <v>42125</v>
       </c>
       <c r="B103" s="1">
@@ -9098,7 +9099,7 @@
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A104" s="3">
+      <c r="A104" s="5">
         <v>42129</v>
       </c>
       <c r="B104" s="1">
@@ -9118,7 +9119,7 @@
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A105" s="3">
+      <c r="A105" s="5">
         <v>42139</v>
       </c>
       <c r="B105" s="1">
@@ -9138,7 +9139,7 @@
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A106" s="3">
+      <c r="A106" s="5">
         <v>42143</v>
       </c>
       <c r="B106" s="1">
@@ -9158,7 +9159,7 @@
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A107" s="3">
+      <c r="A107" s="5">
         <v>42148</v>
       </c>
       <c r="B107" s="1">
@@ -9178,7 +9179,7 @@
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A108" s="3">
+      <c r="A108" s="5">
         <v>42150</v>
       </c>
       <c r="B108" s="1">
@@ -9198,7 +9199,7 @@
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A109" s="3">
+      <c r="A109" s="5">
         <v>42150</v>
       </c>
       <c r="B109" s="1">
@@ -9218,7 +9219,7 @@
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A110" s="3">
+      <c r="A110" s="5">
         <v>42156</v>
       </c>
       <c r="B110" s="1">
@@ -9239,7 +9240,7 @@
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A111" s="3">
+      <c r="A111" s="5">
         <v>42157</v>
       </c>
       <c r="B111" s="1">
@@ -9259,7 +9260,7 @@
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A112" s="3">
+      <c r="A112" s="5">
         <v>42171</v>
       </c>
       <c r="B112" s="1">
@@ -9279,7 +9280,7 @@
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A113" s="3">
+      <c r="A113" s="5">
         <v>42171</v>
       </c>
       <c r="B113" s="1">
@@ -9299,7 +9300,7 @@
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A114" s="3">
+      <c r="A114" s="5">
         <v>42171</v>
       </c>
       <c r="B114" s="1">
@@ -9319,7 +9320,7 @@
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A115" s="3">
+      <c r="A115" s="5">
         <v>42174</v>
       </c>
       <c r="B115" s="1">
@@ -9339,7 +9340,7 @@
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A116" s="3">
+      <c r="A116" s="5">
         <v>42181</v>
       </c>
       <c r="B116" s="1">
@@ -9360,7 +9361,7 @@
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A117" s="3">
+      <c r="A117" s="5">
         <v>42184</v>
       </c>
       <c r="B117" s="1">
@@ -9380,7 +9381,7 @@
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A118" s="3">
+      <c r="A118" s="5">
         <v>42184</v>
       </c>
       <c r="B118" s="1">
@@ -9400,7 +9401,7 @@
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A119" s="3">
+      <c r="A119" s="5">
         <v>42184</v>
       </c>
       <c r="B119" s="1">
@@ -9420,7 +9421,7 @@
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A120" s="3">
+      <c r="A120" s="5">
         <v>42184</v>
       </c>
       <c r="B120" s="1">
@@ -9440,7 +9441,7 @@
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A121" s="3">
+      <c r="A121" s="5">
         <v>42191</v>
       </c>
       <c r="B121" s="1">
@@ -9461,7 +9462,7 @@
       <c r="G121" s="1"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A122" s="3">
+      <c r="A122" s="5">
         <v>42195</v>
       </c>
       <c r="B122" s="1">
@@ -9482,7 +9483,7 @@
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A123" s="3">
+      <c r="A123" s="5">
         <v>42205</v>
       </c>
       <c r="B123" s="1">
@@ -9502,7 +9503,7 @@
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A124" s="3">
+      <c r="A124" s="5">
         <v>42212</v>
       </c>
       <c r="B124" s="1">
@@ -9522,7 +9523,7 @@
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A125" s="3">
+      <c r="A125" s="5">
         <v>42213</v>
       </c>
       <c r="B125" s="1">
@@ -9542,7 +9543,7 @@
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A126" s="3">
+      <c r="A126" s="5">
         <v>42217</v>
       </c>
       <c r="B126" s="1">
@@ -9562,7 +9563,7 @@
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A127" s="3">
+      <c r="A127" s="5">
         <v>42222</v>
       </c>
       <c r="B127" s="1">
@@ -9582,7 +9583,7 @@
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A128" s="3">
+      <c r="A128" s="5">
         <v>42222</v>
       </c>
       <c r="B128" s="1">
@@ -9604,7 +9605,7 @@
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A129" s="3">
+      <c r="A129" s="5">
         <v>42223</v>
       </c>
       <c r="B129" s="1">
@@ -9626,7 +9627,7 @@
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A130" s="3">
+      <c r="A130" s="5">
         <v>42227</v>
       </c>
       <c r="B130" s="1">
@@ -9647,7 +9648,7 @@
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" s="3">
+      <c r="A131" s="5">
         <v>42230</v>
       </c>
       <c r="B131" s="1">
@@ -9667,7 +9668,7 @@
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A132" s="3">
+      <c r="A132" s="5">
         <v>42230</v>
       </c>
       <c r="B132" s="1">
@@ -9687,7 +9688,7 @@
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A133" s="3">
+      <c r="A133" s="5">
         <v>42230</v>
       </c>
       <c r="B133" s="1">
@@ -9707,7 +9708,7 @@
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A134" s="3">
+      <c r="A134" s="5">
         <v>42230</v>
       </c>
       <c r="B134" s="1">
@@ -9727,7 +9728,7 @@
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A135" s="3">
+      <c r="A135" s="5">
         <v>42233</v>
       </c>
       <c r="B135" s="1">
@@ -9747,7 +9748,7 @@
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A136" s="3">
+      <c r="A136" s="5">
         <v>42233</v>
       </c>
       <c r="B136" s="1">
@@ -9767,7 +9768,7 @@
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A137" s="3">
+      <c r="A137" s="5">
         <v>42233</v>
       </c>
       <c r="B137" s="1">
@@ -9787,7 +9788,7 @@
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A138" s="3">
+      <c r="A138" s="5">
         <v>42234</v>
       </c>
       <c r="B138" s="1">
@@ -9807,7 +9808,7 @@
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A139" s="3">
+      <c r="A139" s="5">
         <v>42235</v>
       </c>
       <c r="B139" s="1">
@@ -9827,7 +9828,7 @@
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A140" s="3">
+      <c r="A140" s="5">
         <v>42240</v>
       </c>
       <c r="B140" s="1">
@@ -9847,7 +9848,7 @@
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A141" s="3">
+      <c r="A141" s="5">
         <v>42240</v>
       </c>
       <c r="B141" s="2">
@@ -9867,7 +9868,7 @@
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142" s="3">
+      <c r="A142" s="5">
         <v>42247</v>
       </c>
       <c r="B142" s="1">
@@ -9887,7 +9888,7 @@
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A143" s="3">
+      <c r="A143" s="5">
         <v>42248</v>
       </c>
       <c r="B143" s="1">
@@ -9907,7 +9908,7 @@
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A144" s="3">
+      <c r="A144" s="5">
         <v>42250</v>
       </c>
       <c r="B144" s="1">
@@ -9927,7 +9928,7 @@
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A145" s="3">
+      <c r="A145" s="5">
         <v>42261</v>
       </c>
       <c r="B145" s="1">
@@ -9947,7 +9948,7 @@
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A146" s="3">
+      <c r="A146" s="5">
         <v>42262</v>
       </c>
       <c r="B146" s="1">
@@ -9967,7 +9968,7 @@
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A147" s="3">
+      <c r="A147" s="5">
         <v>42262</v>
       </c>
       <c r="B147" s="2">
@@ -9988,7 +9989,7 @@
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A148" s="3">
+      <c r="A148" s="5">
         <v>42262</v>
       </c>
       <c r="B148" s="2">
@@ -10009,7 +10010,7 @@
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A149" s="3">
+      <c r="A149" s="5">
         <v>42262</v>
       </c>
       <c r="B149" s="1">
@@ -10029,7 +10030,7 @@
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A150" s="3">
+      <c r="A150" s="5">
         <v>42269</v>
       </c>
       <c r="B150" s="2">
@@ -10050,7 +10051,7 @@
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A151" s="3">
+      <c r="A151" s="5">
         <v>42269</v>
       </c>
       <c r="B151" s="2">
@@ -10070,7 +10071,7 @@
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A152" s="3">
+      <c r="A152" s="5">
         <v>42269</v>
       </c>
       <c r="B152" s="2">
@@ -10090,7 +10091,7 @@
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A153" s="3">
+      <c r="A153" s="5">
         <v>42271</v>
       </c>
       <c r="B153" s="2">
@@ -10111,7 +10112,7 @@
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A154" s="3">
+      <c r="A154" s="5">
         <v>42276</v>
       </c>
       <c r="B154" s="1">
@@ -10132,7 +10133,7 @@
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A155" s="3">
+      <c r="A155" s="5">
         <v>42276</v>
       </c>
       <c r="B155" s="1">
@@ -10152,7 +10153,7 @@
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A156" s="3">
+      <c r="A156" s="5">
         <v>42276</v>
       </c>
       <c r="B156" s="1">
@@ -10172,7 +10173,7 @@
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A157" s="3">
+      <c r="A157" s="5">
         <v>42276</v>
       </c>
       <c r="B157" s="2">
@@ -10192,7 +10193,7 @@
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A158" s="3">
+      <c r="A158" s="5">
         <v>42277</v>
       </c>
       <c r="B158" s="2">
@@ -10214,7 +10215,7 @@
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A159" s="3">
+      <c r="A159" s="5">
         <v>42283</v>
       </c>
       <c r="B159" s="1">
@@ -10235,7 +10236,7 @@
       <c r="G159" s="1"/>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A160" s="3">
+      <c r="A160" s="5">
         <v>42283</v>
       </c>
       <c r="B160" s="1">
@@ -10255,7 +10256,7 @@
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A161" s="3">
+      <c r="A161" s="5">
         <v>42289</v>
       </c>
       <c r="B161" s="1">
@@ -10276,7 +10277,7 @@
       <c r="G161" s="1"/>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A162" s="3">
+      <c r="A162" s="5">
         <v>42290</v>
       </c>
       <c r="B162" s="2">
@@ -10296,7 +10297,7 @@
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A163" s="3">
+      <c r="A163" s="5">
         <v>42290</v>
       </c>
       <c r="B163" s="2">
@@ -10316,7 +10317,7 @@
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A164" s="3">
+      <c r="A164" s="5">
         <v>42290</v>
       </c>
       <c r="B164" s="1">
@@ -10336,7 +10337,7 @@
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A165" s="3">
+      <c r="A165" s="5">
         <v>42290</v>
       </c>
       <c r="B165" s="1">
@@ -10359,7 +10360,7 @@
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A166" s="3">
+      <c r="A166" s="5">
         <v>42291</v>
       </c>
       <c r="B166" s="2">
@@ -10380,7 +10381,7 @@
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A167" s="3">
+      <c r="A167" s="5">
         <v>42297</v>
       </c>
       <c r="B167" s="1">
@@ -10400,7 +10401,7 @@
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A168" s="3">
+      <c r="A168" s="5">
         <v>42297</v>
       </c>
       <c r="B168" s="1">
@@ -10420,7 +10421,7 @@
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A169" s="3">
+      <c r="A169" s="5">
         <v>42297</v>
       </c>
       <c r="B169" s="1">
@@ -10441,7 +10442,7 @@
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A170" s="3">
+      <c r="A170" s="5">
         <v>42301</v>
       </c>
       <c r="B170" s="1">
@@ -10461,7 +10462,7 @@
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A171" s="3">
+      <c r="A171" s="5">
         <v>42301</v>
       </c>
       <c r="B171" s="1">
@@ -10481,7 +10482,7 @@
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A172" s="3">
+      <c r="A172" s="5">
         <v>42304</v>
       </c>
       <c r="B172" s="1">
@@ -10502,7 +10503,7 @@
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A173" s="3">
+      <c r="A173" s="5">
         <v>42310</v>
       </c>
       <c r="B173" s="1">
@@ -10523,7 +10524,7 @@
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A174" s="3">
+      <c r="A174" s="5">
         <v>42311</v>
       </c>
       <c r="B174" s="1">
@@ -10543,7 +10544,7 @@
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A175" s="3">
+      <c r="A175" s="5">
         <v>42317</v>
       </c>
       <c r="B175" s="1">
@@ -10563,7 +10564,7 @@
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A176" s="3">
+      <c r="A176" s="5">
         <v>42324</v>
       </c>
       <c r="B176" s="1">
@@ -10583,7 +10584,7 @@
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A177" s="3">
+      <c r="A177" s="5">
         <v>42328</v>
       </c>
       <c r="B177" s="2">
@@ -10604,7 +10605,7 @@
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A178" s="3">
+      <c r="A178" s="5">
         <v>42338</v>
       </c>
       <c r="B178" s="1">
@@ -10625,7 +10626,7 @@
       <c r="G178" s="1"/>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A179" s="3">
+      <c r="A179" s="5">
         <v>42339</v>
       </c>
       <c r="B179" s="2">
@@ -10645,7 +10646,7 @@
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A180" s="3">
+      <c r="A180" s="5">
         <v>42345</v>
       </c>
       <c r="B180" s="1">
@@ -10668,7 +10669,7 @@
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A181" s="3">
+      <c r="A181" s="5">
         <v>42346</v>
       </c>
       <c r="B181" s="1">
@@ -10688,7 +10689,7 @@
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A182" s="3">
+      <c r="A182" s="5">
         <v>42347</v>
       </c>
       <c r="B182" s="2">
@@ -10710,7 +10711,7 @@
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A183" s="3">
+      <c r="A183" s="5">
         <v>42353</v>
       </c>
       <c r="B183" s="1">
@@ -10730,7 +10731,7 @@
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A184" s="3">
+      <c r="A184" s="5">
         <v>42353</v>
       </c>
       <c r="B184" s="2">
@@ -10752,7 +10753,7 @@
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A185" s="3">
+      <c r="A185" s="5">
         <v>42357</v>
       </c>
       <c r="B185" s="2">
@@ -10772,7 +10773,7 @@
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A186" s="3">
+      <c r="A186" s="5">
         <v>42357</v>
       </c>
       <c r="B186" s="2">
@@ -10792,7 +10793,7 @@
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A187" s="3">
+      <c r="A187" s="5">
         <v>42360</v>
       </c>
       <c r="B187" s="2">
@@ -10813,7 +10814,7 @@
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A188" s="3">
+      <c r="A188" s="5">
         <v>42360</v>
       </c>
       <c r="B188" s="1">
@@ -10833,7 +10834,7 @@
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A189" s="3">
+      <c r="A189" s="5">
         <v>42369</v>
       </c>
       <c r="B189" s="1">
@@ -10853,7 +10854,7 @@
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A190" s="3">
+      <c r="A190" s="5">
         <v>42380</v>
       </c>
       <c r="B190" s="1">
@@ -10873,7 +10874,7 @@
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A191" s="3">
+      <c r="A191" s="5">
         <v>42382</v>
       </c>
       <c r="B191" s="2">
@@ -10894,7 +10895,7 @@
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A192" s="3">
+      <c r="A192" s="5">
         <v>42382</v>
       </c>
       <c r="B192" s="2">
@@ -10915,7 +10916,7 @@
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A193" s="3">
+      <c r="A193" s="5">
         <v>42401</v>
       </c>
       <c r="B193" s="2">
@@ -10936,7 +10937,7 @@
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A194" s="3">
+      <c r="A194" s="5">
         <v>42404</v>
       </c>
       <c r="B194" s="1">
@@ -10956,7 +10957,7 @@
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A195" s="3">
+      <c r="A195" s="5">
         <v>42408</v>
       </c>
       <c r="B195" s="2">
@@ -10977,7 +10978,7 @@
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A196" s="3">
+      <c r="A196" s="5">
         <v>42506</v>
       </c>
       <c r="B196" s="1">
@@ -10997,7 +10998,7 @@
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A197" s="3">
+      <c r="A197" s="5">
         <v>42540</v>
       </c>
       <c r="B197" s="1">
@@ -11017,7 +11018,7 @@
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A198" s="3">
+      <c r="A198" s="5">
         <v>42559</v>
       </c>
       <c r="B198" s="1">
@@ -11037,7 +11038,7 @@
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A199" s="3">
+      <c r="A199" s="5">
         <v>42577</v>
       </c>
       <c r="B199" s="2">
@@ -11059,7 +11060,7 @@
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A200" s="3">
+      <c r="A200" s="5">
         <v>42587</v>
       </c>
       <c r="B200" s="1">
@@ -11079,7 +11080,7 @@
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A201" s="3">
+      <c r="A201" s="5">
         <v>42590</v>
       </c>
       <c r="B201" s="2">
@@ -11101,7 +11102,7 @@
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A202" s="3">
+      <c r="A202" s="5">
         <v>42590</v>
       </c>
       <c r="B202" s="2">
@@ -11123,7 +11124,7 @@
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A203" s="3">
+      <c r="A203" s="5">
         <v>42591</v>
       </c>
       <c r="B203" s="2">
@@ -11143,7 +11144,7 @@
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A204" s="3">
+      <c r="A204" s="5">
         <v>42592</v>
       </c>
       <c r="B204" s="2">
@@ -11166,7 +11167,7 @@
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A205" s="3">
+      <c r="A205" s="5">
         <v>42594</v>
       </c>
       <c r="B205" s="1">
@@ -11186,7 +11187,7 @@
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A206" s="3">
+      <c r="A206" s="5">
         <v>42597</v>
       </c>
       <c r="B206" s="1">
@@ -11206,7 +11207,7 @@
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A207" s="3">
+      <c r="A207" s="5">
         <v>42597</v>
       </c>
       <c r="B207" s="2">
@@ -11226,7 +11227,7 @@
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A208" s="3">
+      <c r="A208" s="5">
         <v>42597</v>
       </c>
       <c r="B208" s="4">
@@ -11246,7 +11247,7 @@
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A209" s="3">
+      <c r="A209" s="5">
         <v>42598</v>
       </c>
       <c r="B209" s="1">
@@ -11266,7 +11267,7 @@
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A210" s="3">
+      <c r="A210" s="5">
         <v>42598</v>
       </c>
       <c r="B210" s="1">
@@ -11286,7 +11287,7 @@
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A211" s="3">
+      <c r="A211" s="5">
         <v>42598</v>
       </c>
       <c r="B211" s="1">
@@ -11306,7 +11307,7 @@
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A212" s="3">
+      <c r="A212" s="5">
         <v>42604</v>
       </c>
       <c r="B212" s="2">
@@ -11326,7 +11327,7 @@
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A213" s="3">
+      <c r="A213" s="5">
         <v>42604</v>
       </c>
       <c r="B213" s="2">
@@ -11346,7 +11347,7 @@
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A214" s="3">
+      <c r="A214" s="5">
         <v>42604</v>
       </c>
       <c r="B214" s="2">
@@ -11369,7 +11370,7 @@
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A215" s="3">
+      <c r="A215" s="5">
         <v>42606</v>
       </c>
       <c r="B215" s="2">
@@ -11391,7 +11392,7 @@
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A216" s="3">
+      <c r="A216" s="5">
         <v>42611</v>
       </c>
       <c r="B216" s="2">
@@ -11411,7 +11412,7 @@
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A217" s="3">
+      <c r="A217" s="5">
         <v>42612</v>
       </c>
       <c r="B217" s="2">
@@ -11431,7 +11432,7 @@
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A218" s="3">
+      <c r="A218" s="5">
         <v>42618</v>
       </c>
       <c r="B218" s="1">
@@ -11453,7 +11454,7 @@
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A219" s="3">
+      <c r="A219" s="5">
         <v>42619</v>
       </c>
       <c r="B219" s="1">
@@ -11473,7 +11474,7 @@
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A220" s="3">
+      <c r="A220" s="5">
         <v>42620</v>
       </c>
       <c r="B220" s="2">
@@ -11493,7 +11494,7 @@
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A221" s="3">
+      <c r="A221" s="5">
         <v>42620</v>
       </c>
       <c r="B221" s="2">
@@ -11513,7 +11514,7 @@
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A222" s="3">
+      <c r="A222" s="5">
         <v>42625</v>
       </c>
       <c r="B222" s="1">
@@ -11533,7 +11534,7 @@
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A223" s="3">
+      <c r="A223" s="5">
         <v>42626</v>
       </c>
       <c r="B223" s="2">
@@ -11553,7 +11554,7 @@
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A224" s="3">
+      <c r="A224" s="5">
         <v>42626</v>
       </c>
       <c r="B224" s="2">
@@ -11573,7 +11574,7 @@
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A225" s="3">
+      <c r="A225" s="5">
         <v>42646</v>
       </c>
       <c r="B225" s="1">
@@ -11593,7 +11594,7 @@
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A226" s="3">
+      <c r="A226" s="5">
         <v>42647</v>
       </c>
       <c r="B226" s="1">
@@ -11613,7 +11614,7 @@
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A227" s="3">
+      <c r="A227" s="5">
         <v>42653</v>
       </c>
       <c r="B227" s="2">
@@ -11633,7 +11634,7 @@
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A228" s="3">
+      <c r="A228" s="5">
         <v>42654</v>
       </c>
       <c r="B228" s="2">
@@ -11653,7 +11654,7 @@
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A229" s="3">
+      <c r="A229" s="5">
         <v>42654</v>
       </c>
       <c r="B229" s="2">
@@ -11673,7 +11674,7 @@
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A230" s="3">
+      <c r="A230" s="5">
         <v>42660</v>
       </c>
       <c r="B230" s="1">
@@ -11693,7 +11694,7 @@
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A231" s="3">
+      <c r="A231" s="5">
         <v>42661</v>
       </c>
       <c r="B231" s="2">
@@ -11713,7 +11714,7 @@
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A232" s="3">
+      <c r="A232" s="5">
         <v>42661</v>
       </c>
       <c r="B232" s="1">
@@ -11733,7 +11734,7 @@
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A233" s="3">
+      <c r="A233" s="5">
         <v>42667</v>
       </c>
       <c r="B233" s="1">
@@ -11753,7 +11754,7 @@
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A234" s="3">
+      <c r="A234" s="5">
         <v>42668</v>
       </c>
       <c r="B234" s="2">
@@ -11773,7 +11774,7 @@
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A235" s="3">
+      <c r="A235" s="5">
         <v>42668</v>
       </c>
       <c r="B235" s="1">
@@ -11793,7 +11794,7 @@
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A236" s="3">
+      <c r="A236" s="5">
         <v>42668</v>
       </c>
       <c r="B236" s="2">
@@ -11813,7 +11814,7 @@
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A237" s="3">
+      <c r="A237" s="5">
         <v>42668</v>
       </c>
       <c r="B237" s="1">
@@ -11833,7 +11834,7 @@
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A238" s="3">
+      <c r="A238" s="5">
         <v>42671</v>
       </c>
       <c r="B238" s="2">
@@ -11853,7 +11854,7 @@
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A239" s="3">
+      <c r="A239" s="5">
         <v>42671</v>
       </c>
       <c r="B239" s="2">
@@ -11875,7 +11876,7 @@
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A240" s="3">
+      <c r="A240" s="5">
         <v>42675</v>
       </c>
       <c r="B240" s="2">
@@ -11895,7 +11896,7 @@
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A241" s="3">
+      <c r="A241" s="5">
         <v>42678</v>
       </c>
       <c r="B241" s="1">
@@ -11915,7 +11916,7 @@
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A242" s="3">
+      <c r="A242" s="5">
         <v>42678</v>
       </c>
       <c r="B242" s="2">
@@ -11935,7 +11936,7 @@
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A243" s="3">
+      <c r="A243" s="5">
         <v>42681</v>
       </c>
       <c r="B243" s="2">
@@ -11955,7 +11956,7 @@
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A244" s="3">
+      <c r="A244" s="5">
         <v>42681</v>
       </c>
       <c r="B244" s="2">
@@ -11975,7 +11976,7 @@
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A245" s="3">
+      <c r="A245" s="5">
         <v>42681</v>
       </c>
       <c r="B245" s="2">
@@ -11997,7 +11998,7 @@
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A246" s="3">
+      <c r="A246" s="5">
         <v>42681</v>
       </c>
       <c r="B246" s="2">
@@ -12017,7 +12018,7 @@
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A247" s="3">
+      <c r="A247" s="5">
         <v>42681</v>
       </c>
       <c r="B247" s="2">
@@ -12037,7 +12038,7 @@
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A248" s="3">
+      <c r="A248" s="5">
         <v>42682</v>
       </c>
       <c r="B248" s="2">
@@ -12057,7 +12058,7 @@
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A249" s="3">
+      <c r="A249" s="5">
         <v>42682</v>
       </c>
       <c r="B249" s="1">
@@ -12077,7 +12078,7 @@
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A250" s="3">
+      <c r="A250" s="5">
         <v>42682</v>
       </c>
       <c r="B250" s="2">
@@ -12097,7 +12098,7 @@
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A251" s="3">
+      <c r="A251" s="5">
         <v>42682</v>
       </c>
       <c r="B251" s="1">
@@ -12117,7 +12118,7 @@
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A252" s="3">
+      <c r="A252" s="5">
         <v>42682</v>
       </c>
       <c r="B252" s="2">
@@ -12137,7 +12138,7 @@
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A253" s="3">
+      <c r="A253" s="5">
         <v>42683</v>
       </c>
       <c r="B253" s="2">
@@ -12158,7 +12159,7 @@
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A254" s="3">
+      <c r="A254" s="5">
         <v>42688</v>
       </c>
       <c r="B254" s="2">
@@ -12179,7 +12180,7 @@
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A255" s="3">
+      <c r="A255" s="5">
         <v>42689</v>
       </c>
       <c r="B255" s="2">
@@ -12199,7 +12200,7 @@
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A256" s="3">
+      <c r="A256" s="5">
         <v>42695</v>
       </c>
       <c r="B256" s="1">
@@ -12219,7 +12220,7 @@
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A257" s="3">
+      <c r="A257" s="5">
         <v>42695</v>
       </c>
       <c r="B257" s="1">
@@ -12239,7 +12240,7 @@
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A258" s="3">
+      <c r="A258" s="5">
         <v>42696</v>
       </c>
       <c r="B258" s="2">
@@ -12259,7 +12260,7 @@
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A259" s="3">
+      <c r="A259" s="5">
         <v>42702</v>
       </c>
       <c r="B259" s="2">
@@ -12279,7 +12280,7 @@
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A260" s="3">
+      <c r="A260" s="5">
         <v>42703</v>
       </c>
       <c r="B260" s="2">
@@ -12299,7 +12300,7 @@
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A261" s="3">
+      <c r="A261" s="5">
         <v>42705</v>
       </c>
       <c r="B261" s="2">
@@ -12319,7 +12320,7 @@
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A262" s="3">
+      <c r="A262" s="5">
         <v>42709</v>
       </c>
       <c r="B262" s="2">
@@ -12339,7 +12340,7 @@
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A263" s="3">
+      <c r="A263" s="5">
         <v>42710</v>
       </c>
       <c r="B263" s="2">
@@ -12359,7 +12360,7 @@
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A264" s="3">
+      <c r="A264" s="5">
         <v>42716</v>
       </c>
       <c r="B264" s="2">
@@ -12379,7 +12380,7 @@
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A265" s="3">
+      <c r="A265" s="5">
         <v>42717</v>
       </c>
       <c r="B265" s="1">
@@ -12399,7 +12400,7 @@
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A266" s="3">
+      <c r="A266" s="5">
         <v>42717</v>
       </c>
       <c r="B266" s="2">
@@ -12419,7 +12420,7 @@
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A267" s="3">
+      <c r="A267" s="5">
         <v>42717</v>
       </c>
       <c r="B267" s="1">
@@ -12439,7 +12440,7 @@
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A268" s="3">
+      <c r="A268" s="5">
         <v>42723</v>
       </c>
       <c r="B268" s="2">
@@ -12459,7 +12460,7 @@
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A269" s="3">
+      <c r="A269" s="5">
         <v>42723</v>
       </c>
       <c r="B269" s="1">
@@ -12479,7 +12480,7 @@
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A270" s="3">
+      <c r="A270" s="5">
         <v>42724</v>
       </c>
       <c r="B270" s="2">
@@ -12501,7 +12502,7 @@
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A271" s="3">
+      <c r="A271" s="5">
         <v>42732</v>
       </c>
       <c r="B271" s="1">
@@ -12521,7 +12522,7 @@
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A272" s="3">
+      <c r="A272" s="5">
         <v>42734</v>
       </c>
       <c r="B272" s="2">
@@ -12541,7 +12542,7 @@
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A273" s="3">
+      <c r="A273" s="5">
         <v>42738</v>
       </c>
       <c r="B273" s="2">
@@ -12561,7 +12562,7 @@
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A274" s="3">
+      <c r="A274" s="5">
         <v>42738</v>
       </c>
       <c r="B274" s="2">
@@ -12581,7 +12582,7 @@
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A275" s="3">
+      <c r="A275" s="5">
         <v>42738</v>
       </c>
       <c r="B275" s="2">
@@ -12601,7 +12602,7 @@
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A276" s="3">
+      <c r="A276" s="5">
         <v>42742</v>
       </c>
       <c r="B276" s="2">
@@ -12621,7 +12622,7 @@
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A277" s="3">
+      <c r="A277" s="5">
         <v>42744</v>
       </c>
       <c r="B277" s="1">
@@ -12641,7 +12642,7 @@
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A278" s="3">
+      <c r="A278" s="5">
         <v>42745</v>
       </c>
       <c r="B278" s="2">
@@ -12661,7 +12662,7 @@
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A279" s="3">
+      <c r="A279" s="5">
         <v>42745</v>
       </c>
       <c r="B279" s="2">
@@ -12681,7 +12682,7 @@
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A280" s="3">
+      <c r="A280" s="5">
         <v>42745</v>
       </c>
       <c r="B280" s="2">
@@ -12701,7 +12702,7 @@
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A281" s="3">
+      <c r="A281" s="5">
         <v>42746</v>
       </c>
       <c r="B281" s="2">
@@ -12721,7 +12722,7 @@
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A282" s="3">
+      <c r="A282" s="5">
         <v>42758</v>
       </c>
       <c r="B282" s="2">
@@ -12741,7 +12742,7 @@
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A283" s="3">
+      <c r="A283" s="5">
         <v>42766</v>
       </c>
       <c r="B283" s="2">
@@ -12761,7 +12762,7 @@
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A284" s="3">
+      <c r="A284" s="5">
         <v>42766</v>
       </c>
       <c r="B284" s="1">
@@ -12781,7 +12782,7 @@
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A285" s="3">
+      <c r="A285" s="5">
         <v>42766</v>
       </c>
       <c r="B285" s="2">
@@ -12801,7 +12802,7 @@
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A286" s="3">
+      <c r="A286" s="5">
         <v>42766</v>
       </c>
       <c r="B286" s="2">
@@ -12821,7 +12822,7 @@
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A287" s="3">
+      <c r="A287" s="5">
         <v>42779</v>
       </c>
       <c r="B287" s="2">
@@ -12841,7 +12842,7 @@
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A288" s="3">
+      <c r="A288" s="5">
         <v>42780</v>
       </c>
       <c r="B288" s="2">
@@ -12861,7 +12862,7 @@
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A289" s="3">
+      <c r="A289" s="5">
         <v>42783</v>
       </c>
       <c r="B289" s="2">
@@ -12881,7 +12882,7 @@
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A290" s="3">
+      <c r="A290" s="5">
         <v>42786</v>
       </c>
       <c r="B290" s="2">
@@ -12901,7 +12902,7 @@
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A291" s="3">
+      <c r="A291" s="5">
         <v>42787</v>
       </c>
       <c r="B291" s="1">
@@ -12921,7 +12922,7 @@
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A292" s="3">
+      <c r="A292" s="5">
         <v>42787</v>
       </c>
       <c r="B292" s="2">
@@ -12943,7 +12944,7 @@
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A293" s="3">
+      <c r="A293" s="5">
         <v>42787</v>
       </c>
       <c r="B293" s="1">
@@ -12963,7 +12964,7 @@
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A294" s="3">
+      <c r="A294" s="5">
         <v>42789</v>
       </c>
       <c r="B294" s="1">
@@ -12983,7 +12984,7 @@
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A295" s="3">
+      <c r="A295" s="5">
         <v>42794</v>
       </c>
       <c r="B295" s="1">
@@ -13003,7 +13004,7 @@
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A296" s="3">
+      <c r="A296" s="5">
         <v>42794</v>
       </c>
       <c r="B296" s="1">
@@ -13023,7 +13024,7 @@
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A297" s="3">
+      <c r="A297" s="5">
         <v>42800</v>
       </c>
       <c r="B297" s="1">
@@ -13043,7 +13044,7 @@
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A298" s="3">
+      <c r="A298" s="5">
         <v>42801</v>
       </c>
       <c r="B298" s="2">
@@ -13063,7 +13064,7 @@
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A299" s="3">
+      <c r="A299" s="5">
         <v>42801</v>
       </c>
       <c r="B299" s="1">
@@ -13083,7 +13084,7 @@
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A300" s="3">
+      <c r="A300" s="5">
         <v>42801</v>
       </c>
       <c r="B300" s="1">
@@ -13103,7 +13104,7 @@
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A301" s="3">
+      <c r="A301" s="5">
         <v>42801</v>
       </c>
       <c r="B301" s="2">
@@ -13123,7 +13124,7 @@
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A302" s="3">
+      <c r="A302" s="5">
         <v>42801</v>
       </c>
       <c r="B302" s="1">
@@ -13143,7 +13144,7 @@
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A303" s="3">
+      <c r="A303" s="5">
         <v>42815</v>
       </c>
       <c r="B303" s="2">
@@ -13163,7 +13164,7 @@
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A304" s="3">
+      <c r="A304" s="5">
         <v>42818</v>
       </c>
       <c r="B304" s="2">
@@ -13184,7 +13185,7 @@
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A305" s="3">
+      <c r="A305" s="5">
         <v>42828</v>
       </c>
       <c r="B305" s="2">
@@ -13204,7 +13205,7 @@
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A306" s="3">
+      <c r="A306" s="5">
         <v>42839</v>
       </c>
       <c r="B306" s="2">
@@ -13224,7 +13225,7 @@
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A307" s="3">
+      <c r="A307" s="5">
         <v>42843</v>
       </c>
       <c r="B307" s="2">
@@ -13244,7 +13245,7 @@
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A308" s="3">
+      <c r="A308" s="5">
         <v>42850</v>
       </c>
       <c r="B308" s="1">
@@ -13264,7 +13265,7 @@
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A309" s="3">
+      <c r="A309" s="5">
         <v>42850</v>
       </c>
       <c r="B309" s="2">
@@ -13284,7 +13285,7 @@
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A310" s="3">
+      <c r="A310" s="5">
         <v>42856</v>
       </c>
       <c r="B310" s="2">
@@ -13304,7 +13305,7 @@
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A311" s="3">
+      <c r="A311" s="5">
         <v>42859</v>
       </c>
       <c r="B311" s="2">
@@ -13324,7 +13325,7 @@
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A312" s="3">
+      <c r="A312" s="5">
         <v>42864</v>
       </c>
       <c r="B312" s="2">
@@ -13346,7 +13347,7 @@
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A313" s="3">
+      <c r="A313" s="5">
         <v>42877</v>
       </c>
       <c r="B313" s="2">
@@ -13367,7 +13368,7 @@
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A314" s="3">
+      <c r="A314" s="5">
         <v>42878</v>
       </c>
       <c r="B314" s="2">
@@ -13387,7 +13388,7 @@
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A315" s="3">
+      <c r="A315" s="5">
         <v>42899</v>
       </c>
       <c r="B315" s="2">
@@ -13407,7 +13408,7 @@
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A316" s="3">
+      <c r="A316" s="5">
         <v>42922</v>
       </c>
       <c r="B316" s="2">

--- a/CleanAFEs.xlsx
+++ b/CleanAFEs.xlsx
@@ -63,8 +63,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="165" formatCode="[$-409]d/mmm/yyyy;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -109,7 +110,7 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6947,8 +6948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G316"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="B294" workbookViewId="0">
+      <selection activeCell="E298" sqref="E298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7026,7 +7027,7 @@
         <v>41226</v>
       </c>
       <c r="B4" s="1">
-        <v>5000</v>
+        <v>4300</v>
       </c>
       <c r="C4" s="1">
         <v>4478394</v>
@@ -13120,7 +13121,7 @@
         <v>573795</v>
       </c>
       <c r="F301" s="1">
-        <v>3036572</v>
+        <v>706754</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.3">
@@ -13432,6 +13433,7 @@
     <sortCondition ref="A2:A316"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/CleanAFEs.xlsx
+++ b/CleanAFEs.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -57,6 +57,15 @@
   </si>
   <si>
     <t>ProductDates</t>
+  </si>
+  <si>
+    <t>TotalIntangible</t>
+  </si>
+  <si>
+    <t>TotalTangible</t>
+  </si>
+  <si>
+    <t>TotalCost</t>
   </si>
 </sst>
 </file>
@@ -6946,10 +6955,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G316"/>
+  <dimension ref="A1:I316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B294" workbookViewId="0">
-      <selection activeCell="E298" sqref="E298"/>
+    <sheetView tabSelected="1" topLeftCell="D293" workbookViewId="0">
+      <selection activeCell="I295" sqref="I295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6960,9 +6969,12 @@
     <col min="4" max="4" width="24.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
@@ -6981,8 +6993,17 @@
       <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>41191</v>
       </c>
@@ -7001,8 +7022,20 @@
       <c r="F2" s="1">
         <v>454775</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" s="1">
+        <f>C2+D2</f>
+        <v>3959250</v>
+      </c>
+      <c r="H2" s="1">
+        <f>F2+E2</f>
+        <v>614925</v>
+      </c>
+      <c r="I2" s="1">
+        <f>G2+H2</f>
+        <v>4574175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>41226</v>
       </c>
@@ -7021,8 +7054,20 @@
       <c r="F3" s="1">
         <v>329525</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G66" si="0">C3+D3</f>
+        <v>9069224</v>
+      </c>
+      <c r="H3" s="1">
+        <f t="shared" ref="H3:H66" si="1">F3+E3</f>
+        <v>1522501</v>
+      </c>
+      <c r="I3" s="1">
+        <f t="shared" ref="I3:I66" si="2">G3+H3</f>
+        <v>10591725</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>41226</v>
       </c>
@@ -7043,8 +7088,20 @@
         <f>315525+14000</f>
         <v>329525</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" s="1">
+        <f t="shared" si="0"/>
+        <v>9275094</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="1"/>
+        <v>1451131</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="2"/>
+        <v>10726225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>41226</v>
       </c>
@@ -7063,8 +7120,20 @@
       <c r="F5" s="1">
         <v>185200</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" s="1">
+        <f t="shared" si="0"/>
+        <v>3499500</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="1"/>
+        <v>462200</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="2"/>
+        <v>3961700</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>41242</v>
       </c>
@@ -7084,8 +7153,20 @@
       <c r="F6" s="1">
         <v>1324500</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" s="1">
+        <f t="shared" si="0"/>
+        <v>5699125</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="1"/>
+        <v>1773500</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="2"/>
+        <v>7472625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>41254</v>
       </c>
@@ -7104,8 +7185,20 @@
       <c r="F7" s="1">
         <v>909000</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>6277500</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="1"/>
+        <v>1369000</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="2"/>
+        <v>7646500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>41281</v>
       </c>
@@ -7124,8 +7217,20 @@
       <c r="F8" s="1">
         <v>441250</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" s="1">
+        <f t="shared" si="0"/>
+        <v>3810100</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="1"/>
+        <v>598450</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="2"/>
+        <v>4408550</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>41296</v>
       </c>
@@ -7145,8 +7250,20 @@
       <c r="F9" s="1">
         <v>254300</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" s="1">
+        <f t="shared" si="0"/>
+        <v>9468897</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="1"/>
+        <v>1299603</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="2"/>
+        <v>10768500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>41296</v>
       </c>
@@ -7165,8 +7282,20 @@
       <c r="F10" s="1">
         <v>446725</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" s="1">
+        <f t="shared" si="0"/>
+        <v>4211900</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="1"/>
+        <v>603925</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="2"/>
+        <v>4815825</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>41305</v>
       </c>
@@ -7186,8 +7315,20 @@
       <c r="F11" s="1">
         <v>252400</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" s="1">
+        <f t="shared" si="0"/>
+        <v>9643747</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="1"/>
+        <v>1247703</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="2"/>
+        <v>10891450</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>41365</v>
       </c>
@@ -7207,8 +7348,20 @@
       <c r="F12" s="1">
         <v>252400</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" s="1">
+        <f t="shared" si="0"/>
+        <v>9623747</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="1"/>
+        <v>1247703</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="2"/>
+        <v>10871450</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>41400</v>
       </c>
@@ -7227,8 +7380,20 @@
       <c r="F13" s="1">
         <v>446725</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" s="1">
+        <f t="shared" si="0"/>
+        <v>3866000</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="1"/>
+        <v>603925</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="2"/>
+        <v>4469925</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>41407</v>
       </c>
@@ -7247,8 +7412,20 @@
       <c r="F14" s="1">
         <v>394467</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" s="1">
+        <f t="shared" si="0"/>
+        <v>3988200</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="1"/>
+        <v>532047</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="2"/>
+        <v>4520247</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>41407</v>
       </c>
@@ -7267,8 +7444,20 @@
       <c r="F15" s="1">
         <v>446725</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15" s="1">
+        <f t="shared" si="0"/>
+        <v>3866000</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="1"/>
+        <v>603925</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="2"/>
+        <v>4469925</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>41516</v>
       </c>
@@ -7287,8 +7476,20 @@
       <c r="F16" s="1">
         <v>380600</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" s="1">
+        <f t="shared" si="0"/>
+        <v>4278000</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="1"/>
+        <v>564700</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="2"/>
+        <v>4842700</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>41530</v>
       </c>
@@ -7307,8 +7508,20 @@
       <c r="F17" s="1">
         <v>379400</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" s="1">
+        <f t="shared" si="0"/>
+        <v>4258000</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="1"/>
+        <v>561700</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="2"/>
+        <v>4819700</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>41547</v>
       </c>
@@ -7327,8 +7540,20 @@
       <c r="F18" s="1">
         <v>380600</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" s="1">
+        <f t="shared" si="0"/>
+        <v>4278000</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="1"/>
+        <v>564700</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="2"/>
+        <v>4842700</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>41550</v>
       </c>
@@ -7347,8 +7572,20 @@
       <c r="F19" s="1">
         <v>652326</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" s="1">
+        <f t="shared" si="0"/>
+        <v>7830404</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="1"/>
+        <v>1583826</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="2"/>
+        <v>9414230</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>41551</v>
       </c>
@@ -7369,8 +7606,20 @@
         <f>6411700-D20</f>
         <v>206500</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" s="1">
+        <f t="shared" si="0"/>
+        <v>10288414</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="1"/>
+        <v>898286</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="2"/>
+        <v>11186700</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>41562</v>
       </c>
@@ -7390,8 +7639,20 @@
       <c r="F21" s="1">
         <v>185760</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21" s="1">
+        <f t="shared" si="0"/>
+        <v>4415500</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" si="1"/>
+        <v>480441.25</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" si="2"/>
+        <v>4895941.25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>41583</v>
       </c>
@@ -7411,8 +7672,20 @@
       <c r="F22" s="1">
         <v>185700</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22" s="1">
+        <f t="shared" si="0"/>
+        <v>4415500</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" si="1"/>
+        <v>480673</v>
+      </c>
+      <c r="I22" s="1">
+        <f t="shared" si="2"/>
+        <v>4896173</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>41597</v>
       </c>
@@ -7431,8 +7704,20 @@
       <c r="F23" s="1">
         <v>206500</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23" s="1">
+        <f t="shared" si="0"/>
+        <v>8864804</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" si="1"/>
+        <v>877696</v>
+      </c>
+      <c r="I23" s="1">
+        <f t="shared" si="2"/>
+        <v>9742500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>41597</v>
       </c>
@@ -7453,8 +7738,20 @@
         <f>14000+192500</f>
         <v>206500</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24" s="1">
+        <f t="shared" si="0"/>
+        <v>8878004</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" si="1"/>
+        <v>877696</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" si="2"/>
+        <v>9755700</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>41631</v>
       </c>
@@ -7474,8 +7771,20 @@
       <c r="F25" s="1">
         <v>185700</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25" s="1">
+        <f t="shared" si="0"/>
+        <v>4444500</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" si="1"/>
+        <v>480244</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" si="2"/>
+        <v>4924744</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>41642</v>
       </c>
@@ -7494,8 +7803,20 @@
       <c r="F26" s="1">
         <v>222000</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26" s="1">
+        <f t="shared" si="0"/>
+        <v>10190904</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" si="1"/>
+        <v>908595</v>
+      </c>
+      <c r="I26" s="1">
+        <f t="shared" si="2"/>
+        <v>11099499</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>41645</v>
       </c>
@@ -7516,8 +7837,20 @@
         <f>14000+192500</f>
         <v>206500</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27" s="1">
+        <f t="shared" si="0"/>
+        <v>10288414</v>
+      </c>
+      <c r="H27" s="1">
+        <f t="shared" si="1"/>
+        <v>898288</v>
+      </c>
+      <c r="I27" s="1">
+        <f t="shared" si="2"/>
+        <v>11186702</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>41647</v>
       </c>
@@ -7536,8 +7869,20 @@
       <c r="F28" s="1">
         <v>206500</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G28" s="1">
+        <f t="shared" si="0"/>
+        <v>8452302</v>
+      </c>
+      <c r="H28" s="1">
+        <f t="shared" si="1"/>
+        <v>805398</v>
+      </c>
+      <c r="I28" s="1">
+        <f t="shared" si="2"/>
+        <v>9257700</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>41654</v>
       </c>
@@ -7558,8 +7903,20 @@
         <f>14000+192500</f>
         <v>206500</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G29" s="1">
+        <f t="shared" si="0"/>
+        <v>10232989</v>
+      </c>
+      <c r="H29" s="1">
+        <f t="shared" si="1"/>
+        <v>878711</v>
+      </c>
+      <c r="I29" s="1">
+        <f t="shared" si="2"/>
+        <v>11111700</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>41659</v>
       </c>
@@ -7581,8 +7938,20 @@
         <f>2972700-D30</f>
         <v>185700</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G30" s="1">
+        <f t="shared" si="0"/>
+        <v>4415500</v>
+      </c>
+      <c r="H30" s="1">
+        <f t="shared" si="1"/>
+        <v>479920</v>
+      </c>
+      <c r="I30" s="1">
+        <f t="shared" si="2"/>
+        <v>4895420</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>41691</v>
       </c>
@@ -7601,8 +7970,20 @@
       <c r="F31" s="1">
         <v>778000</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G31" s="1">
+        <f t="shared" si="0"/>
+        <v>5793000</v>
+      </c>
+      <c r="H31" s="1">
+        <f t="shared" si="1"/>
+        <v>1280000</v>
+      </c>
+      <c r="I31" s="1">
+        <f t="shared" si="2"/>
+        <v>7073000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>41708</v>
       </c>
@@ -7623,8 +8004,20 @@
         <f>14000+192500</f>
         <v>206500</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G32" s="1">
+        <f t="shared" si="0"/>
+        <v>10232989</v>
+      </c>
+      <c r="H32" s="1">
+        <f t="shared" si="1"/>
+        <v>878711</v>
+      </c>
+      <c r="I32" s="1">
+        <f t="shared" si="2"/>
+        <v>11111700</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>41722</v>
       </c>
@@ -7643,8 +8036,20 @@
       <c r="F33" s="1">
         <v>778000</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G33" s="1">
+        <f t="shared" si="0"/>
+        <v>5793000</v>
+      </c>
+      <c r="H33" s="1">
+        <f t="shared" si="1"/>
+        <v>1280000</v>
+      </c>
+      <c r="I33" s="1">
+        <f t="shared" si="2"/>
+        <v>7073000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>41731</v>
       </c>
@@ -7665,8 +8070,20 @@
         <f>6480662-D34</f>
         <v>191038</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G34" s="1">
+        <f t="shared" si="0"/>
+        <v>10145063</v>
+      </c>
+      <c r="H34" s="1">
+        <f t="shared" si="1"/>
+        <v>717818</v>
+      </c>
+      <c r="I34" s="1">
+        <f t="shared" si="2"/>
+        <v>10862881</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>41732</v>
       </c>
@@ -7685,8 +8102,20 @@
       <c r="F35" s="1">
         <v>364300</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G35" s="1">
+        <f t="shared" si="0"/>
+        <v>5113050</v>
+      </c>
+      <c r="H35" s="1">
+        <f t="shared" si="1"/>
+        <v>728825</v>
+      </c>
+      <c r="I35" s="1">
+        <f t="shared" si="2"/>
+        <v>5841875</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>41773</v>
       </c>
@@ -7706,8 +8135,20 @@
       <c r="F36" s="1">
         <v>364300</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G36" s="1">
+        <f t="shared" si="0"/>
+        <v>2609875</v>
+      </c>
+      <c r="H36" s="1">
+        <f t="shared" si="1"/>
+        <v>986650</v>
+      </c>
+      <c r="I36" s="1">
+        <f t="shared" si="2"/>
+        <v>3596525</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>41782</v>
       </c>
@@ -7728,8 +8169,20 @@
         <f>375000+193215</f>
         <v>568215</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G37" s="1">
+        <f t="shared" si="0"/>
+        <v>11000605</v>
+      </c>
+      <c r="H37" s="1">
+        <f t="shared" si="1"/>
+        <v>1105077</v>
+      </c>
+      <c r="I37" s="1">
+        <f t="shared" si="2"/>
+        <v>12105682</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>41805</v>
       </c>
@@ -7748,8 +8201,20 @@
       <c r="F38" s="1">
         <v>569114</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G38" s="1">
+        <f t="shared" si="0"/>
+        <v>3739820</v>
+      </c>
+      <c r="H38" s="1">
+        <f t="shared" si="1"/>
+        <v>774582</v>
+      </c>
+      <c r="I38" s="1">
+        <f t="shared" si="2"/>
+        <v>4514402</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>41813</v>
       </c>
@@ -7770,8 +8235,20 @@
         <f>14000+192500</f>
         <v>206500</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G39" s="1">
+        <f t="shared" si="0"/>
+        <v>10232989</v>
+      </c>
+      <c r="H39" s="1">
+        <f t="shared" si="1"/>
+        <v>878711</v>
+      </c>
+      <c r="I39" s="1">
+        <f t="shared" si="2"/>
+        <v>11111700</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>41823</v>
       </c>
@@ -7791,8 +8268,20 @@
       <c r="F40" s="1">
         <v>574000</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G40" s="1">
+        <f t="shared" si="0"/>
+        <v>10906471</v>
+      </c>
+      <c r="H40" s="1">
+        <f t="shared" si="1"/>
+        <v>1120346</v>
+      </c>
+      <c r="I40" s="1">
+        <f t="shared" si="2"/>
+        <v>12026817</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>41828</v>
       </c>
@@ -7813,8 +8302,20 @@
         <f>193953+375000</f>
         <v>568953</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G41" s="1">
+        <f t="shared" si="0"/>
+        <v>10689433</v>
+      </c>
+      <c r="H41" s="1">
+        <f t="shared" si="1"/>
+        <v>1109231</v>
+      </c>
+      <c r="I41" s="1">
+        <f t="shared" si="2"/>
+        <v>11798664</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>41844</v>
       </c>
@@ -7833,8 +8334,20 @@
       <c r="F42" s="1">
         <v>569114</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G42" s="1">
+        <f t="shared" si="0"/>
+        <v>3739820</v>
+      </c>
+      <c r="H42" s="1">
+        <f t="shared" si="1"/>
+        <v>774582</v>
+      </c>
+      <c r="I42" s="1">
+        <f t="shared" si="2"/>
+        <v>4514402</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>41848</v>
       </c>
@@ -7853,8 +8366,20 @@
       <c r="F43" s="1">
         <v>737000</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G43" s="1">
+        <f t="shared" si="0"/>
+        <v>7063000</v>
+      </c>
+      <c r="H43" s="1">
+        <f t="shared" si="1"/>
+        <v>1231000</v>
+      </c>
+      <c r="I43" s="1">
+        <f t="shared" si="2"/>
+        <v>8294000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>41859</v>
       </c>
@@ -7874,8 +8399,20 @@
         <f>92310+356700</f>
         <v>449010</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G44" s="1">
+        <f t="shared" si="0"/>
+        <v>10007779</v>
+      </c>
+      <c r="H44" s="1">
+        <f t="shared" si="1"/>
+        <v>907563</v>
+      </c>
+      <c r="I44" s="1">
+        <f t="shared" si="2"/>
+        <v>10915342</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>41869</v>
       </c>
@@ -7894,8 +8431,20 @@
       <c r="F45" s="1">
         <v>720000</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G45" s="1">
+        <f t="shared" si="0"/>
+        <v>7522000</v>
+      </c>
+      <c r="H45" s="1">
+        <f t="shared" si="1"/>
+        <v>1204000</v>
+      </c>
+      <c r="I45" s="1">
+        <f t="shared" si="2"/>
+        <v>8726000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>41869</v>
       </c>
@@ -7916,8 +8465,20 @@
         <f>14000+192500</f>
         <v>206500</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G46" s="1">
+        <f t="shared" si="0"/>
+        <v>8476032</v>
+      </c>
+      <c r="H46" s="1">
+        <f t="shared" si="1"/>
+        <v>879668</v>
+      </c>
+      <c r="I46" s="1">
+        <f t="shared" si="2"/>
+        <v>9355700</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <v>41872</v>
       </c>
@@ -7937,8 +8498,20 @@
       <c r="F47" s="1">
         <v>185700</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G47" s="1">
+        <f t="shared" si="0"/>
+        <v>4444500</v>
+      </c>
+      <c r="H47" s="1">
+        <f t="shared" si="1"/>
+        <v>480343.75</v>
+      </c>
+      <c r="I47" s="1">
+        <f t="shared" si="2"/>
+        <v>4924843.75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>41885</v>
       </c>
@@ -7958,8 +8531,20 @@
       <c r="F48" s="1">
         <v>574038</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G48" s="1">
+        <f t="shared" si="0"/>
+        <v>10168063</v>
+      </c>
+      <c r="H48" s="1">
+        <f t="shared" si="1"/>
+        <v>1100818</v>
+      </c>
+      <c r="I48" s="1">
+        <f t="shared" si="2"/>
+        <v>11268881</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>41899</v>
       </c>
@@ -7978,8 +8563,20 @@
       <c r="F49" s="1">
         <v>737000</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G49" s="1">
+        <f t="shared" si="0"/>
+        <v>7063000</v>
+      </c>
+      <c r="H49" s="1">
+        <f t="shared" si="1"/>
+        <v>1231000</v>
+      </c>
+      <c r="I49" s="1">
+        <f t="shared" si="2"/>
+        <v>8294000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>41918</v>
       </c>
@@ -7999,8 +8596,20 @@
       <c r="F50" s="1">
         <v>192500</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G50" s="1">
+        <f t="shared" si="0"/>
+        <v>9995032</v>
+      </c>
+      <c r="H50" s="1">
+        <f t="shared" si="1"/>
+        <v>865668</v>
+      </c>
+      <c r="I50" s="1">
+        <f t="shared" si="2"/>
+        <v>10860700</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
         <v>41926</v>
       </c>
@@ -8020,8 +8629,20 @@
       <c r="F51" s="1">
         <v>1036400</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G51" s="1">
+        <f t="shared" si="0"/>
+        <v>5612380</v>
+      </c>
+      <c r="H51" s="1">
+        <f t="shared" si="1"/>
+        <v>1551200</v>
+      </c>
+      <c r="I51" s="1">
+        <f t="shared" si="2"/>
+        <v>7163580</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
         <v>41926</v>
       </c>
@@ -8041,8 +8662,20 @@
         <f>14000+192500</f>
         <v>206500</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G52" s="1">
+        <f t="shared" si="0"/>
+        <v>8262832</v>
+      </c>
+      <c r="H52" s="1">
+        <f t="shared" si="1"/>
+        <v>879668</v>
+      </c>
+      <c r="I52" s="1">
+        <f t="shared" si="2"/>
+        <v>9142500</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
         <v>41933</v>
       </c>
@@ -8062,8 +8695,20 @@
       <c r="F53" s="1">
         <v>453000</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G53" s="1">
+        <f t="shared" si="0"/>
+        <v>9380002</v>
+      </c>
+      <c r="H53" s="1">
+        <f t="shared" si="1"/>
+        <v>1104998</v>
+      </c>
+      <c r="I53" s="1">
+        <f t="shared" si="2"/>
+        <v>10485000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
         <v>41933</v>
       </c>
@@ -8082,8 +8727,20 @@
       <c r="F54" s="1">
         <v>778000</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G54" s="1">
+        <f t="shared" si="0"/>
+        <v>5793000</v>
+      </c>
+      <c r="H54" s="1">
+        <f t="shared" si="1"/>
+        <v>1280000</v>
+      </c>
+      <c r="I54" s="1">
+        <f t="shared" si="2"/>
+        <v>7073000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="5">
         <v>41934</v>
       </c>
@@ -8102,8 +8759,20 @@
       <c r="F55" s="1">
         <v>574282</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G55" s="1">
+        <f t="shared" si="0"/>
+        <v>3285091</v>
+      </c>
+      <c r="H55" s="1">
+        <f t="shared" si="1"/>
+        <v>778788</v>
+      </c>
+      <c r="I55" s="1">
+        <f t="shared" si="2"/>
+        <v>4063879</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="5">
         <v>41935</v>
       </c>
@@ -8125,8 +8794,20 @@
         <f>192534+375000</f>
         <v>567534</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G56" s="1">
+        <f t="shared" si="0"/>
+        <v>10327443</v>
+      </c>
+      <c r="H56" s="1">
+        <f t="shared" si="1"/>
+        <v>1101242</v>
+      </c>
+      <c r="I56" s="1">
+        <f t="shared" si="2"/>
+        <v>11428685</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="5">
         <v>41936</v>
       </c>
@@ -8148,8 +8829,20 @@
         <f>193412+375000</f>
         <v>568412</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G57" s="1">
+        <f t="shared" si="0"/>
+        <v>10466977</v>
+      </c>
+      <c r="H57" s="1">
+        <f t="shared" si="1"/>
+        <v>1106181</v>
+      </c>
+      <c r="I57" s="1">
+        <f t="shared" si="2"/>
+        <v>11573158</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
         <v>41939</v>
       </c>
@@ -8168,8 +8861,20 @@
       <c r="F58" s="1">
         <v>725000</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G58" s="1">
+        <f t="shared" si="0"/>
+        <v>7876000</v>
+      </c>
+      <c r="H58" s="1">
+        <f t="shared" si="1"/>
+        <v>1211000</v>
+      </c>
+      <c r="I58" s="1">
+        <f t="shared" si="2"/>
+        <v>9087000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="5">
         <v>41939</v>
       </c>
@@ -8188,8 +8893,20 @@
       <c r="F59" s="1">
         <v>930000</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G59" s="1">
+        <f t="shared" si="0"/>
+        <v>11512500</v>
+      </c>
+      <c r="H59" s="1">
+        <f t="shared" si="1"/>
+        <v>1451000</v>
+      </c>
+      <c r="I59" s="1">
+        <f t="shared" si="2"/>
+        <v>12963500</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="5">
         <v>41939</v>
       </c>
@@ -8208,8 +8925,20 @@
       <c r="F60" s="1">
         <v>930000</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G60" s="1">
+        <f t="shared" si="0"/>
+        <v>11512500</v>
+      </c>
+      <c r="H60" s="1">
+        <f t="shared" si="1"/>
+        <v>1451000</v>
+      </c>
+      <c r="I60" s="1">
+        <f t="shared" si="2"/>
+        <v>12963500</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="5">
         <v>41940</v>
       </c>
@@ -8228,8 +8957,20 @@
       <c r="F61" s="1">
         <v>930000</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G61" s="1">
+        <f t="shared" si="0"/>
+        <v>11512500</v>
+      </c>
+      <c r="H61" s="1">
+        <f t="shared" si="1"/>
+        <v>1451000</v>
+      </c>
+      <c r="I61" s="1">
+        <f t="shared" si="2"/>
+        <v>12963500</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="5">
         <v>41953</v>
       </c>
@@ -8249,8 +8990,20 @@
       <c r="F62" s="1">
         <v>202000</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G62" s="1">
+        <f t="shared" si="0"/>
+        <v>9813804</v>
+      </c>
+      <c r="H62" s="1">
+        <f t="shared" si="1"/>
+        <v>858696</v>
+      </c>
+      <c r="I62" s="1">
+        <f t="shared" si="2"/>
+        <v>10672500</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="5">
         <v>41960</v>
       </c>
@@ -8269,8 +9022,20 @@
       <c r="F63" s="1">
         <v>778000</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G63" s="1">
+        <f t="shared" si="0"/>
+        <v>5793000</v>
+      </c>
+      <c r="H63" s="1">
+        <f t="shared" si="1"/>
+        <v>1280000</v>
+      </c>
+      <c r="I63" s="1">
+        <f t="shared" si="2"/>
+        <v>7073000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="5">
         <v>41961</v>
       </c>
@@ -8291,8 +9056,20 @@
         <f>87484+347600</f>
         <v>435084</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G64" s="1">
+        <f t="shared" si="0"/>
+        <v>9852797</v>
+      </c>
+      <c r="H64" s="1">
+        <f t="shared" si="1"/>
+        <v>905002</v>
+      </c>
+      <c r="I64" s="1">
+        <f t="shared" si="2"/>
+        <v>10757799</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="5">
         <v>41962</v>
       </c>
@@ -8312,8 +9089,20 @@
       <c r="F65" s="1">
         <v>1026500</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G65" s="1">
+        <f t="shared" si="0"/>
+        <v>5610180</v>
+      </c>
+      <c r="H65" s="1">
+        <f t="shared" si="1"/>
+        <v>1531400</v>
+      </c>
+      <c r="I65" s="1">
+        <f t="shared" si="2"/>
+        <v>7141580</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="5">
         <v>41964</v>
       </c>
@@ -8334,8 +9123,20 @@
         <f>91142+406700</f>
         <v>497842</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G66" s="1">
+        <f t="shared" si="0"/>
+        <v>6854676</v>
+      </c>
+      <c r="H66" s="1">
+        <f t="shared" si="1"/>
+        <v>871210</v>
+      </c>
+      <c r="I66" s="1">
+        <f t="shared" si="2"/>
+        <v>7725886</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="5">
         <v>41968</v>
       </c>
@@ -8354,8 +9155,20 @@
       <c r="F67" s="1">
         <v>904000</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G67" s="1">
+        <f t="shared" ref="G67:G130" si="3">C67+D67</f>
+        <v>11306500</v>
+      </c>
+      <c r="H67" s="1">
+        <f t="shared" ref="H67:H130" si="4">F67+E67</f>
+        <v>1439000</v>
+      </c>
+      <c r="I67" s="1">
+        <f t="shared" ref="I67:I130" si="5">G67+H67</f>
+        <v>12745500</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="5">
         <v>41968</v>
       </c>
@@ -8374,8 +9187,20 @@
       <c r="F68" s="1">
         <v>904000</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G68" s="1">
+        <f t="shared" si="3"/>
+        <v>11306500</v>
+      </c>
+      <c r="H68" s="1">
+        <f t="shared" si="4"/>
+        <v>1439000</v>
+      </c>
+      <c r="I68" s="1">
+        <f t="shared" si="5"/>
+        <v>12745500</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="5">
         <v>41974</v>
       </c>
@@ -8396,8 +9221,20 @@
       <c r="F69" s="1">
         <v>192500</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G69" s="1">
+        <f t="shared" si="3"/>
+        <v>9995032</v>
+      </c>
+      <c r="H69" s="1">
+        <f t="shared" si="4"/>
+        <v>865668</v>
+      </c>
+      <c r="I69" s="1">
+        <f t="shared" si="5"/>
+        <v>10860700</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="5">
         <v>41982</v>
       </c>
@@ -8417,8 +9254,20 @@
       <c r="F70" s="1">
         <v>185700</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G70" s="1">
+        <f t="shared" si="3"/>
+        <v>4790500</v>
+      </c>
+      <c r="H70" s="1">
+        <f t="shared" si="4"/>
+        <v>494631.25</v>
+      </c>
+      <c r="I70" s="1">
+        <f t="shared" si="5"/>
+        <v>5285131.25</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="5">
         <v>41995</v>
       </c>
@@ -8438,8 +9287,20 @@
       <c r="F71" s="1">
         <v>202000</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G71" s="1">
+        <f t="shared" si="3"/>
+        <v>10672800</v>
+      </c>
+      <c r="H71" s="1">
+        <f t="shared" si="4"/>
+        <v>869700</v>
+      </c>
+      <c r="I71" s="1">
+        <f t="shared" si="5"/>
+        <v>11542500</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="5">
         <v>42003</v>
       </c>
@@ -8458,8 +9319,20 @@
       <c r="F72" s="1">
         <v>904000</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G72" s="1">
+        <f t="shared" si="3"/>
+        <v>11306500</v>
+      </c>
+      <c r="H72" s="1">
+        <f t="shared" si="4"/>
+        <v>1439000</v>
+      </c>
+      <c r="I72" s="1">
+        <f t="shared" si="5"/>
+        <v>12745500</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="5">
         <v>42009</v>
       </c>
@@ -8479,8 +9352,20 @@
       <c r="F73" s="1">
         <v>202000</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G73" s="1">
+        <f t="shared" si="3"/>
+        <v>10253304</v>
+      </c>
+      <c r="H73" s="1">
+        <f t="shared" si="4"/>
+        <v>858696</v>
+      </c>
+      <c r="I73" s="1">
+        <f t="shared" si="5"/>
+        <v>11112000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="5">
         <v>42009</v>
       </c>
@@ -8499,9 +9384,20 @@
       <c r="F74" s="1">
         <v>414900</v>
       </c>
-      <c r="G74" s="1"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G74" s="1">
+        <f t="shared" si="3"/>
+        <v>4775250</v>
+      </c>
+      <c r="H74" s="1">
+        <f t="shared" si="4"/>
+        <v>705425</v>
+      </c>
+      <c r="I74" s="1">
+        <f t="shared" si="5"/>
+        <v>5480675</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="5">
         <v>42010</v>
       </c>
@@ -8522,8 +9418,20 @@
         <f>92326+406700</f>
         <v>499026</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G75" s="1">
+        <f t="shared" si="3"/>
+        <v>6430095</v>
+      </c>
+      <c r="H75" s="1">
+        <f t="shared" si="4"/>
+        <v>878694</v>
+      </c>
+      <c r="I75" s="1">
+        <f t="shared" si="5"/>
+        <v>7308789</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="5">
         <v>42010</v>
       </c>
@@ -8543,8 +9451,20 @@
       <c r="F76" s="1">
         <v>444000</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G76" s="1">
+        <f t="shared" si="3"/>
+        <v>9784700</v>
+      </c>
+      <c r="H76" s="1">
+        <f t="shared" si="4"/>
+        <v>1105800</v>
+      </c>
+      <c r="I76" s="1">
+        <f t="shared" si="5"/>
+        <v>10890500</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="5">
         <v>42016</v>
       </c>
@@ -8563,8 +9483,20 @@
       <c r="F77" s="1">
         <v>364300</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G77" s="1">
+        <f t="shared" si="3"/>
+        <v>4713050</v>
+      </c>
+      <c r="H77" s="1">
+        <f t="shared" si="4"/>
+        <v>728825</v>
+      </c>
+      <c r="I77" s="1">
+        <f t="shared" si="5"/>
+        <v>5441875</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="5">
         <v>42027</v>
       </c>
@@ -8585,8 +9517,20 @@
         <f>192500</f>
         <v>192500</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G78" s="1">
+        <f t="shared" si="3"/>
+        <v>7723209</v>
+      </c>
+      <c r="H78" s="1">
+        <f t="shared" si="4"/>
+        <v>779012</v>
+      </c>
+      <c r="I78" s="1">
+        <f t="shared" si="5"/>
+        <v>8502221</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="5">
         <v>42033</v>
       </c>
@@ -8605,8 +9549,20 @@
       <c r="F79" s="1">
         <v>951420</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G79" s="1">
+        <f t="shared" si="3"/>
+        <v>9091000</v>
+      </c>
+      <c r="H79" s="1">
+        <f t="shared" si="4"/>
+        <v>1409420</v>
+      </c>
+      <c r="I79" s="1">
+        <f t="shared" si="5"/>
+        <v>10500420</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="5">
         <v>42033</v>
       </c>
@@ -8625,8 +9581,20 @@
       <c r="F80" s="1">
         <v>951400</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G80" s="1">
+        <f t="shared" si="3"/>
+        <v>9091000</v>
+      </c>
+      <c r="H80" s="1">
+        <f t="shared" si="4"/>
+        <v>1409400</v>
+      </c>
+      <c r="I80" s="1">
+        <f t="shared" si="5"/>
+        <v>10500400</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="5">
         <v>42041</v>
       </c>
@@ -8645,8 +9613,20 @@
       <c r="F81" s="1">
         <v>202000</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G81" s="1">
+        <f t="shared" si="3"/>
+        <v>9910804</v>
+      </c>
+      <c r="H81" s="1">
+        <f t="shared" si="4"/>
+        <v>858696</v>
+      </c>
+      <c r="I81" s="1">
+        <f t="shared" si="5"/>
+        <v>10769500</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="5">
         <v>42041</v>
       </c>
@@ -8666,8 +9646,20 @@
       <c r="F82" s="1">
         <v>202000</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G82" s="1">
+        <f t="shared" si="3"/>
+        <v>10253304</v>
+      </c>
+      <c r="H82" s="1">
+        <f t="shared" si="4"/>
+        <v>858696</v>
+      </c>
+      <c r="I82" s="1">
+        <f t="shared" si="5"/>
+        <v>11112000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="5">
         <v>42046</v>
       </c>
@@ -8687,8 +9679,20 @@
       <c r="F83" s="1">
         <v>313000</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G83" s="1">
+        <f t="shared" si="3"/>
+        <v>10958847</v>
+      </c>
+      <c r="H83" s="1">
+        <f t="shared" si="4"/>
+        <v>986168</v>
+      </c>
+      <c r="I83" s="1">
+        <f t="shared" si="5"/>
+        <v>11945015</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="5">
         <v>42052</v>
       </c>
@@ -8710,8 +9714,20 @@
         <f>15000+192500</f>
         <v>207500</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G84" s="1">
+        <f t="shared" si="3"/>
+        <v>4472666</v>
+      </c>
+      <c r="H84" s="1">
+        <f t="shared" si="4"/>
+        <v>673034</v>
+      </c>
+      <c r="I84" s="1">
+        <f t="shared" si="5"/>
+        <v>5145700</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="5">
         <v>42072</v>
       </c>
@@ -8730,8 +9746,20 @@
       <c r="F85" s="1">
         <v>868000</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G85" s="1">
+        <f t="shared" si="3"/>
+        <v>8728400</v>
+      </c>
+      <c r="H85" s="1">
+        <f t="shared" si="4"/>
+        <v>1274000</v>
+      </c>
+      <c r="I85" s="1">
+        <f t="shared" si="5"/>
+        <v>10002400</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="5">
         <v>42072</v>
       </c>
@@ -8750,8 +9778,20 @@
       <c r="F86" s="1">
         <v>937000</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G86" s="1">
+        <f t="shared" si="3"/>
+        <v>11440500</v>
+      </c>
+      <c r="H86" s="1">
+        <f t="shared" si="4"/>
+        <v>1458000</v>
+      </c>
+      <c r="I86" s="1">
+        <f t="shared" si="5"/>
+        <v>12898500</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="5">
         <v>42072</v>
       </c>
@@ -8770,8 +9810,20 @@
       <c r="F87" s="1">
         <v>898000</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G87" s="1">
+        <f t="shared" si="3"/>
+        <v>10372500</v>
+      </c>
+      <c r="H87" s="1">
+        <f t="shared" si="4"/>
+        <v>1443000</v>
+      </c>
+      <c r="I87" s="1">
+        <f t="shared" si="5"/>
+        <v>11815500</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="5">
         <v>42082</v>
       </c>
@@ -8790,8 +9842,20 @@
       <c r="F88" s="1">
         <v>898000</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G88" s="1">
+        <f t="shared" si="3"/>
+        <v>10372500</v>
+      </c>
+      <c r="H88" s="1">
+        <f t="shared" si="4"/>
+        <v>1443000</v>
+      </c>
+      <c r="I88" s="1">
+        <f t="shared" si="5"/>
+        <v>11815500</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="5">
         <v>42082</v>
       </c>
@@ -8810,8 +9874,20 @@
       <c r="F89" s="1">
         <v>937000</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G89" s="1">
+        <f t="shared" si="3"/>
+        <v>11440500</v>
+      </c>
+      <c r="H89" s="1">
+        <f t="shared" si="4"/>
+        <v>1458000</v>
+      </c>
+      <c r="I89" s="1">
+        <f t="shared" si="5"/>
+        <v>12898500</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="5">
         <v>42082</v>
       </c>
@@ -8830,8 +9906,20 @@
       <c r="F90" s="1">
         <v>898000</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G90" s="1">
+        <f t="shared" si="3"/>
+        <v>10372500</v>
+      </c>
+      <c r="H90" s="1">
+        <f t="shared" si="4"/>
+        <v>1443000</v>
+      </c>
+      <c r="I90" s="1">
+        <f t="shared" si="5"/>
+        <v>11815500</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="5">
         <v>42087</v>
       </c>
@@ -8851,8 +9939,20 @@
         <f>194392+375000</f>
         <v>569392</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G91" s="1">
+        <f t="shared" si="3"/>
+        <v>11387272</v>
+      </c>
+      <c r="H91" s="1">
+        <f t="shared" si="4"/>
+        <v>1111701</v>
+      </c>
+      <c r="I91" s="1">
+        <f t="shared" si="5"/>
+        <v>12498973</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="5">
         <v>42091</v>
       </c>
@@ -8871,8 +9971,20 @@
       <c r="F92" s="1">
         <v>937000</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G92" s="1">
+        <f t="shared" si="3"/>
+        <v>11440500</v>
+      </c>
+      <c r="H92" s="1">
+        <f t="shared" si="4"/>
+        <v>1458000</v>
+      </c>
+      <c r="I92" s="1">
+        <f t="shared" si="5"/>
+        <v>12898500</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="5">
         <v>42095</v>
       </c>
@@ -8891,8 +10003,20 @@
       <c r="F93" s="1">
         <v>823000</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G93" s="1">
+        <f t="shared" si="3"/>
+        <v>7149500</v>
+      </c>
+      <c r="H93" s="1">
+        <f t="shared" si="4"/>
+        <v>1367000</v>
+      </c>
+      <c r="I93" s="1">
+        <f t="shared" si="5"/>
+        <v>8516500</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="5">
         <v>42095</v>
       </c>
@@ -8911,8 +10035,20 @@
       <c r="F94" s="1">
         <v>388800</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G94" s="1">
+        <f t="shared" si="3"/>
+        <v>5166160</v>
+      </c>
+      <c r="H94" s="1">
+        <f t="shared" si="4"/>
+        <v>1058259</v>
+      </c>
+      <c r="I94" s="1">
+        <f t="shared" si="5"/>
+        <v>6224419</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="5">
         <v>42100</v>
       </c>
@@ -8931,8 +10067,20 @@
       <c r="F95" s="1">
         <v>414900</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G95" s="1">
+        <f t="shared" si="3"/>
+        <v>4312250</v>
+      </c>
+      <c r="H95" s="1">
+        <f t="shared" si="4"/>
+        <v>705425</v>
+      </c>
+      <c r="I95" s="1">
+        <f t="shared" si="5"/>
+        <v>5017675</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="5">
         <v>42100</v>
       </c>
@@ -8951,8 +10099,20 @@
       <c r="F96" s="1">
         <v>823000</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G96" s="1">
+        <f t="shared" si="3"/>
+        <v>7149500</v>
+      </c>
+      <c r="H96" s="1">
+        <f t="shared" si="4"/>
+        <v>1367000</v>
+      </c>
+      <c r="I96" s="1">
+        <f t="shared" si="5"/>
+        <v>8516500</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="5">
         <v>42101</v>
       </c>
@@ -8973,8 +10133,20 @@
         <f>89426+347600</f>
         <v>437026</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G97" s="1">
+        <f t="shared" si="3"/>
+        <v>8921138</v>
+      </c>
+      <c r="H97" s="1">
+        <f t="shared" si="4"/>
+        <v>946701</v>
+      </c>
+      <c r="I97" s="1">
+        <f t="shared" si="5"/>
+        <v>9867839</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="5">
         <v>42104</v>
       </c>
@@ -8993,8 +10165,20 @@
       <c r="F98" s="1">
         <v>226000</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G98" s="1">
+        <f t="shared" si="3"/>
+        <v>7119356</v>
+      </c>
+      <c r="H98" s="1">
+        <f t="shared" si="4"/>
+        <v>836644</v>
+      </c>
+      <c r="I98" s="1">
+        <f t="shared" si="5"/>
+        <v>7956000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="5">
         <v>42107</v>
       </c>
@@ -9015,8 +10199,20 @@
         <f>347600+93661</f>
         <v>441261</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G99" s="1">
+        <f t="shared" si="3"/>
+        <v>10565090</v>
+      </c>
+      <c r="H99" s="1">
+        <f t="shared" si="4"/>
+        <v>1367615</v>
+      </c>
+      <c r="I99" s="1">
+        <f t="shared" si="5"/>
+        <v>11932705</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="5">
         <v>42108</v>
       </c>
@@ -9037,8 +10233,20 @@
         <f>226000+71500</f>
         <v>297500</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G100" s="1">
+        <f t="shared" si="3"/>
+        <v>7244143</v>
+      </c>
+      <c r="H100" s="1">
+        <f t="shared" si="4"/>
+        <v>903100</v>
+      </c>
+      <c r="I100" s="1">
+        <f t="shared" si="5"/>
+        <v>8147243</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="5">
         <v>42108</v>
       </c>
@@ -9058,8 +10266,20 @@
         <f>91142+406700</f>
         <v>497842</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G101" s="1">
+        <f t="shared" si="3"/>
+        <v>6829676</v>
+      </c>
+      <c r="H101" s="1">
+        <f t="shared" si="4"/>
+        <v>871210</v>
+      </c>
+      <c r="I101" s="1">
+        <f t="shared" si="5"/>
+        <v>7700886</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="5">
         <v>42117</v>
       </c>
@@ -9078,8 +10298,20 @@
       <c r="F102" s="1">
         <v>232000</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G102" s="1">
+        <f t="shared" si="3"/>
+        <v>6987580</v>
+      </c>
+      <c r="H102" s="1">
+        <f t="shared" si="4"/>
+        <v>1177814</v>
+      </c>
+      <c r="I102" s="1">
+        <f t="shared" si="5"/>
+        <v>8165394</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="5">
         <v>42125</v>
       </c>
@@ -9098,8 +10330,20 @@
       <c r="F103" s="1">
         <v>443600</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G103" s="1">
+        <f t="shared" si="3"/>
+        <v>10609298</v>
+      </c>
+      <c r="H103" s="1">
+        <f t="shared" si="4"/>
+        <v>1401814</v>
+      </c>
+      <c r="I103" s="1">
+        <f t="shared" si="5"/>
+        <v>12011112</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="5">
         <v>42129</v>
       </c>
@@ -9118,8 +10362,20 @@
       <c r="F104" s="1">
         <v>386800</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G104" s="1">
+        <f t="shared" si="3"/>
+        <v>5571343</v>
+      </c>
+      <c r="H104" s="1">
+        <f t="shared" si="4"/>
+        <v>821859</v>
+      </c>
+      <c r="I104" s="1">
+        <f t="shared" si="5"/>
+        <v>6393202</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="5">
         <v>42139</v>
       </c>
@@ -9138,8 +10394,20 @@
       <c r="F105" s="1">
         <v>755000</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G105" s="1">
+        <f t="shared" si="3"/>
+        <v>8364400</v>
+      </c>
+      <c r="H105" s="1">
+        <f t="shared" si="4"/>
+        <v>1161000</v>
+      </c>
+      <c r="I105" s="1">
+        <f t="shared" si="5"/>
+        <v>9525400</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="5">
         <v>42143</v>
       </c>
@@ -9158,8 +10426,20 @@
       <c r="F106" s="1">
         <v>434600</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G106" s="1">
+        <f t="shared" si="3"/>
+        <v>9877797</v>
+      </c>
+      <c r="H106" s="1">
+        <f t="shared" si="4"/>
+        <v>904518</v>
+      </c>
+      <c r="I106" s="1">
+        <f t="shared" si="5"/>
+        <v>10782315</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="5">
         <v>42148</v>
       </c>
@@ -9178,8 +10458,20 @@
       <c r="F107" s="1">
         <v>1015800</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G107" s="1">
+        <f t="shared" si="3"/>
+        <v>10843500</v>
+      </c>
+      <c r="H107" s="1">
+        <f t="shared" si="4"/>
+        <v>1510800</v>
+      </c>
+      <c r="I107" s="1">
+        <f t="shared" si="5"/>
+        <v>12354300</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="5">
         <v>42150</v>
       </c>
@@ -9198,8 +10490,20 @@
       <c r="F108" s="1">
         <v>159500</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G108" s="1">
+        <f t="shared" si="3"/>
+        <v>7455204</v>
+      </c>
+      <c r="H108" s="1">
+        <f t="shared" si="4"/>
+        <v>846449</v>
+      </c>
+      <c r="I108" s="1">
+        <f t="shared" si="5"/>
+        <v>8301653</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="5">
         <v>42150</v>
       </c>
@@ -9218,8 +10522,20 @@
       <c r="F109" s="1">
         <v>202000</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G109" s="1">
+        <f t="shared" si="3"/>
+        <v>10672800</v>
+      </c>
+      <c r="H109" s="1">
+        <f t="shared" si="4"/>
+        <v>869700</v>
+      </c>
+      <c r="I109" s="1">
+        <f t="shared" si="5"/>
+        <v>11542500</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="5">
         <v>42156</v>
       </c>
@@ -9239,8 +10555,20 @@
       <c r="F110" s="1">
         <v>300000</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G110" s="1">
+        <f t="shared" si="3"/>
+        <v>7773999</v>
+      </c>
+      <c r="H110" s="1">
+        <f t="shared" si="4"/>
+        <v>927000</v>
+      </c>
+      <c r="I110" s="1">
+        <f t="shared" si="5"/>
+        <v>8700999</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="5">
         <v>42157</v>
       </c>
@@ -9259,8 +10587,20 @@
       <c r="F111" s="1">
         <v>458600</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G111" s="1">
+        <f t="shared" si="3"/>
+        <v>6154486</v>
+      </c>
+      <c r="H111" s="1">
+        <f t="shared" si="4"/>
+        <v>922505</v>
+      </c>
+      <c r="I111" s="1">
+        <f t="shared" si="5"/>
+        <v>7076991</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="5">
         <v>42171</v>
       </c>
@@ -9279,8 +10619,20 @@
       <c r="F112" s="1">
         <v>192500</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G112" s="1">
+        <f t="shared" si="3"/>
+        <v>7723209</v>
+      </c>
+      <c r="H112" s="1">
+        <f t="shared" si="4"/>
+        <v>779012</v>
+      </c>
+      <c r="I112" s="1">
+        <f t="shared" si="5"/>
+        <v>8502221</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="5">
         <v>42171</v>
       </c>
@@ -9299,8 +10651,20 @@
       <c r="F113" s="1">
         <v>387900</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G113" s="1">
+        <f t="shared" si="3"/>
+        <v>5449535</v>
+      </c>
+      <c r="H113" s="1">
+        <f t="shared" si="4"/>
+        <v>788077</v>
+      </c>
+      <c r="I113" s="1">
+        <f t="shared" si="5"/>
+        <v>6237612</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="5">
         <v>42171</v>
       </c>
@@ -9319,8 +10683,20 @@
       <c r="F114" s="1">
         <v>797000</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G114" s="1">
+        <f t="shared" si="3"/>
+        <v>9401000</v>
+      </c>
+      <c r="H114" s="1">
+        <f t="shared" si="4"/>
+        <v>1210000</v>
+      </c>
+      <c r="I114" s="1">
+        <f t="shared" si="5"/>
+        <v>10611000</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="5">
         <v>42174</v>
       </c>
@@ -9339,8 +10715,20 @@
       <c r="F115" s="1">
         <v>797000</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G115" s="1">
+        <f t="shared" si="3"/>
+        <v>8785800</v>
+      </c>
+      <c r="H115" s="1">
+        <f t="shared" si="4"/>
+        <v>1202000</v>
+      </c>
+      <c r="I115" s="1">
+        <f t="shared" si="5"/>
+        <v>9987800</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="5">
         <v>42181</v>
       </c>
@@ -9360,8 +10748,20 @@
         <f>289900+97464</f>
         <v>387364</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G116" s="1">
+        <f t="shared" si="3"/>
+        <v>5442087</v>
+      </c>
+      <c r="H116" s="1">
+        <f t="shared" si="4"/>
+        <v>793368</v>
+      </c>
+      <c r="I116" s="1">
+        <f t="shared" si="5"/>
+        <v>6235455</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="5">
         <v>42184</v>
       </c>
@@ -9380,8 +10780,20 @@
       <c r="F117" s="1">
         <v>297500</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G117" s="1">
+        <f t="shared" si="3"/>
+        <v>7097610</v>
+      </c>
+      <c r="H117" s="1">
+        <f t="shared" si="4"/>
+        <v>1318890</v>
+      </c>
+      <c r="I117" s="1">
+        <f t="shared" si="5"/>
+        <v>8416500</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="5">
         <v>42184</v>
       </c>
@@ -9400,8 +10812,20 @@
       <c r="F118" s="1">
         <v>1015800</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G118" s="1">
+        <f t="shared" si="3"/>
+        <v>10843500</v>
+      </c>
+      <c r="H118" s="1">
+        <f t="shared" si="4"/>
+        <v>1510800</v>
+      </c>
+      <c r="I118" s="1">
+        <f t="shared" si="5"/>
+        <v>12354300</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="5">
         <v>42184</v>
       </c>
@@ -9420,8 +10844,20 @@
       <c r="F119" s="1">
         <v>1015800</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G119" s="1">
+        <f t="shared" si="3"/>
+        <v>10843500</v>
+      </c>
+      <c r="H119" s="1">
+        <f t="shared" si="4"/>
+        <v>1510800</v>
+      </c>
+      <c r="I119" s="1">
+        <f t="shared" si="5"/>
+        <v>12354300</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="5">
         <v>42184</v>
       </c>
@@ -9440,8 +10876,20 @@
       <c r="F120" s="1">
         <v>1015800</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G120" s="1">
+        <f t="shared" si="3"/>
+        <v>10843500</v>
+      </c>
+      <c r="H120" s="1">
+        <f t="shared" si="4"/>
+        <v>1510800</v>
+      </c>
+      <c r="I120" s="1">
+        <f t="shared" si="5"/>
+        <v>12354300</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" s="5">
         <v>42191</v>
       </c>
@@ -9460,9 +10908,20 @@
       <c r="F121" s="1">
         <v>364300</v>
       </c>
-      <c r="G121" s="1"/>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G121" s="1">
+        <f t="shared" si="3"/>
+        <v>4713050</v>
+      </c>
+      <c r="H121" s="1">
+        <f t="shared" si="4"/>
+        <v>728825</v>
+      </c>
+      <c r="I121" s="1">
+        <f t="shared" si="5"/>
+        <v>5441875</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="5">
         <v>42195</v>
       </c>
@@ -9482,8 +10941,20 @@
       <c r="F122" s="1">
         <v>323000</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G122" s="1">
+        <f t="shared" si="3"/>
+        <v>7873231</v>
+      </c>
+      <c r="H122" s="1">
+        <f t="shared" si="4"/>
+        <v>937054</v>
+      </c>
+      <c r="I122" s="1">
+        <f t="shared" si="5"/>
+        <v>8810285</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="5">
         <v>42205</v>
       </c>
@@ -9502,8 +10973,20 @@
       <c r="F123" s="1">
         <v>754000</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G123" s="1">
+        <f t="shared" si="3"/>
+        <v>6031400</v>
+      </c>
+      <c r="H123" s="1">
+        <f t="shared" si="4"/>
+        <v>1188000</v>
+      </c>
+      <c r="I123" s="1">
+        <f t="shared" si="5"/>
+        <v>7219400</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="5">
         <v>42212</v>
       </c>
@@ -9522,8 +11005,20 @@
       <c r="F124" s="1">
         <v>414900</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G124" s="1">
+        <f t="shared" si="3"/>
+        <v>4711250</v>
+      </c>
+      <c r="H124" s="1">
+        <f t="shared" si="4"/>
+        <v>705425</v>
+      </c>
+      <c r="I124" s="1">
+        <f t="shared" si="5"/>
+        <v>5416675</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="5">
         <v>42213</v>
       </c>
@@ -9542,8 +11037,20 @@
       <c r="F125" s="1">
         <v>386900</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G125" s="1">
+        <f t="shared" si="3"/>
+        <v>5571473</v>
+      </c>
+      <c r="H125" s="1">
+        <f t="shared" si="4"/>
+        <v>821939</v>
+      </c>
+      <c r="I125" s="1">
+        <f t="shared" si="5"/>
+        <v>6393412</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="5">
         <v>42217</v>
       </c>
@@ -9562,8 +11069,20 @@
       <c r="F126" s="1">
         <v>833000</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G126" s="1">
+        <f t="shared" si="3"/>
+        <v>8842800</v>
+      </c>
+      <c r="H126" s="1">
+        <f t="shared" si="4"/>
+        <v>1237000</v>
+      </c>
+      <c r="I126" s="1">
+        <f t="shared" si="5"/>
+        <v>10079800</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" s="5">
         <v>42222</v>
       </c>
@@ -9582,8 +11101,20 @@
       <c r="F127" s="1">
         <v>409011</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G127" s="1">
+        <f t="shared" si="3"/>
+        <v>7921663</v>
+      </c>
+      <c r="H127" s="1">
+        <f t="shared" si="4"/>
+        <v>1208864</v>
+      </c>
+      <c r="I127" s="1">
+        <f t="shared" si="5"/>
+        <v>9130527</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" s="5">
         <v>42222</v>
       </c>
@@ -9604,8 +11135,20 @@
         <f>30000+218000+75000</f>
         <v>323000</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G128" s="1">
+        <f t="shared" si="3"/>
+        <v>7872548</v>
+      </c>
+      <c r="H128" s="1">
+        <f t="shared" si="4"/>
+        <v>937054</v>
+      </c>
+      <c r="I128" s="1">
+        <f t="shared" si="5"/>
+        <v>8809602</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="5">
         <v>42223</v>
       </c>
@@ -9626,8 +11169,20 @@
         <f>15000+196000+74000</f>
         <v>285000</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G129" s="1">
+        <f t="shared" si="3"/>
+        <v>4907796</v>
+      </c>
+      <c r="H129" s="1">
+        <f t="shared" si="4"/>
+        <v>1087967</v>
+      </c>
+      <c r="I129" s="1">
+        <f t="shared" si="5"/>
+        <v>5995763</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" s="5">
         <v>42227</v>
       </c>
@@ -9647,8 +11202,20 @@
       <c r="F130" s="1">
         <v>297500</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G130" s="1">
+        <f t="shared" si="3"/>
+        <v>7292643</v>
+      </c>
+      <c r="H130" s="1">
+        <f t="shared" si="4"/>
+        <v>903100</v>
+      </c>
+      <c r="I130" s="1">
+        <f t="shared" si="5"/>
+        <v>8195743</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" s="5">
         <v>42230</v>
       </c>
@@ -9667,8 +11234,20 @@
       <c r="F131" s="1">
         <v>300000</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G131" s="1">
+        <f t="shared" ref="G131:G194" si="6">C131+D131</f>
+        <v>7454000</v>
+      </c>
+      <c r="H131" s="1">
+        <f t="shared" ref="H131:H194" si="7">F131+E131</f>
+        <v>901000</v>
+      </c>
+      <c r="I131" s="1">
+        <f t="shared" ref="I131:I194" si="8">G131+H131</f>
+        <v>8355000</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="5">
         <v>42230</v>
       </c>
@@ -9687,8 +11266,20 @@
       <c r="F132" s="1">
         <v>633000</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G132" s="1">
+        <f t="shared" si="6"/>
+        <v>6197800</v>
+      </c>
+      <c r="H132" s="1">
+        <f t="shared" si="7"/>
+        <v>1039000</v>
+      </c>
+      <c r="I132" s="1">
+        <f t="shared" si="8"/>
+        <v>7236800</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" s="5">
         <v>42230</v>
       </c>
@@ -9707,8 +11298,20 @@
       <c r="F133" s="1">
         <v>300000</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G133" s="1">
+        <f t="shared" si="6"/>
+        <v>7660000</v>
+      </c>
+      <c r="H133" s="1">
+        <f t="shared" si="7"/>
+        <v>901000</v>
+      </c>
+      <c r="I133" s="1">
+        <f t="shared" si="8"/>
+        <v>8561000</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" s="5">
         <v>42230</v>
       </c>
@@ -9727,8 +11330,20 @@
       <c r="F134" s="1">
         <v>780000</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G134" s="1">
+        <f t="shared" si="6"/>
+        <v>10375600</v>
+      </c>
+      <c r="H134" s="1">
+        <f t="shared" si="7"/>
+        <v>1186000</v>
+      </c>
+      <c r="I134" s="1">
+        <f t="shared" si="8"/>
+        <v>11561600</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" s="5">
         <v>42233</v>
       </c>
@@ -9747,8 +11362,20 @@
       <c r="F135" s="1">
         <v>414900</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G135" s="1">
+        <f t="shared" si="6"/>
+        <v>4013250</v>
+      </c>
+      <c r="H135" s="1">
+        <f t="shared" si="7"/>
+        <v>705425</v>
+      </c>
+      <c r="I135" s="1">
+        <f t="shared" si="8"/>
+        <v>4718675</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" s="5">
         <v>42233</v>
       </c>
@@ -9767,8 +11394,20 @@
       <c r="F136" s="1">
         <v>97464</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G136" s="1">
+        <f t="shared" si="6"/>
+        <v>5449535</v>
+      </c>
+      <c r="H136" s="1">
+        <f t="shared" si="7"/>
+        <v>497641</v>
+      </c>
+      <c r="I136" s="1">
+        <f t="shared" si="8"/>
+        <v>5947176</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" s="5">
         <v>42233</v>
       </c>
@@ -9787,8 +11426,20 @@
       <c r="F137" s="1">
         <v>414900</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G137" s="1">
+        <f t="shared" si="6"/>
+        <v>4013250</v>
+      </c>
+      <c r="H137" s="1">
+        <f t="shared" si="7"/>
+        <v>705425</v>
+      </c>
+      <c r="I137" s="1">
+        <f t="shared" si="8"/>
+        <v>4718675</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" s="5">
         <v>42234</v>
       </c>
@@ -9807,8 +11458,20 @@
       <c r="F138" s="1">
         <v>222500</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G138" s="1">
+        <f t="shared" si="6"/>
+        <v>6334200</v>
+      </c>
+      <c r="H138" s="1">
+        <f t="shared" si="7"/>
+        <v>836500</v>
+      </c>
+      <c r="I138" s="1">
+        <f t="shared" si="8"/>
+        <v>7170700</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" s="5">
         <v>42235</v>
       </c>
@@ -9827,8 +11490,20 @@
       <c r="F139" s="1">
         <v>833000</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G139" s="1">
+        <f t="shared" si="6"/>
+        <v>8842800</v>
+      </c>
+      <c r="H139" s="1">
+        <f t="shared" si="7"/>
+        <v>1237000</v>
+      </c>
+      <c r="I139" s="1">
+        <f t="shared" si="8"/>
+        <v>10079800</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" s="5">
         <v>42240</v>
       </c>
@@ -9847,8 +11522,20 @@
       <c r="F140" s="1">
         <v>966500</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G140" s="1">
+        <f t="shared" si="6"/>
+        <v>8834000</v>
+      </c>
+      <c r="H140" s="1">
+        <f t="shared" si="7"/>
+        <v>1408500</v>
+      </c>
+      <c r="I140" s="1">
+        <f t="shared" si="8"/>
+        <v>10242500</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" s="5">
         <v>42240</v>
       </c>
@@ -9867,8 +11554,20 @@
       <c r="F141" s="1">
         <v>966500</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G141" s="1">
+        <f t="shared" si="6"/>
+        <v>8834000</v>
+      </c>
+      <c r="H141" s="1">
+        <f t="shared" si="7"/>
+        <v>1408500</v>
+      </c>
+      <c r="I141" s="1">
+        <f t="shared" si="8"/>
+        <v>10242500</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" s="5">
         <v>42247</v>
       </c>
@@ -9887,8 +11586,20 @@
       <c r="F142" s="1">
         <v>223000</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G142" s="1">
+        <f t="shared" si="6"/>
+        <v>7717000</v>
+      </c>
+      <c r="H142" s="1">
+        <f t="shared" si="7"/>
+        <v>873000</v>
+      </c>
+      <c r="I142" s="1">
+        <f t="shared" si="8"/>
+        <v>8590000</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" s="5">
         <v>42248</v>
       </c>
@@ -9907,8 +11618,20 @@
       <c r="F143" s="1">
         <v>297500</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G143" s="1">
+        <f t="shared" si="6"/>
+        <v>7299356</v>
+      </c>
+      <c r="H143" s="1">
+        <f t="shared" si="7"/>
+        <v>908144</v>
+      </c>
+      <c r="I143" s="1">
+        <f t="shared" si="8"/>
+        <v>8207500</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" s="5">
         <v>42250</v>
       </c>
@@ -9927,8 +11650,20 @@
       <c r="F144" s="1">
         <v>679196</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G144" s="1">
+        <f t="shared" si="6"/>
+        <v>4838925</v>
+      </c>
+      <c r="H144" s="1">
+        <f t="shared" si="7"/>
+        <v>879162</v>
+      </c>
+      <c r="I144" s="1">
+        <f t="shared" si="8"/>
+        <v>5718087</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" s="5">
         <v>42261</v>
       </c>
@@ -9947,8 +11682,20 @@
       <c r="F145" s="1">
         <v>222500</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G145" s="1">
+        <f t="shared" si="6"/>
+        <v>7646200</v>
+      </c>
+      <c r="H145" s="1">
+        <f t="shared" si="7"/>
+        <v>823500</v>
+      </c>
+      <c r="I145" s="1">
+        <f t="shared" si="8"/>
+        <v>8469700</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" s="5">
         <v>42262</v>
       </c>
@@ -9967,8 +11714,20 @@
       <c r="F146" s="1">
         <v>300000</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G146" s="1">
+        <f t="shared" si="6"/>
+        <v>7655000</v>
+      </c>
+      <c r="H146" s="1">
+        <f t="shared" si="7"/>
+        <v>901000</v>
+      </c>
+      <c r="I146" s="1">
+        <f t="shared" si="8"/>
+        <v>8556000</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" s="5">
         <v>42262</v>
       </c>
@@ -9988,8 +11747,20 @@
       <c r="F147" s="1">
         <v>300000</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G147" s="1">
+        <f t="shared" si="6"/>
+        <v>7360000</v>
+      </c>
+      <c r="H147" s="1">
+        <f t="shared" si="7"/>
+        <v>901000</v>
+      </c>
+      <c r="I147" s="1">
+        <f t="shared" si="8"/>
+        <v>8261000</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" s="5">
         <v>42262</v>
       </c>
@@ -10009,8 +11780,20 @@
         <f>110011+299000</f>
         <v>409011</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G148" s="1">
+        <f t="shared" si="6"/>
+        <v>7821663</v>
+      </c>
+      <c r="H148" s="1">
+        <f t="shared" si="7"/>
+        <v>1208864</v>
+      </c>
+      <c r="I148" s="1">
+        <f t="shared" si="8"/>
+        <v>9030527</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" s="5">
         <v>42262</v>
       </c>
@@ -10029,8 +11812,20 @@
       <c r="F149" s="1">
         <v>386900</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G149" s="1">
+        <f t="shared" si="6"/>
+        <v>5688781</v>
+      </c>
+      <c r="H149" s="1">
+        <f t="shared" si="7"/>
+        <v>1091080</v>
+      </c>
+      <c r="I149" s="1">
+        <f t="shared" si="8"/>
+        <v>6779861</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" s="5">
         <v>42269</v>
       </c>
@@ -10050,8 +11845,20 @@
       <c r="F150" s="1">
         <v>300000</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G150" s="1">
+        <f t="shared" si="6"/>
+        <v>7360000</v>
+      </c>
+      <c r="H150" s="1">
+        <f t="shared" si="7"/>
+        <v>901000</v>
+      </c>
+      <c r="I150" s="1">
+        <f t="shared" si="8"/>
+        <v>8261000</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" s="5">
         <v>42269</v>
       </c>
@@ -10070,8 +11877,20 @@
       <c r="F151" s="1">
         <v>394900</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G151" s="1">
+        <f t="shared" si="6"/>
+        <v>5113963</v>
+      </c>
+      <c r="H151" s="1">
+        <f t="shared" si="7"/>
+        <v>805480</v>
+      </c>
+      <c r="I151" s="1">
+        <f t="shared" si="8"/>
+        <v>5919443</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" s="5">
         <v>42269</v>
       </c>
@@ -10090,8 +11909,20 @@
       <c r="F152" s="1">
         <v>222500</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G152" s="1">
+        <f t="shared" si="6"/>
+        <v>7633000</v>
+      </c>
+      <c r="H152" s="1">
+        <f t="shared" si="7"/>
+        <v>823500</v>
+      </c>
+      <c r="I152" s="1">
+        <f t="shared" si="8"/>
+        <v>8456500</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" s="5">
         <v>42271</v>
       </c>
@@ -10111,8 +11942,20 @@
       <c r="F153" s="1">
         <v>300000</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G153" s="1">
+        <f t="shared" si="6"/>
+        <v>7954875</v>
+      </c>
+      <c r="H153" s="1">
+        <f t="shared" si="7"/>
+        <v>1026125</v>
+      </c>
+      <c r="I153" s="1">
+        <f t="shared" si="8"/>
+        <v>8981000</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" s="5">
         <v>42276</v>
       </c>
@@ -10132,8 +11975,20 @@
         <f>375000+193071</f>
         <v>568071</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G154" s="1">
+        <f t="shared" si="6"/>
+        <v>10923056</v>
+      </c>
+      <c r="H154" s="1">
+        <f t="shared" si="7"/>
+        <v>1104264</v>
+      </c>
+      <c r="I154" s="1">
+        <f t="shared" si="8"/>
+        <v>12027320</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" s="5">
         <v>42276</v>
       </c>
@@ -10152,8 +12007,20 @@
       <c r="F155" s="1">
         <v>735000</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G155" s="1">
+        <f t="shared" si="6"/>
+        <v>9940250</v>
+      </c>
+      <c r="H155" s="1">
+        <f t="shared" si="7"/>
+        <v>1155000</v>
+      </c>
+      <c r="I155" s="1">
+        <f t="shared" si="8"/>
+        <v>11095250</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" s="5">
         <v>42276</v>
       </c>
@@ -10172,8 +12039,20 @@
       <c r="F156" s="1">
         <v>752000</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G156" s="1">
+        <f t="shared" si="6"/>
+        <v>8316188</v>
+      </c>
+      <c r="H156" s="1">
+        <f t="shared" si="7"/>
+        <v>1157000</v>
+      </c>
+      <c r="I156" s="1">
+        <f t="shared" si="8"/>
+        <v>9473188</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" s="5">
         <v>42276</v>
       </c>
@@ -10192,8 +12071,20 @@
       <c r="F157" s="1">
         <v>382900</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G157" s="1">
+        <f t="shared" si="6"/>
+        <v>5181799</v>
+      </c>
+      <c r="H157" s="1">
+        <f t="shared" si="7"/>
+        <v>781474</v>
+      </c>
+      <c r="I157" s="1">
+        <f t="shared" si="8"/>
+        <v>5963273</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" s="5">
         <v>42277</v>
       </c>
@@ -10214,8 +12105,20 @@
         <f>30000+196000+74000</f>
         <v>300000</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G158" s="1">
+        <f t="shared" si="6"/>
+        <v>8155400</v>
+      </c>
+      <c r="H158" s="1">
+        <f t="shared" si="7"/>
+        <v>1076600</v>
+      </c>
+      <c r="I158" s="1">
+        <f t="shared" si="8"/>
+        <v>9232000</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" s="5">
         <v>42283</v>
       </c>
@@ -10234,9 +12137,20 @@
       <c r="F159" s="1">
         <v>414900</v>
       </c>
-      <c r="G159" s="1"/>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G159" s="1">
+        <f t="shared" si="6"/>
+        <v>4312250</v>
+      </c>
+      <c r="H159" s="1">
+        <f t="shared" si="7"/>
+        <v>705425</v>
+      </c>
+      <c r="I159" s="1">
+        <f t="shared" si="8"/>
+        <v>5017675</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" s="5">
         <v>42283</v>
       </c>
@@ -10255,8 +12169,20 @@
       <c r="F160" s="1">
         <v>401000</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G160" s="1">
+        <f t="shared" si="6"/>
+        <v>7532417</v>
+      </c>
+      <c r="H160" s="1">
+        <f t="shared" si="7"/>
+        <v>918737</v>
+      </c>
+      <c r="I160" s="1">
+        <f t="shared" si="8"/>
+        <v>8451154</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" s="5">
         <v>42289</v>
       </c>
@@ -10275,9 +12201,20 @@
       <c r="F161" s="1">
         <v>414900</v>
       </c>
-      <c r="G161" s="1"/>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G161" s="1">
+        <f t="shared" si="6"/>
+        <v>4013250</v>
+      </c>
+      <c r="H161" s="1">
+        <f t="shared" si="7"/>
+        <v>705425</v>
+      </c>
+      <c r="I161" s="1">
+        <f t="shared" si="8"/>
+        <v>4718675</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" s="5">
         <v>42290</v>
       </c>
@@ -10296,8 +12233,20 @@
       <c r="F162" s="1">
         <v>385900</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G162" s="1">
+        <f t="shared" si="6"/>
+        <v>5221023</v>
+      </c>
+      <c r="H162" s="1">
+        <f t="shared" si="7"/>
+        <v>802138</v>
+      </c>
+      <c r="I162" s="1">
+        <f t="shared" si="8"/>
+        <v>6023161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" s="5">
         <v>42290</v>
       </c>
@@ -10316,8 +12265,20 @@
       <c r="F163" s="1">
         <v>385900</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G163" s="1">
+        <f t="shared" si="6"/>
+        <v>5217556</v>
+      </c>
+      <c r="H163" s="1">
+        <f t="shared" si="7"/>
+        <v>797837</v>
+      </c>
+      <c r="I163" s="1">
+        <f t="shared" si="8"/>
+        <v>6015393</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" s="5">
         <v>42290</v>
       </c>
@@ -10336,8 +12297,20 @@
       <c r="F164" s="1">
         <v>662000</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G164" s="1">
+        <f t="shared" si="6"/>
+        <v>6239750</v>
+      </c>
+      <c r="H164" s="1">
+        <f t="shared" si="7"/>
+        <v>1081000</v>
+      </c>
+      <c r="I164" s="1">
+        <f t="shared" si="8"/>
+        <v>7320750</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" s="5">
         <v>42290</v>
       </c>
@@ -10359,8 +12332,20 @@
         <f>163550+633000</f>
         <v>796550</v>
       </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G165" s="1">
+        <f t="shared" si="6"/>
+        <v>6660704</v>
+      </c>
+      <c r="H165" s="1">
+        <f t="shared" si="7"/>
+        <v>1463038</v>
+      </c>
+      <c r="I165" s="1">
+        <f t="shared" si="8"/>
+        <v>8123742</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" s="5">
         <v>42291</v>
       </c>
@@ -10380,8 +12365,20 @@
       <c r="F166" s="1">
         <v>300000</v>
       </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G166" s="1">
+        <f t="shared" si="6"/>
+        <v>8155400</v>
+      </c>
+      <c r="H166" s="1">
+        <f t="shared" si="7"/>
+        <v>1076600</v>
+      </c>
+      <c r="I166" s="1">
+        <f t="shared" si="8"/>
+        <v>9232000</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" s="5">
         <v>42297</v>
       </c>
@@ -10400,8 +12397,20 @@
       <c r="F167" s="1">
         <v>795000</v>
       </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G167" s="1">
+        <f t="shared" si="6"/>
+        <v>8786000</v>
+      </c>
+      <c r="H167" s="1">
+        <f t="shared" si="7"/>
+        <v>1203000</v>
+      </c>
+      <c r="I167" s="1">
+        <f t="shared" si="8"/>
+        <v>9989000</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" s="5">
         <v>42297</v>
       </c>
@@ -10420,8 +12429,20 @@
       <c r="F168" s="1">
         <v>962000</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G168" s="1">
+        <f t="shared" si="6"/>
+        <v>9768188</v>
+      </c>
+      <c r="H168" s="1">
+        <f t="shared" si="7"/>
+        <v>1367000</v>
+      </c>
+      <c r="I168" s="1">
+        <f t="shared" si="8"/>
+        <v>11135188</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" s="5">
         <v>42297</v>
       </c>
@@ -10441,8 +12462,20 @@
       <c r="F169" s="1">
         <v>222500</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G169" s="1">
+        <f t="shared" si="6"/>
+        <v>7646200</v>
+      </c>
+      <c r="H169" s="1">
+        <f t="shared" si="7"/>
+        <v>823500</v>
+      </c>
+      <c r="I169" s="1">
+        <f t="shared" si="8"/>
+        <v>8469700</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" s="5">
         <v>42301</v>
       </c>
@@ -10461,8 +12494,20 @@
       <c r="F170" s="1">
         <v>962700</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G170" s="1">
+        <f t="shared" si="6"/>
+        <v>8721000</v>
+      </c>
+      <c r="H170" s="1">
+        <f t="shared" si="7"/>
+        <v>1405700</v>
+      </c>
+      <c r="I170" s="1">
+        <f t="shared" si="8"/>
+        <v>10126700</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" s="5">
         <v>42301</v>
       </c>
@@ -10481,8 +12526,20 @@
       <c r="F171" s="1">
         <v>962700</v>
       </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G171" s="1">
+        <f t="shared" si="6"/>
+        <v>8721000</v>
+      </c>
+      <c r="H171" s="1">
+        <f t="shared" si="7"/>
+        <v>1405700</v>
+      </c>
+      <c r="I171" s="1">
+        <f t="shared" si="8"/>
+        <v>10126700</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" s="5">
         <v>42304</v>
       </c>
@@ -10502,8 +12559,20 @@
       <c r="F172" s="1">
         <v>297500</v>
       </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G172" s="1">
+        <f t="shared" si="6"/>
+        <v>7091610</v>
+      </c>
+      <c r="H172" s="1">
+        <f t="shared" si="7"/>
+        <v>1318890</v>
+      </c>
+      <c r="I172" s="1">
+        <f t="shared" si="8"/>
+        <v>8410500</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" s="5">
         <v>42310</v>
       </c>
@@ -10523,8 +12592,20 @@
       <c r="F173" s="1">
         <v>202000</v>
       </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G173" s="1">
+        <f t="shared" si="6"/>
+        <v>10253304</v>
+      </c>
+      <c r="H173" s="1">
+        <f t="shared" si="7"/>
+        <v>858696</v>
+      </c>
+      <c r="I173" s="1">
+        <f t="shared" si="8"/>
+        <v>11112000</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174" s="5">
         <v>42311</v>
       </c>
@@ -10543,8 +12624,20 @@
       <c r="F174" s="1">
         <v>795000</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G174" s="1">
+        <f t="shared" si="6"/>
+        <v>8785800</v>
+      </c>
+      <c r="H174" s="1">
+        <f t="shared" si="7"/>
+        <v>1203000</v>
+      </c>
+      <c r="I174" s="1">
+        <f t="shared" si="8"/>
+        <v>9988800</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" s="5">
         <v>42317</v>
       </c>
@@ -10563,8 +12656,20 @@
       <c r="F175" s="1">
         <v>860600</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G175" s="1">
+        <f t="shared" si="6"/>
+        <v>5512200</v>
+      </c>
+      <c r="H175" s="1">
+        <f t="shared" si="7"/>
+        <v>1334600</v>
+      </c>
+      <c r="I175" s="1">
+        <f t="shared" si="8"/>
+        <v>6846800</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" s="5">
         <v>42324</v>
       </c>
@@ -10583,8 +12688,20 @@
       <c r="F176" s="1">
         <v>323000</v>
       </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G176" s="1">
+        <f t="shared" si="6"/>
+        <v>5823000</v>
+      </c>
+      <c r="H176" s="1">
+        <f t="shared" si="7"/>
+        <v>692000</v>
+      </c>
+      <c r="I176" s="1">
+        <f t="shared" si="8"/>
+        <v>6515000</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" s="5">
         <v>42328</v>
       </c>
@@ -10604,8 +12721,20 @@
       <c r="F177" s="1">
         <v>300000</v>
       </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G177" s="1">
+        <f t="shared" si="6"/>
+        <v>7360000</v>
+      </c>
+      <c r="H177" s="1">
+        <f t="shared" si="7"/>
+        <v>901000</v>
+      </c>
+      <c r="I177" s="1">
+        <f t="shared" si="8"/>
+        <v>8261000</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" s="5">
         <v>42338</v>
       </c>
@@ -10624,9 +12753,20 @@
       <c r="F178" s="1">
         <v>414900</v>
       </c>
-      <c r="G178" s="1"/>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G178" s="1">
+        <f t="shared" si="6"/>
+        <v>4013250</v>
+      </c>
+      <c r="H178" s="1">
+        <f t="shared" si="7"/>
+        <v>705425</v>
+      </c>
+      <c r="I178" s="1">
+        <f t="shared" si="8"/>
+        <v>4718675</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" s="5">
         <v>42339</v>
       </c>
@@ -10645,8 +12785,20 @@
       <c r="F179" s="1">
         <v>679157</v>
       </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G179" s="1">
+        <f t="shared" si="6"/>
+        <v>4840425</v>
+      </c>
+      <c r="H179" s="1">
+        <f t="shared" si="7"/>
+        <v>879123</v>
+      </c>
+      <c r="I179" s="1">
+        <f t="shared" si="8"/>
+        <v>5719548</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" s="5">
         <v>42345</v>
       </c>
@@ -10668,8 +12820,20 @@
         <f>633000+163550</f>
         <v>796550</v>
       </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G180" s="1">
+        <f t="shared" si="6"/>
+        <v>6660704</v>
+      </c>
+      <c r="H180" s="1">
+        <f t="shared" si="7"/>
+        <v>1471438</v>
+      </c>
+      <c r="I180" s="1">
+        <f t="shared" si="8"/>
+        <v>8132142</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181" s="5">
         <v>42346</v>
       </c>
@@ -10688,8 +12852,20 @@
       <c r="F181" s="1">
         <v>820000</v>
       </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G181" s="1">
+        <f t="shared" si="6"/>
+        <v>9675000</v>
+      </c>
+      <c r="H181" s="1">
+        <f t="shared" si="7"/>
+        <v>1244000</v>
+      </c>
+      <c r="I181" s="1">
+        <f t="shared" si="8"/>
+        <v>10919000</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182" s="5">
         <v>42347</v>
       </c>
@@ -10710,8 +12886,20 @@
         <f>12451+153747.22+65931.77</f>
         <v>232129.99</v>
       </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G182" s="1">
+        <f t="shared" si="6"/>
+        <v>6866454.2600000007</v>
+      </c>
+      <c r="H182" s="1">
+        <f t="shared" si="7"/>
+        <v>820241.28</v>
+      </c>
+      <c r="I182" s="1">
+        <f t="shared" si="8"/>
+        <v>7686695.540000001</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" s="5">
         <v>42353</v>
       </c>
@@ -10730,8 +12918,20 @@
       <c r="F183" s="1">
         <v>973200</v>
       </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G183" s="1">
+        <f t="shared" si="6"/>
+        <v>9449500</v>
+      </c>
+      <c r="H183" s="1">
+        <f t="shared" si="7"/>
+        <v>1429200</v>
+      </c>
+      <c r="I183" s="1">
+        <f t="shared" si="8"/>
+        <v>10878700</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" s="5">
         <v>42353</v>
       </c>
@@ -10752,8 +12952,20 @@
         <f>11859.75+151436.49+56643.09</f>
         <v>219939.33</v>
       </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G184" s="1">
+        <f t="shared" si="6"/>
+        <v>8621205.8200000003</v>
+      </c>
+      <c r="H184" s="1">
+        <f t="shared" si="7"/>
+        <v>850552.53999999992</v>
+      </c>
+      <c r="I184" s="1">
+        <f t="shared" si="8"/>
+        <v>9471758.3599999994</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" s="5">
         <v>42357</v>
       </c>
@@ -10772,8 +12984,20 @@
       <c r="F185" s="1">
         <v>296900</v>
       </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G185" s="1">
+        <f t="shared" si="6"/>
+        <v>2592046</v>
+      </c>
+      <c r="H185" s="1">
+        <f t="shared" si="7"/>
+        <v>463751</v>
+      </c>
+      <c r="I185" s="1">
+        <f t="shared" si="8"/>
+        <v>3055797</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186" s="5">
         <v>42357</v>
       </c>
@@ -10792,8 +13016,20 @@
       <c r="F186" s="1">
         <v>767134.88</v>
       </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G186" s="1">
+        <f t="shared" si="6"/>
+        <v>8019122.2599999998</v>
+      </c>
+      <c r="H186" s="1">
+        <f t="shared" si="7"/>
+        <v>1621634.88</v>
+      </c>
+      <c r="I186" s="1">
+        <f t="shared" si="8"/>
+        <v>9640757.1400000006</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187" s="5">
         <v>42360</v>
       </c>
@@ -10813,8 +13049,20 @@
       <c r="F187" s="1">
         <v>300000</v>
       </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G187" s="1">
+        <f t="shared" si="6"/>
+        <v>7360000</v>
+      </c>
+      <c r="H187" s="1">
+        <f t="shared" si="7"/>
+        <v>901000</v>
+      </c>
+      <c r="I187" s="1">
+        <f t="shared" si="8"/>
+        <v>8261000</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188" s="5">
         <v>42360</v>
       </c>
@@ -10833,8 +13081,20 @@
       <c r="F188" s="1">
         <v>284484</v>
       </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G188" s="1">
+        <f t="shared" si="6"/>
+        <v>3299834</v>
+      </c>
+      <c r="H188" s="1">
+        <f t="shared" si="7"/>
+        <v>469958</v>
+      </c>
+      <c r="I188" s="1">
+        <f t="shared" si="8"/>
+        <v>3769792</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189" s="5">
         <v>42369</v>
       </c>
@@ -10853,8 +13113,20 @@
       <c r="F189" s="1">
         <v>1035800</v>
       </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G189" s="1">
+        <f t="shared" si="6"/>
+        <v>8706900</v>
+      </c>
+      <c r="H189" s="1">
+        <f t="shared" si="7"/>
+        <v>1419800</v>
+      </c>
+      <c r="I189" s="1">
+        <f t="shared" si="8"/>
+        <v>10126700</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190" s="5">
         <v>42380</v>
       </c>
@@ -10873,8 +13145,20 @@
       <c r="F190" s="1">
         <v>779000</v>
       </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G190" s="1">
+        <f t="shared" si="6"/>
+        <v>2124391</v>
+      </c>
+      <c r="H190" s="1">
+        <f t="shared" si="7"/>
+        <v>1222415</v>
+      </c>
+      <c r="I190" s="1">
+        <f t="shared" si="8"/>
+        <v>3346806</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191" s="5">
         <v>42382</v>
       </c>
@@ -10894,8 +13178,20 @@
       <c r="F191" s="1">
         <v>300000</v>
       </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G191" s="1">
+        <f t="shared" si="6"/>
+        <v>6148000</v>
+      </c>
+      <c r="H191" s="1">
+        <f t="shared" si="7"/>
+        <v>914000</v>
+      </c>
+      <c r="I191" s="1">
+        <f t="shared" si="8"/>
+        <v>7062000</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192" s="5">
         <v>42382</v>
       </c>
@@ -10915,8 +13211,20 @@
       <c r="F192" s="1">
         <v>300000</v>
       </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G192" s="1">
+        <f t="shared" si="6"/>
+        <v>6138000</v>
+      </c>
+      <c r="H192" s="1">
+        <f t="shared" si="7"/>
+        <v>914000</v>
+      </c>
+      <c r="I192" s="1">
+        <f t="shared" si="8"/>
+        <v>7052000</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193" s="5">
         <v>42401</v>
       </c>
@@ -10936,8 +13244,20 @@
       <c r="F193" s="1">
         <v>779000</v>
       </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G193" s="1">
+        <f t="shared" si="6"/>
+        <v>2122091</v>
+      </c>
+      <c r="H193" s="1">
+        <f t="shared" si="7"/>
+        <v>1222415</v>
+      </c>
+      <c r="I193" s="1">
+        <f t="shared" si="8"/>
+        <v>3344506</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194" s="5">
         <v>42404</v>
       </c>
@@ -10956,8 +13276,20 @@
       <c r="F194" s="1">
         <v>284484</v>
       </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G194" s="1">
+        <f t="shared" si="6"/>
+        <v>3299534</v>
+      </c>
+      <c r="H194" s="1">
+        <f t="shared" si="7"/>
+        <v>469958</v>
+      </c>
+      <c r="I194" s="1">
+        <f t="shared" si="8"/>
+        <v>3769492</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195" s="5">
         <v>42408</v>
       </c>
@@ -10977,8 +13309,20 @@
       <c r="F195" s="1">
         <v>300000</v>
       </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G195" s="1">
+        <f t="shared" ref="G195:G258" si="9">C195+D195</f>
+        <v>6697833.4000000004</v>
+      </c>
+      <c r="H195" s="1">
+        <f t="shared" ref="H195:H258" si="10">F195+E195</f>
+        <v>840201.46</v>
+      </c>
+      <c r="I195" s="1">
+        <f t="shared" ref="I195:I258" si="11">G195+H195</f>
+        <v>7538034.8600000003</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196" s="5">
         <v>42506</v>
       </c>
@@ -10997,8 +13341,20 @@
       <c r="F196" s="1">
         <v>901000</v>
       </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G196" s="1">
+        <f t="shared" si="9"/>
+        <v>12083000</v>
+      </c>
+      <c r="H196" s="1">
+        <f t="shared" si="10"/>
+        <v>1356000</v>
+      </c>
+      <c r="I196" s="1">
+        <f t="shared" si="11"/>
+        <v>13439000</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197" s="5">
         <v>42540</v>
       </c>
@@ -11017,8 +13373,20 @@
       <c r="F197" s="1">
         <v>828500</v>
       </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G197" s="1">
+        <f t="shared" si="9"/>
+        <v>9489300</v>
+      </c>
+      <c r="H197" s="1">
+        <f t="shared" si="10"/>
+        <v>1179500</v>
+      </c>
+      <c r="I197" s="1">
+        <f t="shared" si="11"/>
+        <v>10668800</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198" s="5">
         <v>42559</v>
       </c>
@@ -11037,8 +13405,20 @@
       <c r="F198" s="1">
         <v>775421.75</v>
       </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G198" s="1">
+        <f t="shared" si="9"/>
+        <v>7229772</v>
+      </c>
+      <c r="H198" s="1">
+        <f t="shared" si="10"/>
+        <v>1706921.75</v>
+      </c>
+      <c r="I198" s="1">
+        <f t="shared" si="11"/>
+        <v>8936693.75</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199" s="5">
         <v>42577</v>
       </c>
@@ -11059,8 +13439,20 @@
         <f>142000+7500+46500</f>
         <v>196000</v>
       </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G199" s="1">
+        <f t="shared" si="9"/>
+        <v>2922866</v>
+      </c>
+      <c r="H199" s="1">
+        <f t="shared" si="10"/>
+        <v>488634</v>
+      </c>
+      <c r="I199" s="1">
+        <f t="shared" si="11"/>
+        <v>3411500</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200" s="5">
         <v>42587</v>
       </c>
@@ -11079,8 +13471,20 @@
       <c r="F200" s="1">
         <v>336695</v>
       </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G200" s="1">
+        <f t="shared" si="9"/>
+        <v>7931112</v>
+      </c>
+      <c r="H200" s="1">
+        <f t="shared" si="10"/>
+        <v>1191195</v>
+      </c>
+      <c r="I200" s="1">
+        <f t="shared" si="11"/>
+        <v>9122307</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201" s="5">
         <v>42590</v>
       </c>
@@ -11101,8 +13505,20 @@
         <f>12000+142000+46500</f>
         <v>200500</v>
       </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G201" s="1">
+        <f t="shared" si="9"/>
+        <v>4236500</v>
+      </c>
+      <c r="H201" s="1">
+        <f t="shared" si="10"/>
+        <v>617000</v>
+      </c>
+      <c r="I201" s="1">
+        <f t="shared" si="11"/>
+        <v>4853500</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202" s="5">
         <v>42590</v>
       </c>
@@ -11123,8 +13539,20 @@
         <f>15000+196000+415000</f>
         <v>626000</v>
       </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G202" s="1">
+        <f t="shared" si="9"/>
+        <v>4779750</v>
+      </c>
+      <c r="H202" s="1">
+        <f t="shared" si="10"/>
+        <v>1078500</v>
+      </c>
+      <c r="I202" s="1">
+        <f t="shared" si="11"/>
+        <v>5858250</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A203" s="5">
         <v>42591</v>
       </c>
@@ -11143,8 +13571,20 @@
       <c r="F203" s="1">
         <v>784635</v>
       </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G203" s="1">
+        <f t="shared" si="9"/>
+        <v>6740123</v>
+      </c>
+      <c r="H203" s="1">
+        <f t="shared" si="10"/>
+        <v>1244635</v>
+      </c>
+      <c r="I203" s="1">
+        <f t="shared" si="11"/>
+        <v>7984758</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A204" s="5">
         <v>42592</v>
       </c>
@@ -11166,8 +13606,20 @@
         <f>71500+652940</f>
         <v>724440</v>
       </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G204" s="1">
+        <f t="shared" si="9"/>
+        <v>1640478</v>
+      </c>
+      <c r="H204" s="1">
+        <f t="shared" si="10"/>
+        <v>1011840</v>
+      </c>
+      <c r="I204" s="1">
+        <f t="shared" si="11"/>
+        <v>2652318</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A205" s="5">
         <v>42594</v>
       </c>
@@ -11186,8 +13638,20 @@
       <c r="F205" s="1">
         <v>973200</v>
       </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G205" s="1">
+        <f t="shared" si="9"/>
+        <v>9449500</v>
+      </c>
+      <c r="H205" s="1">
+        <f t="shared" si="10"/>
+        <v>1429200</v>
+      </c>
+      <c r="I205" s="1">
+        <f t="shared" si="11"/>
+        <v>10878700</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206" s="5">
         <v>42597</v>
       </c>
@@ -11206,8 +13670,20 @@
       <c r="F206" s="1">
         <v>973200</v>
       </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G206" s="1">
+        <f t="shared" si="9"/>
+        <v>9449500</v>
+      </c>
+      <c r="H206" s="1">
+        <f t="shared" si="10"/>
+        <v>1429200</v>
+      </c>
+      <c r="I206" s="1">
+        <f t="shared" si="11"/>
+        <v>10878700</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A207" s="5">
         <v>42597</v>
       </c>
@@ -11226,8 +13702,20 @@
       <c r="F207" s="1">
         <v>314730</v>
       </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G207" s="1">
+        <f t="shared" si="9"/>
+        <v>6186977</v>
+      </c>
+      <c r="H207" s="1">
+        <f t="shared" si="10"/>
+        <v>1018930</v>
+      </c>
+      <c r="I207" s="1">
+        <f t="shared" si="11"/>
+        <v>7205907</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208" s="5">
         <v>42597</v>
       </c>
@@ -11246,8 +13734,20 @@
       <c r="F208" s="1">
         <v>973200</v>
       </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G208" s="1">
+        <f t="shared" si="9"/>
+        <v>9449500</v>
+      </c>
+      <c r="H208" s="1">
+        <f t="shared" si="10"/>
+        <v>1429200</v>
+      </c>
+      <c r="I208" s="1">
+        <f t="shared" si="11"/>
+        <v>10878700</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209" s="5">
         <v>42598</v>
       </c>
@@ -11266,8 +13766,20 @@
       <c r="F209" s="1">
         <v>107690</v>
       </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G209" s="1">
+        <f t="shared" si="9"/>
+        <v>8081999</v>
+      </c>
+      <c r="H209" s="1">
+        <f t="shared" si="10"/>
+        <v>668076</v>
+      </c>
+      <c r="I209" s="1">
+        <f t="shared" si="11"/>
+        <v>8750075</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210" s="5">
         <v>42598</v>
       </c>
@@ -11286,8 +13798,20 @@
       <c r="F210" s="1">
         <v>982220</v>
       </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G210" s="1">
+        <f t="shared" si="9"/>
+        <v>8402895</v>
+      </c>
+      <c r="H210" s="1">
+        <f t="shared" si="10"/>
+        <v>1610420</v>
+      </c>
+      <c r="I210" s="1">
+        <f t="shared" si="11"/>
+        <v>10013315</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211" s="5">
         <v>42598</v>
       </c>
@@ -11306,8 +13830,20 @@
       <c r="F211" s="1">
         <v>792000</v>
       </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G211" s="1">
+        <f t="shared" si="9"/>
+        <v>9015960</v>
+      </c>
+      <c r="H211" s="1">
+        <f t="shared" si="10"/>
+        <v>1157000</v>
+      </c>
+      <c r="I211" s="1">
+        <f t="shared" si="11"/>
+        <v>10172960</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212" s="5">
         <v>42604</v>
       </c>
@@ -11326,8 +13862,20 @@
       <c r="F212" s="1">
         <v>354020</v>
       </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G212" s="1">
+        <f t="shared" si="9"/>
+        <v>8402895</v>
+      </c>
+      <c r="H212" s="1">
+        <f t="shared" si="10"/>
+        <v>982220</v>
+      </c>
+      <c r="I212" s="1">
+        <f t="shared" si="11"/>
+        <v>9385115</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213" s="5">
         <v>42604</v>
       </c>
@@ -11346,8 +13894,20 @@
       <c r="F213" s="1">
         <v>236700</v>
       </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G213" s="1">
+        <f t="shared" si="9"/>
+        <v>3147900</v>
+      </c>
+      <c r="H213" s="1">
+        <f t="shared" si="10"/>
+        <v>482800</v>
+      </c>
+      <c r="I213" s="1">
+        <f t="shared" si="11"/>
+        <v>3630700</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214" s="5">
         <v>42604</v>
       </c>
@@ -11369,8 +13929,20 @@
         <f>53000+696940</f>
         <v>749940</v>
       </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G214" s="1">
+        <f t="shared" si="9"/>
+        <v>1794500</v>
+      </c>
+      <c r="H214" s="1">
+        <f t="shared" si="10"/>
+        <v>1037740</v>
+      </c>
+      <c r="I214" s="1">
+        <f t="shared" si="11"/>
+        <v>2832240</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215" s="5">
         <v>42606</v>
       </c>
@@ -11391,8 +13963,20 @@
         <f>652940+68000</f>
         <v>720940</v>
       </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G215" s="1">
+        <f t="shared" si="9"/>
+        <v>1934987.47</v>
+      </c>
+      <c r="H215" s="1">
+        <f t="shared" si="10"/>
+        <v>1010340</v>
+      </c>
+      <c r="I215" s="1">
+        <f t="shared" si="11"/>
+        <v>2945327.4699999997</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216" s="5">
         <v>42611</v>
       </c>
@@ -11411,8 +13995,20 @@
       <c r="F216" s="1">
         <v>107690</v>
       </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G216" s="1">
+        <f t="shared" si="9"/>
+        <v>7301783</v>
+      </c>
+      <c r="H216" s="1">
+        <f t="shared" si="10"/>
+        <v>631653</v>
+      </c>
+      <c r="I216" s="1">
+        <f t="shared" si="11"/>
+        <v>7933436</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217" s="5">
         <v>42612</v>
       </c>
@@ -11431,8 +14027,20 @@
       <c r="F217" s="1">
         <v>117140</v>
       </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G217" s="1">
+        <f t="shared" si="9"/>
+        <v>6589504</v>
+      </c>
+      <c r="H217" s="1">
+        <f t="shared" si="10"/>
+        <v>704909</v>
+      </c>
+      <c r="I217" s="1">
+        <f t="shared" si="11"/>
+        <v>7294413</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218" s="5">
         <v>42618</v>
       </c>
@@ -11453,8 +14061,20 @@
         <f>37000+37000+137690</f>
         <v>211690</v>
       </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G218" s="1">
+        <f t="shared" si="9"/>
+        <v>6036836</v>
+      </c>
+      <c r="H218" s="1">
+        <f t="shared" si="10"/>
+        <v>709818</v>
+      </c>
+      <c r="I218" s="1">
+        <f t="shared" si="11"/>
+        <v>6746654</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A219" s="5">
         <v>42619</v>
       </c>
@@ -11473,8 +14093,20 @@
       <c r="F219" s="1">
         <v>767134</v>
       </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G219" s="1">
+        <f t="shared" si="9"/>
+        <v>8019122</v>
+      </c>
+      <c r="H219" s="1">
+        <f t="shared" si="10"/>
+        <v>1621634</v>
+      </c>
+      <c r="I219" s="1">
+        <f t="shared" si="11"/>
+        <v>9640756</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220" s="5">
         <v>42620</v>
       </c>
@@ -11493,8 +14125,20 @@
       <c r="F220" s="1">
         <v>470650</v>
       </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G220" s="1">
+        <f t="shared" si="9"/>
+        <v>2689300</v>
+      </c>
+      <c r="H220" s="1">
+        <f t="shared" si="10"/>
+        <v>692650</v>
+      </c>
+      <c r="I220" s="1">
+        <f t="shared" si="11"/>
+        <v>3381950</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221" s="5">
         <v>42620</v>
       </c>
@@ -11513,8 +14157,20 @@
       <c r="F221" s="1">
         <v>498174</v>
       </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G221" s="1">
+        <f t="shared" si="9"/>
+        <v>3002530</v>
+      </c>
+      <c r="H221" s="1">
+        <f t="shared" si="10"/>
+        <v>705774</v>
+      </c>
+      <c r="I221" s="1">
+        <f t="shared" si="11"/>
+        <v>3708304</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222" s="5">
         <v>42625</v>
       </c>
@@ -11533,8 +14189,20 @@
       <c r="F222" s="1">
         <v>341200</v>
       </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G222" s="1">
+        <f t="shared" si="9"/>
+        <v>8361360</v>
+      </c>
+      <c r="H222" s="1">
+        <f t="shared" si="10"/>
+        <v>950400</v>
+      </c>
+      <c r="I222" s="1">
+        <f t="shared" si="11"/>
+        <v>9311760</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223" s="5">
         <v>42626</v>
       </c>
@@ -11553,8 +14221,20 @@
       <c r="F223" s="1">
         <v>846974</v>
       </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G223" s="1">
+        <f t="shared" si="9"/>
+        <v>6666915</v>
+      </c>
+      <c r="H223" s="1">
+        <f t="shared" si="10"/>
+        <v>1709474</v>
+      </c>
+      <c r="I223" s="1">
+        <f t="shared" si="11"/>
+        <v>8376389</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224" s="5">
         <v>42626</v>
       </c>
@@ -11573,8 +14253,20 @@
       <c r="F224" s="1">
         <v>767134.88</v>
       </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G224" s="1">
+        <f t="shared" si="9"/>
+        <v>7228122.2599999998</v>
+      </c>
+      <c r="H224" s="1">
+        <f t="shared" si="10"/>
+        <v>1698634.88</v>
+      </c>
+      <c r="I224" s="1">
+        <f t="shared" si="11"/>
+        <v>8926757.1400000006</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A225" s="5">
         <v>42646</v>
       </c>
@@ -11593,8 +14285,20 @@
       <c r="F225" s="1">
         <v>103914</v>
       </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G225" s="1">
+        <f t="shared" si="9"/>
+        <v>4691278</v>
+      </c>
+      <c r="H225" s="1">
+        <f t="shared" si="10"/>
+        <v>421396</v>
+      </c>
+      <c r="I225" s="1">
+        <f t="shared" si="11"/>
+        <v>5112674</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A226" s="5">
         <v>42647</v>
       </c>
@@ -11613,8 +14317,20 @@
       <c r="F226" s="1">
         <v>194500</v>
       </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G226" s="1">
+        <f t="shared" si="9"/>
+        <v>3038000</v>
+      </c>
+      <c r="H226" s="1">
+        <f t="shared" si="10"/>
+        <v>389200</v>
+      </c>
+      <c r="I226" s="1">
+        <f t="shared" si="11"/>
+        <v>3427200</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A227" s="5">
         <v>42653</v>
       </c>
@@ -11633,8 +14349,20 @@
       <c r="F227" s="1">
         <v>706754.88</v>
       </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G227" s="1">
+        <f t="shared" si="9"/>
+        <v>5648761</v>
+      </c>
+      <c r="H227" s="1">
+        <f t="shared" si="10"/>
+        <v>1606754.88</v>
+      </c>
+      <c r="I227" s="1">
+        <f t="shared" si="11"/>
+        <v>7255515.8799999999</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A228" s="5">
         <v>42654</v>
       </c>
@@ -11653,8 +14381,20 @@
       <c r="F228" s="1">
         <v>262378</v>
       </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G228" s="1">
+        <f t="shared" si="9"/>
+        <v>3697872</v>
+      </c>
+      <c r="H228" s="1">
+        <f t="shared" si="10"/>
+        <v>404331</v>
+      </c>
+      <c r="I228" s="1">
+        <f t="shared" si="11"/>
+        <v>4102203</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A229" s="5">
         <v>42654</v>
       </c>
@@ -11673,8 +14413,20 @@
       <c r="F229" s="1">
         <v>265878</v>
       </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G229" s="1">
+        <f t="shared" si="9"/>
+        <v>3691285</v>
+      </c>
+      <c r="H229" s="1">
+        <f t="shared" si="10"/>
+        <v>410913</v>
+      </c>
+      <c r="I229" s="1">
+        <f t="shared" si="11"/>
+        <v>4102198</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A230" s="5">
         <v>42660</v>
       </c>
@@ -11693,8 +14445,20 @@
       <c r="F230" s="1">
         <v>857000</v>
       </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G230" s="1">
+        <f t="shared" si="9"/>
+        <v>7734000</v>
+      </c>
+      <c r="H230" s="1">
+        <f t="shared" si="10"/>
+        <v>1214000</v>
+      </c>
+      <c r="I230" s="1">
+        <f t="shared" si="11"/>
+        <v>8948000</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A231" s="5">
         <v>42661</v>
       </c>
@@ -11713,8 +14477,20 @@
       <c r="F231" s="1">
         <v>767134.88</v>
       </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G231" s="1">
+        <f t="shared" si="9"/>
+        <v>8019122.2599999998</v>
+      </c>
+      <c r="H231" s="1">
+        <f t="shared" si="10"/>
+        <v>1621634.88</v>
+      </c>
+      <c r="I231" s="1">
+        <f t="shared" si="11"/>
+        <v>9640757.1400000006</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A232" s="5">
         <v>42661</v>
       </c>
@@ -11733,8 +14509,20 @@
       <c r="F232" s="1">
         <v>296900</v>
       </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G232" s="1">
+        <f t="shared" si="9"/>
+        <v>2592046</v>
+      </c>
+      <c r="H232" s="1">
+        <f t="shared" si="10"/>
+        <v>483751</v>
+      </c>
+      <c r="I232" s="1">
+        <f t="shared" si="11"/>
+        <v>3075797</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A233" s="5">
         <v>42667</v>
       </c>
@@ -11753,8 +14541,20 @@
       <c r="F233" s="1">
         <v>296900</v>
       </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G233" s="1">
+        <f t="shared" si="9"/>
+        <v>2592153</v>
+      </c>
+      <c r="H233" s="1">
+        <f t="shared" si="10"/>
+        <v>483751</v>
+      </c>
+      <c r="I233" s="1">
+        <f t="shared" si="11"/>
+        <v>3075904</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A234" s="5">
         <v>42668</v>
       </c>
@@ -11773,8 +14573,20 @@
       <c r="F234" s="1">
         <v>767134.88</v>
       </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G234" s="1">
+        <f t="shared" si="9"/>
+        <v>7228122.2599999998</v>
+      </c>
+      <c r="H234" s="1">
+        <f t="shared" si="10"/>
+        <v>1698634.88</v>
+      </c>
+      <c r="I234" s="1">
+        <f t="shared" si="11"/>
+        <v>8926757.1400000006</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A235" s="5">
         <v>42668</v>
       </c>
@@ -11793,8 +14605,20 @@
       <c r="F235" s="1">
         <v>265878</v>
       </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G235" s="1">
+        <f t="shared" si="9"/>
+        <v>3691285</v>
+      </c>
+      <c r="H235" s="1">
+        <f t="shared" si="10"/>
+        <v>410913</v>
+      </c>
+      <c r="I235" s="1">
+        <f t="shared" si="11"/>
+        <v>4102198</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A236" s="5">
         <v>42668</v>
       </c>
@@ -11813,8 +14637,20 @@
       <c r="F236" s="1">
         <v>105000</v>
       </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G236" s="1">
+        <f t="shared" si="9"/>
+        <v>10069551</v>
+      </c>
+      <c r="H236" s="1">
+        <f t="shared" si="10"/>
+        <v>733226</v>
+      </c>
+      <c r="I236" s="1">
+        <f t="shared" si="11"/>
+        <v>10802777</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A237" s="5">
         <v>42668</v>
       </c>
@@ -11833,8 +14669,20 @@
       <c r="F237" s="1">
         <v>846217</v>
       </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G237" s="1">
+        <f t="shared" si="9"/>
+        <v>5586677</v>
+      </c>
+      <c r="H237" s="1">
+        <f t="shared" si="10"/>
+        <v>891217</v>
+      </c>
+      <c r="I237" s="1">
+        <f t="shared" si="11"/>
+        <v>6477894</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A238" s="5">
         <v>42671</v>
       </c>
@@ -11853,8 +14701,20 @@
       <c r="F238" s="1">
         <v>767134.88</v>
       </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G238" s="1">
+        <f t="shared" si="9"/>
+        <v>8019122</v>
+      </c>
+      <c r="H238" s="1">
+        <f t="shared" si="10"/>
+        <v>1621634.88</v>
+      </c>
+      <c r="I238" s="1">
+        <f t="shared" si="11"/>
+        <v>9640756.879999999</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A239" s="5">
         <v>42671</v>
       </c>
@@ -11875,8 +14735,20 @@
         <f>5568757-D239</f>
         <v>767135</v>
       </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G239" s="1">
+        <f t="shared" si="9"/>
+        <v>8019122</v>
+      </c>
+      <c r="H239" s="1">
+        <f t="shared" si="10"/>
+        <v>1621635</v>
+      </c>
+      <c r="I239" s="1">
+        <f t="shared" si="11"/>
+        <v>9640757</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A240" s="5">
         <v>42675</v>
       </c>
@@ -11895,8 +14767,20 @@
       <c r="F240" s="1">
         <v>830006</v>
       </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G240" s="1">
+        <f t="shared" si="9"/>
+        <v>5586677</v>
+      </c>
+      <c r="H240" s="1">
+        <f t="shared" si="10"/>
+        <v>875006</v>
+      </c>
+      <c r="I240" s="1">
+        <f t="shared" si="11"/>
+        <v>6461683</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241" s="5">
         <v>42678</v>
       </c>
@@ -11915,8 +14799,20 @@
       <c r="F241" s="1">
         <v>470650</v>
       </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G241" s="1">
+        <f t="shared" si="9"/>
+        <v>2769300</v>
+      </c>
+      <c r="H241" s="1">
+        <f t="shared" si="10"/>
+        <v>692650</v>
+      </c>
+      <c r="I241" s="1">
+        <f t="shared" si="11"/>
+        <v>3461950</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242" s="5">
         <v>42678</v>
       </c>
@@ -11935,8 +14831,20 @@
       <c r="F242" s="1">
         <v>470650</v>
       </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G242" s="1">
+        <f t="shared" si="9"/>
+        <v>2769300</v>
+      </c>
+      <c r="H242" s="1">
+        <f t="shared" si="10"/>
+        <v>692650</v>
+      </c>
+      <c r="I242" s="1">
+        <f t="shared" si="11"/>
+        <v>3461950</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A243" s="5">
         <v>42681</v>
       </c>
@@ -11955,8 +14863,20 @@
       <c r="F243" s="1">
         <v>767134.88</v>
       </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G243" s="1">
+        <f t="shared" si="9"/>
+        <v>8019122.2599999998</v>
+      </c>
+      <c r="H243" s="1">
+        <f t="shared" si="10"/>
+        <v>1621634.88</v>
+      </c>
+      <c r="I243" s="1">
+        <f t="shared" si="11"/>
+        <v>9640757.1400000006</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A244" s="5">
         <v>42681</v>
       </c>
@@ -11975,8 +14895,20 @@
       <c r="F244" s="1">
         <v>117140</v>
       </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G244" s="1">
+        <f t="shared" si="9"/>
+        <v>8648710</v>
+      </c>
+      <c r="H244" s="1">
+        <f t="shared" si="10"/>
+        <v>773427</v>
+      </c>
+      <c r="I244" s="1">
+        <f t="shared" si="11"/>
+        <v>9422137</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A245" s="5">
         <v>42681</v>
       </c>
@@ -11997,8 +14929,20 @@
         <f>347000+30000+46500</f>
         <v>423500</v>
       </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G245" s="1">
+        <f t="shared" si="9"/>
+        <v>7453083</v>
+      </c>
+      <c r="H245" s="1">
+        <f t="shared" si="10"/>
+        <v>867500</v>
+      </c>
+      <c r="I245" s="1">
+        <f t="shared" si="11"/>
+        <v>8320583</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A246" s="5">
         <v>42681</v>
       </c>
@@ -12017,8 +14961,20 @@
       <c r="F246" s="1">
         <v>123000</v>
       </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G246" s="1">
+        <f t="shared" si="9"/>
+        <v>5449087</v>
+      </c>
+      <c r="H246" s="1">
+        <f t="shared" si="10"/>
+        <v>413390</v>
+      </c>
+      <c r="I246" s="1">
+        <f t="shared" si="11"/>
+        <v>5862477</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A247" s="5">
         <v>42681</v>
       </c>
@@ -12037,8 +14993,20 @@
       <c r="F247" s="1">
         <v>767134</v>
       </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G247" s="1">
+        <f t="shared" si="9"/>
+        <v>8018522</v>
+      </c>
+      <c r="H247" s="1">
+        <f t="shared" si="10"/>
+        <v>1621634</v>
+      </c>
+      <c r="I247" s="1">
+        <f t="shared" si="11"/>
+        <v>9640156</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A248" s="5">
         <v>42682</v>
       </c>
@@ -12057,8 +15025,20 @@
       <c r="F248" s="1">
         <v>106500</v>
       </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G248" s="1">
+        <f t="shared" si="9"/>
+        <v>8442410</v>
+      </c>
+      <c r="H248" s="1">
+        <f t="shared" si="10"/>
+        <v>746615</v>
+      </c>
+      <c r="I248" s="1">
+        <f t="shared" si="11"/>
+        <v>9189025</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A249" s="5">
         <v>42682</v>
       </c>
@@ -12077,8 +15057,20 @@
       <c r="F249" s="1">
         <v>405000</v>
       </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G249" s="1">
+        <f t="shared" si="9"/>
+        <v>5305000</v>
+      </c>
+      <c r="H249" s="1">
+        <f t="shared" si="10"/>
+        <v>1020000</v>
+      </c>
+      <c r="I249" s="1">
+        <f t="shared" si="11"/>
+        <v>6325000</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A250" s="5">
         <v>42682</v>
       </c>
@@ -12097,8 +15089,20 @@
       <c r="F250" s="1">
         <v>706754</v>
       </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G250" s="1">
+        <f t="shared" si="9"/>
+        <v>5648761</v>
+      </c>
+      <c r="H250" s="1">
+        <f t="shared" si="10"/>
+        <v>1606754</v>
+      </c>
+      <c r="I250" s="1">
+        <f t="shared" si="11"/>
+        <v>7255515</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A251" s="5">
         <v>42682</v>
       </c>
@@ -12117,8 +15121,20 @@
       <c r="F251" s="1">
         <v>342396</v>
       </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G251" s="1">
+        <f t="shared" si="9"/>
+        <v>5470956</v>
+      </c>
+      <c r="H251" s="1">
+        <f t="shared" si="10"/>
+        <v>886596</v>
+      </c>
+      <c r="I251" s="1">
+        <f t="shared" si="11"/>
+        <v>6357552</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A252" s="5">
         <v>42682</v>
       </c>
@@ -12137,8 +15153,20 @@
       <c r="F252" s="1">
         <v>706754</v>
       </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G252" s="1">
+        <f t="shared" si="9"/>
+        <v>4737261</v>
+      </c>
+      <c r="H252" s="1">
+        <f t="shared" si="10"/>
+        <v>1071254</v>
+      </c>
+      <c r="I252" s="1">
+        <f t="shared" si="11"/>
+        <v>5808515</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A253" s="5">
         <v>42683</v>
       </c>
@@ -12158,8 +15186,20 @@
       <c r="F253" s="1">
         <v>424000</v>
       </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G253" s="1">
+        <f t="shared" si="9"/>
+        <v>7454083</v>
+      </c>
+      <c r="H253" s="1">
+        <f t="shared" si="10"/>
+        <v>868000</v>
+      </c>
+      <c r="I253" s="1">
+        <f t="shared" si="11"/>
+        <v>8322083</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A254" s="5">
         <v>42688</v>
       </c>
@@ -12179,8 +15219,20 @@
       <c r="F254" s="1">
         <v>424000</v>
       </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G254" s="1">
+        <f t="shared" si="9"/>
+        <v>7009243</v>
+      </c>
+      <c r="H254" s="1">
+        <f t="shared" si="10"/>
+        <v>1031900</v>
+      </c>
+      <c r="I254" s="1">
+        <f t="shared" si="11"/>
+        <v>8041143</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A255" s="5">
         <v>42689</v>
       </c>
@@ -12199,8 +15251,20 @@
       <c r="F255" s="1">
         <v>123000</v>
       </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G255" s="1">
+        <f t="shared" si="9"/>
+        <v>5745918</v>
+      </c>
+      <c r="H255" s="1">
+        <f t="shared" si="10"/>
+        <v>739796</v>
+      </c>
+      <c r="I255" s="1">
+        <f t="shared" si="11"/>
+        <v>6485714</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A256" s="5">
         <v>42695</v>
       </c>
@@ -12219,8 +15283,20 @@
       <c r="F256" s="1">
         <v>827598</v>
       </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G256" s="1">
+        <f t="shared" si="9"/>
+        <v>8807679</v>
+      </c>
+      <c r="H256" s="1">
+        <f t="shared" si="10"/>
+        <v>1184598</v>
+      </c>
+      <c r="I256" s="1">
+        <f t="shared" si="11"/>
+        <v>9992277</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A257" s="5">
         <v>42695</v>
       </c>
@@ -12239,8 +15315,20 @@
       <c r="F257" s="1">
         <v>400000</v>
       </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G257" s="1">
+        <f t="shared" si="9"/>
+        <v>8168000</v>
+      </c>
+      <c r="H257" s="1">
+        <f t="shared" si="10"/>
+        <v>1112000</v>
+      </c>
+      <c r="I257" s="1">
+        <f t="shared" si="11"/>
+        <v>9280000</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A258" s="5">
         <v>42696</v>
       </c>
@@ -12259,8 +15347,20 @@
       <c r="F258" s="1">
         <v>93000</v>
       </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G258" s="1">
+        <f t="shared" si="9"/>
+        <v>5363297</v>
+      </c>
+      <c r="H258" s="1">
+        <f t="shared" si="10"/>
+        <v>409140</v>
+      </c>
+      <c r="I258" s="1">
+        <f t="shared" si="11"/>
+        <v>5772437</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A259" s="5">
         <v>42702</v>
       </c>
@@ -12279,8 +15379,20 @@
       <c r="F259" s="1">
         <v>723200</v>
       </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G259" s="1">
+        <f t="shared" ref="G259:G316" si="12">C259+D259</f>
+        <v>6220725</v>
+      </c>
+      <c r="H259" s="1">
+        <f t="shared" ref="H259:H316" si="13">F259+E259</f>
+        <v>1139450</v>
+      </c>
+      <c r="I259" s="1">
+        <f t="shared" ref="I259:I316" si="14">G259+H259</f>
+        <v>7360175</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A260" s="5">
         <v>42703</v>
       </c>
@@ -12299,8 +15411,20 @@
       <c r="F260" s="1">
         <v>767134.88</v>
       </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G260" s="1">
+        <f t="shared" si="12"/>
+        <v>7228122.2599999998</v>
+      </c>
+      <c r="H260" s="1">
+        <f t="shared" si="13"/>
+        <v>1698634.88</v>
+      </c>
+      <c r="I260" s="1">
+        <f t="shared" si="14"/>
+        <v>8926757.1400000006</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A261" s="5">
         <v>42705</v>
       </c>
@@ -12319,8 +15443,20 @@
       <c r="F261" s="1">
         <v>194500</v>
       </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G261" s="1">
+        <f t="shared" si="12"/>
+        <v>3038000</v>
+      </c>
+      <c r="H261" s="1">
+        <f t="shared" si="13"/>
+        <v>389200</v>
+      </c>
+      <c r="I261" s="1">
+        <f t="shared" si="14"/>
+        <v>3427200</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A262" s="5">
         <v>42709</v>
       </c>
@@ -12339,8 +15475,20 @@
       <c r="F262" s="1">
         <v>261500</v>
       </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G262" s="1">
+        <f t="shared" si="12"/>
+        <v>2065900</v>
+      </c>
+      <c r="H262" s="1">
+        <f t="shared" si="13"/>
+        <v>556300</v>
+      </c>
+      <c r="I262" s="1">
+        <f t="shared" si="14"/>
+        <v>2622200</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A263" s="5">
         <v>42710</v>
       </c>
@@ -12359,8 +15507,20 @@
       <c r="F263" s="1">
         <v>483751</v>
       </c>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G263" s="1">
+        <f t="shared" si="12"/>
+        <v>2592046</v>
+      </c>
+      <c r="H263" s="1">
+        <f t="shared" si="13"/>
+        <v>670602</v>
+      </c>
+      <c r="I263" s="1">
+        <f t="shared" si="14"/>
+        <v>3262648</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A264" s="5">
         <v>42716</v>
       </c>
@@ -12379,8 +15539,20 @@
       <c r="F264" s="1">
         <v>334100</v>
       </c>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G264" s="1">
+        <f t="shared" si="12"/>
+        <v>5667500</v>
+      </c>
+      <c r="H264" s="1">
+        <f t="shared" si="13"/>
+        <v>785790</v>
+      </c>
+      <c r="I264" s="1">
+        <f t="shared" si="14"/>
+        <v>6453290</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A265" s="5">
         <v>42717</v>
       </c>
@@ -12399,8 +15571,20 @@
       <c r="F265" s="1">
         <v>360000</v>
       </c>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G265" s="1">
+        <f t="shared" si="12"/>
+        <v>5290000</v>
+      </c>
+      <c r="H265" s="1">
+        <f t="shared" si="13"/>
+        <v>980000</v>
+      </c>
+      <c r="I265" s="1">
+        <f t="shared" si="14"/>
+        <v>6270000</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A266" s="5">
         <v>42717</v>
       </c>
@@ -12419,8 +15603,20 @@
       <c r="F266" s="1">
         <v>390000</v>
       </c>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G266" s="1">
+        <f t="shared" si="12"/>
+        <v>5228000</v>
+      </c>
+      <c r="H266" s="1">
+        <f t="shared" si="13"/>
+        <v>982000</v>
+      </c>
+      <c r="I266" s="1">
+        <f t="shared" si="14"/>
+        <v>6210000</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A267" s="5">
         <v>42717</v>
       </c>
@@ -12439,8 +15635,20 @@
       <c r="F267" s="1">
         <v>360000</v>
       </c>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G267" s="1">
+        <f t="shared" si="12"/>
+        <v>5290000</v>
+      </c>
+      <c r="H267" s="1">
+        <f t="shared" si="13"/>
+        <v>980000</v>
+      </c>
+      <c r="I267" s="1">
+        <f t="shared" si="14"/>
+        <v>6270000</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A268" s="5">
         <v>42723</v>
       </c>
@@ -12459,8 +15667,20 @@
       <c r="F268" s="1">
         <v>706754</v>
       </c>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G268" s="1">
+        <f t="shared" si="12"/>
+        <v>5648761</v>
+      </c>
+      <c r="H268" s="1">
+        <f t="shared" si="13"/>
+        <v>1606754</v>
+      </c>
+      <c r="I268" s="1">
+        <f t="shared" si="14"/>
+        <v>7255515</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A269" s="5">
         <v>42723</v>
       </c>
@@ -12479,8 +15699,20 @@
       <c r="F269" s="1">
         <v>390000</v>
       </c>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G269" s="1">
+        <f t="shared" si="12"/>
+        <v>5279000</v>
+      </c>
+      <c r="H269" s="1">
+        <f t="shared" si="13"/>
+        <v>972000</v>
+      </c>
+      <c r="I269" s="1">
+        <f t="shared" si="14"/>
+        <v>6251000</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A270" s="5">
         <v>42724</v>
       </c>
@@ -12501,8 +15733,20 @@
         <f>15000+347000+46500</f>
         <v>408500</v>
       </c>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G270" s="1">
+        <f t="shared" si="12"/>
+        <v>4120500</v>
+      </c>
+      <c r="H270" s="1">
+        <f t="shared" si="13"/>
+        <v>743000</v>
+      </c>
+      <c r="I270" s="1">
+        <f t="shared" si="14"/>
+        <v>4863500</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A271" s="5">
         <v>42732</v>
       </c>
@@ -12521,8 +15765,20 @@
       <c r="F271" s="1">
         <v>723399</v>
       </c>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G271" s="1">
+        <f t="shared" si="12"/>
+        <v>6623089</v>
+      </c>
+      <c r="H271" s="1">
+        <f t="shared" si="13"/>
+        <v>1223399</v>
+      </c>
+      <c r="I271" s="1">
+        <f t="shared" si="14"/>
+        <v>7846488</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A272" s="5">
         <v>42734</v>
       </c>
@@ -12541,8 +15797,20 @@
       <c r="F272" s="1">
         <v>332274</v>
       </c>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G272" s="1">
+        <f t="shared" si="12"/>
+        <v>7898864</v>
+      </c>
+      <c r="H272" s="1">
+        <f t="shared" si="13"/>
+        <v>1261474</v>
+      </c>
+      <c r="I272" s="1">
+        <f t="shared" si="14"/>
+        <v>9160338</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A273" s="5">
         <v>42738</v>
       </c>
@@ -12561,8 +15829,20 @@
       <c r="F273" s="1">
         <v>846974.88</v>
       </c>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G273" s="1">
+        <f t="shared" si="12"/>
+        <v>6666915.2599999998</v>
+      </c>
+      <c r="H273" s="1">
+        <f t="shared" si="13"/>
+        <v>1709474.88</v>
+      </c>
+      <c r="I273" s="1">
+        <f t="shared" si="14"/>
+        <v>8376390.1399999997</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A274" s="5">
         <v>42738</v>
       </c>
@@ -12581,8 +15861,20 @@
       <c r="F274" s="1">
         <v>652325.79</v>
       </c>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G274" s="1">
+        <f t="shared" si="12"/>
+        <v>7830404</v>
+      </c>
+      <c r="H274" s="1">
+        <f t="shared" si="13"/>
+        <v>1583825.79</v>
+      </c>
+      <c r="I274" s="1">
+        <f t="shared" si="14"/>
+        <v>9414229.7899999991</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A275" s="5">
         <v>42738</v>
       </c>
@@ -12601,8 +15893,20 @@
       <c r="F275" s="1">
         <v>706754.88</v>
       </c>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G275" s="1">
+        <f t="shared" si="12"/>
+        <v>4878761.26</v>
+      </c>
+      <c r="H275" s="1">
+        <f t="shared" si="13"/>
+        <v>1506754.88</v>
+      </c>
+      <c r="I275" s="1">
+        <f t="shared" si="14"/>
+        <v>6385516.1399999997</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A276" s="5">
         <v>42742</v>
       </c>
@@ -12621,8 +15925,20 @@
       <c r="F276" s="1">
         <v>706754</v>
       </c>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G276" s="1">
+        <f t="shared" si="12"/>
+        <v>4878761</v>
+      </c>
+      <c r="H276" s="1">
+        <f t="shared" si="13"/>
+        <v>1506754</v>
+      </c>
+      <c r="I276" s="1">
+        <f t="shared" si="14"/>
+        <v>6385515</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A277" s="5">
         <v>42744</v>
       </c>
@@ -12641,8 +15957,20 @@
       <c r="F277" s="1">
         <v>947200</v>
       </c>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G277" s="1">
+        <f t="shared" si="12"/>
+        <v>11699500</v>
+      </c>
+      <c r="H277" s="1">
+        <f t="shared" si="13"/>
+        <v>1428200</v>
+      </c>
+      <c r="I277" s="1">
+        <f t="shared" si="14"/>
+        <v>13127700</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A278" s="5">
         <v>42745</v>
       </c>
@@ -12661,8 +15989,20 @@
       <c r="F278" s="1">
         <v>652325.79</v>
       </c>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G278" s="1">
+        <f t="shared" si="12"/>
+        <v>8621404</v>
+      </c>
+      <c r="H278" s="1">
+        <f t="shared" si="13"/>
+        <v>1506925.79</v>
+      </c>
+      <c r="I278" s="1">
+        <f t="shared" si="14"/>
+        <v>10128329.789999999</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A279" s="5">
         <v>42745</v>
       </c>
@@ -12681,8 +16021,20 @@
       <c r="F279" s="1">
         <v>110000</v>
       </c>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G279" s="1">
+        <f t="shared" si="12"/>
+        <v>5724500</v>
+      </c>
+      <c r="H279" s="1">
+        <f t="shared" si="13"/>
+        <v>1007500</v>
+      </c>
+      <c r="I279" s="1">
+        <f t="shared" si="14"/>
+        <v>6732000</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A280" s="5">
         <v>42745</v>
       </c>
@@ -12701,8 +16053,20 @@
       <c r="F280" s="1">
         <v>652325.79</v>
       </c>
-    </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G280" s="1">
+        <f t="shared" si="12"/>
+        <v>8621404</v>
+      </c>
+      <c r="H280" s="1">
+        <f t="shared" si="13"/>
+        <v>1506825.79</v>
+      </c>
+      <c r="I280" s="1">
+        <f t="shared" si="14"/>
+        <v>10128229.789999999</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A281" s="5">
         <v>42746</v>
       </c>
@@ -12721,8 +16085,20 @@
       <c r="F281" s="1">
         <v>767134</v>
       </c>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G281" s="1">
+        <f t="shared" si="12"/>
+        <v>8019122</v>
+      </c>
+      <c r="H281" s="1">
+        <f t="shared" si="13"/>
+        <v>1621634</v>
+      </c>
+      <c r="I281" s="1">
+        <f t="shared" si="14"/>
+        <v>9640756</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A282" s="5">
         <v>42758</v>
       </c>
@@ -12741,8 +16117,20 @@
       <c r="F282" s="1">
         <v>767134</v>
       </c>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G282" s="1">
+        <f t="shared" si="12"/>
+        <v>8019122</v>
+      </c>
+      <c r="H282" s="1">
+        <f t="shared" si="13"/>
+        <v>1621634</v>
+      </c>
+      <c r="I282" s="1">
+        <f t="shared" si="14"/>
+        <v>9640756</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A283" s="5">
         <v>42766</v>
       </c>
@@ -12761,8 +16149,20 @@
       <c r="F283" s="1">
         <v>114990</v>
       </c>
-    </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G283" s="1">
+        <f t="shared" si="12"/>
+        <v>5390275</v>
+      </c>
+      <c r="H283" s="1">
+        <f t="shared" si="13"/>
+        <v>688965</v>
+      </c>
+      <c r="I283" s="1">
+        <f t="shared" si="14"/>
+        <v>6079240</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A284" s="5">
         <v>42766</v>
       </c>
@@ -12781,8 +16181,20 @@
       <c r="F284" s="1">
         <v>762500</v>
       </c>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G284" s="1">
+        <f t="shared" si="12"/>
+        <v>5478375</v>
+      </c>
+      <c r="H284" s="1">
+        <f t="shared" si="13"/>
+        <v>895500</v>
+      </c>
+      <c r="I284" s="1">
+        <f t="shared" si="14"/>
+        <v>6373875</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A285" s="5">
         <v>42766</v>
       </c>
@@ -12801,8 +16213,20 @@
       <c r="F285" s="1">
         <v>762500</v>
       </c>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G285" s="1">
+        <f t="shared" si="12"/>
+        <v>5478375</v>
+      </c>
+      <c r="H285" s="1">
+        <f t="shared" si="13"/>
+        <v>895500</v>
+      </c>
+      <c r="I285" s="1">
+        <f t="shared" si="14"/>
+        <v>6373875</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A286" s="5">
         <v>42766</v>
       </c>
@@ -12821,8 +16245,20 @@
       <c r="F286" s="1">
         <v>114990</v>
       </c>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G286" s="1">
+        <f t="shared" si="12"/>
+        <v>5390275</v>
+      </c>
+      <c r="H286" s="1">
+        <f t="shared" si="13"/>
+        <v>688785</v>
+      </c>
+      <c r="I286" s="1">
+        <f t="shared" si="14"/>
+        <v>6079060</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A287" s="5">
         <v>42779</v>
       </c>
@@ -12841,8 +16277,20 @@
       <c r="F287" s="1">
         <v>296900</v>
       </c>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G287" s="1">
+        <f t="shared" si="12"/>
+        <v>2592046</v>
+      </c>
+      <c r="H287" s="1">
+        <f t="shared" si="13"/>
+        <v>483751</v>
+      </c>
+      <c r="I287" s="1">
+        <f t="shared" si="14"/>
+        <v>3075797</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A288" s="5">
         <v>42780</v>
       </c>
@@ -12861,8 +16309,20 @@
       <c r="F288" s="1">
         <v>706754</v>
       </c>
-    </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G288" s="1">
+        <f t="shared" si="12"/>
+        <v>4717261</v>
+      </c>
+      <c r="H288" s="1">
+        <f t="shared" si="13"/>
+        <v>1071254</v>
+      </c>
+      <c r="I288" s="1">
+        <f t="shared" si="14"/>
+        <v>5788515</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A289" s="5">
         <v>42783</v>
       </c>
@@ -12881,8 +16341,20 @@
       <c r="F289" s="1">
         <v>505800</v>
       </c>
-    </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G289" s="1">
+        <f t="shared" si="12"/>
+        <v>3507150</v>
+      </c>
+      <c r="H289" s="1">
+        <f t="shared" si="13"/>
+        <v>715200</v>
+      </c>
+      <c r="I289" s="1">
+        <f t="shared" si="14"/>
+        <v>4222350</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A290" s="5">
         <v>42786</v>
       </c>
@@ -12901,8 +16373,20 @@
       <c r="F290" s="1">
         <v>276378</v>
       </c>
-    </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G290" s="1">
+        <f t="shared" si="12"/>
+        <v>2441438</v>
+      </c>
+      <c r="H290" s="1">
+        <f t="shared" si="13"/>
+        <v>421413</v>
+      </c>
+      <c r="I290" s="1">
+        <f t="shared" si="14"/>
+        <v>2862851</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A291" s="5">
         <v>42787</v>
       </c>
@@ -12921,8 +16405,20 @@
       <c r="F291" s="1">
         <v>477800</v>
       </c>
-    </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G291" s="1">
+        <f t="shared" si="12"/>
+        <v>5132400</v>
+      </c>
+      <c r="H291" s="1">
+        <f t="shared" si="13"/>
+        <v>926100</v>
+      </c>
+      <c r="I291" s="1">
+        <f t="shared" si="14"/>
+        <v>6058500</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A292" s="5">
         <v>42787</v>
       </c>
@@ -12943,8 +16439,20 @@
         <f>30000+347000+46500</f>
         <v>423500</v>
       </c>
-    </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G292" s="1">
+        <f t="shared" si="12"/>
+        <v>7454083</v>
+      </c>
+      <c r="H292" s="1">
+        <f t="shared" si="13"/>
+        <v>867500</v>
+      </c>
+      <c r="I292" s="1">
+        <f t="shared" si="14"/>
+        <v>8321583</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A293" s="5">
         <v>42787</v>
       </c>
@@ -12963,8 +16471,20 @@
       <c r="F293" s="1">
         <v>736133</v>
       </c>
-    </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G293" s="1">
+        <f t="shared" si="12"/>
+        <v>9280217</v>
+      </c>
+      <c r="H293" s="1">
+        <f t="shared" si="13"/>
+        <v>1058133</v>
+      </c>
+      <c r="I293" s="1">
+        <f t="shared" si="14"/>
+        <v>10338350</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A294" s="5">
         <v>42789</v>
       </c>
@@ -12983,8 +16503,20 @@
       <c r="F294" s="1">
         <v>227750</v>
       </c>
-    </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G294" s="1">
+        <f t="shared" si="12"/>
+        <v>4862894</v>
+      </c>
+      <c r="H294" s="1">
+        <f t="shared" si="13"/>
+        <v>504250</v>
+      </c>
+      <c r="I294" s="1">
+        <f t="shared" si="14"/>
+        <v>5367144</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A295" s="5">
         <v>42794</v>
       </c>
@@ -13003,8 +16535,20 @@
       <c r="F295" s="1">
         <v>81000</v>
       </c>
-    </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G295" s="1">
+        <f t="shared" si="12"/>
+        <v>6954500</v>
+      </c>
+      <c r="H295" s="1">
+        <f t="shared" si="13"/>
+        <v>943500</v>
+      </c>
+      <c r="I295" s="1">
+        <f t="shared" si="14"/>
+        <v>7898000</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A296" s="5">
         <v>42794</v>
       </c>
@@ -13023,8 +16567,20 @@
       <c r="F296" s="1">
         <v>296990</v>
       </c>
-    </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G296" s="1">
+        <f t="shared" si="12"/>
+        <v>2592046</v>
+      </c>
+      <c r="H296" s="1">
+        <f t="shared" si="13"/>
+        <v>483841</v>
+      </c>
+      <c r="I296" s="1">
+        <f t="shared" si="14"/>
+        <v>3075887</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A297" s="5">
         <v>42800</v>
       </c>
@@ -13043,8 +16599,20 @@
       <c r="F297" s="1">
         <v>470550</v>
       </c>
-    </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G297" s="1">
+        <f t="shared" si="12"/>
+        <v>2769300</v>
+      </c>
+      <c r="H297" s="1">
+        <f t="shared" si="13"/>
+        <v>692550</v>
+      </c>
+      <c r="I297" s="1">
+        <f t="shared" si="14"/>
+        <v>3461850</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A298" s="5">
         <v>42801</v>
       </c>
@@ -13063,8 +16631,20 @@
       <c r="F298" s="1">
         <v>706754</v>
       </c>
-    </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G298" s="1">
+        <f t="shared" si="12"/>
+        <v>5648761</v>
+      </c>
+      <c r="H298" s="1">
+        <f t="shared" si="13"/>
+        <v>1606754</v>
+      </c>
+      <c r="I298" s="1">
+        <f t="shared" si="14"/>
+        <v>7255515</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A299" s="5">
         <v>42801</v>
       </c>
@@ -13083,8 +16663,20 @@
       <c r="F299" s="1">
         <v>846217</v>
       </c>
-    </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G299" s="1">
+        <f t="shared" si="12"/>
+        <v>5586677</v>
+      </c>
+      <c r="H299" s="1">
+        <f t="shared" si="13"/>
+        <v>891217</v>
+      </c>
+      <c r="I299" s="1">
+        <f t="shared" si="14"/>
+        <v>6477894</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A300" s="5">
         <v>42801</v>
       </c>
@@ -13103,8 +16695,20 @@
       <c r="F300" s="1">
         <v>391840</v>
       </c>
-    </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G300" s="1">
+        <f t="shared" si="12"/>
+        <v>2937186</v>
+      </c>
+      <c r="H300" s="1">
+        <f t="shared" si="13"/>
+        <v>533793</v>
+      </c>
+      <c r="I300" s="1">
+        <f t="shared" si="14"/>
+        <v>3470979</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A301" s="5">
         <v>42801</v>
       </c>
@@ -13123,8 +16727,20 @@
       <c r="F301" s="1">
         <v>706754</v>
       </c>
-    </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G301" s="1">
+        <f t="shared" si="12"/>
+        <v>5139552</v>
+      </c>
+      <c r="H301" s="1">
+        <f t="shared" si="13"/>
+        <v>1280549</v>
+      </c>
+      <c r="I301" s="1">
+        <f t="shared" si="14"/>
+        <v>6420101</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A302" s="5">
         <v>42801</v>
       </c>
@@ -13143,8 +16759,20 @@
       <c r="F302" s="1">
         <v>562500</v>
       </c>
-    </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G302" s="1">
+        <f t="shared" si="12"/>
+        <v>4539000</v>
+      </c>
+      <c r="H302" s="1">
+        <f t="shared" si="13"/>
+        <v>826500</v>
+      </c>
+      <c r="I302" s="1">
+        <f t="shared" si="14"/>
+        <v>5365500</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A303" s="5">
         <v>42815</v>
       </c>
@@ -13163,8 +16791,20 @@
       <c r="F303" s="1">
         <v>767134.88</v>
       </c>
-    </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G303" s="1">
+        <f t="shared" si="12"/>
+        <v>8019122</v>
+      </c>
+      <c r="H303" s="1">
+        <f t="shared" si="13"/>
+        <v>1621634.88</v>
+      </c>
+      <c r="I303" s="1">
+        <f t="shared" si="14"/>
+        <v>9640756.879999999</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A304" s="5">
         <v>42818</v>
       </c>
@@ -13184,8 +16824,20 @@
       <c r="F304" s="1">
         <v>238500</v>
       </c>
-    </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G304" s="1">
+        <f t="shared" si="12"/>
+        <v>7556062</v>
+      </c>
+      <c r="H304" s="1">
+        <f t="shared" si="13"/>
+        <v>1100000</v>
+      </c>
+      <c r="I304" s="1">
+        <f t="shared" si="14"/>
+        <v>8656062</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A305" s="5">
         <v>42828</v>
       </c>
@@ -13204,8 +16856,20 @@
       <c r="F305" s="1">
         <v>296900</v>
       </c>
-    </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G305" s="1">
+        <f t="shared" si="12"/>
+        <v>2592046</v>
+      </c>
+      <c r="H305" s="1">
+        <f t="shared" si="13"/>
+        <v>483751</v>
+      </c>
+      <c r="I305" s="1">
+        <f t="shared" si="14"/>
+        <v>3075797</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A306" s="5">
         <v>42839</v>
       </c>
@@ -13224,8 +16888,20 @@
       <c r="F306" s="1">
         <v>106550</v>
       </c>
-    </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G306" s="1">
+        <f t="shared" si="12"/>
+        <v>8712558</v>
+      </c>
+      <c r="H306" s="1">
+        <f t="shared" si="13"/>
+        <v>764501</v>
+      </c>
+      <c r="I306" s="1">
+        <f t="shared" si="14"/>
+        <v>9477059</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A307" s="5">
         <v>42843</v>
       </c>
@@ -13244,8 +16920,20 @@
       <c r="F307" s="1">
         <v>706754</v>
       </c>
-    </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G307" s="1">
+        <f t="shared" si="12"/>
+        <v>4827192</v>
+      </c>
+      <c r="H307" s="1">
+        <f t="shared" si="13"/>
+        <v>1343323</v>
+      </c>
+      <c r="I307" s="1">
+        <f t="shared" si="14"/>
+        <v>6170515</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A308" s="5">
         <v>42850</v>
       </c>
@@ -13264,8 +16952,20 @@
       <c r="F308" s="1">
         <v>276378</v>
       </c>
-    </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G308" s="1">
+        <f t="shared" si="12"/>
+        <v>3441438</v>
+      </c>
+      <c r="H308" s="1">
+        <f t="shared" si="13"/>
+        <v>421413</v>
+      </c>
+      <c r="I308" s="1">
+        <f t="shared" si="14"/>
+        <v>3862851</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A309" s="5">
         <v>42850</v>
       </c>
@@ -13284,8 +16984,20 @@
       <c r="F309" s="1">
         <v>583500</v>
       </c>
-    </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G309" s="1">
+        <f t="shared" si="12"/>
+        <v>7439000</v>
+      </c>
+      <c r="H309" s="1">
+        <f t="shared" si="13"/>
+        <v>904500</v>
+      </c>
+      <c r="I309" s="1">
+        <f t="shared" si="14"/>
+        <v>8343500</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A310" s="5">
         <v>42856</v>
       </c>
@@ -13304,8 +17016,20 @@
       <c r="F310" s="1">
         <v>296782</v>
       </c>
-    </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G310" s="1">
+        <f t="shared" si="12"/>
+        <v>2818953</v>
+      </c>
+      <c r="H310" s="1">
+        <f t="shared" si="13"/>
+        <v>456382</v>
+      </c>
+      <c r="I310" s="1">
+        <f t="shared" si="14"/>
+        <v>3275335</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A311" s="5">
         <v>42859</v>
       </c>
@@ -13324,8 +17048,20 @@
       <c r="F311" s="1">
         <v>296900</v>
       </c>
-    </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G311" s="1">
+        <f t="shared" si="12"/>
+        <v>2592046</v>
+      </c>
+      <c r="H311" s="1">
+        <f t="shared" si="13"/>
+        <v>483751</v>
+      </c>
+      <c r="I311" s="1">
+        <f t="shared" si="14"/>
+        <v>3075797</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A312" s="5">
         <v>42864</v>
       </c>
@@ -13346,8 +17082,20 @@
         <f>570665+65000</f>
         <v>635665</v>
       </c>
-    </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G312" s="1">
+        <f t="shared" si="12"/>
+        <v>2370807</v>
+      </c>
+      <c r="H312" s="1">
+        <f t="shared" si="13"/>
+        <v>840065</v>
+      </c>
+      <c r="I312" s="1">
+        <f t="shared" si="14"/>
+        <v>3210872</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A313" s="5">
         <v>42877</v>
       </c>
@@ -13367,8 +17115,20 @@
       <c r="F313" s="1">
         <v>467000</v>
       </c>
-    </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G313" s="1">
+        <f t="shared" si="12"/>
+        <v>5323349</v>
+      </c>
+      <c r="H313" s="1">
+        <f t="shared" si="13"/>
+        <v>911000</v>
+      </c>
+      <c r="I313" s="1">
+        <f t="shared" si="14"/>
+        <v>6234349</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A314" s="5">
         <v>42878</v>
       </c>
@@ -13387,8 +17147,20 @@
       <c r="F314" s="1">
         <v>302000</v>
       </c>
-    </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G314" s="1">
+        <f t="shared" si="12"/>
+        <v>9070960</v>
+      </c>
+      <c r="H314" s="1">
+        <f t="shared" si="13"/>
+        <v>1102000</v>
+      </c>
+      <c r="I314" s="1">
+        <f t="shared" si="14"/>
+        <v>10172960</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A315" s="5">
         <v>42899</v>
       </c>
@@ -13407,8 +17179,20 @@
       <c r="F315" s="1">
         <v>114990</v>
       </c>
-    </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G315" s="1">
+        <f t="shared" si="12"/>
+        <v>5390275</v>
+      </c>
+      <c r="H315" s="1">
+        <f t="shared" si="13"/>
+        <v>688785</v>
+      </c>
+      <c r="I315" s="1">
+        <f t="shared" si="14"/>
+        <v>6079060</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A316" s="5">
         <v>42922</v>
       </c>
@@ -13426,6 +17210,18 @@
       </c>
       <c r="F316" s="1">
         <v>95850</v>
+      </c>
+      <c r="G316" s="1">
+        <f t="shared" si="12"/>
+        <v>8698870</v>
+      </c>
+      <c r="H316" s="1">
+        <f t="shared" si="13"/>
+        <v>695155</v>
+      </c>
+      <c r="I316" s="1">
+        <f t="shared" si="14"/>
+        <v>9394025</v>
       </c>
     </row>
   </sheetData>

--- a/CleanAFEs.xlsx
+++ b/CleanAFEs.xlsx
@@ -6957,8 +6957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D293" workbookViewId="0">
-      <selection activeCell="I295" sqref="I295"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8614,8 +8614,8 @@
         <v>41926</v>
       </c>
       <c r="B51" s="2">
-        <f>5000/1.9</f>
-        <v>2631.5789473684213</v>
+        <f>8800/2</f>
+        <v>4400</v>
       </c>
       <c r="C51" s="1">
         <v>2211190</v>
@@ -9074,8 +9074,8 @@
         <v>41962</v>
       </c>
       <c r="B65" s="2">
-        <f>5000/1.9</f>
-        <v>2631.5789473684213</v>
+        <f>8617/2</f>
+        <v>4308.5</v>
       </c>
       <c r="C65" s="1">
         <v>2210090</v>
@@ -9239,8 +9239,8 @@
         <v>41982</v>
       </c>
       <c r="B70" s="2">
-        <f>7100/1.9</f>
-        <v>3736.8421052631579</v>
+        <f>8617/2</f>
+        <v>4308.5</v>
       </c>
       <c r="C70" s="1">
         <v>1643500</v>
